--- a/DaySale_2025-09-30_00-00.xlsx
+++ b/DaySale_2025-09-30_00-00.xlsx
@@ -44,7 +44,49 @@
     <t>عدد التعااملات</t>
   </si>
   <si>
-    <t>Tuesday, 30 September, 2025 9:21 AM</t>
+    <t>BOBAI SUNSCREEN TINTED CREAM SPF 80 - 60 GM</t>
+  </si>
+  <si>
+    <t>0:0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>195.00</t>
+  </si>
+  <si>
+    <t>195.0000</t>
+  </si>
+  <si>
+    <t>1:0</t>
+  </si>
+  <si>
+    <t>KADEE 4000 CAPS</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>180.00</t>
+  </si>
+  <si>
+    <t>180.0000</t>
+  </si>
+  <si>
+    <t>VONSECA 20MG 14 TAB</t>
+  </si>
+  <si>
+    <t>0:1</t>
+  </si>
+  <si>
+    <t>140.00</t>
+  </si>
+  <si>
+    <t>140.0000</t>
+  </si>
+  <si>
+    <t>Tuesday, 30 September, 2025 9:27 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -254,10 +296,10 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1" readingOrder="2"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="165" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -266,7 +308,7 @@
     <xf numFmtId="2" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1" readingOrder="2"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="166" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -674,56 +716,136 @@
     </row>
     <row r="7" ht="25.5" customHeight="1">
       <c r="A7" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B7" s="7"/>
-      <c r="C7" s="8"/>
+      <c t="s" r="C7" s="8">
+        <v>11</v>
+      </c>
       <c r="D7" s="8"/>
       <c r="E7" s="8"/>
       <c r="F7" s="8"/>
       <c r="G7" s="8"/>
-      <c r="H7" s="9"/>
+      <c t="s" r="H7" s="9">
+        <v>12</v>
+      </c>
       <c r="I7" s="9"/>
       <c r="J7" s="9"/>
       <c r="K7" s="9"/>
-      <c r="L7" s="10"/>
+      <c t="s" r="L7" s="10">
+        <v>13</v>
+      </c>
       <c r="M7" s="10"/>
-      <c r="N7" s="8"/>
+      <c t="s" r="N7" s="8">
+        <v>14</v>
+      </c>
       <c r="O7" s="8"/>
-      <c r="P7" s="11"/>
-      <c r="Q7" s="12"/>
+      <c t="s" r="P7" s="11">
+        <v>15</v>
+      </c>
+      <c t="s" r="Q7" s="12">
+        <v>16</v>
+      </c>
     </row>
     <row r="8" ht="24.75" customHeight="1">
-      <c r="P8" s="13"/>
-      <c r="Q8" s="13"/>
+      <c r="A8" s="7">
+        <v>2</v>
+      </c>
+      <c r="B8" s="7"/>
+      <c t="s" r="C8" s="8">
+        <v>17</v>
+      </c>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c t="s" r="H8" s="9">
+        <v>12</v>
+      </c>
+      <c r="I8" s="9"/>
+      <c r="J8" s="9"/>
+      <c r="K8" s="9"/>
+      <c t="s" r="L8" s="10">
+        <v>18</v>
+      </c>
+      <c r="M8" s="10"/>
+      <c t="s" r="N8" s="8">
+        <v>19</v>
+      </c>
+      <c r="O8" s="8"/>
+      <c t="s" r="P8" s="11">
+        <v>20</v>
+      </c>
+      <c t="s" r="Q8" s="12">
+        <v>16</v>
+      </c>
     </row>
-    <row r="9" ht="16.5" customHeight="1">
-      <c t="s" r="A9" s="14">
-        <v>11</v>
-      </c>
-      <c r="B9" s="14"/>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
-      <c t="s" r="G9" s="15">
-        <v>12</v>
-      </c>
-      <c r="H9" s="15"/>
-      <c r="I9" s="15"/>
-      <c r="J9" s="16"/>
-      <c t="s" r="K9" s="17">
+    <row r="9" ht="25.5" customHeight="1">
+      <c r="A9" s="7">
+        <v>3</v>
+      </c>
+      <c r="B9" s="7"/>
+      <c t="s" r="C9" s="8">
+        <v>21</v>
+      </c>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c t="s" r="H9" s="9">
+        <v>22</v>
+      </c>
+      <c r="I9" s="9"/>
+      <c r="J9" s="9"/>
+      <c r="K9" s="9"/>
+      <c t="s" r="L9" s="10">
         <v>13</v>
       </c>
-      <c r="L9" s="17"/>
-      <c r="M9" s="17"/>
-      <c r="N9" s="17"/>
-      <c r="O9" s="17"/>
-      <c r="P9" s="17"/>
-      <c r="Q9" s="17"/>
+      <c r="M9" s="10"/>
+      <c t="s" r="N9" s="8">
+        <v>23</v>
+      </c>
+      <c r="O9" s="8"/>
+      <c t="s" r="P9" s="11">
+        <v>24</v>
+      </c>
+      <c t="s" r="Q9" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" ht="24.75" customHeight="1">
+      <c r="P10" s="13">
+        <v>515</v>
+      </c>
+      <c r="Q10" s="13"/>
+    </row>
+    <row r="11" ht="16.5" customHeight="1">
+      <c t="s" r="A11" s="14">
+        <v>25</v>
+      </c>
+      <c r="B11" s="14"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="14"/>
+      <c r="F11" s="14"/>
+      <c t="s" r="G11" s="15">
+        <v>26</v>
+      </c>
+      <c r="H11" s="15"/>
+      <c r="I11" s="15"/>
+      <c r="J11" s="16"/>
+      <c t="s" r="K11" s="17">
+        <v>27</v>
+      </c>
+      <c r="L11" s="17"/>
+      <c r="M11" s="17"/>
+      <c r="N11" s="17"/>
+      <c r="O11" s="17"/>
+      <c r="P11" s="17"/>
+      <c r="Q11" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="17">
+  <mergeCells count="27">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -737,10 +859,20 @@
     <mergeCell ref="H7:K7"/>
     <mergeCell ref="L7:M7"/>
     <mergeCell ref="N7:O7"/>
-    <mergeCell ref="P8:Q8"/>
-    <mergeCell ref="A9:F9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="K9:Q9"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="H8:K8"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="N8:O8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C9:G9"/>
+    <mergeCell ref="H9:K9"/>
+    <mergeCell ref="L9:M9"/>
+    <mergeCell ref="N9:O9"/>
+    <mergeCell ref="P10:Q10"/>
+    <mergeCell ref="A11:F11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="K11:Q11"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-30_00-00.xlsx
+++ b/DaySale_2025-09-30_00-00.xlsx
@@ -86,7 +86,7 @@
     <t>140.0000</t>
   </si>
   <si>
-    <t>Tuesday, 30 September, 2025 9:27 AM</t>
+    <t>Tuesday, 30 September, 2025 9:28 AM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-09-30_00-00.xlsx
+++ b/DaySale_2025-09-30_00-00.xlsx
@@ -62,6 +62,18 @@
     <t>1:0</t>
   </si>
   <si>
+    <t>DICLAC 150 ID 20 PROLONGED R TABS</t>
+  </si>
+  <si>
+    <t>132.00</t>
+  </si>
+  <si>
+    <t>66.0000</t>
+  </si>
+  <si>
+    <t>0:1</t>
+  </si>
+  <si>
     <t>KADEE 4000 CAPS</t>
   </si>
   <si>
@@ -77,16 +89,13 @@
     <t>VONSECA 20MG 14 TAB</t>
   </si>
   <si>
-    <t>0:1</t>
-  </si>
-  <si>
     <t>140.00</t>
   </si>
   <si>
     <t>140.0000</t>
   </si>
   <si>
-    <t>Tuesday, 30 September, 2025 9:28 AM</t>
+    <t>Tuesday, 30 September, 2025 9:32 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -760,24 +769,24 @@
       <c r="F8" s="8"/>
       <c r="G8" s="8"/>
       <c t="s" r="H8" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I8" s="9"/>
       <c r="J8" s="9"/>
       <c r="K8" s="9"/>
       <c t="s" r="L8" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M8" s="10"/>
       <c t="s" r="N8" s="8">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="O8" s="8"/>
       <c t="s" r="P8" s="11">
+        <v>19</v>
+      </c>
+      <c t="s" r="Q8" s="12">
         <v>20</v>
-      </c>
-      <c t="s" r="Q8" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="9" ht="25.5" customHeight="1">
@@ -793,13 +802,13 @@
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
       <c r="K9" s="9"/>
       <c t="s" r="L9" s="10">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
@@ -814,38 +823,71 @@
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
-      <c r="P10" s="13">
-        <v>515</v>
-      </c>
-      <c r="Q10" s="13"/>
+      <c r="A10" s="7">
+        <v>4</v>
+      </c>
+      <c r="B10" s="7"/>
+      <c t="s" r="C10" s="8">
+        <v>25</v>
+      </c>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c t="s" r="H10" s="9">
+        <v>20</v>
+      </c>
+      <c r="I10" s="9"/>
+      <c r="J10" s="9"/>
+      <c r="K10" s="9"/>
+      <c t="s" r="L10" s="10">
+        <v>13</v>
+      </c>
+      <c r="M10" s="10"/>
+      <c t="s" r="N10" s="8">
+        <v>26</v>
+      </c>
+      <c r="O10" s="8"/>
+      <c t="s" r="P10" s="11">
+        <v>27</v>
+      </c>
+      <c t="s" r="Q10" s="12">
+        <v>16</v>
+      </c>
     </row>
-    <row r="11" ht="16.5" customHeight="1">
-      <c t="s" r="A11" s="14">
-        <v>25</v>
-      </c>
-      <c r="B11" s="14"/>
-      <c r="C11" s="14"/>
-      <c r="D11" s="14"/>
-      <c r="E11" s="14"/>
-      <c r="F11" s="14"/>
-      <c t="s" r="G11" s="15">
-        <v>26</v>
-      </c>
-      <c r="H11" s="15"/>
-      <c r="I11" s="15"/>
-      <c r="J11" s="16"/>
-      <c t="s" r="K11" s="17">
-        <v>27</v>
-      </c>
-      <c r="L11" s="17"/>
-      <c r="M11" s="17"/>
-      <c r="N11" s="17"/>
-      <c r="O11" s="17"/>
-      <c r="P11" s="17"/>
-      <c r="Q11" s="17"/>
+    <row r="11" ht="25.5" customHeight="1">
+      <c r="P11" s="13">
+        <v>581</v>
+      </c>
+      <c r="Q11" s="13"/>
+    </row>
+    <row r="12" ht="16.5" customHeight="1">
+      <c t="s" r="A12" s="14">
+        <v>28</v>
+      </c>
+      <c r="B12" s="14"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="14"/>
+      <c t="s" r="G12" s="15">
+        <v>29</v>
+      </c>
+      <c r="H12" s="15"/>
+      <c r="I12" s="15"/>
+      <c r="J12" s="16"/>
+      <c t="s" r="K12" s="17">
+        <v>30</v>
+      </c>
+      <c r="L12" s="17"/>
+      <c r="M12" s="17"/>
+      <c r="N12" s="17"/>
+      <c r="O12" s="17"/>
+      <c r="P12" s="17"/>
+      <c r="Q12" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="27">
+  <mergeCells count="32">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -869,10 +911,15 @@
     <mergeCell ref="H9:K9"/>
     <mergeCell ref="L9:M9"/>
     <mergeCell ref="N9:O9"/>
-    <mergeCell ref="P10:Q10"/>
-    <mergeCell ref="A11:F11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="K11:Q11"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="C10:G10"/>
+    <mergeCell ref="H10:K10"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="N10:O10"/>
+    <mergeCell ref="P11:Q11"/>
+    <mergeCell ref="A12:F12"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="K12:Q12"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-30_00-00.xlsx
+++ b/DaySale_2025-09-30_00-00.xlsx
@@ -95,7 +95,7 @@
     <t>140.0000</t>
   </si>
   <si>
-    <t>Tuesday, 30 September, 2025 9:32 AM</t>
+    <t>Tuesday, 30 September, 2025 9:34 AM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-09-30_00-00.xlsx
+++ b/DaySale_2025-09-30_00-00.xlsx
@@ -44,15 +44,30 @@
     <t>عدد التعااملات</t>
   </si>
   <si>
+    <t>ATENO 50MG 20 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>2:1</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>12.00</t>
+  </si>
+  <si>
+    <t>6.0000</t>
+  </si>
+  <si>
+    <t>0:1</t>
+  </si>
+  <si>
     <t>BOBAI SUNSCREEN TINTED CREAM SPF 80 - 60 GM</t>
   </si>
   <si>
     <t>0:0</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
     <t>195.00</t>
   </si>
   <si>
@@ -69,9 +84,6 @@
   </si>
   <si>
     <t>66.0000</t>
-  </si>
-  <si>
-    <t>0:1</t>
   </si>
   <si>
     <t>KADEE 4000 CAPS</t>
@@ -769,7 +781,7 @@
       <c r="F8" s="8"/>
       <c r="G8" s="8"/>
       <c t="s" r="H8" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I8" s="9"/>
       <c r="J8" s="9"/>
@@ -779,14 +791,14 @@
       </c>
       <c r="M8" s="10"/>
       <c t="s" r="N8" s="8">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="O8" s="8"/>
       <c t="s" r="P8" s="11">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q8" s="12">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" ht="25.5" customHeight="1">
@@ -795,20 +807,20 @@
       </c>
       <c r="B9" s="7"/>
       <c t="s" r="C9" s="8">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
       <c r="K9" s="9"/>
       <c t="s" r="L9" s="10">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
@@ -835,59 +847,92 @@
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
       <c r="K10" s="9"/>
       <c t="s" r="L10" s="10">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c t="s" r="Q10" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" ht="25.5" customHeight="1">
+      <c r="A11" s="7">
+        <v>5</v>
+      </c>
+      <c r="B11" s="7"/>
+      <c t="s" r="C11" s="8">
+        <v>29</v>
+      </c>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c t="s" r="H11" s="9">
         <v>16</v>
       </c>
-    </row>
-    <row r="11" ht="25.5" customHeight="1">
-      <c r="P11" s="13">
-        <v>581</v>
-      </c>
-      <c r="Q11" s="13"/>
-    </row>
-    <row r="12" ht="16.5" customHeight="1">
-      <c t="s" r="A12" s="14">
-        <v>28</v>
-      </c>
-      <c r="B12" s="14"/>
-      <c r="C12" s="14"/>
-      <c r="D12" s="14"/>
-      <c r="E12" s="14"/>
-      <c r="F12" s="14"/>
-      <c t="s" r="G12" s="15">
-        <v>29</v>
-      </c>
-      <c r="H12" s="15"/>
-      <c r="I12" s="15"/>
-      <c r="J12" s="16"/>
-      <c t="s" r="K12" s="17">
+      <c r="I11" s="9"/>
+      <c r="J11" s="9"/>
+      <c r="K11" s="9"/>
+      <c t="s" r="L11" s="10">
+        <v>13</v>
+      </c>
+      <c r="M11" s="10"/>
+      <c t="s" r="N11" s="8">
         <v>30</v>
       </c>
-      <c r="L12" s="17"/>
-      <c r="M12" s="17"/>
-      <c r="N12" s="17"/>
-      <c r="O12" s="17"/>
-      <c r="P12" s="17"/>
-      <c r="Q12" s="17"/>
+      <c r="O11" s="8"/>
+      <c t="s" r="P11" s="11">
+        <v>31</v>
+      </c>
+      <c t="s" r="Q11" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" ht="25.5" customHeight="1">
+      <c r="P12" s="13">
+        <v>587</v>
+      </c>
+      <c r="Q12" s="13"/>
+    </row>
+    <row r="13" ht="16.5" customHeight="1">
+      <c t="s" r="A13" s="14">
+        <v>32</v>
+      </c>
+      <c r="B13" s="14"/>
+      <c r="C13" s="14"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="14"/>
+      <c t="s" r="G13" s="15">
+        <v>33</v>
+      </c>
+      <c r="H13" s="15"/>
+      <c r="I13" s="15"/>
+      <c r="J13" s="16"/>
+      <c t="s" r="K13" s="17">
+        <v>34</v>
+      </c>
+      <c r="L13" s="17"/>
+      <c r="M13" s="17"/>
+      <c r="N13" s="17"/>
+      <c r="O13" s="17"/>
+      <c r="P13" s="17"/>
+      <c r="Q13" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="32">
+  <mergeCells count="37">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -916,10 +961,15 @@
     <mergeCell ref="H10:K10"/>
     <mergeCell ref="L10:M10"/>
     <mergeCell ref="N10:O10"/>
-    <mergeCell ref="P11:Q11"/>
-    <mergeCell ref="A12:F12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="K12:Q12"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:G11"/>
+    <mergeCell ref="H11:K11"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="N11:O11"/>
+    <mergeCell ref="P12:Q12"/>
+    <mergeCell ref="A13:F13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="K13:Q13"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-30_00-00.xlsx
+++ b/DaySale_2025-09-30_00-00.xlsx
@@ -107,7 +107,7 @@
     <t>140.0000</t>
   </si>
   <si>
-    <t>Tuesday, 30 September, 2025 9:34 AM</t>
+    <t>Tuesday, 30 September, 2025 10:02 AM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-09-30_00-00.xlsx
+++ b/DaySale_2025-09-30_00-00.xlsx
@@ -98,6 +98,18 @@
     <t>180.0000</t>
   </si>
   <si>
+    <t>VOLTAREN 75MG/3ML 6 AMP.</t>
+  </si>
+  <si>
+    <t>1:6</t>
+  </si>
+  <si>
+    <t>102.00</t>
+  </si>
+  <si>
+    <t>16.3200</t>
+  </si>
+  <si>
     <t>VONSECA 20MG 14 TAB</t>
   </si>
   <si>
@@ -105,6 +117,15 @@
   </si>
   <si>
     <t>140.0000</t>
+  </si>
+  <si>
+    <t>سرنجات 3 سم</t>
+  </si>
+  <si>
+    <t>2.00</t>
+  </si>
+  <si>
+    <t>2.0000</t>
   </si>
   <si>
     <t>Tuesday, 30 September, 2025 10:02 AM</t>
@@ -880,7 +901,7 @@
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -890,49 +911,115 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c t="s" r="Q11" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" ht="25.5" customHeight="1">
+      <c r="A12" s="7">
+        <v>6</v>
+      </c>
+      <c r="B12" s="7"/>
+      <c t="s" r="C12" s="8">
+        <v>33</v>
+      </c>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c t="s" r="H12" s="9">
+        <v>16</v>
+      </c>
+      <c r="I12" s="9"/>
+      <c r="J12" s="9"/>
+      <c r="K12" s="9"/>
+      <c t="s" r="L12" s="10">
+        <v>13</v>
+      </c>
+      <c r="M12" s="10"/>
+      <c t="s" r="N12" s="8">
+        <v>34</v>
+      </c>
+      <c r="O12" s="8"/>
+      <c t="s" r="P12" s="11">
+        <v>35</v>
+      </c>
+      <c t="s" r="Q12" s="12">
         <v>21</v>
       </c>
     </row>
-    <row r="12" ht="25.5" customHeight="1">
-      <c r="P12" s="13">
-        <v>587</v>
-      </c>
-      <c r="Q12" s="13"/>
-    </row>
-    <row r="13" ht="16.5" customHeight="1">
-      <c t="s" r="A13" s="14">
-        <v>32</v>
-      </c>
-      <c r="B13" s="14"/>
-      <c r="C13" s="14"/>
-      <c r="D13" s="14"/>
-      <c r="E13" s="14"/>
-      <c r="F13" s="14"/>
-      <c t="s" r="G13" s="15">
-        <v>33</v>
-      </c>
-      <c r="H13" s="15"/>
-      <c r="I13" s="15"/>
-      <c r="J13" s="16"/>
-      <c t="s" r="K13" s="17">
-        <v>34</v>
-      </c>
-      <c r="L13" s="17"/>
-      <c r="M13" s="17"/>
-      <c r="N13" s="17"/>
-      <c r="O13" s="17"/>
-      <c r="P13" s="17"/>
-      <c r="Q13" s="17"/>
+    <row r="13" ht="24.75" customHeight="1">
+      <c r="A13" s="7">
+        <v>7</v>
+      </c>
+      <c r="B13" s="7"/>
+      <c t="s" r="C13" s="8">
+        <v>36</v>
+      </c>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c t="s" r="H13" s="9">
+        <v>18</v>
+      </c>
+      <c r="I13" s="9"/>
+      <c r="J13" s="9"/>
+      <c r="K13" s="9"/>
+      <c t="s" r="L13" s="10">
+        <v>26</v>
+      </c>
+      <c r="M13" s="10"/>
+      <c t="s" r="N13" s="8">
+        <v>37</v>
+      </c>
+      <c r="O13" s="8"/>
+      <c t="s" r="P13" s="11">
+        <v>38</v>
+      </c>
+      <c t="s" r="Q13" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" ht="25.5" customHeight="1">
+      <c r="P14" s="13">
+        <v>605.32000000000005</v>
+      </c>
+      <c r="Q14" s="13"/>
+    </row>
+    <row r="15" ht="16.5" customHeight="1">
+      <c t="s" r="A15" s="14">
+        <v>39</v>
+      </c>
+      <c r="B15" s="14"/>
+      <c r="C15" s="14"/>
+      <c r="D15" s="14"/>
+      <c r="E15" s="14"/>
+      <c r="F15" s="14"/>
+      <c t="s" r="G15" s="15">
+        <v>40</v>
+      </c>
+      <c r="H15" s="15"/>
+      <c r="I15" s="15"/>
+      <c r="J15" s="16"/>
+      <c t="s" r="K15" s="17">
+        <v>41</v>
+      </c>
+      <c r="L15" s="17"/>
+      <c r="M15" s="17"/>
+      <c r="N15" s="17"/>
+      <c r="O15" s="17"/>
+      <c r="P15" s="17"/>
+      <c r="Q15" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="37">
+  <mergeCells count="47">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -966,10 +1053,20 @@
     <mergeCell ref="H11:K11"/>
     <mergeCell ref="L11:M11"/>
     <mergeCell ref="N11:O11"/>
-    <mergeCell ref="P12:Q12"/>
-    <mergeCell ref="A13:F13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="K13:Q13"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:G12"/>
+    <mergeCell ref="H12:K12"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="N12:O12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="C13:G13"/>
+    <mergeCell ref="H13:K13"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="N13:O13"/>
+    <mergeCell ref="P14:Q14"/>
+    <mergeCell ref="A15:F15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="K15:Q15"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-30_00-00.xlsx
+++ b/DaySale_2025-09-30_00-00.xlsx
@@ -128,7 +128,7 @@
     <t>2.0000</t>
   </si>
   <si>
-    <t>Tuesday, 30 September, 2025 10:02 AM</t>
+    <t>Tuesday, 30 September, 2025 10:03 AM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-09-30_00-00.xlsx
+++ b/DaySale_2025-09-30_00-00.xlsx
@@ -44,24 +44,36 @@
     <t>عدد التعااملات</t>
   </si>
   <si>
+    <t>AMBEZIM-G 30 F.C. TABS.</t>
+  </si>
+  <si>
+    <t>3:1</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>102.00</t>
+  </si>
+  <si>
+    <t>33.6600</t>
+  </si>
+  <si>
+    <t>0:1</t>
+  </si>
+  <si>
     <t>ATENO 50MG 20 F.C.TAB.</t>
   </si>
   <si>
     <t>2:1</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
     <t>12.00</t>
   </si>
   <si>
     <t>6.0000</t>
   </si>
   <si>
-    <t>0:1</t>
-  </si>
-  <si>
     <t>BOBAI SUNSCREEN TINTED CREAM SPF 80 - 60 GM</t>
   </si>
   <si>
@@ -104,9 +116,6 @@
     <t>1:6</t>
   </si>
   <si>
-    <t>102.00</t>
-  </si>
-  <si>
     <t>16.3200</t>
   </si>
   <si>
@@ -128,7 +137,7 @@
     <t>2.0000</t>
   </si>
   <si>
-    <t>Tuesday, 30 September, 2025 10:03 AM</t>
+    <t>Tuesday, 30 September, 2025 10:09 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -819,7 +828,7 @@
         <v>20</v>
       </c>
       <c t="s" r="Q8" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" ht="25.5" customHeight="1">
@@ -828,14 +837,14 @@
       </c>
       <c r="B9" s="7"/>
       <c t="s" r="C9" s="8">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
@@ -852,7 +861,7 @@
         <v>24</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -861,20 +870,20 @@
       </c>
       <c r="B10" s="7"/>
       <c t="s" r="C10" s="8">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
       <c r="K10" s="9"/>
       <c t="s" r="L10" s="10">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
@@ -885,7 +894,7 @@
         <v>28</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -901,13 +910,13 @@
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
       <c r="K11" s="9"/>
       <c t="s" r="L11" s="10">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
@@ -918,7 +927,7 @@
         <v>32</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -934,7 +943,7 @@
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -944,14 +953,14 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>34</v>
+        <v>14</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
         <v>35</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -967,13 +976,13 @@
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
       <c r="K13" s="9"/>
       <c t="s" r="L13" s="10">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
@@ -984,42 +993,75 @@
         <v>38</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
-      <c r="P14" s="13">
-        <v>605.32000000000005</v>
-      </c>
-      <c r="Q14" s="13"/>
-    </row>
-    <row r="15" ht="16.5" customHeight="1">
-      <c t="s" r="A15" s="14">
+      <c r="A14" s="7">
+        <v>8</v>
+      </c>
+      <c r="B14" s="7"/>
+      <c t="s" r="C14" s="8">
         <v>39</v>
       </c>
-      <c r="B15" s="14"/>
-      <c r="C15" s="14"/>
-      <c r="D15" s="14"/>
-      <c r="E15" s="14"/>
-      <c r="F15" s="14"/>
-      <c t="s" r="G15" s="15">
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c t="s" r="H14" s="9">
+        <v>22</v>
+      </c>
+      <c r="I14" s="9"/>
+      <c r="J14" s="9"/>
+      <c r="K14" s="9"/>
+      <c t="s" r="L14" s="10">
+        <v>30</v>
+      </c>
+      <c r="M14" s="10"/>
+      <c t="s" r="N14" s="8">
         <v>40</v>
       </c>
-      <c r="H15" s="15"/>
-      <c r="I15" s="15"/>
-      <c r="J15" s="16"/>
-      <c t="s" r="K15" s="17">
+      <c r="O14" s="8"/>
+      <c t="s" r="P14" s="11">
         <v>41</v>
       </c>
-      <c r="L15" s="17"/>
-      <c r="M15" s="17"/>
-      <c r="N15" s="17"/>
-      <c r="O15" s="17"/>
-      <c r="P15" s="17"/>
-      <c r="Q15" s="17"/>
+      <c t="s" r="Q14" s="12">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" ht="24.75" customHeight="1">
+      <c r="P15" s="13">
+        <v>638.98000000000002</v>
+      </c>
+      <c r="Q15" s="13"/>
+    </row>
+    <row r="16" ht="16.5" customHeight="1">
+      <c t="s" r="A16" s="14">
+        <v>42</v>
+      </c>
+      <c r="B16" s="14"/>
+      <c r="C16" s="14"/>
+      <c r="D16" s="14"/>
+      <c r="E16" s="14"/>
+      <c r="F16" s="14"/>
+      <c t="s" r="G16" s="15">
+        <v>43</v>
+      </c>
+      <c r="H16" s="15"/>
+      <c r="I16" s="15"/>
+      <c r="J16" s="16"/>
+      <c t="s" r="K16" s="17">
+        <v>44</v>
+      </c>
+      <c r="L16" s="17"/>
+      <c r="M16" s="17"/>
+      <c r="N16" s="17"/>
+      <c r="O16" s="17"/>
+      <c r="P16" s="17"/>
+      <c r="Q16" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="47">
+  <mergeCells count="52">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1063,10 +1105,15 @@
     <mergeCell ref="H13:K13"/>
     <mergeCell ref="L13:M13"/>
     <mergeCell ref="N13:O13"/>
-    <mergeCell ref="P14:Q14"/>
-    <mergeCell ref="A15:F15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="K15:Q15"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="C14:G14"/>
+    <mergeCell ref="H14:K14"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="N14:O14"/>
+    <mergeCell ref="P15:Q15"/>
+    <mergeCell ref="A16:F16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="K16:Q16"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-30_00-00.xlsx
+++ b/DaySale_2025-09-30_00-00.xlsx
@@ -137,7 +137,7 @@
     <t>2.0000</t>
   </si>
   <si>
-    <t>Tuesday, 30 September, 2025 10:09 AM</t>
+    <t>Tuesday, 30 September, 2025 10:10 AM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-09-30_00-00.xlsx
+++ b/DaySale_2025-09-30_00-00.xlsx
@@ -98,6 +98,15 @@
     <t>66.0000</t>
   </si>
   <si>
+    <t>HEMOCLAR 0.5% CREAM 40 GM</t>
+  </si>
+  <si>
+    <t>46.00</t>
+  </si>
+  <si>
+    <t>46.0000</t>
+  </si>
+  <si>
     <t>KADEE 4000 CAPS</t>
   </si>
   <si>
@@ -137,7 +146,7 @@
     <t>2.0000</t>
   </si>
   <si>
-    <t>Tuesday, 30 September, 2025 10:10 AM</t>
+    <t>Tuesday, 30 September, 2025 10:32 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -916,15 +925,15 @@
       <c r="J11" s="9"/>
       <c r="K11" s="9"/>
       <c t="s" r="L11" s="10">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c t="s" r="Q11" s="12">
         <v>25</v>
@@ -936,31 +945,31 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
       <c r="K12" s="9"/>
       <c t="s" r="L12" s="10">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
         <v>35</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -976,7 +985,7 @@
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -986,14 +995,14 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>37</v>
+        <v>14</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
         <v>38</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1009,13 +1018,13 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
       <c r="K14" s="9"/>
       <c t="s" r="L14" s="10">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
@@ -1030,38 +1039,71 @@
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
-      <c r="P15" s="13">
-        <v>638.98000000000002</v>
-      </c>
-      <c r="Q15" s="13"/>
-    </row>
-    <row r="16" ht="16.5" customHeight="1">
-      <c t="s" r="A16" s="14">
+      <c r="A15" s="7">
+        <v>9</v>
+      </c>
+      <c r="B15" s="7"/>
+      <c t="s" r="C15" s="8">
         <v>42</v>
       </c>
-      <c r="B16" s="14"/>
-      <c r="C16" s="14"/>
-      <c r="D16" s="14"/>
-      <c r="E16" s="14"/>
-      <c r="F16" s="14"/>
-      <c t="s" r="G16" s="15">
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c t="s" r="H15" s="9">
+        <v>22</v>
+      </c>
+      <c r="I15" s="9"/>
+      <c r="J15" s="9"/>
+      <c r="K15" s="9"/>
+      <c t="s" r="L15" s="10">
+        <v>33</v>
+      </c>
+      <c r="M15" s="10"/>
+      <c t="s" r="N15" s="8">
         <v>43</v>
       </c>
-      <c r="H16" s="15"/>
-      <c r="I16" s="15"/>
-      <c r="J16" s="16"/>
-      <c t="s" r="K16" s="17">
+      <c r="O15" s="8"/>
+      <c t="s" r="P15" s="11">
         <v>44</v>
       </c>
-      <c r="L16" s="17"/>
-      <c r="M16" s="17"/>
-      <c r="N16" s="17"/>
-      <c r="O16" s="17"/>
-      <c r="P16" s="17"/>
-      <c r="Q16" s="17"/>
+      <c t="s" r="Q15" s="12">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16" ht="25.5" customHeight="1">
+      <c r="P16" s="13">
+        <v>684.98000000000002</v>
+      </c>
+      <c r="Q16" s="13"/>
+    </row>
+    <row r="17" ht="16.5" customHeight="1">
+      <c t="s" r="A17" s="14">
+        <v>45</v>
+      </c>
+      <c r="B17" s="14"/>
+      <c r="C17" s="14"/>
+      <c r="D17" s="14"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="14"/>
+      <c t="s" r="G17" s="15">
+        <v>46</v>
+      </c>
+      <c r="H17" s="15"/>
+      <c r="I17" s="15"/>
+      <c r="J17" s="16"/>
+      <c t="s" r="K17" s="17">
+        <v>47</v>
+      </c>
+      <c r="L17" s="17"/>
+      <c r="M17" s="17"/>
+      <c r="N17" s="17"/>
+      <c r="O17" s="17"/>
+      <c r="P17" s="17"/>
+      <c r="Q17" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="52">
+  <mergeCells count="57">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1110,10 +1152,15 @@
     <mergeCell ref="H14:K14"/>
     <mergeCell ref="L14:M14"/>
     <mergeCell ref="N14:O14"/>
-    <mergeCell ref="P15:Q15"/>
-    <mergeCell ref="A16:F16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="K16:Q16"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="C15:G15"/>
+    <mergeCell ref="H15:K15"/>
+    <mergeCell ref="L15:M15"/>
+    <mergeCell ref="N15:O15"/>
+    <mergeCell ref="P16:Q16"/>
+    <mergeCell ref="A17:F17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="K17:Q17"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-30_00-00.xlsx
+++ b/DaySale_2025-09-30_00-00.xlsx
@@ -146,7 +146,7 @@
     <t>2.0000</t>
   </si>
   <si>
-    <t>Tuesday, 30 September, 2025 10:32 AM</t>
+    <t>Tuesday, 30 September, 2025 10:48 AM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-09-30_00-00.xlsx
+++ b/DaySale_2025-09-30_00-00.xlsx
@@ -98,6 +98,33 @@
     <t>66.0000</t>
   </si>
   <si>
+    <t>EPICOPRED 5 MG 30 ORODISPERSIBLE TABS.</t>
+  </si>
+  <si>
+    <t>8:1</t>
+  </si>
+  <si>
+    <t>69.00</t>
+  </si>
+  <si>
+    <t>45.5400</t>
+  </si>
+  <si>
+    <t>0:2</t>
+  </si>
+  <si>
+    <t>FORBUDES 400/12MCG 60 INHALATION CAPS.+INHALER</t>
+  </si>
+  <si>
+    <t>1:4</t>
+  </si>
+  <si>
+    <t>334.00</t>
+  </si>
+  <si>
+    <t>53.4400</t>
+  </si>
+  <si>
     <t>HEMOCLAR 0.5% CREAM 40 GM</t>
   </si>
   <si>
@@ -146,7 +173,7 @@
     <t>2.0000</t>
   </si>
   <si>
-    <t>Tuesday, 30 September, 2025 10:48 AM</t>
+    <t>Tuesday, 30 September, 2025 10:49 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -919,7 +946,7 @@
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -929,14 +956,14 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>25</v>
+        <v>33</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -945,31 +972,31 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
       <c r="K12" s="9"/>
       <c t="s" r="L12" s="10">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -978,14 +1005,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -995,14 +1022,14 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>14</v>
+        <v>39</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1011,28 +1038,28 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
       <c r="K14" s="9"/>
       <c t="s" r="L14" s="10">
-        <v>13</v>
+        <v>42</v>
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c t="s" r="Q14" s="12">
         <v>25</v>
@@ -1044,66 +1071,132 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>22</v>
+        <v>46</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
       <c r="K15" s="9"/>
       <c t="s" r="L15" s="10">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>43</v>
+        <v>14</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c t="s" r="Q15" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" ht="25.5" customHeight="1">
+      <c r="A16" s="7">
+        <v>10</v>
+      </c>
+      <c r="B16" s="7"/>
+      <c t="s" r="C16" s="8">
+        <v>48</v>
+      </c>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+      <c t="s" r="H16" s="9">
+        <v>16</v>
+      </c>
+      <c r="I16" s="9"/>
+      <c r="J16" s="9"/>
+      <c r="K16" s="9"/>
+      <c t="s" r="L16" s="10">
+        <v>13</v>
+      </c>
+      <c r="M16" s="10"/>
+      <c t="s" r="N16" s="8">
+        <v>49</v>
+      </c>
+      <c r="O16" s="8"/>
+      <c t="s" r="P16" s="11">
+        <v>50</v>
+      </c>
+      <c t="s" r="Q16" s="12">
         <v>25</v>
       </c>
     </row>
-    <row r="16" ht="25.5" customHeight="1">
-      <c r="P16" s="13">
-        <v>684.98000000000002</v>
-      </c>
-      <c r="Q16" s="13"/>
-    </row>
-    <row r="17" ht="16.5" customHeight="1">
-      <c t="s" r="A17" s="14">
-        <v>45</v>
-      </c>
-      <c r="B17" s="14"/>
-      <c r="C17" s="14"/>
-      <c r="D17" s="14"/>
-      <c r="E17" s="14"/>
-      <c r="F17" s="14"/>
-      <c t="s" r="G17" s="15">
-        <v>46</v>
-      </c>
-      <c r="H17" s="15"/>
-      <c r="I17" s="15"/>
-      <c r="J17" s="16"/>
-      <c t="s" r="K17" s="17">
-        <v>47</v>
-      </c>
-      <c r="L17" s="17"/>
-      <c r="M17" s="17"/>
-      <c r="N17" s="17"/>
-      <c r="O17" s="17"/>
-      <c r="P17" s="17"/>
-      <c r="Q17" s="17"/>
+    <row r="17" ht="25.5" customHeight="1">
+      <c r="A17" s="7">
+        <v>11</v>
+      </c>
+      <c r="B17" s="7"/>
+      <c t="s" r="C17" s="8">
+        <v>51</v>
+      </c>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
+      <c t="s" r="H17" s="9">
+        <v>22</v>
+      </c>
+      <c r="I17" s="9"/>
+      <c r="J17" s="9"/>
+      <c r="K17" s="9"/>
+      <c t="s" r="L17" s="10">
+        <v>42</v>
+      </c>
+      <c r="M17" s="10"/>
+      <c t="s" r="N17" s="8">
+        <v>52</v>
+      </c>
+      <c r="O17" s="8"/>
+      <c t="s" r="P17" s="11">
+        <v>53</v>
+      </c>
+      <c t="s" r="Q17" s="12">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="18" ht="24.75" customHeight="1">
+      <c r="P18" s="13">
+        <v>783.96000000000004</v>
+      </c>
+      <c r="Q18" s="13"/>
+    </row>
+    <row r="19" ht="16.5" customHeight="1">
+      <c t="s" r="A19" s="14">
+        <v>54</v>
+      </c>
+      <c r="B19" s="14"/>
+      <c r="C19" s="14"/>
+      <c r="D19" s="14"/>
+      <c r="E19" s="14"/>
+      <c r="F19" s="14"/>
+      <c t="s" r="G19" s="15">
+        <v>55</v>
+      </c>
+      <c r="H19" s="15"/>
+      <c r="I19" s="15"/>
+      <c r="J19" s="16"/>
+      <c t="s" r="K19" s="17">
+        <v>56</v>
+      </c>
+      <c r="L19" s="17"/>
+      <c r="M19" s="17"/>
+      <c r="N19" s="17"/>
+      <c r="O19" s="17"/>
+      <c r="P19" s="17"/>
+      <c r="Q19" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="57">
+  <mergeCells count="67">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1157,10 +1250,20 @@
     <mergeCell ref="H15:K15"/>
     <mergeCell ref="L15:M15"/>
     <mergeCell ref="N15:O15"/>
-    <mergeCell ref="P16:Q16"/>
-    <mergeCell ref="A17:F17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="K17:Q17"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C16:G16"/>
+    <mergeCell ref="H16:K16"/>
+    <mergeCell ref="L16:M16"/>
+    <mergeCell ref="N16:O16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="C17:G17"/>
+    <mergeCell ref="H17:K17"/>
+    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="N17:O17"/>
+    <mergeCell ref="P18:Q18"/>
+    <mergeCell ref="A19:F19"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="K19:Q19"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-30_00-00.xlsx
+++ b/DaySale_2025-09-30_00-00.xlsx
@@ -173,7 +173,7 @@
     <t>2.0000</t>
   </si>
   <si>
-    <t>Tuesday, 30 September, 2025 10:49 AM</t>
+    <t>Tuesday, 30 September, 2025 10:50 AM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-09-30_00-00.xlsx
+++ b/DaySale_2025-09-30_00-00.xlsx
@@ -62,6 +62,18 @@
     <t>0:1</t>
   </si>
   <si>
+    <t>ANTI-COX II 15MG/3ML 6 AMP</t>
+  </si>
+  <si>
+    <t>1:4</t>
+  </si>
+  <si>
+    <t>78.00</t>
+  </si>
+  <si>
+    <t>12.4800</t>
+  </si>
+  <si>
     <t>ATENO 50MG 20 F.C.TAB.</t>
   </si>
   <si>
@@ -116,9 +128,6 @@
     <t>FORBUDES 400/12MCG 60 INHALATION CAPS.+INHALER</t>
   </si>
   <si>
-    <t>1:4</t>
-  </si>
-  <si>
     <t>334.00</t>
   </si>
   <si>
@@ -170,10 +179,13 @@
     <t>2.00</t>
   </si>
   <si>
-    <t>2.0000</t>
-  </si>
-  <si>
-    <t>Tuesday, 30 September, 2025 10:50 AM</t>
+    <t>4.0000</t>
+  </si>
+  <si>
+    <t>2:0</t>
+  </si>
+  <si>
+    <t>Tuesday, 30 September, 2025 11:04 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -897,7 +909,7 @@
         <v>24</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -906,14 +918,14 @@
       </c>
       <c r="B10" s="7"/>
       <c t="s" r="C10" s="8">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -930,7 +942,7 @@
         <v>28</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -939,14 +951,14 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -963,7 +975,7 @@
         <v>32</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -972,14 +984,14 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -989,14 +1001,14 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
+        <v>36</v>
+      </c>
+      <c t="s" r="Q12" s="12">
         <v>37</v>
-      </c>
-      <c t="s" r="Q12" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1012,7 +1024,7 @@
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1029,7 +1041,7 @@
         <v>40</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1045,24 +1057,24 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
       <c r="K14" s="9"/>
       <c t="s" r="L14" s="10">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1071,31 +1083,31 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
       <c r="K15" s="9"/>
       <c t="s" r="L15" s="10">
-        <v>13</v>
+        <v>45</v>
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
         <v>47</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1111,7 +1123,7 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>16</v>
+        <v>49</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1121,14 +1133,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>49</v>
+        <v>14</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
         <v>50</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1144,13 +1156,13 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
       <c r="K17" s="9"/>
       <c t="s" r="L17" s="10">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
@@ -1161,42 +1173,75 @@
         <v>53</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
-      <c r="P18" s="13">
-        <v>783.96000000000004</v>
-      </c>
-      <c r="Q18" s="13"/>
-    </row>
-    <row r="19" ht="16.5" customHeight="1">
-      <c t="s" r="A19" s="14">
+      <c r="A18" s="7">
+        <v>12</v>
+      </c>
+      <c r="B18" s="7"/>
+      <c t="s" r="C18" s="8">
         <v>54</v>
       </c>
-      <c r="B19" s="14"/>
-      <c r="C19" s="14"/>
-      <c r="D19" s="14"/>
-      <c r="E19" s="14"/>
-      <c r="F19" s="14"/>
-      <c t="s" r="G19" s="15">
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+      <c t="s" r="H18" s="9">
+        <v>26</v>
+      </c>
+      <c r="I18" s="9"/>
+      <c r="J18" s="9"/>
+      <c r="K18" s="9"/>
+      <c t="s" r="L18" s="10">
+        <v>45</v>
+      </c>
+      <c r="M18" s="10"/>
+      <c t="s" r="N18" s="8">
         <v>55</v>
       </c>
-      <c r="H19" s="15"/>
-      <c r="I19" s="15"/>
-      <c r="J19" s="16"/>
-      <c t="s" r="K19" s="17">
+      <c r="O18" s="8"/>
+      <c t="s" r="P18" s="11">
         <v>56</v>
       </c>
-      <c r="L19" s="17"/>
-      <c r="M19" s="17"/>
-      <c r="N19" s="17"/>
-      <c r="O19" s="17"/>
-      <c r="P19" s="17"/>
-      <c r="Q19" s="17"/>
+      <c t="s" r="Q18" s="12">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="19" ht="25.5" customHeight="1">
+      <c r="P19" s="13">
+        <v>798.44000000000005</v>
+      </c>
+      <c r="Q19" s="13"/>
+    </row>
+    <row r="20" ht="16.5" customHeight="1">
+      <c t="s" r="A20" s="14">
+        <v>58</v>
+      </c>
+      <c r="B20" s="14"/>
+      <c r="C20" s="14"/>
+      <c r="D20" s="14"/>
+      <c r="E20" s="14"/>
+      <c r="F20" s="14"/>
+      <c t="s" r="G20" s="15">
+        <v>59</v>
+      </c>
+      <c r="H20" s="15"/>
+      <c r="I20" s="15"/>
+      <c r="J20" s="16"/>
+      <c t="s" r="K20" s="17">
+        <v>60</v>
+      </c>
+      <c r="L20" s="17"/>
+      <c r="M20" s="17"/>
+      <c r="N20" s="17"/>
+      <c r="O20" s="17"/>
+      <c r="P20" s="17"/>
+      <c r="Q20" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="67">
+  <mergeCells count="72">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1260,10 +1305,15 @@
     <mergeCell ref="H17:K17"/>
     <mergeCell ref="L17:M17"/>
     <mergeCell ref="N17:O17"/>
-    <mergeCell ref="P18:Q18"/>
-    <mergeCell ref="A19:F19"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="K19:Q19"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:G18"/>
+    <mergeCell ref="H18:K18"/>
+    <mergeCell ref="L18:M18"/>
+    <mergeCell ref="N18:O18"/>
+    <mergeCell ref="P19:Q19"/>
+    <mergeCell ref="A20:F20"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="K20:Q20"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-30_00-00.xlsx
+++ b/DaySale_2025-09-30_00-00.xlsx
@@ -185,7 +185,7 @@
     <t>2:0</t>
   </si>
   <si>
-    <t>Tuesday, 30 September, 2025 11:04 AM</t>
+    <t>Tuesday, 30 September, 2025 11:10 AM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-09-30_00-00.xlsx
+++ b/DaySale_2025-09-30_00-00.xlsx
@@ -185,7 +185,19 @@
     <t>2:0</t>
   </si>
   <si>
-    <t>Tuesday, 30 September, 2025 11:10 AM</t>
+    <t>مبرد قدم</t>
+  </si>
+  <si>
+    <t>5:0</t>
+  </si>
+  <si>
+    <t>15.00</t>
+  </si>
+  <si>
+    <t>15.0000</t>
+  </si>
+  <si>
+    <t>Tuesday, 30 September, 2025 11:12 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1210,38 +1222,71 @@
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
-      <c r="P19" s="13">
-        <v>798.44000000000005</v>
-      </c>
-      <c r="Q19" s="13"/>
-    </row>
-    <row r="20" ht="16.5" customHeight="1">
-      <c t="s" r="A20" s="14">
+      <c r="A19" s="7">
+        <v>13</v>
+      </c>
+      <c r="B19" s="7"/>
+      <c t="s" r="C19" s="8">
         <v>58</v>
       </c>
-      <c r="B20" s="14"/>
-      <c r="C20" s="14"/>
-      <c r="D20" s="14"/>
-      <c r="E20" s="14"/>
-      <c r="F20" s="14"/>
-      <c t="s" r="G20" s="15">
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+      <c t="s" r="H19" s="9">
         <v>59</v>
       </c>
-      <c r="H20" s="15"/>
-      <c r="I20" s="15"/>
-      <c r="J20" s="16"/>
-      <c t="s" r="K20" s="17">
+      <c r="I19" s="9"/>
+      <c r="J19" s="9"/>
+      <c r="K19" s="9"/>
+      <c t="s" r="L19" s="10">
+        <v>45</v>
+      </c>
+      <c r="M19" s="10"/>
+      <c t="s" r="N19" s="8">
         <v>60</v>
       </c>
-      <c r="L20" s="17"/>
-      <c r="M20" s="17"/>
-      <c r="N20" s="17"/>
-      <c r="O20" s="17"/>
-      <c r="P20" s="17"/>
-      <c r="Q20" s="17"/>
+      <c r="O19" s="8"/>
+      <c t="s" r="P19" s="11">
+        <v>61</v>
+      </c>
+      <c t="s" r="Q19" s="12">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="20" ht="24.75" customHeight="1">
+      <c r="P20" s="13">
+        <v>813.44000000000005</v>
+      </c>
+      <c r="Q20" s="13"/>
+    </row>
+    <row r="21" ht="16.5" customHeight="1">
+      <c t="s" r="A21" s="14">
+        <v>62</v>
+      </c>
+      <c r="B21" s="14"/>
+      <c r="C21" s="14"/>
+      <c r="D21" s="14"/>
+      <c r="E21" s="14"/>
+      <c r="F21" s="14"/>
+      <c t="s" r="G21" s="15">
+        <v>63</v>
+      </c>
+      <c r="H21" s="15"/>
+      <c r="I21" s="15"/>
+      <c r="J21" s="16"/>
+      <c t="s" r="K21" s="17">
+        <v>64</v>
+      </c>
+      <c r="L21" s="17"/>
+      <c r="M21" s="17"/>
+      <c r="N21" s="17"/>
+      <c r="O21" s="17"/>
+      <c r="P21" s="17"/>
+      <c r="Q21" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="72">
+  <mergeCells count="77">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1310,10 +1355,15 @@
     <mergeCell ref="H18:K18"/>
     <mergeCell ref="L18:M18"/>
     <mergeCell ref="N18:O18"/>
-    <mergeCell ref="P19:Q19"/>
-    <mergeCell ref="A20:F20"/>
-    <mergeCell ref="G20:I20"/>
-    <mergeCell ref="K20:Q20"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="H19:K19"/>
+    <mergeCell ref="L19:M19"/>
+    <mergeCell ref="N19:O19"/>
+    <mergeCell ref="P20:Q20"/>
+    <mergeCell ref="A21:F21"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="K21:Q21"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-30_00-00.xlsx
+++ b/DaySale_2025-09-30_00-00.xlsx
@@ -173,6 +173,33 @@
     <t>140.0000</t>
   </si>
   <si>
+    <t>املاح افونا</t>
+  </si>
+  <si>
+    <t>5:0</t>
+  </si>
+  <si>
+    <t>25.00</t>
+  </si>
+  <si>
+    <t>25.0000</t>
+  </si>
+  <si>
+    <t>بادي سبلاش افوفا الصغير</t>
+  </si>
+  <si>
+    <t>4:0</t>
+  </si>
+  <si>
+    <t>35.00</t>
+  </si>
+  <si>
+    <t>35.0000</t>
+  </si>
+  <si>
+    <t>حنه خمس خمسات صغيره</t>
+  </si>
+  <si>
     <t>سرنجات 3 سم</t>
   </si>
   <si>
@@ -185,19 +212,34 @@
     <t>2:0</t>
   </si>
   <si>
+    <t>صابون ديتول الصغير</t>
+  </si>
+  <si>
+    <t>22.00</t>
+  </si>
+  <si>
+    <t>22.0000</t>
+  </si>
+  <si>
+    <t>طمي مغربي بوبانا 400ملل</t>
+  </si>
+  <si>
+    <t>65.00</t>
+  </si>
+  <si>
+    <t>65.0000</t>
+  </si>
+  <si>
     <t>مبرد قدم</t>
   </si>
   <si>
-    <t>5:0</t>
-  </si>
-  <si>
     <t>15.00</t>
   </si>
   <si>
     <t>15.0000</t>
   </si>
   <si>
-    <t>Tuesday, 30 September, 2025 11:12 AM</t>
+    <t>Tuesday, 30 September, 2025 11:15 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1201,7 +1243,7 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>26</v>
+        <v>55</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1211,14 +1253,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>57</v>
+        <v>29</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1255,38 +1297,203 @@
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
-      <c r="P20" s="13">
-        <v>813.44000000000005</v>
-      </c>
-      <c r="Q20" s="13"/>
-    </row>
-    <row r="21" ht="16.5" customHeight="1">
-      <c t="s" r="A21" s="14">
+      <c r="A20" s="7">
+        <v>14</v>
+      </c>
+      <c r="B20" s="7"/>
+      <c t="s" r="C20" s="8">
         <v>62</v>
       </c>
-      <c r="B21" s="14"/>
-      <c r="C21" s="14"/>
-      <c r="D21" s="14"/>
-      <c r="E21" s="14"/>
-      <c r="F21" s="14"/>
-      <c t="s" r="G21" s="15">
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
+      <c t="s" r="H20" s="9">
+        <v>59</v>
+      </c>
+      <c r="I20" s="9"/>
+      <c r="J20" s="9"/>
+      <c r="K20" s="9"/>
+      <c t="s" r="L20" s="10">
+        <v>45</v>
+      </c>
+      <c r="M20" s="10"/>
+      <c t="s" r="N20" s="8">
+        <v>56</v>
+      </c>
+      <c r="O20" s="8"/>
+      <c t="s" r="P20" s="11">
+        <v>57</v>
+      </c>
+      <c t="s" r="Q20" s="12">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="21" ht="25.5" customHeight="1">
+      <c r="A21" s="7">
+        <v>15</v>
+      </c>
+      <c r="B21" s="7"/>
+      <c t="s" r="C21" s="8">
         <v>63</v>
       </c>
-      <c r="H21" s="15"/>
-      <c r="I21" s="15"/>
-      <c r="J21" s="16"/>
-      <c t="s" r="K21" s="17">
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
+      <c t="s" r="H21" s="9">
+        <v>26</v>
+      </c>
+      <c r="I21" s="9"/>
+      <c r="J21" s="9"/>
+      <c r="K21" s="9"/>
+      <c t="s" r="L21" s="10">
+        <v>45</v>
+      </c>
+      <c r="M21" s="10"/>
+      <c t="s" r="N21" s="8">
         <v>64</v>
       </c>
-      <c r="L21" s="17"/>
-      <c r="M21" s="17"/>
-      <c r="N21" s="17"/>
-      <c r="O21" s="17"/>
-      <c r="P21" s="17"/>
-      <c r="Q21" s="17"/>
+      <c r="O21" s="8"/>
+      <c t="s" r="P21" s="11">
+        <v>65</v>
+      </c>
+      <c t="s" r="Q21" s="12">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="22" ht="25.5" customHeight="1">
+      <c r="A22" s="7">
+        <v>16</v>
+      </c>
+      <c r="B22" s="7"/>
+      <c t="s" r="C22" s="8">
+        <v>67</v>
+      </c>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8"/>
+      <c t="s" r="H22" s="9">
+        <v>55</v>
+      </c>
+      <c r="I22" s="9"/>
+      <c r="J22" s="9"/>
+      <c r="K22" s="9"/>
+      <c t="s" r="L22" s="10">
+        <v>45</v>
+      </c>
+      <c r="M22" s="10"/>
+      <c t="s" r="N22" s="8">
+        <v>68</v>
+      </c>
+      <c r="O22" s="8"/>
+      <c t="s" r="P22" s="11">
+        <v>69</v>
+      </c>
+      <c t="s" r="Q22" s="12">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="23" ht="24.75" customHeight="1">
+      <c r="A23" s="7">
+        <v>17</v>
+      </c>
+      <c r="B23" s="7"/>
+      <c t="s" r="C23" s="8">
+        <v>70</v>
+      </c>
+      <c r="D23" s="8"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="8"/>
+      <c t="s" r="H23" s="9">
+        <v>55</v>
+      </c>
+      <c r="I23" s="9"/>
+      <c r="J23" s="9"/>
+      <c r="K23" s="9"/>
+      <c t="s" r="L23" s="10">
+        <v>45</v>
+      </c>
+      <c r="M23" s="10"/>
+      <c t="s" r="N23" s="8">
+        <v>71</v>
+      </c>
+      <c r="O23" s="8"/>
+      <c t="s" r="P23" s="11">
+        <v>72</v>
+      </c>
+      <c t="s" r="Q23" s="12">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="24" ht="25.5" customHeight="1">
+      <c r="A24" s="7">
+        <v>18</v>
+      </c>
+      <c r="B24" s="7"/>
+      <c t="s" r="C24" s="8">
+        <v>73</v>
+      </c>
+      <c r="D24" s="8"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="8"/>
+      <c t="s" r="H24" s="9">
+        <v>55</v>
+      </c>
+      <c r="I24" s="9"/>
+      <c r="J24" s="9"/>
+      <c r="K24" s="9"/>
+      <c t="s" r="L24" s="10">
+        <v>45</v>
+      </c>
+      <c r="M24" s="10"/>
+      <c t="s" r="N24" s="8">
+        <v>74</v>
+      </c>
+      <c r="O24" s="8"/>
+      <c t="s" r="P24" s="11">
+        <v>75</v>
+      </c>
+      <c t="s" r="Q24" s="12">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="25" ht="24.75" customHeight="1">
+      <c r="P25" s="13">
+        <v>985.44000000000005</v>
+      </c>
+      <c r="Q25" s="13"/>
+    </row>
+    <row r="26" ht="16.5" customHeight="1">
+      <c t="s" r="A26" s="14">
+        <v>76</v>
+      </c>
+      <c r="B26" s="14"/>
+      <c r="C26" s="14"/>
+      <c r="D26" s="14"/>
+      <c r="E26" s="14"/>
+      <c r="F26" s="14"/>
+      <c t="s" r="G26" s="15">
+        <v>77</v>
+      </c>
+      <c r="H26" s="15"/>
+      <c r="I26" s="15"/>
+      <c r="J26" s="16"/>
+      <c t="s" r="K26" s="17">
+        <v>78</v>
+      </c>
+      <c r="L26" s="17"/>
+      <c r="M26" s="17"/>
+      <c r="N26" s="17"/>
+      <c r="O26" s="17"/>
+      <c r="P26" s="17"/>
+      <c r="Q26" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="77">
+  <mergeCells count="102">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1360,10 +1567,35 @@
     <mergeCell ref="H19:K19"/>
     <mergeCell ref="L19:M19"/>
     <mergeCell ref="N19:O19"/>
-    <mergeCell ref="P20:Q20"/>
-    <mergeCell ref="A21:F21"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="K21:Q21"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C20:G20"/>
+    <mergeCell ref="H20:K20"/>
+    <mergeCell ref="L20:M20"/>
+    <mergeCell ref="N20:O20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="C21:G21"/>
+    <mergeCell ref="H21:K21"/>
+    <mergeCell ref="L21:M21"/>
+    <mergeCell ref="N21:O21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="C22:G22"/>
+    <mergeCell ref="H22:K22"/>
+    <mergeCell ref="L22:M22"/>
+    <mergeCell ref="N22:O22"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="C23:G23"/>
+    <mergeCell ref="H23:K23"/>
+    <mergeCell ref="L23:M23"/>
+    <mergeCell ref="N23:O23"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="C24:G24"/>
+    <mergeCell ref="H24:K24"/>
+    <mergeCell ref="L24:M24"/>
+    <mergeCell ref="N24:O24"/>
+    <mergeCell ref="P25:Q25"/>
+    <mergeCell ref="A26:F26"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="K26:Q26"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-30_00-00.xlsx
+++ b/DaySale_2025-09-30_00-00.xlsx
@@ -173,48 +173,45 @@
     <t>140.0000</t>
   </si>
   <si>
-    <t>املاح افونا</t>
+    <t>بادي سبلاش افوفا الصغير</t>
+  </si>
+  <si>
+    <t>4:0</t>
+  </si>
+  <si>
+    <t>35.00</t>
+  </si>
+  <si>
+    <t>35.0000</t>
+  </si>
+  <si>
+    <t>حنه خمس خمسات صغيره</t>
+  </si>
+  <si>
+    <t>25.00</t>
+  </si>
+  <si>
+    <t>25.0000</t>
+  </si>
+  <si>
+    <t>سرنجات 3 سم</t>
+  </si>
+  <si>
+    <t>2.00</t>
+  </si>
+  <si>
+    <t>4.0000</t>
+  </si>
+  <si>
+    <t>2:0</t>
+  </si>
+  <si>
+    <t>صابون ديتول الصغير</t>
   </si>
   <si>
     <t>5:0</t>
   </si>
   <si>
-    <t>25.00</t>
-  </si>
-  <si>
-    <t>25.0000</t>
-  </si>
-  <si>
-    <t>بادي سبلاش افوفا الصغير</t>
-  </si>
-  <si>
-    <t>4:0</t>
-  </si>
-  <si>
-    <t>35.00</t>
-  </si>
-  <si>
-    <t>35.0000</t>
-  </si>
-  <si>
-    <t>حنه خمس خمسات صغيره</t>
-  </si>
-  <si>
-    <t>سرنجات 3 سم</t>
-  </si>
-  <si>
-    <t>2.00</t>
-  </si>
-  <si>
-    <t>4.0000</t>
-  </si>
-  <si>
-    <t>2:0</t>
-  </si>
-  <si>
-    <t>صابون ديتول الصغير</t>
-  </si>
-  <si>
     <t>22.00</t>
   </si>
   <si>
@@ -239,7 +236,7 @@
     <t>15.0000</t>
   </si>
   <si>
-    <t>Tuesday, 30 September, 2025 11:15 AM</t>
+    <t>Tuesday, 30 September, 2025 11:21 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1276,7 +1273,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1286,11 +1283,11 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q19" s="12">
         <v>29</v>
@@ -1302,14 +1299,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>59</v>
+        <v>26</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1319,14 +1316,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>29</v>
+        <v>64</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1335,14 +1332,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>26</v>
+        <v>66</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1352,14 +1349,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>66</v>
+        <v>29</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1368,14 +1365,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>55</v>
+        <v>66</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1385,11 +1382,11 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q22" s="12">
         <v>29</v>
@@ -1401,14 +1398,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>55</v>
+        <v>66</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1418,82 +1415,49 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q23" s="12">
         <v>29</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
-      <c r="A24" s="7">
-        <v>18</v>
-      </c>
-      <c r="B24" s="7"/>
-      <c t="s" r="C24" s="8">
-        <v>73</v>
-      </c>
-      <c r="D24" s="8"/>
-      <c r="E24" s="8"/>
-      <c r="F24" s="8"/>
-      <c r="G24" s="8"/>
-      <c t="s" r="H24" s="9">
-        <v>55</v>
-      </c>
-      <c r="I24" s="9"/>
-      <c r="J24" s="9"/>
-      <c r="K24" s="9"/>
-      <c t="s" r="L24" s="10">
-        <v>45</v>
-      </c>
-      <c r="M24" s="10"/>
-      <c t="s" r="N24" s="8">
-        <v>74</v>
-      </c>
-      <c r="O24" s="8"/>
-      <c t="s" r="P24" s="11">
+      <c r="P24" s="13">
+        <v>960.44000000000005</v>
+      </c>
+      <c r="Q24" s="13"/>
+    </row>
+    <row r="25" ht="16.5" customHeight="1">
+      <c t="s" r="A25" s="14">
         <v>75</v>
       </c>
-      <c t="s" r="Q24" s="12">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="25" ht="24.75" customHeight="1">
-      <c r="P25" s="13">
-        <v>985.44000000000005</v>
-      </c>
-      <c r="Q25" s="13"/>
-    </row>
-    <row r="26" ht="16.5" customHeight="1">
-      <c t="s" r="A26" s="14">
+      <c r="B25" s="14"/>
+      <c r="C25" s="14"/>
+      <c r="D25" s="14"/>
+      <c r="E25" s="14"/>
+      <c r="F25" s="14"/>
+      <c t="s" r="G25" s="15">
         <v>76</v>
       </c>
-      <c r="B26" s="14"/>
-      <c r="C26" s="14"/>
-      <c r="D26" s="14"/>
-      <c r="E26" s="14"/>
-      <c r="F26" s="14"/>
-      <c t="s" r="G26" s="15">
+      <c r="H25" s="15"/>
+      <c r="I25" s="15"/>
+      <c r="J25" s="16"/>
+      <c t="s" r="K25" s="17">
         <v>77</v>
       </c>
-      <c r="H26" s="15"/>
-      <c r="I26" s="15"/>
-      <c r="J26" s="16"/>
-      <c t="s" r="K26" s="17">
-        <v>78</v>
-      </c>
-      <c r="L26" s="17"/>
-      <c r="M26" s="17"/>
-      <c r="N26" s="17"/>
-      <c r="O26" s="17"/>
-      <c r="P26" s="17"/>
-      <c r="Q26" s="17"/>
+      <c r="L25" s="17"/>
+      <c r="M25" s="17"/>
+      <c r="N25" s="17"/>
+      <c r="O25" s="17"/>
+      <c r="P25" s="17"/>
+      <c r="Q25" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="102">
+  <mergeCells count="97">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1587,15 +1551,10 @@
     <mergeCell ref="H23:K23"/>
     <mergeCell ref="L23:M23"/>
     <mergeCell ref="N23:O23"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="C24:G24"/>
-    <mergeCell ref="H24:K24"/>
-    <mergeCell ref="L24:M24"/>
-    <mergeCell ref="N24:O24"/>
-    <mergeCell ref="P25:Q25"/>
-    <mergeCell ref="A26:F26"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="K26:Q26"/>
+    <mergeCell ref="P24:Q24"/>
+    <mergeCell ref="A25:F25"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="K25:Q25"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-30_00-00.xlsx
+++ b/DaySale_2025-09-30_00-00.xlsx
@@ -236,7 +236,7 @@
     <t>15.0000</t>
   </si>
   <si>
-    <t>Tuesday, 30 September, 2025 11:21 AM</t>
+    <t>Tuesday, 30 September, 2025 11:46 AM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-09-30_00-00.xlsx
+++ b/DaySale_2025-09-30_00-00.xlsx
@@ -143,6 +143,18 @@
     <t>46.0000</t>
   </si>
   <si>
+    <t>HERO BABY 1 MILK 400 GM</t>
+  </si>
+  <si>
+    <t>2:0</t>
+  </si>
+  <si>
+    <t>259.00</t>
+  </si>
+  <si>
+    <t>259.0000</t>
+  </si>
+  <si>
     <t>KADEE 4000 CAPS</t>
   </si>
   <si>
@@ -155,6 +167,15 @@
     <t>180.0000</t>
   </si>
   <si>
+    <t>L-CARNITINE 300MG/ML SYRUP 30ML</t>
+  </si>
+  <si>
+    <t>70.00</t>
+  </si>
+  <si>
+    <t>70.0000</t>
+  </si>
+  <si>
     <t>VOLTAREN 75MG/3ML 6 AMP.</t>
   </si>
   <si>
@@ -203,9 +224,6 @@
     <t>4.0000</t>
   </si>
   <si>
-    <t>2:0</t>
-  </si>
-  <si>
     <t>صابون ديتول الصغير</t>
   </si>
   <si>
@@ -236,7 +254,7 @@
     <t>15.0000</t>
   </si>
   <si>
-    <t>Tuesday, 30 September, 2025 11:46 AM</t>
+    <t>Tuesday, 30 September, 2025 11:48 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1141,13 +1159,13 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
       <c r="K15" s="9"/>
       <c t="s" r="L15" s="10">
-        <v>45</v>
+        <v>13</v>
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
@@ -1174,24 +1192,24 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>49</v>
+        <v>26</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
       <c r="K16" s="9"/>
       <c t="s" r="L16" s="10">
-        <v>13</v>
+        <v>49</v>
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>14</v>
+        <v>50</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1200,14 +1218,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1217,11 +1235,11 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q17" s="12">
         <v>29</v>
@@ -1233,31 +1251,31 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
       <c r="K18" s="9"/>
       <c t="s" r="L18" s="10">
-        <v>45</v>
+        <v>13</v>
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>56</v>
+        <v>14</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
         <v>57</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1273,13 +1291,13 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>55</v>
+        <v>16</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
       <c r="K19" s="9"/>
       <c t="s" r="L19" s="10">
-        <v>45</v>
+        <v>13</v>
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
@@ -1306,24 +1324,24 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>26</v>
+        <v>62</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
       <c r="K20" s="9"/>
       <c t="s" r="L20" s="10">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>64</v>
+        <v>29</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1339,21 +1357,21 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
       <c r="K21" s="9"/>
       <c t="s" r="L21" s="10">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q21" s="12">
         <v>29</v>
@@ -1365,31 +1383,31 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>66</v>
+        <v>26</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
       <c r="K22" s="9"/>
       <c t="s" r="L22" s="10">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>29</v>
+        <v>45</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1398,20 +1416,20 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
       <c t="s" r="L23" s="10">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
@@ -1426,38 +1444,104 @@
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
-      <c r="P24" s="13">
-        <v>960.44000000000005</v>
-      </c>
-      <c r="Q24" s="13"/>
-    </row>
-    <row r="25" ht="16.5" customHeight="1">
-      <c t="s" r="A25" s="14">
+      <c r="A24" s="7">
+        <v>18</v>
+      </c>
+      <c r="B24" s="7"/>
+      <c t="s" r="C24" s="8">
         <v>75</v>
       </c>
-      <c r="B25" s="14"/>
-      <c r="C25" s="14"/>
-      <c r="D25" s="14"/>
-      <c r="E25" s="14"/>
-      <c r="F25" s="14"/>
-      <c t="s" r="G25" s="15">
+      <c r="D24" s="8"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="8"/>
+      <c t="s" r="H24" s="9">
+        <v>72</v>
+      </c>
+      <c r="I24" s="9"/>
+      <c r="J24" s="9"/>
+      <c r="K24" s="9"/>
+      <c t="s" r="L24" s="10">
+        <v>49</v>
+      </c>
+      <c r="M24" s="10"/>
+      <c t="s" r="N24" s="8">
         <v>76</v>
       </c>
-      <c r="H25" s="15"/>
-      <c r="I25" s="15"/>
-      <c r="J25" s="16"/>
-      <c t="s" r="K25" s="17">
+      <c r="O24" s="8"/>
+      <c t="s" r="P24" s="11">
         <v>77</v>
       </c>
-      <c r="L25" s="17"/>
-      <c r="M25" s="17"/>
-      <c r="N25" s="17"/>
-      <c r="O25" s="17"/>
-      <c r="P25" s="17"/>
-      <c r="Q25" s="17"/>
+      <c t="s" r="Q24" s="12">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="25" ht="24.75" customHeight="1">
+      <c r="A25" s="7">
+        <v>19</v>
+      </c>
+      <c r="B25" s="7"/>
+      <c t="s" r="C25" s="8">
+        <v>78</v>
+      </c>
+      <c r="D25" s="8"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="8"/>
+      <c r="G25" s="8"/>
+      <c t="s" r="H25" s="9">
+        <v>72</v>
+      </c>
+      <c r="I25" s="9"/>
+      <c r="J25" s="9"/>
+      <c r="K25" s="9"/>
+      <c t="s" r="L25" s="10">
+        <v>49</v>
+      </c>
+      <c r="M25" s="10"/>
+      <c t="s" r="N25" s="8">
+        <v>79</v>
+      </c>
+      <c r="O25" s="8"/>
+      <c t="s" r="P25" s="11">
+        <v>80</v>
+      </c>
+      <c t="s" r="Q25" s="12">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="26" ht="25.5" customHeight="1">
+      <c r="P26" s="13">
+        <v>1289.4400000000001</v>
+      </c>
+      <c r="Q26" s="13"/>
+    </row>
+    <row r="27" ht="16.5" customHeight="1">
+      <c t="s" r="A27" s="14">
+        <v>81</v>
+      </c>
+      <c r="B27" s="14"/>
+      <c r="C27" s="14"/>
+      <c r="D27" s="14"/>
+      <c r="E27" s="14"/>
+      <c r="F27" s="14"/>
+      <c t="s" r="G27" s="15">
+        <v>82</v>
+      </c>
+      <c r="H27" s="15"/>
+      <c r="I27" s="15"/>
+      <c r="J27" s="16"/>
+      <c t="s" r="K27" s="17">
+        <v>83</v>
+      </c>
+      <c r="L27" s="17"/>
+      <c r="M27" s="17"/>
+      <c r="N27" s="17"/>
+      <c r="O27" s="17"/>
+      <c r="P27" s="17"/>
+      <c r="Q27" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="97">
+  <mergeCells count="107">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1551,10 +1635,20 @@
     <mergeCell ref="H23:K23"/>
     <mergeCell ref="L23:M23"/>
     <mergeCell ref="N23:O23"/>
-    <mergeCell ref="P24:Q24"/>
-    <mergeCell ref="A25:F25"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="K25:Q25"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="C24:G24"/>
+    <mergeCell ref="H24:K24"/>
+    <mergeCell ref="L24:M24"/>
+    <mergeCell ref="N24:O24"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="C25:G25"/>
+    <mergeCell ref="H25:K25"/>
+    <mergeCell ref="L25:M25"/>
+    <mergeCell ref="N25:O25"/>
+    <mergeCell ref="P26:Q26"/>
+    <mergeCell ref="A27:F27"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="K27:Q27"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-30_00-00.xlsx
+++ b/DaySale_2025-09-30_00-00.xlsx
@@ -134,6 +134,15 @@
     <t>53.4400</t>
   </si>
   <si>
+    <t>HAEMOJET 50MG/5ML SYRUP 100ML</t>
+  </si>
+  <si>
+    <t>37.50</t>
+  </si>
+  <si>
+    <t>37.5000</t>
+  </si>
+  <si>
     <t>HEMOCLAR 0.5% CREAM 40 GM</t>
   </si>
   <si>
@@ -254,7 +263,7 @@
     <t>15.0000</t>
   </si>
   <si>
-    <t>Tuesday, 30 September, 2025 11:48 AM</t>
+    <t>Tuesday, 30 September, 2025 11:51 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1159,7 +1168,7 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>45</v>
+        <v>26</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1169,11 +1178,11 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q15" s="12">
         <v>29</v>
@@ -1185,28 +1194,28 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>26</v>
+        <v>48</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
       <c r="K16" s="9"/>
       <c t="s" r="L16" s="10">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c t="s" r="Q16" s="12">
         <v>29</v>
@@ -1218,7 +1227,7 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
@@ -1231,7 +1240,7 @@
       <c r="J17" s="9"/>
       <c r="K17" s="9"/>
       <c t="s" r="L17" s="10">
-        <v>13</v>
+        <v>52</v>
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
@@ -1258,7 +1267,7 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>56</v>
+        <v>26</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1268,14 +1277,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>14</v>
+        <v>56</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
         <v>57</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1291,7 +1300,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>16</v>
+        <v>59</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1301,14 +1310,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>59</v>
+        <v>14</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
         <v>60</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1324,21 +1333,21 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>62</v>
+        <v>16</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
       <c r="K20" s="9"/>
       <c t="s" r="L20" s="10">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q20" s="12">
         <v>29</v>
@@ -1350,20 +1359,20 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
       <c r="K21" s="9"/>
       <c t="s" r="L21" s="10">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
@@ -1390,13 +1399,13 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>26</v>
+        <v>65</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
       <c r="K22" s="9"/>
       <c t="s" r="L22" s="10">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
@@ -1407,7 +1416,7 @@
         <v>70</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>45</v>
+        <v>29</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1423,24 +1432,24 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>72</v>
+        <v>26</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
       <c t="s" r="L23" s="10">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>29</v>
+        <v>48</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1449,20 +1458,20 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
       <c t="s" r="L24" s="10">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
@@ -1489,13 +1498,13 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
       <c t="s" r="L25" s="10">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
@@ -1510,38 +1519,71 @@
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
-      <c r="P26" s="13">
-        <v>1289.4400000000001</v>
-      </c>
-      <c r="Q26" s="13"/>
-    </row>
-    <row r="27" ht="16.5" customHeight="1">
-      <c t="s" r="A27" s="14">
+      <c r="A26" s="7">
+        <v>20</v>
+      </c>
+      <c r="B26" s="7"/>
+      <c t="s" r="C26" s="8">
         <v>81</v>
       </c>
-      <c r="B27" s="14"/>
-      <c r="C27" s="14"/>
-      <c r="D27" s="14"/>
-      <c r="E27" s="14"/>
-      <c r="F27" s="14"/>
-      <c t="s" r="G27" s="15">
+      <c r="D26" s="8"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="8"/>
+      <c r="G26" s="8"/>
+      <c t="s" r="H26" s="9">
+        <v>75</v>
+      </c>
+      <c r="I26" s="9"/>
+      <c r="J26" s="9"/>
+      <c r="K26" s="9"/>
+      <c t="s" r="L26" s="10">
+        <v>52</v>
+      </c>
+      <c r="M26" s="10"/>
+      <c t="s" r="N26" s="8">
         <v>82</v>
       </c>
-      <c r="H27" s="15"/>
-      <c r="I27" s="15"/>
-      <c r="J27" s="16"/>
-      <c t="s" r="K27" s="17">
+      <c r="O26" s="8"/>
+      <c t="s" r="P26" s="11">
         <v>83</v>
       </c>
-      <c r="L27" s="17"/>
-      <c r="M27" s="17"/>
-      <c r="N27" s="17"/>
-      <c r="O27" s="17"/>
-      <c r="P27" s="17"/>
-      <c r="Q27" s="17"/>
+      <c t="s" r="Q26" s="12">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="27" ht="25.5" customHeight="1">
+      <c r="P27" s="13">
+        <v>1326.9400000000001</v>
+      </c>
+      <c r="Q27" s="13"/>
+    </row>
+    <row r="28" ht="16.5" customHeight="1">
+      <c t="s" r="A28" s="14">
+        <v>84</v>
+      </c>
+      <c r="B28" s="14"/>
+      <c r="C28" s="14"/>
+      <c r="D28" s="14"/>
+      <c r="E28" s="14"/>
+      <c r="F28" s="14"/>
+      <c t="s" r="G28" s="15">
+        <v>85</v>
+      </c>
+      <c r="H28" s="15"/>
+      <c r="I28" s="15"/>
+      <c r="J28" s="16"/>
+      <c t="s" r="K28" s="17">
+        <v>86</v>
+      </c>
+      <c r="L28" s="17"/>
+      <c r="M28" s="17"/>
+      <c r="N28" s="17"/>
+      <c r="O28" s="17"/>
+      <c r="P28" s="17"/>
+      <c r="Q28" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="107">
+  <mergeCells count="112">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1645,10 +1687,15 @@
     <mergeCell ref="H25:K25"/>
     <mergeCell ref="L25:M25"/>
     <mergeCell ref="N25:O25"/>
-    <mergeCell ref="P26:Q26"/>
-    <mergeCell ref="A27:F27"/>
-    <mergeCell ref="G27:I27"/>
-    <mergeCell ref="K27:Q27"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="C26:G26"/>
+    <mergeCell ref="H26:K26"/>
+    <mergeCell ref="L26:M26"/>
+    <mergeCell ref="N26:O26"/>
+    <mergeCell ref="P27:Q27"/>
+    <mergeCell ref="A28:F28"/>
+    <mergeCell ref="G28:I28"/>
+    <mergeCell ref="K28:Q28"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-30_00-00.xlsx
+++ b/DaySale_2025-09-30_00-00.xlsx
@@ -206,7 +206,7 @@
     <t>بادي سبلاش افوفا الصغير</t>
   </si>
   <si>
-    <t>4:0</t>
+    <t>5:0</t>
   </si>
   <si>
     <t>35.00</t>
@@ -236,7 +236,7 @@
     <t>صابون ديتول الصغير</t>
   </si>
   <si>
-    <t>5:0</t>
+    <t>6:0</t>
   </si>
   <si>
     <t>22.00</t>
@@ -263,7 +263,7 @@
     <t>15.0000</t>
   </si>
   <si>
-    <t>Tuesday, 30 September, 2025 11:51 AM</t>
+    <t>Tuesday, 30 September, 2025 11:54 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1531,7 +1531,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>

--- a/DaySale_2025-09-30_00-00.xlsx
+++ b/DaySale_2025-09-30_00-00.xlsx
@@ -206,37 +206,37 @@
     <t>بادي سبلاش افوفا الصغير</t>
   </si>
   <si>
+    <t>4:0</t>
+  </si>
+  <si>
+    <t>35.00</t>
+  </si>
+  <si>
+    <t>35.0000</t>
+  </si>
+  <si>
+    <t>حنه خمس خمسات صغيره</t>
+  </si>
+  <si>
+    <t>25.00</t>
+  </si>
+  <si>
+    <t>25.0000</t>
+  </si>
+  <si>
+    <t>سرنجات 3 سم</t>
+  </si>
+  <si>
+    <t>2.00</t>
+  </si>
+  <si>
+    <t>4.0000</t>
+  </si>
+  <si>
+    <t>صابون ديتول الصغير</t>
+  </si>
+  <si>
     <t>5:0</t>
-  </si>
-  <si>
-    <t>35.00</t>
-  </si>
-  <si>
-    <t>35.0000</t>
-  </si>
-  <si>
-    <t>حنه خمس خمسات صغيره</t>
-  </si>
-  <si>
-    <t>25.00</t>
-  </si>
-  <si>
-    <t>25.0000</t>
-  </si>
-  <si>
-    <t>سرنجات 3 سم</t>
-  </si>
-  <si>
-    <t>2.00</t>
-  </si>
-  <si>
-    <t>4.0000</t>
-  </si>
-  <si>
-    <t>صابون ديتول الصغير</t>
-  </si>
-  <si>
-    <t>6:0</t>
   </si>
   <si>
     <t>22.00</t>
@@ -1531,7 +1531,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>

--- a/DaySale_2025-09-30_00-00.xlsx
+++ b/DaySale_2025-09-30_00-00.xlsx
@@ -206,7 +206,7 @@
     <t>بادي سبلاش افوفا الصغير</t>
   </si>
   <si>
-    <t>4:0</t>
+    <t>5:0</t>
   </si>
   <si>
     <t>35.00</t>
@@ -236,7 +236,7 @@
     <t>صابون ديتول الصغير</t>
   </si>
   <si>
-    <t>5:0</t>
+    <t>6:0</t>
   </si>
   <si>
     <t>22.00</t>
@@ -263,7 +263,7 @@
     <t>15.0000</t>
   </si>
   <si>
-    <t>Tuesday, 30 September, 2025 11:54 AM</t>
+    <t>Tuesday, 30 September, 2025 12:06 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-09-30_00-00.xlsx
+++ b/DaySale_2025-09-30_00-00.xlsx
@@ -263,7 +263,7 @@
     <t>15.0000</t>
   </si>
   <si>
-    <t>Tuesday, 30 September, 2025 12:06 PM</t>
+    <t>Tuesday, 30 September, 2025 12:07 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1531,7 +1531,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>

--- a/DaySale_2025-09-30_00-00.xlsx
+++ b/DaySale_2025-09-30_00-00.xlsx
@@ -125,6 +125,18 @@
     <t>0:2</t>
   </si>
   <si>
+    <t>FAWAR FRUIT 6 SACHETS</t>
+  </si>
+  <si>
+    <t>5:3</t>
+  </si>
+  <si>
+    <t>24.00</t>
+  </si>
+  <si>
+    <t>24.0000</t>
+  </si>
+  <si>
     <t>FORBUDES 400/12MCG 60 INHALATION CAPS.+INHALER</t>
   </si>
   <si>
@@ -183,6 +195,15 @@
   </si>
   <si>
     <t>70.0000</t>
+  </si>
+  <si>
+    <t>VOLTAREN 1% EMULGEL 25 GM</t>
+  </si>
+  <si>
+    <t>39.00</t>
+  </si>
+  <si>
+    <t>39.0000</t>
   </si>
   <si>
     <t>VOLTAREN 75MG/3ML 6 AMP.</t>
@@ -1102,7 +1123,7 @@
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>18</v>
+        <v>39</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1112,14 +1133,14 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1128,14 +1149,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1145,14 +1166,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1161,7 +1182,7 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
@@ -1178,11 +1199,11 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c t="s" r="Q15" s="12">
         <v>29</v>
@@ -1194,14 +1215,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>48</v>
+        <v>26</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1234,13 +1255,13 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>26</v>
+        <v>52</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
       <c r="K17" s="9"/>
       <c t="s" r="L17" s="10">
-        <v>52</v>
+        <v>13</v>
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
@@ -1273,15 +1294,15 @@
       <c r="J18" s="9"/>
       <c r="K18" s="9"/>
       <c t="s" r="L18" s="10">
-        <v>13</v>
+        <v>56</v>
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q18" s="12">
         <v>29</v>
@@ -1293,14 +1314,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>59</v>
+        <v>26</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1310,14 +1331,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>14</v>
+        <v>60</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1326,14 +1347,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1343,11 +1364,11 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q20" s="12">
         <v>29</v>
@@ -1359,31 +1380,31 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
       <c r="K21" s="9"/>
       <c t="s" r="L21" s="10">
-        <v>52</v>
+        <v>13</v>
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>66</v>
+        <v>14</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
         <v>67</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1399,13 +1420,13 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>65</v>
+        <v>16</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
       <c r="K22" s="9"/>
       <c t="s" r="L22" s="10">
-        <v>52</v>
+        <v>13</v>
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
@@ -1432,24 +1453,24 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>26</v>
+        <v>72</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
       <c t="s" r="L23" s="10">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>48</v>
+        <v>29</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1458,20 +1479,20 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
       <c t="s" r="L24" s="10">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
@@ -1498,13 +1519,13 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>75</v>
+        <v>26</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
       <c t="s" r="L25" s="10">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
@@ -1515,7 +1536,7 @@
         <v>80</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>29</v>
+        <v>52</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1531,59 +1552,125 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
       <c t="s" r="L26" s="10">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>29</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
-      <c r="P27" s="13">
-        <v>1326.9400000000001</v>
-      </c>
-      <c r="Q27" s="13"/>
-    </row>
-    <row r="28" ht="16.5" customHeight="1">
-      <c t="s" r="A28" s="14">
-        <v>84</v>
-      </c>
-      <c r="B28" s="14"/>
-      <c r="C28" s="14"/>
-      <c r="D28" s="14"/>
-      <c r="E28" s="14"/>
-      <c r="F28" s="14"/>
-      <c t="s" r="G28" s="15">
+      <c r="A27" s="7">
+        <v>21</v>
+      </c>
+      <c r="B27" s="7"/>
+      <c t="s" r="C27" s="8">
         <v>85</v>
       </c>
-      <c r="H28" s="15"/>
-      <c r="I28" s="15"/>
-      <c r="J28" s="16"/>
-      <c t="s" r="K28" s="17">
+      <c r="D27" s="8"/>
+      <c r="E27" s="8"/>
+      <c r="F27" s="8"/>
+      <c r="G27" s="8"/>
+      <c t="s" r="H27" s="9">
+        <v>82</v>
+      </c>
+      <c r="I27" s="9"/>
+      <c r="J27" s="9"/>
+      <c r="K27" s="9"/>
+      <c t="s" r="L27" s="10">
+        <v>56</v>
+      </c>
+      <c r="M27" s="10"/>
+      <c t="s" r="N27" s="8">
         <v>86</v>
       </c>
-      <c r="L28" s="17"/>
-      <c r="M28" s="17"/>
-      <c r="N28" s="17"/>
-      <c r="O28" s="17"/>
-      <c r="P28" s="17"/>
-      <c r="Q28" s="17"/>
+      <c r="O27" s="8"/>
+      <c t="s" r="P27" s="11">
+        <v>87</v>
+      </c>
+      <c t="s" r="Q27" s="12">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="28" ht="24.75" customHeight="1">
+      <c r="A28" s="7">
+        <v>22</v>
+      </c>
+      <c r="B28" s="7"/>
+      <c t="s" r="C28" s="8">
+        <v>88</v>
+      </c>
+      <c r="D28" s="8"/>
+      <c r="E28" s="8"/>
+      <c r="F28" s="8"/>
+      <c r="G28" s="8"/>
+      <c t="s" r="H28" s="9">
+        <v>82</v>
+      </c>
+      <c r="I28" s="9"/>
+      <c r="J28" s="9"/>
+      <c r="K28" s="9"/>
+      <c t="s" r="L28" s="10">
+        <v>56</v>
+      </c>
+      <c r="M28" s="10"/>
+      <c t="s" r="N28" s="8">
+        <v>89</v>
+      </c>
+      <c r="O28" s="8"/>
+      <c t="s" r="P28" s="11">
+        <v>90</v>
+      </c>
+      <c t="s" r="Q28" s="12">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="29" ht="25.5" customHeight="1">
+      <c r="P29" s="13">
+        <v>1389.9400000000001</v>
+      </c>
+      <c r="Q29" s="13"/>
+    </row>
+    <row r="30" ht="16.5" customHeight="1">
+      <c t="s" r="A30" s="14">
+        <v>91</v>
+      </c>
+      <c r="B30" s="14"/>
+      <c r="C30" s="14"/>
+      <c r="D30" s="14"/>
+      <c r="E30" s="14"/>
+      <c r="F30" s="14"/>
+      <c t="s" r="G30" s="15">
+        <v>92</v>
+      </c>
+      <c r="H30" s="15"/>
+      <c r="I30" s="15"/>
+      <c r="J30" s="16"/>
+      <c t="s" r="K30" s="17">
+        <v>93</v>
+      </c>
+      <c r="L30" s="17"/>
+      <c r="M30" s="17"/>
+      <c r="N30" s="17"/>
+      <c r="O30" s="17"/>
+      <c r="P30" s="17"/>
+      <c r="Q30" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="112">
+  <mergeCells count="122">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1692,10 +1779,20 @@
     <mergeCell ref="H26:K26"/>
     <mergeCell ref="L26:M26"/>
     <mergeCell ref="N26:O26"/>
-    <mergeCell ref="P27:Q27"/>
-    <mergeCell ref="A28:F28"/>
-    <mergeCell ref="G28:I28"/>
-    <mergeCell ref="K28:Q28"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="C27:G27"/>
+    <mergeCell ref="H27:K27"/>
+    <mergeCell ref="L27:M27"/>
+    <mergeCell ref="N27:O27"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="C28:G28"/>
+    <mergeCell ref="H28:K28"/>
+    <mergeCell ref="L28:M28"/>
+    <mergeCell ref="N28:O28"/>
+    <mergeCell ref="P29:Q29"/>
+    <mergeCell ref="A30:F30"/>
+    <mergeCell ref="G30:I30"/>
+    <mergeCell ref="K30:Q30"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-30_00-00.xlsx
+++ b/DaySale_2025-09-30_00-00.xlsx
@@ -197,12 +197,21 @@
     <t>70.0000</t>
   </si>
   <si>
+    <t>SPASMOFEN 3 AMP. FOR I.M. INJ.</t>
+  </si>
+  <si>
+    <t>3:2</t>
+  </si>
+  <si>
+    <t>39.00</t>
+  </si>
+  <si>
+    <t>12.8700</t>
+  </si>
+  <si>
     <t>VOLTAREN 1% EMULGEL 25 GM</t>
   </si>
   <si>
-    <t>39.00</t>
-  </si>
-  <si>
     <t>39.0000</t>
   </si>
   <si>
@@ -251,7 +260,7 @@
     <t>2.00</t>
   </si>
   <si>
-    <t>4.0000</t>
+    <t>3:0</t>
   </si>
   <si>
     <t>صابون ديتول الصغير</t>
@@ -284,7 +293,7 @@
     <t>15.0000</t>
   </si>
   <si>
-    <t>Tuesday, 30 September, 2025 12:07 PM</t>
+    <t>Tuesday, 30 September, 2025 12:09 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1354,7 +1363,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>29</v>
+        <v>63</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1364,14 +1373,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1380,14 +1389,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1397,14 +1406,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>14</v>
+        <v>64</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
         <v>67</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1420,7 +1429,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>16</v>
+        <v>69</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1430,14 +1439,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>69</v>
+        <v>14</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
         <v>70</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1453,21 +1462,21 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>72</v>
+        <v>16</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
       <c t="s" r="L23" s="10">
-        <v>56</v>
+        <v>13</v>
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q23" s="12">
         <v>29</v>
@@ -1479,14 +1488,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1519,7 +1528,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>26</v>
+        <v>75</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1536,7 +1545,7 @@
         <v>80</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>52</v>
+        <v>29</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1552,7 +1561,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>82</v>
+        <v>26</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1562,14 +1571,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>84</v>
+        <v>24</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>29</v>
+        <v>83</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1578,14 +1587,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1618,7 +1627,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1639,38 +1648,71 @@
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
-      <c r="P29" s="13">
-        <v>1389.9400000000001</v>
-      </c>
-      <c r="Q29" s="13"/>
-    </row>
-    <row r="30" ht="16.5" customHeight="1">
-      <c t="s" r="A30" s="14">
+      <c r="A29" s="7">
+        <v>23</v>
+      </c>
+      <c r="B29" s="7"/>
+      <c t="s" r="C29" s="8">
         <v>91</v>
       </c>
-      <c r="B30" s="14"/>
-      <c r="C30" s="14"/>
-      <c r="D30" s="14"/>
-      <c r="E30" s="14"/>
-      <c r="F30" s="14"/>
-      <c t="s" r="G30" s="15">
+      <c r="D29" s="8"/>
+      <c r="E29" s="8"/>
+      <c r="F29" s="8"/>
+      <c r="G29" s="8"/>
+      <c t="s" r="H29" s="9">
+        <v>85</v>
+      </c>
+      <c r="I29" s="9"/>
+      <c r="J29" s="9"/>
+      <c r="K29" s="9"/>
+      <c t="s" r="L29" s="10">
+        <v>56</v>
+      </c>
+      <c r="M29" s="10"/>
+      <c t="s" r="N29" s="8">
         <v>92</v>
       </c>
-      <c r="H30" s="15"/>
-      <c r="I30" s="15"/>
-      <c r="J30" s="16"/>
-      <c t="s" r="K30" s="17">
+      <c r="O29" s="8"/>
+      <c t="s" r="P29" s="11">
         <v>93</v>
       </c>
-      <c r="L30" s="17"/>
-      <c r="M30" s="17"/>
-      <c r="N30" s="17"/>
-      <c r="O30" s="17"/>
-      <c r="P30" s="17"/>
-      <c r="Q30" s="17"/>
+      <c t="s" r="Q29" s="12">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="30" ht="24.75" customHeight="1">
+      <c r="P30" s="13">
+        <v>1404.81</v>
+      </c>
+      <c r="Q30" s="13"/>
+    </row>
+    <row r="31" ht="16.5" customHeight="1">
+      <c t="s" r="A31" s="14">
+        <v>94</v>
+      </c>
+      <c r="B31" s="14"/>
+      <c r="C31" s="14"/>
+      <c r="D31" s="14"/>
+      <c r="E31" s="14"/>
+      <c r="F31" s="14"/>
+      <c t="s" r="G31" s="15">
+        <v>95</v>
+      </c>
+      <c r="H31" s="15"/>
+      <c r="I31" s="15"/>
+      <c r="J31" s="16"/>
+      <c t="s" r="K31" s="17">
+        <v>96</v>
+      </c>
+      <c r="L31" s="17"/>
+      <c r="M31" s="17"/>
+      <c r="N31" s="17"/>
+      <c r="O31" s="17"/>
+      <c r="P31" s="17"/>
+      <c r="Q31" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="122">
+  <mergeCells count="127">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1789,10 +1831,15 @@
     <mergeCell ref="H28:K28"/>
     <mergeCell ref="L28:M28"/>
     <mergeCell ref="N28:O28"/>
-    <mergeCell ref="P29:Q29"/>
-    <mergeCell ref="A30:F30"/>
-    <mergeCell ref="G30:I30"/>
-    <mergeCell ref="K30:Q30"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="C29:G29"/>
+    <mergeCell ref="H29:K29"/>
+    <mergeCell ref="L29:M29"/>
+    <mergeCell ref="N29:O29"/>
+    <mergeCell ref="P30:Q30"/>
+    <mergeCell ref="A31:F31"/>
+    <mergeCell ref="G31:I31"/>
+    <mergeCell ref="K31:Q31"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-30_00-00.xlsx
+++ b/DaySale_2025-09-30_00-00.xlsx
@@ -275,6 +275,18 @@
     <t>22.0000</t>
   </si>
   <si>
+    <t>صابونه دوف SOAP</t>
+  </si>
+  <si>
+    <t>8:0</t>
+  </si>
+  <si>
+    <t>45.00</t>
+  </si>
+  <si>
+    <t>45.0000</t>
+  </si>
+  <si>
     <t>طمي مغربي بوبانا 400ملل</t>
   </si>
   <si>
@@ -293,7 +305,7 @@
     <t>15.0000</t>
   </si>
   <si>
-    <t>Tuesday, 30 September, 2025 12:09 PM</t>
+    <t>Tuesday, 30 September, 2025 12:15 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1627,7 +1639,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1637,11 +1649,11 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>29</v>
@@ -1653,7 +1665,7 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
@@ -1670,49 +1682,82 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>29</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
-      <c r="P30" s="13">
-        <v>1404.81</v>
-      </c>
-      <c r="Q30" s="13"/>
-    </row>
-    <row r="31" ht="16.5" customHeight="1">
-      <c t="s" r="A31" s="14">
-        <v>94</v>
-      </c>
-      <c r="B31" s="14"/>
-      <c r="C31" s="14"/>
-      <c r="D31" s="14"/>
-      <c r="E31" s="14"/>
-      <c r="F31" s="14"/>
-      <c t="s" r="G31" s="15">
+      <c r="A30" s="7">
+        <v>24</v>
+      </c>
+      <c r="B30" s="7"/>
+      <c t="s" r="C30" s="8">
         <v>95</v>
       </c>
-      <c r="H31" s="15"/>
-      <c r="I31" s="15"/>
-      <c r="J31" s="16"/>
-      <c t="s" r="K31" s="17">
+      <c r="D30" s="8"/>
+      <c r="E30" s="8"/>
+      <c r="F30" s="8"/>
+      <c r="G30" s="8"/>
+      <c t="s" r="H30" s="9">
+        <v>85</v>
+      </c>
+      <c r="I30" s="9"/>
+      <c r="J30" s="9"/>
+      <c r="K30" s="9"/>
+      <c t="s" r="L30" s="10">
+        <v>56</v>
+      </c>
+      <c r="M30" s="10"/>
+      <c t="s" r="N30" s="8">
         <v>96</v>
       </c>
-      <c r="L31" s="17"/>
-      <c r="M31" s="17"/>
-      <c r="N31" s="17"/>
-      <c r="O31" s="17"/>
-      <c r="P31" s="17"/>
-      <c r="Q31" s="17"/>
+      <c r="O30" s="8"/>
+      <c t="s" r="P30" s="11">
+        <v>97</v>
+      </c>
+      <c t="s" r="Q30" s="12">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31" ht="25.5" customHeight="1">
+      <c r="P31" s="13">
+        <v>1449.81</v>
+      </c>
+      <c r="Q31" s="13"/>
+    </row>
+    <row r="32" ht="16.5" customHeight="1">
+      <c t="s" r="A32" s="14">
+        <v>98</v>
+      </c>
+      <c r="B32" s="14"/>
+      <c r="C32" s="14"/>
+      <c r="D32" s="14"/>
+      <c r="E32" s="14"/>
+      <c r="F32" s="14"/>
+      <c t="s" r="G32" s="15">
+        <v>99</v>
+      </c>
+      <c r="H32" s="15"/>
+      <c r="I32" s="15"/>
+      <c r="J32" s="16"/>
+      <c t="s" r="K32" s="17">
+        <v>100</v>
+      </c>
+      <c r="L32" s="17"/>
+      <c r="M32" s="17"/>
+      <c r="N32" s="17"/>
+      <c r="O32" s="17"/>
+      <c r="P32" s="17"/>
+      <c r="Q32" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="127">
+  <mergeCells count="132">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1836,10 +1881,15 @@
     <mergeCell ref="H29:K29"/>
     <mergeCell ref="L29:M29"/>
     <mergeCell ref="N29:O29"/>
-    <mergeCell ref="P30:Q30"/>
-    <mergeCell ref="A31:F31"/>
-    <mergeCell ref="G31:I31"/>
-    <mergeCell ref="K31:Q31"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="C30:G30"/>
+    <mergeCell ref="H30:K30"/>
+    <mergeCell ref="L30:M30"/>
+    <mergeCell ref="N30:O30"/>
+    <mergeCell ref="P31:Q31"/>
+    <mergeCell ref="A32:F32"/>
+    <mergeCell ref="G32:I32"/>
+    <mergeCell ref="K32:Q32"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-30_00-00.xlsx
+++ b/DaySale_2025-09-30_00-00.xlsx
@@ -245,15 +245,6 @@
     <t>35.0000</t>
   </si>
   <si>
-    <t>حنه خمس خمسات صغيره</t>
-  </si>
-  <si>
-    <t>25.00</t>
-  </si>
-  <si>
-    <t>25.0000</t>
-  </si>
-  <si>
     <t>سرنجات 3 سم</t>
   </si>
   <si>
@@ -305,7 +296,7 @@
     <t>15.0000</t>
   </si>
   <si>
-    <t>Tuesday, 30 September, 2025 12:15 PM</t>
+    <t>Tuesday, 30 September, 2025 12:16 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1540,7 +1531,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>75</v>
+        <v>26</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1554,10 +1545,10 @@
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
+        <v>24</v>
+      </c>
+      <c t="s" r="Q25" s="12">
         <v>80</v>
-      </c>
-      <c t="s" r="Q25" s="12">
-        <v>29</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1573,7 +1564,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>26</v>
+        <v>82</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1583,14 +1574,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>24</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>83</v>
+        <v>29</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1599,14 +1590,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1616,11 +1607,11 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>29</v>
@@ -1632,14 +1623,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1672,7 +1663,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1693,71 +1684,38 @@
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
-      <c r="A30" s="7">
-        <v>24</v>
-      </c>
-      <c r="B30" s="7"/>
-      <c t="s" r="C30" s="8">
+      <c r="P30" s="13">
+        <v>1424.81</v>
+      </c>
+      <c r="Q30" s="13"/>
+    </row>
+    <row r="31" ht="16.5" customHeight="1">
+      <c t="s" r="A31" s="14">
         <v>95</v>
       </c>
-      <c r="D30" s="8"/>
-      <c r="E30" s="8"/>
-      <c r="F30" s="8"/>
-      <c r="G30" s="8"/>
-      <c t="s" r="H30" s="9">
-        <v>85</v>
-      </c>
-      <c r="I30" s="9"/>
-      <c r="J30" s="9"/>
-      <c r="K30" s="9"/>
-      <c t="s" r="L30" s="10">
-        <v>56</v>
-      </c>
-      <c r="M30" s="10"/>
-      <c t="s" r="N30" s="8">
+      <c r="B31" s="14"/>
+      <c r="C31" s="14"/>
+      <c r="D31" s="14"/>
+      <c r="E31" s="14"/>
+      <c r="F31" s="14"/>
+      <c t="s" r="G31" s="15">
         <v>96</v>
       </c>
-      <c r="O30" s="8"/>
-      <c t="s" r="P30" s="11">
+      <c r="H31" s="15"/>
+      <c r="I31" s="15"/>
+      <c r="J31" s="16"/>
+      <c t="s" r="K31" s="17">
         <v>97</v>
       </c>
-      <c t="s" r="Q30" s="12">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="31" ht="25.5" customHeight="1">
-      <c r="P31" s="13">
-        <v>1449.81</v>
-      </c>
-      <c r="Q31" s="13"/>
-    </row>
-    <row r="32" ht="16.5" customHeight="1">
-      <c t="s" r="A32" s="14">
-        <v>98</v>
-      </c>
-      <c r="B32" s="14"/>
-      <c r="C32" s="14"/>
-      <c r="D32" s="14"/>
-      <c r="E32" s="14"/>
-      <c r="F32" s="14"/>
-      <c t="s" r="G32" s="15">
-        <v>99</v>
-      </c>
-      <c r="H32" s="15"/>
-      <c r="I32" s="15"/>
-      <c r="J32" s="16"/>
-      <c t="s" r="K32" s="17">
-        <v>100</v>
-      </c>
-      <c r="L32" s="17"/>
-      <c r="M32" s="17"/>
-      <c r="N32" s="17"/>
-      <c r="O32" s="17"/>
-      <c r="P32" s="17"/>
-      <c r="Q32" s="17"/>
+      <c r="L31" s="17"/>
+      <c r="M31" s="17"/>
+      <c r="N31" s="17"/>
+      <c r="O31" s="17"/>
+      <c r="P31" s="17"/>
+      <c r="Q31" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="132">
+  <mergeCells count="127">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1881,15 +1839,10 @@
     <mergeCell ref="H29:K29"/>
     <mergeCell ref="L29:M29"/>
     <mergeCell ref="N29:O29"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="C30:G30"/>
-    <mergeCell ref="H30:K30"/>
-    <mergeCell ref="L30:M30"/>
-    <mergeCell ref="N30:O30"/>
-    <mergeCell ref="P31:Q31"/>
-    <mergeCell ref="A32:F32"/>
-    <mergeCell ref="G32:I32"/>
-    <mergeCell ref="K32:Q32"/>
+    <mergeCell ref="P30:Q30"/>
+    <mergeCell ref="A31:F31"/>
+    <mergeCell ref="G31:I31"/>
+    <mergeCell ref="K31:Q31"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-30_00-00.xlsx
+++ b/DaySale_2025-09-30_00-00.xlsx
@@ -296,7 +296,7 @@
     <t>15.0000</t>
   </si>
   <si>
-    <t>Tuesday, 30 September, 2025 12:16 PM</t>
+    <t>Tuesday, 30 September, 2025 12:17 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-09-30_00-00.xlsx
+++ b/DaySale_2025-09-30_00-00.xlsx
@@ -296,7 +296,7 @@
     <t>15.0000</t>
   </si>
   <si>
-    <t>Tuesday, 30 September, 2025 12:17 PM</t>
+    <t>Tuesday, 30 September, 2025 12:18 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-09-30_00-00.xlsx
+++ b/DaySale_2025-09-30_00-00.xlsx
@@ -254,6 +254,15 @@
     <t>3:0</t>
   </si>
   <si>
+    <t>سيتي بيبي رقم 3</t>
+  </si>
+  <si>
+    <t>190.00</t>
+  </si>
+  <si>
+    <t>190.0000</t>
+  </si>
+  <si>
     <t>صابون ديتول الصغير</t>
   </si>
   <si>
@@ -296,7 +305,7 @@
     <t>15.0000</t>
   </si>
   <si>
-    <t>Tuesday, 30 September, 2025 12:18 PM</t>
+    <t>Tuesday, 30 September, 2025 12:54 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1564,7 +1573,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>82</v>
+        <v>52</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1574,11 +1583,11 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>29</v>
@@ -1590,14 +1599,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1607,11 +1616,11 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>29</v>
@@ -1623,14 +1632,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1663,7 +1672,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1684,38 +1693,71 @@
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
-      <c r="P30" s="13">
-        <v>1424.81</v>
-      </c>
-      <c r="Q30" s="13"/>
-    </row>
-    <row r="31" ht="16.5" customHeight="1">
-      <c t="s" r="A31" s="14">
+      <c r="A30" s="7">
+        <v>24</v>
+      </c>
+      <c r="B30" s="7"/>
+      <c t="s" r="C30" s="8">
         <v>95</v>
       </c>
-      <c r="B31" s="14"/>
-      <c r="C31" s="14"/>
-      <c r="D31" s="14"/>
-      <c r="E31" s="14"/>
-      <c r="F31" s="14"/>
-      <c t="s" r="G31" s="15">
+      <c r="D30" s="8"/>
+      <c r="E30" s="8"/>
+      <c r="F30" s="8"/>
+      <c r="G30" s="8"/>
+      <c t="s" r="H30" s="9">
+        <v>85</v>
+      </c>
+      <c r="I30" s="9"/>
+      <c r="J30" s="9"/>
+      <c r="K30" s="9"/>
+      <c t="s" r="L30" s="10">
+        <v>56</v>
+      </c>
+      <c r="M30" s="10"/>
+      <c t="s" r="N30" s="8">
         <v>96</v>
       </c>
-      <c r="H31" s="15"/>
-      <c r="I31" s="15"/>
-      <c r="J31" s="16"/>
-      <c t="s" r="K31" s="17">
+      <c r="O30" s="8"/>
+      <c t="s" r="P30" s="11">
         <v>97</v>
       </c>
-      <c r="L31" s="17"/>
-      <c r="M31" s="17"/>
-      <c r="N31" s="17"/>
-      <c r="O31" s="17"/>
-      <c r="P31" s="17"/>
-      <c r="Q31" s="17"/>
+      <c t="s" r="Q30" s="12">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31" ht="25.5" customHeight="1">
+      <c r="P31" s="13">
+        <v>1614.81</v>
+      </c>
+      <c r="Q31" s="13"/>
+    </row>
+    <row r="32" ht="16.5" customHeight="1">
+      <c t="s" r="A32" s="14">
+        <v>98</v>
+      </c>
+      <c r="B32" s="14"/>
+      <c r="C32" s="14"/>
+      <c r="D32" s="14"/>
+      <c r="E32" s="14"/>
+      <c r="F32" s="14"/>
+      <c t="s" r="G32" s="15">
+        <v>99</v>
+      </c>
+      <c r="H32" s="15"/>
+      <c r="I32" s="15"/>
+      <c r="J32" s="16"/>
+      <c t="s" r="K32" s="17">
+        <v>100</v>
+      </c>
+      <c r="L32" s="17"/>
+      <c r="M32" s="17"/>
+      <c r="N32" s="17"/>
+      <c r="O32" s="17"/>
+      <c r="P32" s="17"/>
+      <c r="Q32" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="127">
+  <mergeCells count="132">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1839,10 +1881,15 @@
     <mergeCell ref="H29:K29"/>
     <mergeCell ref="L29:M29"/>
     <mergeCell ref="N29:O29"/>
-    <mergeCell ref="P30:Q30"/>
-    <mergeCell ref="A31:F31"/>
-    <mergeCell ref="G31:I31"/>
-    <mergeCell ref="K31:Q31"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="C30:G30"/>
+    <mergeCell ref="H30:K30"/>
+    <mergeCell ref="L30:M30"/>
+    <mergeCell ref="N30:O30"/>
+    <mergeCell ref="P31:Q31"/>
+    <mergeCell ref="A32:F32"/>
+    <mergeCell ref="G32:I32"/>
+    <mergeCell ref="K32:Q32"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-30_00-00.xlsx
+++ b/DaySale_2025-09-30_00-00.xlsx
@@ -305,7 +305,7 @@
     <t>15.0000</t>
   </si>
   <si>
-    <t>Tuesday, 30 September, 2025 12:54 PM</t>
+    <t>Tuesday, 30 September, 2025 1:00 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-09-30_00-00.xlsx
+++ b/DaySale_2025-09-30_00-00.xlsx
@@ -101,6 +101,15 @@
     <t>1:0</t>
   </si>
   <si>
+    <t>CARBAMIDE 10% CREAM 30 GM</t>
+  </si>
+  <si>
+    <t>40.00</t>
+  </si>
+  <si>
+    <t>40.0000</t>
+  </si>
+  <si>
     <t>DICLAC 150 ID 20 PROLONGED R TABS</t>
   </si>
   <si>
@@ -197,6 +206,15 @@
     <t>70.0000</t>
   </si>
   <si>
+    <t>MELOQUIN 4% CREAM 20 GM</t>
+  </si>
+  <si>
+    <t>60.00</t>
+  </si>
+  <si>
+    <t>60.0000</t>
+  </si>
+  <si>
     <t>SPASMOFEN 3 AMP. FOR I.M. INJ.</t>
   </si>
   <si>
@@ -233,6 +251,15 @@
     <t>140.0000</t>
   </si>
   <si>
+    <t>ZINCOSIL CREAM 20 GM</t>
+  </si>
+  <si>
+    <t>18.00</t>
+  </si>
+  <si>
+    <t>18.0000</t>
+  </si>
+  <si>
     <t>بادي سبلاش افوفا الصغير</t>
   </si>
   <si>
@@ -305,7 +332,7 @@
     <t>15.0000</t>
   </si>
   <si>
-    <t>Tuesday, 30 September, 2025 1:00 PM</t>
+    <t>Tuesday, 30 September, 2025 1:36 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1095,7 +1122,7 @@
         <v>32</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1111,7 +1138,7 @@
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1121,14 +1148,14 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>37</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1137,14 +1164,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1154,14 +1181,14 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>29</v>
+        <v>40</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1170,14 +1197,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1194,7 +1221,7 @@
         <v>44</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1210,7 +1237,7 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1227,7 +1254,7 @@
         <v>47</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1276,7 +1303,7 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>52</v>
+        <v>26</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1286,11 +1313,11 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c t="s" r="Q17" s="12">
         <v>29</v>
@@ -1302,28 +1329,28 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>26</v>
+        <v>55</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
       <c r="K18" s="9"/>
       <c t="s" r="L18" s="10">
-        <v>56</v>
+        <v>13</v>
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q18" s="12">
         <v>29</v>
@@ -1335,7 +1362,7 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
@@ -1348,7 +1375,7 @@
       <c r="J19" s="9"/>
       <c r="K19" s="9"/>
       <c t="s" r="L19" s="10">
-        <v>13</v>
+        <v>59</v>
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
@@ -1375,7 +1402,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>63</v>
+        <v>26</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1385,14 +1412,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1401,7 +1428,7 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
@@ -1418,7 +1445,7 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
@@ -1451,11 +1478,11 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>14</v>
+        <v>70</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q22" s="12">
         <v>16</v>
@@ -1467,14 +1494,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1484,7 +1511,7 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
@@ -1513,18 +1540,18 @@
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
       <c t="s" r="L24" s="10">
-        <v>56</v>
+        <v>13</v>
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>76</v>
+        <v>14</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1533,31 +1560,31 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
       <c t="s" r="L25" s="10">
-        <v>56</v>
+        <v>13</v>
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>24</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>80</v>
+        <v>29</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1566,28 +1593,28 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
       <c t="s" r="L26" s="10">
-        <v>56</v>
+        <v>13</v>
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>29</v>
@@ -1599,28 +1626,28 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
       <c t="s" r="L27" s="10">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>29</v>
@@ -1632,31 +1659,31 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>89</v>
+        <v>26</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
       <c t="s" r="L28" s="10">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>91</v>
+        <v>24</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>29</v>
+        <v>89</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1665,28 +1692,28 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>85</v>
+        <v>55</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
       <c t="s" r="L29" s="10">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>29</v>
@@ -1698,66 +1725,165 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
       <c t="s" r="L30" s="10">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
+        <v>96</v>
+      </c>
+      <c t="s" r="Q30" s="12">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31" ht="25.5" customHeight="1">
+      <c r="A31" s="7">
+        <v>25</v>
+      </c>
+      <c r="B31" s="7"/>
+      <c t="s" r="C31" s="8">
         <v>97</v>
       </c>
-      <c t="s" r="Q30" s="12">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="31" ht="25.5" customHeight="1">
-      <c r="P31" s="13">
-        <v>1614.81</v>
-      </c>
-      <c r="Q31" s="13"/>
-    </row>
-    <row r="32" ht="16.5" customHeight="1">
-      <c t="s" r="A32" s="14">
+      <c r="D31" s="8"/>
+      <c r="E31" s="8"/>
+      <c r="F31" s="8"/>
+      <c r="G31" s="8"/>
+      <c t="s" r="H31" s="9">
         <v>98</v>
       </c>
-      <c r="B32" s="14"/>
-      <c r="C32" s="14"/>
-      <c r="D32" s="14"/>
-      <c r="E32" s="14"/>
-      <c r="F32" s="14"/>
-      <c t="s" r="G32" s="15">
+      <c r="I31" s="9"/>
+      <c r="J31" s="9"/>
+      <c r="K31" s="9"/>
+      <c t="s" r="L31" s="10">
+        <v>59</v>
+      </c>
+      <c r="M31" s="10"/>
+      <c t="s" r="N31" s="8">
         <v>99</v>
       </c>
-      <c r="H32" s="15"/>
-      <c r="I32" s="15"/>
-      <c r="J32" s="16"/>
-      <c t="s" r="K32" s="17">
+      <c r="O31" s="8"/>
+      <c t="s" r="P31" s="11">
         <v>100</v>
       </c>
-      <c r="L32" s="17"/>
-      <c r="M32" s="17"/>
-      <c r="N32" s="17"/>
-      <c r="O32" s="17"/>
-      <c r="P32" s="17"/>
-      <c r="Q32" s="17"/>
+      <c t="s" r="Q31" s="12">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="32" ht="25.5" customHeight="1">
+      <c r="A32" s="7">
+        <v>26</v>
+      </c>
+      <c r="B32" s="7"/>
+      <c t="s" r="C32" s="8">
+        <v>101</v>
+      </c>
+      <c r="D32" s="8"/>
+      <c r="E32" s="8"/>
+      <c r="F32" s="8"/>
+      <c r="G32" s="8"/>
+      <c t="s" r="H32" s="9">
+        <v>94</v>
+      </c>
+      <c r="I32" s="9"/>
+      <c r="J32" s="9"/>
+      <c r="K32" s="9"/>
+      <c t="s" r="L32" s="10">
+        <v>59</v>
+      </c>
+      <c r="M32" s="10"/>
+      <c t="s" r="N32" s="8">
+        <v>102</v>
+      </c>
+      <c r="O32" s="8"/>
+      <c t="s" r="P32" s="11">
+        <v>103</v>
+      </c>
+      <c t="s" r="Q32" s="12">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="33" ht="24.75" customHeight="1">
+      <c r="A33" s="7">
+        <v>27</v>
+      </c>
+      <c r="B33" s="7"/>
+      <c t="s" r="C33" s="8">
+        <v>104</v>
+      </c>
+      <c r="D33" s="8"/>
+      <c r="E33" s="8"/>
+      <c r="F33" s="8"/>
+      <c r="G33" s="8"/>
+      <c t="s" r="H33" s="9">
+        <v>94</v>
+      </c>
+      <c r="I33" s="9"/>
+      <c r="J33" s="9"/>
+      <c r="K33" s="9"/>
+      <c t="s" r="L33" s="10">
+        <v>59</v>
+      </c>
+      <c r="M33" s="10"/>
+      <c t="s" r="N33" s="8">
+        <v>105</v>
+      </c>
+      <c r="O33" s="8"/>
+      <c t="s" r="P33" s="11">
+        <v>106</v>
+      </c>
+      <c t="s" r="Q33" s="12">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="34" ht="25.5" customHeight="1">
+      <c r="P34" s="13">
+        <v>1732.81</v>
+      </c>
+      <c r="Q34" s="13"/>
+    </row>
+    <row r="35" ht="16.5" customHeight="1">
+      <c t="s" r="A35" s="14">
+        <v>107</v>
+      </c>
+      <c r="B35" s="14"/>
+      <c r="C35" s="14"/>
+      <c r="D35" s="14"/>
+      <c r="E35" s="14"/>
+      <c r="F35" s="14"/>
+      <c t="s" r="G35" s="15">
+        <v>108</v>
+      </c>
+      <c r="H35" s="15"/>
+      <c r="I35" s="15"/>
+      <c r="J35" s="16"/>
+      <c t="s" r="K35" s="17">
+        <v>109</v>
+      </c>
+      <c r="L35" s="17"/>
+      <c r="M35" s="17"/>
+      <c r="N35" s="17"/>
+      <c r="O35" s="17"/>
+      <c r="P35" s="17"/>
+      <c r="Q35" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="132">
+  <mergeCells count="147">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1886,10 +2012,25 @@
     <mergeCell ref="H30:K30"/>
     <mergeCell ref="L30:M30"/>
     <mergeCell ref="N30:O30"/>
-    <mergeCell ref="P31:Q31"/>
-    <mergeCell ref="A32:F32"/>
-    <mergeCell ref="G32:I32"/>
-    <mergeCell ref="K32:Q32"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="C31:G31"/>
+    <mergeCell ref="H31:K31"/>
+    <mergeCell ref="L31:M31"/>
+    <mergeCell ref="N31:O31"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="C32:G32"/>
+    <mergeCell ref="H32:K32"/>
+    <mergeCell ref="L32:M32"/>
+    <mergeCell ref="N32:O32"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="C33:G33"/>
+    <mergeCell ref="H33:K33"/>
+    <mergeCell ref="L33:M33"/>
+    <mergeCell ref="N33:O33"/>
+    <mergeCell ref="P34:Q34"/>
+    <mergeCell ref="A35:F35"/>
+    <mergeCell ref="G35:I35"/>
+    <mergeCell ref="K35:Q35"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-30_00-00.xlsx
+++ b/DaySale_2025-09-30_00-00.xlsx
@@ -215,6 +215,24 @@
     <t>60.0000</t>
   </si>
   <si>
+    <t>NASSAR 12*8 F.C. TAB.</t>
+  </si>
+  <si>
+    <t>156.00</t>
+  </si>
+  <si>
+    <t>SILDAVA 100MG 12 TABLETS</t>
+  </si>
+  <si>
+    <t>2:9</t>
+  </si>
+  <si>
+    <t>144.00</t>
+  </si>
+  <si>
+    <t>11.5200</t>
+  </si>
+  <si>
     <t>SPASMOFEN 3 AMP. FOR I.M. INJ.</t>
   </si>
   <si>
@@ -332,7 +350,7 @@
     <t>15.0000</t>
   </si>
   <si>
-    <t>Tuesday, 30 September, 2025 1:36 PM</t>
+    <t>Tuesday, 30 September, 2025 1:37 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1468,7 +1486,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>69</v>
+        <v>40</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1478,11 +1496,11 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>71</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q22" s="12">
         <v>16</v>
@@ -1494,14 +1512,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>29</v>
+        <v>71</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1511,14 +1529,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
         <v>73</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1544,11 +1562,11 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>14</v>
+        <v>76</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>16</v>
@@ -1560,14 +1578,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1577,7 +1595,7 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
@@ -1600,7 +1618,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>55</v>
+        <v>81</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1610,14 +1628,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>81</v>
+        <v>14</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
         <v>82</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1633,21 +1651,21 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>84</v>
+        <v>16</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
       <c t="s" r="L27" s="10">
-        <v>59</v>
+        <v>13</v>
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>29</v>
@@ -1659,31 +1677,31 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>26</v>
+        <v>55</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
       <c t="s" r="L28" s="10">
-        <v>59</v>
+        <v>13</v>
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>24</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>89</v>
+        <v>29</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1692,14 +1710,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>55</v>
+        <v>90</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1732,7 +1750,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>94</v>
+        <v>26</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1742,14 +1760,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>96</v>
+        <v>24</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>29</v>
+        <v>95</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1758,14 +1776,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>98</v>
+        <v>55</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1775,11 +1793,11 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>29</v>
@@ -1791,14 +1809,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1808,11 +1826,11 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>29</v>
@@ -1824,14 +1842,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -1852,38 +1870,104 @@
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
-      <c r="P34" s="13">
-        <v>1732.81</v>
-      </c>
-      <c r="Q34" s="13"/>
-    </row>
-    <row r="35" ht="16.5" customHeight="1">
-      <c t="s" r="A35" s="14">
+      <c r="A34" s="7">
+        <v>28</v>
+      </c>
+      <c r="B34" s="7"/>
+      <c t="s" r="C34" s="8">
         <v>107</v>
       </c>
-      <c r="B35" s="14"/>
-      <c r="C35" s="14"/>
-      <c r="D35" s="14"/>
-      <c r="E35" s="14"/>
-      <c r="F35" s="14"/>
-      <c t="s" r="G35" s="15">
+      <c r="D34" s="8"/>
+      <c r="E34" s="8"/>
+      <c r="F34" s="8"/>
+      <c r="G34" s="8"/>
+      <c t="s" r="H34" s="9">
+        <v>100</v>
+      </c>
+      <c r="I34" s="9"/>
+      <c r="J34" s="9"/>
+      <c r="K34" s="9"/>
+      <c t="s" r="L34" s="10">
+        <v>59</v>
+      </c>
+      <c r="M34" s="10"/>
+      <c t="s" r="N34" s="8">
         <v>108</v>
       </c>
-      <c r="H35" s="15"/>
-      <c r="I35" s="15"/>
-      <c r="J35" s="16"/>
-      <c t="s" r="K35" s="17">
+      <c r="O34" s="8"/>
+      <c t="s" r="P34" s="11">
         <v>109</v>
       </c>
-      <c r="L35" s="17"/>
-      <c r="M35" s="17"/>
-      <c r="N35" s="17"/>
-      <c r="O35" s="17"/>
-      <c r="P35" s="17"/>
-      <c r="Q35" s="17"/>
+      <c t="s" r="Q34" s="12">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="35" ht="24.75" customHeight="1">
+      <c r="A35" s="7">
+        <v>29</v>
+      </c>
+      <c r="B35" s="7"/>
+      <c t="s" r="C35" s="8">
+        <v>110</v>
+      </c>
+      <c r="D35" s="8"/>
+      <c r="E35" s="8"/>
+      <c r="F35" s="8"/>
+      <c r="G35" s="8"/>
+      <c t="s" r="H35" s="9">
+        <v>100</v>
+      </c>
+      <c r="I35" s="9"/>
+      <c r="J35" s="9"/>
+      <c r="K35" s="9"/>
+      <c t="s" r="L35" s="10">
+        <v>59</v>
+      </c>
+      <c r="M35" s="10"/>
+      <c t="s" r="N35" s="8">
+        <v>111</v>
+      </c>
+      <c r="O35" s="8"/>
+      <c t="s" r="P35" s="11">
+        <v>112</v>
+      </c>
+      <c t="s" r="Q35" s="12">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="36" ht="25.5" customHeight="1">
+      <c r="P36" s="13">
+        <v>1756.81</v>
+      </c>
+      <c r="Q36" s="13"/>
+    </row>
+    <row r="37" ht="16.5" customHeight="1">
+      <c t="s" r="A37" s="14">
+        <v>113</v>
+      </c>
+      <c r="B37" s="14"/>
+      <c r="C37" s="14"/>
+      <c r="D37" s="14"/>
+      <c r="E37" s="14"/>
+      <c r="F37" s="14"/>
+      <c t="s" r="G37" s="15">
+        <v>114</v>
+      </c>
+      <c r="H37" s="15"/>
+      <c r="I37" s="15"/>
+      <c r="J37" s="16"/>
+      <c t="s" r="K37" s="17">
+        <v>115</v>
+      </c>
+      <c r="L37" s="17"/>
+      <c r="M37" s="17"/>
+      <c r="N37" s="17"/>
+      <c r="O37" s="17"/>
+      <c r="P37" s="17"/>
+      <c r="Q37" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="147">
+  <mergeCells count="157">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2027,10 +2111,20 @@
     <mergeCell ref="H33:K33"/>
     <mergeCell ref="L33:M33"/>
     <mergeCell ref="N33:O33"/>
-    <mergeCell ref="P34:Q34"/>
-    <mergeCell ref="A35:F35"/>
-    <mergeCell ref="G35:I35"/>
-    <mergeCell ref="K35:Q35"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="C34:G34"/>
+    <mergeCell ref="H34:K34"/>
+    <mergeCell ref="L34:M34"/>
+    <mergeCell ref="N34:O34"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="C35:G35"/>
+    <mergeCell ref="H35:K35"/>
+    <mergeCell ref="L35:M35"/>
+    <mergeCell ref="N35:O35"/>
+    <mergeCell ref="P36:Q36"/>
+    <mergeCell ref="A37:F37"/>
+    <mergeCell ref="G37:I37"/>
+    <mergeCell ref="K37:Q37"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-30_00-00.xlsx
+++ b/DaySale_2025-09-30_00-00.xlsx
@@ -221,18 +221,6 @@
     <t>156.00</t>
   </si>
   <si>
-    <t>SILDAVA 100MG 12 TABLETS</t>
-  </si>
-  <si>
-    <t>2:9</t>
-  </si>
-  <si>
-    <t>144.00</t>
-  </si>
-  <si>
-    <t>11.5200</t>
-  </si>
-  <si>
     <t>SPASMOFEN 3 AMP. FOR I.M. INJ.</t>
   </si>
   <si>
@@ -350,7 +338,7 @@
     <t>15.0000</t>
   </si>
   <si>
-    <t>Tuesday, 30 September, 2025 1:37 PM</t>
+    <t>Tuesday, 30 September, 2025 1:38 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1552,7 +1540,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>75</v>
+        <v>29</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1562,14 +1550,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1578,14 +1566,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>29</v>
+        <v>77</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1595,14 +1583,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>76</v>
+        <v>14</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1611,14 +1599,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>81</v>
+        <v>16</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1628,14 +1616,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>14</v>
+        <v>80</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1644,14 +1632,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>16</v>
+        <v>55</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1661,11 +1649,11 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>29</v>
@@ -1677,20 +1665,20 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>55</v>
+        <v>86</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
       <c t="s" r="L28" s="10">
-        <v>13</v>
+        <v>59</v>
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
@@ -1717,7 +1705,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>90</v>
+        <v>26</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1727,14 +1715,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>92</v>
+        <v>24</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>29</v>
+        <v>91</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1743,14 +1731,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>26</v>
+        <v>55</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1760,14 +1748,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>24</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>95</v>
+        <v>29</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1776,14 +1764,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>55</v>
+        <v>96</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1849,7 +1837,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -1859,11 +1847,11 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>29</v>
@@ -1875,14 +1863,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -1892,82 +1880,49 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
+        <v>108</v>
+      </c>
+      <c t="s" r="Q34" s="12">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="35" ht="24.75" customHeight="1">
+      <c r="P35" s="13">
+        <v>1745.29</v>
+      </c>
+      <c r="Q35" s="13"/>
+    </row>
+    <row r="36" ht="16.5" customHeight="1">
+      <c t="s" r="A36" s="14">
         <v>109</v>
       </c>
-      <c t="s" r="Q34" s="12">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="35" ht="24.75" customHeight="1">
-      <c r="A35" s="7">
-        <v>29</v>
-      </c>
-      <c r="B35" s="7"/>
-      <c t="s" r="C35" s="8">
+      <c r="B36" s="14"/>
+      <c r="C36" s="14"/>
+      <c r="D36" s="14"/>
+      <c r="E36" s="14"/>
+      <c r="F36" s="14"/>
+      <c t="s" r="G36" s="15">
         <v>110</v>
       </c>
-      <c r="D35" s="8"/>
-      <c r="E35" s="8"/>
-      <c r="F35" s="8"/>
-      <c r="G35" s="8"/>
-      <c t="s" r="H35" s="9">
-        <v>100</v>
-      </c>
-      <c r="I35" s="9"/>
-      <c r="J35" s="9"/>
-      <c r="K35" s="9"/>
-      <c t="s" r="L35" s="10">
-        <v>59</v>
-      </c>
-      <c r="M35" s="10"/>
-      <c t="s" r="N35" s="8">
+      <c r="H36" s="15"/>
+      <c r="I36" s="15"/>
+      <c r="J36" s="16"/>
+      <c t="s" r="K36" s="17">
         <v>111</v>
       </c>
-      <c r="O35" s="8"/>
-      <c t="s" r="P35" s="11">
-        <v>112</v>
-      </c>
-      <c t="s" r="Q35" s="12">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="36" ht="25.5" customHeight="1">
-      <c r="P36" s="13">
-        <v>1756.81</v>
-      </c>
-      <c r="Q36" s="13"/>
-    </row>
-    <row r="37" ht="16.5" customHeight="1">
-      <c t="s" r="A37" s="14">
-        <v>113</v>
-      </c>
-      <c r="B37" s="14"/>
-      <c r="C37" s="14"/>
-      <c r="D37" s="14"/>
-      <c r="E37" s="14"/>
-      <c r="F37" s="14"/>
-      <c t="s" r="G37" s="15">
-        <v>114</v>
-      </c>
-      <c r="H37" s="15"/>
-      <c r="I37" s="15"/>
-      <c r="J37" s="16"/>
-      <c t="s" r="K37" s="17">
-        <v>115</v>
-      </c>
-      <c r="L37" s="17"/>
-      <c r="M37" s="17"/>
-      <c r="N37" s="17"/>
-      <c r="O37" s="17"/>
-      <c r="P37" s="17"/>
-      <c r="Q37" s="17"/>
+      <c r="L36" s="17"/>
+      <c r="M36" s="17"/>
+      <c r="N36" s="17"/>
+      <c r="O36" s="17"/>
+      <c r="P36" s="17"/>
+      <c r="Q36" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="157">
+  <mergeCells count="152">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2116,15 +2071,10 @@
     <mergeCell ref="H34:K34"/>
     <mergeCell ref="L34:M34"/>
     <mergeCell ref="N34:O34"/>
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="C35:G35"/>
-    <mergeCell ref="H35:K35"/>
-    <mergeCell ref="L35:M35"/>
-    <mergeCell ref="N35:O35"/>
-    <mergeCell ref="P36:Q36"/>
-    <mergeCell ref="A37:F37"/>
-    <mergeCell ref="G37:I37"/>
-    <mergeCell ref="K37:Q37"/>
+    <mergeCell ref="P35:Q35"/>
+    <mergeCell ref="A36:F36"/>
+    <mergeCell ref="G36:I36"/>
+    <mergeCell ref="K36:Q36"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-30_00-00.xlsx
+++ b/DaySale_2025-09-30_00-00.xlsx
@@ -110,6 +110,18 @@
     <t>40.0000</t>
   </si>
   <si>
+    <t>DEPOVIT B12-1000MCG/ML 5 I.M. AMP</t>
+  </si>
+  <si>
+    <t>2:0</t>
+  </si>
+  <si>
+    <t>85.00</t>
+  </si>
+  <si>
+    <t>85.0000</t>
+  </si>
+  <si>
     <t>DICLAC 150 ID 20 PROLONGED R TABS</t>
   </si>
   <si>
@@ -176,9 +188,6 @@
     <t>HERO BABY 1 MILK 400 GM</t>
   </si>
   <si>
-    <t>2:0</t>
-  </si>
-  <si>
     <t>259.00</t>
   </si>
   <si>
@@ -284,7 +293,10 @@
     <t>2.00</t>
   </si>
   <si>
-    <t>3:0</t>
+    <t>16.0000</t>
+  </si>
+  <si>
+    <t>8:0</t>
   </si>
   <si>
     <t>سيتي بيبي رقم 3</t>
@@ -311,9 +323,6 @@
     <t>صابونه دوف SOAP</t>
   </si>
   <si>
-    <t>8:0</t>
-  </si>
-  <si>
     <t>45.00</t>
   </si>
   <si>
@@ -338,7 +347,7 @@
     <t>15.0000</t>
   </si>
   <si>
-    <t>Tuesday, 30 September, 2025 1:38 PM</t>
+    <t>Tuesday, 30 September, 2025 2:14 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1144,7 +1153,7 @@
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1154,14 +1163,14 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1170,14 +1179,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1194,7 +1203,7 @@
         <v>39</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>40</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1203,14 +1212,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1220,14 +1229,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
+        <v>43</v>
+      </c>
+      <c t="s" r="Q14" s="12">
         <v>44</v>
-      </c>
-      <c t="s" r="Q14" s="12">
-        <v>29</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1243,7 +1252,7 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>18</v>
+        <v>46</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1253,14 +1262,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1269,14 +1278,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1286,14 +1295,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1302,7 +1311,7 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
@@ -1319,11 +1328,11 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q17" s="12">
         <v>29</v>
@@ -1335,14 +1344,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>55</v>
+        <v>26</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1375,21 +1384,21 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
       <c r="K19" s="9"/>
       <c t="s" r="L19" s="10">
-        <v>59</v>
+        <v>13</v>
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q19" s="12">
         <v>29</v>
@@ -1401,7 +1410,7 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
@@ -1414,7 +1423,7 @@
       <c r="J20" s="9"/>
       <c r="K20" s="9"/>
       <c t="s" r="L20" s="10">
-        <v>13</v>
+        <v>62</v>
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
@@ -1441,7 +1450,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1474,7 +1483,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1488,10 +1497,10 @@
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>20</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1500,14 +1509,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>71</v>
+        <v>44</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1521,7 +1530,7 @@
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>73</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q23" s="12">
         <v>16</v>
@@ -1533,14 +1542,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>29</v>
+        <v>74</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1550,14 +1559,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1566,14 +1575,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>77</v>
+        <v>29</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1583,14 +1592,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>14</v>
+        <v>75</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
         <v>78</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1606,7 +1615,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>16</v>
+        <v>80</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1616,14 +1625,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>80</v>
+        <v>14</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
         <v>81</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1639,7 +1648,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>55</v>
+        <v>16</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1672,21 +1681,21 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>86</v>
+        <v>34</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
       <c t="s" r="L28" s="10">
-        <v>59</v>
+        <v>13</v>
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>29</v>
@@ -1698,20 +1707,20 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>26</v>
+        <v>89</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
       <c t="s" r="L29" s="10">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
@@ -1719,10 +1728,10 @@
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>24</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>91</v>
+        <v>29</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1738,13 +1747,13 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>55</v>
+        <v>26</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
       <c t="s" r="L30" s="10">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
@@ -1755,7 +1764,7 @@
         <v>94</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>29</v>
+        <v>95</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1764,20 +1773,20 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>96</v>
+        <v>34</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
       <c t="s" r="L31" s="10">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
@@ -1810,7 +1819,7 @@
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
       <c t="s" r="L32" s="10">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
@@ -1837,13 +1846,13 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
       <c t="s" r="L33" s="10">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
@@ -1870,13 +1879,13 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
       <c t="s" r="L34" s="10">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
@@ -1891,38 +1900,71 @@
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
-      <c r="P35" s="13">
-        <v>1745.29</v>
-      </c>
-      <c r="Q35" s="13"/>
-    </row>
-    <row r="36" ht="16.5" customHeight="1">
-      <c t="s" r="A36" s="14">
+      <c r="A35" s="7">
+        <v>29</v>
+      </c>
+      <c r="B35" s="7"/>
+      <c t="s" r="C35" s="8">
         <v>109</v>
       </c>
-      <c r="B36" s="14"/>
-      <c r="C36" s="14"/>
-      <c r="D36" s="14"/>
-      <c r="E36" s="14"/>
-      <c r="F36" s="14"/>
-      <c t="s" r="G36" s="15">
+      <c r="D35" s="8"/>
+      <c r="E35" s="8"/>
+      <c r="F35" s="8"/>
+      <c r="G35" s="8"/>
+      <c t="s" r="H35" s="9">
+        <v>100</v>
+      </c>
+      <c r="I35" s="9"/>
+      <c r="J35" s="9"/>
+      <c r="K35" s="9"/>
+      <c t="s" r="L35" s="10">
+        <v>62</v>
+      </c>
+      <c r="M35" s="10"/>
+      <c t="s" r="N35" s="8">
         <v>110</v>
       </c>
-      <c r="H36" s="15"/>
-      <c r="I36" s="15"/>
-      <c r="J36" s="16"/>
-      <c t="s" r="K36" s="17">
+      <c r="O35" s="8"/>
+      <c t="s" r="P35" s="11">
         <v>111</v>
       </c>
-      <c r="L36" s="17"/>
-      <c r="M36" s="17"/>
-      <c r="N36" s="17"/>
-      <c r="O36" s="17"/>
-      <c r="P36" s="17"/>
-      <c r="Q36" s="17"/>
+      <c t="s" r="Q35" s="12">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="36" ht="25.5" customHeight="1">
+      <c r="P36" s="13">
+        <v>1840.29</v>
+      </c>
+      <c r="Q36" s="13"/>
+    </row>
+    <row r="37" ht="16.5" customHeight="1">
+      <c t="s" r="A37" s="14">
+        <v>112</v>
+      </c>
+      <c r="B37" s="14"/>
+      <c r="C37" s="14"/>
+      <c r="D37" s="14"/>
+      <c r="E37" s="14"/>
+      <c r="F37" s="14"/>
+      <c t="s" r="G37" s="15">
+        <v>113</v>
+      </c>
+      <c r="H37" s="15"/>
+      <c r="I37" s="15"/>
+      <c r="J37" s="16"/>
+      <c t="s" r="K37" s="17">
+        <v>114</v>
+      </c>
+      <c r="L37" s="17"/>
+      <c r="M37" s="17"/>
+      <c r="N37" s="17"/>
+      <c r="O37" s="17"/>
+      <c r="P37" s="17"/>
+      <c r="Q37" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="152">
+  <mergeCells count="157">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2071,10 +2113,15 @@
     <mergeCell ref="H34:K34"/>
     <mergeCell ref="L34:M34"/>
     <mergeCell ref="N34:O34"/>
-    <mergeCell ref="P35:Q35"/>
-    <mergeCell ref="A36:F36"/>
-    <mergeCell ref="G36:I36"/>
-    <mergeCell ref="K36:Q36"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="C35:G35"/>
+    <mergeCell ref="H35:K35"/>
+    <mergeCell ref="L35:M35"/>
+    <mergeCell ref="N35:O35"/>
+    <mergeCell ref="P36:Q36"/>
+    <mergeCell ref="A37:F37"/>
+    <mergeCell ref="G37:I37"/>
+    <mergeCell ref="K37:Q37"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-30_00-00.xlsx
+++ b/DaySale_2025-09-30_00-00.xlsx
@@ -122,6 +122,15 @@
     <t>85.0000</t>
   </si>
   <si>
+    <t>DEXAFLOX EYE DROPS 5 ML</t>
+  </si>
+  <si>
+    <t>53.00</t>
+  </si>
+  <si>
+    <t>53.0000</t>
+  </si>
+  <si>
     <t>DICLAC 150 ID 20 PROLONGED R TABS</t>
   </si>
   <si>
@@ -347,7 +356,7 @@
     <t>15.0000</t>
   </si>
   <si>
-    <t>Tuesday, 30 September, 2025 2:14 PM</t>
+    <t>Tuesday, 30 September, 2025 2:37 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1203,7 +1212,7 @@
         <v>39</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1219,7 +1228,7 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1229,14 +1238,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>44</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1245,14 +1254,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1262,14 +1271,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>29</v>
+        <v>47</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1278,14 +1287,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>18</v>
+        <v>49</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1302,7 +1311,7 @@
         <v>51</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1318,7 +1327,7 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1335,7 +1344,7 @@
         <v>54</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1384,7 +1393,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1417,21 +1426,21 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
       <c r="K20" s="9"/>
       <c t="s" r="L20" s="10">
-        <v>62</v>
+        <v>13</v>
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q20" s="12">
         <v>29</v>
@@ -1443,7 +1452,7 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
@@ -1456,7 +1465,7 @@
       <c r="J21" s="9"/>
       <c r="K21" s="9"/>
       <c t="s" r="L21" s="10">
-        <v>13</v>
+        <v>65</v>
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
@@ -1483,7 +1492,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1516,7 +1525,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1530,10 +1539,10 @@
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>20</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1542,14 +1551,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>74</v>
+        <v>47</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1563,7 +1572,7 @@
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>76</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>16</v>
@@ -1575,14 +1584,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>29</v>
+        <v>77</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1592,14 +1601,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1608,14 +1617,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>80</v>
+        <v>29</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1625,14 +1634,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>14</v>
+        <v>78</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
         <v>81</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1648,7 +1657,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>16</v>
+        <v>83</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1658,14 +1667,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>83</v>
+        <v>14</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
         <v>84</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1681,7 +1690,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1714,21 +1723,21 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>89</v>
+        <v>34</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
       <c t="s" r="L29" s="10">
-        <v>62</v>
+        <v>13</v>
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>29</v>
@@ -1740,20 +1749,20 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>26</v>
+        <v>92</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
       <c t="s" r="L30" s="10">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
@@ -1764,7 +1773,7 @@
         <v>94</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>95</v>
+        <v>29</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1773,31 +1782,31 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
       <c t="s" r="L31" s="10">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
+        <v>97</v>
+      </c>
+      <c t="s" r="Q31" s="12">
         <v>98</v>
-      </c>
-      <c t="s" r="Q31" s="12">
-        <v>29</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1813,21 +1822,21 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>100</v>
+        <v>34</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
       <c t="s" r="L32" s="10">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>29</v>
@@ -1839,20 +1848,20 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
       <c t="s" r="L33" s="10">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
@@ -1879,13 +1888,13 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
       <c t="s" r="L34" s="10">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
@@ -1912,13 +1921,13 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
       <c t="s" r="L35" s="10">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
@@ -1933,38 +1942,71 @@
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
-      <c r="P36" s="13">
-        <v>1840.29</v>
-      </c>
-      <c r="Q36" s="13"/>
-    </row>
-    <row r="37" ht="16.5" customHeight="1">
-      <c t="s" r="A37" s="14">
+      <c r="A36" s="7">
+        <v>30</v>
+      </c>
+      <c r="B36" s="7"/>
+      <c t="s" r="C36" s="8">
         <v>112</v>
       </c>
-      <c r="B37" s="14"/>
-      <c r="C37" s="14"/>
-      <c r="D37" s="14"/>
-      <c r="E37" s="14"/>
-      <c r="F37" s="14"/>
-      <c t="s" r="G37" s="15">
+      <c r="D36" s="8"/>
+      <c r="E36" s="8"/>
+      <c r="F36" s="8"/>
+      <c r="G36" s="8"/>
+      <c t="s" r="H36" s="9">
+        <v>103</v>
+      </c>
+      <c r="I36" s="9"/>
+      <c r="J36" s="9"/>
+      <c r="K36" s="9"/>
+      <c t="s" r="L36" s="10">
+        <v>65</v>
+      </c>
+      <c r="M36" s="10"/>
+      <c t="s" r="N36" s="8">
         <v>113</v>
       </c>
-      <c r="H37" s="15"/>
-      <c r="I37" s="15"/>
-      <c r="J37" s="16"/>
-      <c t="s" r="K37" s="17">
+      <c r="O36" s="8"/>
+      <c t="s" r="P36" s="11">
         <v>114</v>
       </c>
-      <c r="L37" s="17"/>
-      <c r="M37" s="17"/>
-      <c r="N37" s="17"/>
-      <c r="O37" s="17"/>
-      <c r="P37" s="17"/>
-      <c r="Q37" s="17"/>
+      <c t="s" r="Q36" s="12">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="37" ht="25.5" customHeight="1">
+      <c r="P37" s="13">
+        <v>1893.29</v>
+      </c>
+      <c r="Q37" s="13"/>
+    </row>
+    <row r="38" ht="16.5" customHeight="1">
+      <c t="s" r="A38" s="14">
+        <v>115</v>
+      </c>
+      <c r="B38" s="14"/>
+      <c r="C38" s="14"/>
+      <c r="D38" s="14"/>
+      <c r="E38" s="14"/>
+      <c r="F38" s="14"/>
+      <c t="s" r="G38" s="15">
+        <v>116</v>
+      </c>
+      <c r="H38" s="15"/>
+      <c r="I38" s="15"/>
+      <c r="J38" s="16"/>
+      <c t="s" r="K38" s="17">
+        <v>117</v>
+      </c>
+      <c r="L38" s="17"/>
+      <c r="M38" s="17"/>
+      <c r="N38" s="17"/>
+      <c r="O38" s="17"/>
+      <c r="P38" s="17"/>
+      <c r="Q38" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="157">
+  <mergeCells count="162">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2118,10 +2160,15 @@
     <mergeCell ref="H35:K35"/>
     <mergeCell ref="L35:M35"/>
     <mergeCell ref="N35:O35"/>
-    <mergeCell ref="P36:Q36"/>
-    <mergeCell ref="A37:F37"/>
-    <mergeCell ref="G37:I37"/>
-    <mergeCell ref="K37:Q37"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="C36:G36"/>
+    <mergeCell ref="H36:K36"/>
+    <mergeCell ref="L36:M36"/>
+    <mergeCell ref="N36:O36"/>
+    <mergeCell ref="P37:Q37"/>
+    <mergeCell ref="A38:F38"/>
+    <mergeCell ref="G38:I38"/>
+    <mergeCell ref="K38:Q38"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-30_00-00.xlsx
+++ b/DaySale_2025-09-30_00-00.xlsx
@@ -356,7 +356,7 @@
     <t>15.0000</t>
   </si>
   <si>
-    <t>Tuesday, 30 September, 2025 2:37 PM</t>
+    <t>Tuesday, 30 September, 2025 2:53 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-09-30_00-00.xlsx
+++ b/DaySale_2025-09-30_00-00.xlsx
@@ -284,6 +284,9 @@
     <t>18.0000</t>
   </si>
   <si>
+    <t>ايفا كريم 170 جم</t>
+  </si>
+  <si>
     <t>بادي سبلاش افوفا الصغير</t>
   </si>
   <si>
@@ -296,6 +299,18 @@
     <t>35.0000</t>
   </si>
   <si>
+    <t>زيت فاتيكا 45 مل صغير</t>
+  </si>
+  <si>
+    <t>3:0</t>
+  </si>
+  <si>
+    <t>15.00</t>
+  </si>
+  <si>
+    <t>15.0000</t>
+  </si>
+  <si>
     <t>سرنجات 3 سم</t>
   </si>
   <si>
@@ -317,6 +332,15 @@
     <t>190.0000</t>
   </si>
   <si>
+    <t>شاور جل ايفا 1لتر</t>
+  </si>
+  <si>
+    <t>110.00</t>
+  </si>
+  <si>
+    <t>110.0000</t>
+  </si>
+  <si>
     <t>صابون ديتول الصغير</t>
   </si>
   <si>
@@ -350,13 +374,13 @@
     <t>مبرد قدم</t>
   </si>
   <si>
-    <t>15.00</t>
-  </si>
-  <si>
-    <t>15.0000</t>
-  </si>
-  <si>
-    <t>Tuesday, 30 September, 2025 2:53 PM</t>
+    <t>معجون سنسوداين صغير</t>
+  </si>
+  <si>
+    <t>6:0</t>
+  </si>
+  <si>
+    <t>Tuesday, 30 September, 2025 2:55 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1756,7 +1780,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>92</v>
+        <v>29</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1766,11 +1790,11 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>93</v>
+        <v>72</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>94</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>29</v>
@@ -1782,14 +1806,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>26</v>
+        <v>93</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1799,14 +1823,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>98</v>
+        <v>29</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1815,14 +1839,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>34</v>
+        <v>97</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1832,11 +1856,11 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>29</v>
@@ -1848,14 +1872,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>103</v>
+        <v>26</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -1865,14 +1889,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>29</v>
+        <v>103</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -1881,14 +1905,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>98</v>
+        <v>34</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -1898,11 +1922,11 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>29</v>
@@ -1914,14 +1938,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>103</v>
+        <v>26</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -1931,11 +1955,11 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>29</v>
@@ -1947,14 +1971,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -1964,49 +1988,181 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
+        <v>113</v>
+      </c>
+      <c t="s" r="Q36" s="12">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="37" ht="25.5" customHeight="1">
+      <c r="A37" s="7">
+        <v>31</v>
+      </c>
+      <c r="B37" s="7"/>
+      <c t="s" r="C37" s="8">
         <v>114</v>
       </c>
-      <c t="s" r="Q36" s="12">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="37" ht="25.5" customHeight="1">
-      <c r="P37" s="13">
-        <v>1893.29</v>
-      </c>
-      <c r="Q37" s="13"/>
-    </row>
-    <row r="38" ht="16.5" customHeight="1">
-      <c t="s" r="A38" s="14">
+      <c r="D37" s="8"/>
+      <c r="E37" s="8"/>
+      <c r="F37" s="8"/>
+      <c r="G37" s="8"/>
+      <c t="s" r="H37" s="9">
+        <v>103</v>
+      </c>
+      <c r="I37" s="9"/>
+      <c r="J37" s="9"/>
+      <c r="K37" s="9"/>
+      <c t="s" r="L37" s="10">
+        <v>65</v>
+      </c>
+      <c r="M37" s="10"/>
+      <c t="s" r="N37" s="8">
         <v>115</v>
       </c>
-      <c r="B38" s="14"/>
-      <c r="C38" s="14"/>
-      <c r="D38" s="14"/>
-      <c r="E38" s="14"/>
-      <c r="F38" s="14"/>
-      <c t="s" r="G38" s="15">
+      <c r="O37" s="8"/>
+      <c t="s" r="P37" s="11">
         <v>116</v>
       </c>
-      <c r="H38" s="15"/>
-      <c r="I38" s="15"/>
-      <c r="J38" s="16"/>
-      <c t="s" r="K38" s="17">
+      <c t="s" r="Q37" s="12">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="38" ht="24.75" customHeight="1">
+      <c r="A38" s="7">
+        <v>32</v>
+      </c>
+      <c r="B38" s="7"/>
+      <c t="s" r="C38" s="8">
         <v>117</v>
       </c>
-      <c r="L38" s="17"/>
-      <c r="M38" s="17"/>
-      <c r="N38" s="17"/>
-      <c r="O38" s="17"/>
-      <c r="P38" s="17"/>
-      <c r="Q38" s="17"/>
+      <c r="D38" s="8"/>
+      <c r="E38" s="8"/>
+      <c r="F38" s="8"/>
+      <c r="G38" s="8"/>
+      <c t="s" r="H38" s="9">
+        <v>111</v>
+      </c>
+      <c r="I38" s="9"/>
+      <c r="J38" s="9"/>
+      <c r="K38" s="9"/>
+      <c t="s" r="L38" s="10">
+        <v>65</v>
+      </c>
+      <c r="M38" s="10"/>
+      <c t="s" r="N38" s="8">
+        <v>118</v>
+      </c>
+      <c r="O38" s="8"/>
+      <c t="s" r="P38" s="11">
+        <v>119</v>
+      </c>
+      <c t="s" r="Q38" s="12">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="39" ht="25.5" customHeight="1">
+      <c r="A39" s="7">
+        <v>33</v>
+      </c>
+      <c r="B39" s="7"/>
+      <c t="s" r="C39" s="8">
+        <v>120</v>
+      </c>
+      <c r="D39" s="8"/>
+      <c r="E39" s="8"/>
+      <c r="F39" s="8"/>
+      <c r="G39" s="8"/>
+      <c t="s" r="H39" s="9">
+        <v>111</v>
+      </c>
+      <c r="I39" s="9"/>
+      <c r="J39" s="9"/>
+      <c r="K39" s="9"/>
+      <c t="s" r="L39" s="10">
+        <v>65</v>
+      </c>
+      <c r="M39" s="10"/>
+      <c t="s" r="N39" s="8">
+        <v>98</v>
+      </c>
+      <c r="O39" s="8"/>
+      <c t="s" r="P39" s="11">
+        <v>99</v>
+      </c>
+      <c t="s" r="Q39" s="12">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="40" ht="24.75" customHeight="1">
+      <c r="A40" s="7">
+        <v>34</v>
+      </c>
+      <c r="B40" s="7"/>
+      <c t="s" r="C40" s="8">
+        <v>121</v>
+      </c>
+      <c r="D40" s="8"/>
+      <c r="E40" s="8"/>
+      <c r="F40" s="8"/>
+      <c r="G40" s="8"/>
+      <c t="s" r="H40" s="9">
+        <v>122</v>
+      </c>
+      <c r="I40" s="9"/>
+      <c r="J40" s="9"/>
+      <c r="K40" s="9"/>
+      <c t="s" r="L40" s="10">
+        <v>65</v>
+      </c>
+      <c r="M40" s="10"/>
+      <c t="s" r="N40" s="8">
+        <v>31</v>
+      </c>
+      <c r="O40" s="8"/>
+      <c t="s" r="P40" s="11">
+        <v>32</v>
+      </c>
+      <c t="s" r="Q40" s="12">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="41" ht="25.5" customHeight="1">
+      <c r="P41" s="13">
+        <v>2118.29</v>
+      </c>
+      <c r="Q41" s="13"/>
+    </row>
+    <row r="42" ht="16.5" customHeight="1">
+      <c t="s" r="A42" s="14">
+        <v>123</v>
+      </c>
+      <c r="B42" s="14"/>
+      <c r="C42" s="14"/>
+      <c r="D42" s="14"/>
+      <c r="E42" s="14"/>
+      <c r="F42" s="14"/>
+      <c t="s" r="G42" s="15">
+        <v>124</v>
+      </c>
+      <c r="H42" s="15"/>
+      <c r="I42" s="15"/>
+      <c r="J42" s="16"/>
+      <c t="s" r="K42" s="17">
+        <v>125</v>
+      </c>
+      <c r="L42" s="17"/>
+      <c r="M42" s="17"/>
+      <c r="N42" s="17"/>
+      <c r="O42" s="17"/>
+      <c r="P42" s="17"/>
+      <c r="Q42" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="162">
+  <mergeCells count="182">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2165,10 +2321,30 @@
     <mergeCell ref="H36:K36"/>
     <mergeCell ref="L36:M36"/>
     <mergeCell ref="N36:O36"/>
-    <mergeCell ref="P37:Q37"/>
-    <mergeCell ref="A38:F38"/>
-    <mergeCell ref="G38:I38"/>
-    <mergeCell ref="K38:Q38"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="C37:G37"/>
+    <mergeCell ref="H37:K37"/>
+    <mergeCell ref="L37:M37"/>
+    <mergeCell ref="N37:O37"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="C38:G38"/>
+    <mergeCell ref="H38:K38"/>
+    <mergeCell ref="L38:M38"/>
+    <mergeCell ref="N38:O38"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="C39:G39"/>
+    <mergeCell ref="H39:K39"/>
+    <mergeCell ref="L39:M39"/>
+    <mergeCell ref="N39:O39"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="C40:G40"/>
+    <mergeCell ref="H40:K40"/>
+    <mergeCell ref="L40:M40"/>
+    <mergeCell ref="N40:O40"/>
+    <mergeCell ref="P41:Q41"/>
+    <mergeCell ref="A42:F42"/>
+    <mergeCell ref="G42:I42"/>
+    <mergeCell ref="K42:Q42"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-30_00-00.xlsx
+++ b/DaySale_2025-09-30_00-00.xlsx
@@ -380,7 +380,7 @@
     <t>6:0</t>
   </si>
   <si>
-    <t>Tuesday, 30 September, 2025 2:55 PM</t>
+    <t>Tuesday, 30 September, 2025 4:05 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-09-30_00-00.xlsx
+++ b/DaySale_2025-09-30_00-00.xlsx
@@ -297,6 +297,21 @@
   </si>
   <si>
     <t>35.0000</t>
+  </si>
+  <si>
+    <t>حفاضات كبار سن جير ميني 36ق</t>
+  </si>
+  <si>
+    <t>0:20</t>
+  </si>
+  <si>
+    <t>450.00</t>
+  </si>
+  <si>
+    <t>99.0000</t>
+  </si>
+  <si>
+    <t>0:8</t>
   </si>
   <si>
     <t>زيت فاتيكا 45 مل صغير</t>
@@ -1863,7 +1878,7 @@
         <v>99</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>29</v>
+        <v>100</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -1872,14 +1887,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>26</v>
+        <v>102</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -1889,14 +1904,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>103</v>
+        <v>29</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -1905,14 +1920,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -1922,14 +1937,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>29</v>
+        <v>108</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -1938,14 +1953,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -1955,11 +1970,11 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>29</v>
@@ -1971,14 +1986,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>111</v>
+        <v>26</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -1988,11 +2003,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>29</v>
@@ -2004,14 +2019,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>103</v>
+        <v>116</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2021,11 +2036,11 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>29</v>
@@ -2037,14 +2052,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2054,11 +2069,11 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>29</v>
@@ -2070,14 +2085,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2087,11 +2102,11 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>98</v>
+        <v>123</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>99</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>29</v>
@@ -2103,14 +2118,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2120,49 +2135,82 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>31</v>
+        <v>103</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
+        <v>104</v>
+      </c>
+      <c t="s" r="Q40" s="12">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="41" ht="25.5" customHeight="1">
+      <c r="A41" s="7">
+        <v>35</v>
+      </c>
+      <c r="B41" s="7"/>
+      <c t="s" r="C41" s="8">
+        <v>126</v>
+      </c>
+      <c r="D41" s="8"/>
+      <c r="E41" s="8"/>
+      <c r="F41" s="8"/>
+      <c r="G41" s="8"/>
+      <c t="s" r="H41" s="9">
+        <v>127</v>
+      </c>
+      <c r="I41" s="9"/>
+      <c r="J41" s="9"/>
+      <c r="K41" s="9"/>
+      <c t="s" r="L41" s="10">
+        <v>65</v>
+      </c>
+      <c r="M41" s="10"/>
+      <c t="s" r="N41" s="8">
+        <v>31</v>
+      </c>
+      <c r="O41" s="8"/>
+      <c t="s" r="P41" s="11">
         <v>32</v>
       </c>
-      <c t="s" r="Q40" s="12">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="41" ht="25.5" customHeight="1">
-      <c r="P41" s="13">
-        <v>2118.29</v>
-      </c>
-      <c r="Q41" s="13"/>
-    </row>
-    <row r="42" ht="16.5" customHeight="1">
-      <c t="s" r="A42" s="14">
-        <v>123</v>
-      </c>
-      <c r="B42" s="14"/>
-      <c r="C42" s="14"/>
-      <c r="D42" s="14"/>
-      <c r="E42" s="14"/>
-      <c r="F42" s="14"/>
-      <c t="s" r="G42" s="15">
-        <v>124</v>
-      </c>
-      <c r="H42" s="15"/>
-      <c r="I42" s="15"/>
-      <c r="J42" s="16"/>
-      <c t="s" r="K42" s="17">
-        <v>125</v>
-      </c>
-      <c r="L42" s="17"/>
-      <c r="M42" s="17"/>
-      <c r="N42" s="17"/>
-      <c r="O42" s="17"/>
-      <c r="P42" s="17"/>
-      <c r="Q42" s="17"/>
+      <c t="s" r="Q41" s="12">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="42" ht="25.5" customHeight="1">
+      <c r="P42" s="13">
+        <v>2217.29</v>
+      </c>
+      <c r="Q42" s="13"/>
+    </row>
+    <row r="43" ht="16.5" customHeight="1">
+      <c t="s" r="A43" s="14">
+        <v>128</v>
+      </c>
+      <c r="B43" s="14"/>
+      <c r="C43" s="14"/>
+      <c r="D43" s="14"/>
+      <c r="E43" s="14"/>
+      <c r="F43" s="14"/>
+      <c t="s" r="G43" s="15">
+        <v>129</v>
+      </c>
+      <c r="H43" s="15"/>
+      <c r="I43" s="15"/>
+      <c r="J43" s="16"/>
+      <c t="s" r="K43" s="17">
+        <v>130</v>
+      </c>
+      <c r="L43" s="17"/>
+      <c r="M43" s="17"/>
+      <c r="N43" s="17"/>
+      <c r="O43" s="17"/>
+      <c r="P43" s="17"/>
+      <c r="Q43" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="182">
+  <mergeCells count="187">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2341,10 +2389,15 @@
     <mergeCell ref="H40:K40"/>
     <mergeCell ref="L40:M40"/>
     <mergeCell ref="N40:O40"/>
-    <mergeCell ref="P41:Q41"/>
-    <mergeCell ref="A42:F42"/>
-    <mergeCell ref="G42:I42"/>
-    <mergeCell ref="K42:Q42"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="C41:G41"/>
+    <mergeCell ref="H41:K41"/>
+    <mergeCell ref="L41:M41"/>
+    <mergeCell ref="N41:O41"/>
+    <mergeCell ref="P42:Q42"/>
+    <mergeCell ref="A43:F43"/>
+    <mergeCell ref="G43:I43"/>
+    <mergeCell ref="K43:Q43"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-30_00-00.xlsx
+++ b/DaySale_2025-09-30_00-00.xlsx
@@ -395,7 +395,7 @@
     <t>6:0</t>
   </si>
   <si>
-    <t>Tuesday, 30 September, 2025 4:05 PM</t>
+    <t>Tuesday, 30 September, 2025 4:07 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-09-30_00-00.xlsx
+++ b/DaySale_2025-09-30_00-00.xlsx
@@ -86,6 +86,18 @@
     <t>6.0000</t>
   </si>
   <si>
+    <t>BIVATRACIN 150MG POWDER SPRAY</t>
+  </si>
+  <si>
+    <t>1:0</t>
+  </si>
+  <si>
+    <t>83.00</t>
+  </si>
+  <si>
+    <t>83.0000</t>
+  </si>
+  <si>
     <t>BOBAI SUNSCREEN TINTED CREAM SPF 80 - 60 GM</t>
   </si>
   <si>
@@ -98,9 +110,6 @@
     <t>195.0000</t>
   </si>
   <si>
-    <t>1:0</t>
-  </si>
-  <si>
     <t>CARBAMIDE 10% CREAM 30 GM</t>
   </si>
   <si>
@@ -395,7 +404,7 @@
     <t>6:0</t>
   </si>
   <si>
-    <t>Tuesday, 30 September, 2025 4:07 PM</t>
+    <t>Tuesday, 30 September, 2025 4:08 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1152,7 +1161,7 @@
         <v>28</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1161,14 +1170,14 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1185,7 +1194,7 @@
         <v>32</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1201,7 +1210,7 @@
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1211,14 +1220,14 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1227,14 +1236,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1251,7 +1260,7 @@
         <v>39</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1267,7 +1276,7 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1284,7 +1293,7 @@
         <v>42</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1300,7 +1309,7 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>44</v>
+        <v>26</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1310,14 +1319,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>47</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1326,14 +1335,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1343,14 +1352,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>29</v>
+        <v>50</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1359,14 +1368,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>18</v>
+        <v>52</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1383,7 +1392,7 @@
         <v>54</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1399,7 +1408,7 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1416,7 +1425,7 @@
         <v>57</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1432,7 +1441,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1449,7 +1458,7 @@
         <v>60</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1465,7 +1474,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1482,7 +1491,7 @@
         <v>63</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1498,24 +1507,24 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
       <c r="K21" s="9"/>
       <c t="s" r="L21" s="10">
-        <v>65</v>
+        <v>13</v>
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1524,20 +1533,20 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
       <c r="K22" s="9"/>
       <c t="s" r="L22" s="10">
-        <v>13</v>
+        <v>68</v>
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
@@ -1548,7 +1557,7 @@
         <v>70</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1564,7 +1573,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1581,7 +1590,7 @@
         <v>73</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1597,7 +1606,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>47</v>
+        <v>26</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1611,10 +1620,10 @@
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>20</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1623,14 +1632,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>77</v>
+        <v>50</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1644,7 +1653,7 @@
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>16</v>
@@ -1656,14 +1665,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>29</v>
+        <v>80</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1673,14 +1682,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1689,14 +1698,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>83</v>
+        <v>26</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1706,14 +1715,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>14</v>
+        <v>81</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
         <v>84</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1729,7 +1738,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>16</v>
+        <v>86</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1739,14 +1748,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>86</v>
+        <v>14</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
         <v>87</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1762,7 +1771,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1779,7 +1788,7 @@
         <v>90</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1795,24 +1804,24 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
       <c t="s" r="L30" s="10">
-        <v>65</v>
+        <v>13</v>
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>72</v>
+        <v>92</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>73</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1821,31 +1830,31 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>93</v>
+        <v>26</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
       <c t="s" r="L31" s="10">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>94</v>
+        <v>75</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>95</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1854,31 +1863,31 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
       <c t="s" r="L32" s="10">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>100</v>
+        <v>26</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -1887,31 +1896,31 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
       <c t="s" r="L33" s="10">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>29</v>
+        <v>103</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -1920,20 +1929,20 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>26</v>
+        <v>105</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
       <c t="s" r="L34" s="10">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
@@ -1944,7 +1953,7 @@
         <v>107</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>108</v>
+        <v>26</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -1953,31 +1962,31 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
       <c t="s" r="L35" s="10">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
+        <v>110</v>
+      </c>
+      <c t="s" r="Q35" s="12">
         <v>111</v>
-      </c>
-      <c t="s" r="Q35" s="12">
-        <v>29</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -1993,13 +2002,13 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c t="s" r="L36" s="10">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
@@ -2010,7 +2019,7 @@
         <v>114</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2026,24 +2035,24 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>116</v>
+        <v>30</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2052,20 +2061,20 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>108</v>
+        <v>119</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
@@ -2076,7 +2085,7 @@
         <v>121</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2092,13 +2101,13 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c t="s" r="L39" s="10">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
@@ -2109,7 +2118,7 @@
         <v>124</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2125,24 +2134,24 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>103</v>
+        <v>126</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>104</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2151,66 +2160,99 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c t="s" r="L41" s="10">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>31</v>
+        <v>106</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>32</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
-      <c r="P42" s="13">
-        <v>2217.29</v>
-      </c>
-      <c r="Q42" s="13"/>
-    </row>
-    <row r="43" ht="16.5" customHeight="1">
-      <c t="s" r="A43" s="14">
-        <v>128</v>
-      </c>
-      <c r="B43" s="14"/>
-      <c r="C43" s="14"/>
-      <c r="D43" s="14"/>
-      <c r="E43" s="14"/>
-      <c r="F43" s="14"/>
-      <c t="s" r="G43" s="15">
+      <c r="A42" s="7">
+        <v>36</v>
+      </c>
+      <c r="B42" s="7"/>
+      <c t="s" r="C42" s="8">
         <v>129</v>
       </c>
-      <c r="H43" s="15"/>
-      <c r="I43" s="15"/>
-      <c r="J43" s="16"/>
-      <c t="s" r="K43" s="17">
+      <c r="D42" s="8"/>
+      <c r="E42" s="8"/>
+      <c r="F42" s="8"/>
+      <c r="G42" s="8"/>
+      <c t="s" r="H42" s="9">
         <v>130</v>
       </c>
-      <c r="L43" s="17"/>
-      <c r="M43" s="17"/>
-      <c r="N43" s="17"/>
-      <c r="O43" s="17"/>
-      <c r="P43" s="17"/>
-      <c r="Q43" s="17"/>
+      <c r="I42" s="9"/>
+      <c r="J42" s="9"/>
+      <c r="K42" s="9"/>
+      <c t="s" r="L42" s="10">
+        <v>68</v>
+      </c>
+      <c r="M42" s="10"/>
+      <c t="s" r="N42" s="8">
+        <v>34</v>
+      </c>
+      <c r="O42" s="8"/>
+      <c t="s" r="P42" s="11">
+        <v>35</v>
+      </c>
+      <c t="s" r="Q42" s="12">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="43" ht="24.75" customHeight="1">
+      <c r="P43" s="13">
+        <v>2300.29</v>
+      </c>
+      <c r="Q43" s="13"/>
+    </row>
+    <row r="44" ht="16.5" customHeight="1">
+      <c t="s" r="A44" s="14">
+        <v>131</v>
+      </c>
+      <c r="B44" s="14"/>
+      <c r="C44" s="14"/>
+      <c r="D44" s="14"/>
+      <c r="E44" s="14"/>
+      <c r="F44" s="14"/>
+      <c t="s" r="G44" s="15">
+        <v>132</v>
+      </c>
+      <c r="H44" s="15"/>
+      <c r="I44" s="15"/>
+      <c r="J44" s="16"/>
+      <c t="s" r="K44" s="17">
+        <v>133</v>
+      </c>
+      <c r="L44" s="17"/>
+      <c r="M44" s="17"/>
+      <c r="N44" s="17"/>
+      <c r="O44" s="17"/>
+      <c r="P44" s="17"/>
+      <c r="Q44" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="187">
+  <mergeCells count="192">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2394,10 +2436,15 @@
     <mergeCell ref="H41:K41"/>
     <mergeCell ref="L41:M41"/>
     <mergeCell ref="N41:O41"/>
-    <mergeCell ref="P42:Q42"/>
-    <mergeCell ref="A43:F43"/>
-    <mergeCell ref="G43:I43"/>
-    <mergeCell ref="K43:Q43"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="C42:G42"/>
+    <mergeCell ref="H42:K42"/>
+    <mergeCell ref="L42:M42"/>
+    <mergeCell ref="N42:O42"/>
+    <mergeCell ref="P43:Q43"/>
+    <mergeCell ref="A44:F44"/>
+    <mergeCell ref="G44:I44"/>
+    <mergeCell ref="K44:Q44"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-30_00-00.xlsx
+++ b/DaySale_2025-09-30_00-00.xlsx
@@ -404,7 +404,7 @@
     <t>6:0</t>
   </si>
   <si>
-    <t>Tuesday, 30 September, 2025 4:08 PM</t>
+    <t>Tuesday, 30 September, 2025 4:11 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-09-30_00-00.xlsx
+++ b/DaySale_2025-09-30_00-00.xlsx
@@ -293,6 +293,18 @@
     <t>18.0000</t>
   </si>
   <si>
+    <t>املاح افونا</t>
+  </si>
+  <si>
+    <t>5:0</t>
+  </si>
+  <si>
+    <t>25.00</t>
+  </si>
+  <si>
+    <t>25.0000</t>
+  </si>
+  <si>
     <t>ايفا كريم 170 جم</t>
   </si>
   <si>
@@ -308,6 +320,12 @@
     <t>35.0000</t>
   </si>
   <si>
+    <t>بادي لوشن كير اند مور</t>
+  </si>
+  <si>
+    <t>3:0</t>
+  </si>
+  <si>
     <t>حفاضات كبار سن جير ميني 36ق</t>
   </si>
   <si>
@@ -326,9 +344,6 @@
     <t>زيت فاتيكا 45 مل صغير</t>
   </si>
   <si>
-    <t>3:0</t>
-  </si>
-  <si>
     <t>15.00</t>
   </si>
   <si>
@@ -368,9 +383,6 @@
     <t>صابون ديتول الصغير</t>
   </si>
   <si>
-    <t>5:0</t>
-  </si>
-  <si>
     <t>22.00</t>
   </si>
   <si>
@@ -395,6 +407,15 @@
     <t>65.0000</t>
   </si>
   <si>
+    <t>مبرد اظافر حديد</t>
+  </si>
+  <si>
+    <t>30.00</t>
+  </si>
+  <si>
+    <t>30.0000</t>
+  </si>
+  <si>
     <t>مبرد قدم</t>
   </si>
   <si>
@@ -404,7 +425,7 @@
     <t>6:0</t>
   </si>
   <si>
-    <t>Tuesday, 30 September, 2025 4:11 PM</t>
+    <t>Tuesday, 30 September, 2025 4:26 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1837,7 +1858,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>26</v>
+        <v>95</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1847,11 +1868,11 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>75</v>
+        <v>96</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>76</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>26</v>
@@ -1863,14 +1884,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>96</v>
+        <v>26</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1880,11 +1901,11 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>97</v>
+        <v>75</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>98</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>26</v>
@@ -1920,7 +1941,7 @@
         <v>102</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>103</v>
+        <v>26</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -1929,14 +1950,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -1946,11 +1967,11 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>106</v>
+        <v>38</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>107</v>
+        <v>39</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>26</v>
@@ -1962,14 +1983,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>30</v>
+        <v>106</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -1979,14 +2000,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -1995,14 +2016,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>37</v>
+        <v>104</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2012,11 +2033,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>26</v>
@@ -2028,7 +2049,7 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
@@ -2045,14 +2066,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>26</v>
+        <v>116</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2061,14 +2082,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>119</v>
+        <v>37</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2078,11 +2099,11 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>26</v>
@@ -2094,14 +2115,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>111</v>
+        <v>30</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2111,11 +2132,11 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>26</v>
@@ -2127,14 +2148,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>119</v>
+        <v>95</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2144,11 +2165,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>26</v>
@@ -2160,14 +2181,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2177,11 +2198,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>106</v>
+        <v>127</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>107</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>26</v>
@@ -2200,7 +2221,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>130</v>
+        <v>95</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2210,49 +2231,148 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>34</v>
+        <v>130</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
+        <v>131</v>
+      </c>
+      <c t="s" r="Q42" s="12">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="43" ht="24.75" customHeight="1">
+      <c r="A43" s="7">
+        <v>37</v>
+      </c>
+      <c r="B43" s="7"/>
+      <c t="s" r="C43" s="8">
+        <v>132</v>
+      </c>
+      <c r="D43" s="8"/>
+      <c r="E43" s="8"/>
+      <c r="F43" s="8"/>
+      <c r="G43" s="8"/>
+      <c t="s" r="H43" s="9">
+        <v>100</v>
+      </c>
+      <c r="I43" s="9"/>
+      <c r="J43" s="9"/>
+      <c r="K43" s="9"/>
+      <c t="s" r="L43" s="10">
+        <v>68</v>
+      </c>
+      <c r="M43" s="10"/>
+      <c t="s" r="N43" s="8">
+        <v>133</v>
+      </c>
+      <c r="O43" s="8"/>
+      <c t="s" r="P43" s="11">
+        <v>134</v>
+      </c>
+      <c t="s" r="Q43" s="12">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="44" ht="25.5" customHeight="1">
+      <c r="A44" s="7">
+        <v>38</v>
+      </c>
+      <c r="B44" s="7"/>
+      <c t="s" r="C44" s="8">
+        <v>135</v>
+      </c>
+      <c r="D44" s="8"/>
+      <c r="E44" s="8"/>
+      <c r="F44" s="8"/>
+      <c r="G44" s="8"/>
+      <c t="s" r="H44" s="9">
+        <v>100</v>
+      </c>
+      <c r="I44" s="9"/>
+      <c r="J44" s="9"/>
+      <c r="K44" s="9"/>
+      <c t="s" r="L44" s="10">
+        <v>68</v>
+      </c>
+      <c r="M44" s="10"/>
+      <c t="s" r="N44" s="8">
+        <v>111</v>
+      </c>
+      <c r="O44" s="8"/>
+      <c t="s" r="P44" s="11">
+        <v>134</v>
+      </c>
+      <c t="s" r="Q44" s="12">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="45" ht="24.75" customHeight="1">
+      <c r="A45" s="7">
+        <v>39</v>
+      </c>
+      <c r="B45" s="7"/>
+      <c t="s" r="C45" s="8">
+        <v>136</v>
+      </c>
+      <c r="D45" s="8"/>
+      <c r="E45" s="8"/>
+      <c r="F45" s="8"/>
+      <c r="G45" s="8"/>
+      <c t="s" r="H45" s="9">
+        <v>137</v>
+      </c>
+      <c r="I45" s="9"/>
+      <c r="J45" s="9"/>
+      <c r="K45" s="9"/>
+      <c t="s" r="L45" s="10">
+        <v>68</v>
+      </c>
+      <c r="M45" s="10"/>
+      <c t="s" r="N45" s="8">
+        <v>34</v>
+      </c>
+      <c r="O45" s="8"/>
+      <c t="s" r="P45" s="11">
         <v>35</v>
       </c>
-      <c t="s" r="Q42" s="12">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="43" ht="24.75" customHeight="1">
-      <c r="P43" s="13">
-        <v>2300.29</v>
-      </c>
-      <c r="Q43" s="13"/>
-    </row>
-    <row r="44" ht="16.5" customHeight="1">
-      <c t="s" r="A44" s="14">
-        <v>131</v>
-      </c>
-      <c r="B44" s="14"/>
-      <c r="C44" s="14"/>
-      <c r="D44" s="14"/>
-      <c r="E44" s="14"/>
-      <c r="F44" s="14"/>
-      <c t="s" r="G44" s="15">
-        <v>132</v>
-      </c>
-      <c r="H44" s="15"/>
-      <c r="I44" s="15"/>
-      <c r="J44" s="16"/>
-      <c t="s" r="K44" s="17">
-        <v>133</v>
-      </c>
-      <c r="L44" s="17"/>
-      <c r="M44" s="17"/>
-      <c r="N44" s="17"/>
-      <c r="O44" s="17"/>
-      <c r="P44" s="17"/>
-      <c r="Q44" s="17"/>
+      <c t="s" r="Q45" s="12">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="46" ht="25.5" customHeight="1">
+      <c r="P46" s="13">
+        <v>2455.29</v>
+      </c>
+      <c r="Q46" s="13"/>
+    </row>
+    <row r="47" ht="16.5" customHeight="1">
+      <c t="s" r="A47" s="14">
+        <v>138</v>
+      </c>
+      <c r="B47" s="14"/>
+      <c r="C47" s="14"/>
+      <c r="D47" s="14"/>
+      <c r="E47" s="14"/>
+      <c r="F47" s="14"/>
+      <c t="s" r="G47" s="15">
+        <v>139</v>
+      </c>
+      <c r="H47" s="15"/>
+      <c r="I47" s="15"/>
+      <c r="J47" s="16"/>
+      <c t="s" r="K47" s="17">
+        <v>140</v>
+      </c>
+      <c r="L47" s="17"/>
+      <c r="M47" s="17"/>
+      <c r="N47" s="17"/>
+      <c r="O47" s="17"/>
+      <c r="P47" s="17"/>
+      <c r="Q47" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="192">
+  <mergeCells count="207">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2441,10 +2561,25 @@
     <mergeCell ref="H42:K42"/>
     <mergeCell ref="L42:M42"/>
     <mergeCell ref="N42:O42"/>
-    <mergeCell ref="P43:Q43"/>
-    <mergeCell ref="A44:F44"/>
-    <mergeCell ref="G44:I44"/>
-    <mergeCell ref="K44:Q44"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="C43:G43"/>
+    <mergeCell ref="H43:K43"/>
+    <mergeCell ref="L43:M43"/>
+    <mergeCell ref="N43:O43"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="C44:G44"/>
+    <mergeCell ref="H44:K44"/>
+    <mergeCell ref="L44:M44"/>
+    <mergeCell ref="N44:O44"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="C45:G45"/>
+    <mergeCell ref="H45:K45"/>
+    <mergeCell ref="L45:M45"/>
+    <mergeCell ref="N45:O45"/>
+    <mergeCell ref="P46:Q46"/>
+    <mergeCell ref="A47:F47"/>
+    <mergeCell ref="G47:I47"/>
+    <mergeCell ref="K47:Q47"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-30_00-00.xlsx
+++ b/DaySale_2025-09-30_00-00.xlsx
@@ -425,7 +425,7 @@
     <t>6:0</t>
   </si>
   <si>
-    <t>Tuesday, 30 September, 2025 4:26 PM</t>
+    <t>Tuesday, 30 September, 2025 4:32 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-09-30_00-00.xlsx
+++ b/DaySale_2025-09-30_00-00.xlsx
@@ -65,120 +65,144 @@
     <t>ANTI-COX II 15MG/3ML 6 AMP</t>
   </si>
   <si>
+    <t>3:4</t>
+  </si>
+  <si>
+    <t>78.00</t>
+  </si>
+  <si>
+    <t>12.4800</t>
+  </si>
+  <si>
+    <t>ATENO 50MG 20 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>2:1</t>
+  </si>
+  <si>
+    <t>12.00</t>
+  </si>
+  <si>
+    <t>6.0000</t>
+  </si>
+  <si>
+    <t>BIVATRACIN 150MG POWDER SPRAY</t>
+  </si>
+  <si>
+    <t>2:0</t>
+  </si>
+  <si>
+    <t>83.00</t>
+  </si>
+  <si>
+    <t>83.0000</t>
+  </si>
+  <si>
+    <t>1:0</t>
+  </si>
+  <si>
+    <t>BOBAI SUNSCREEN TINTED CREAM SPF 80 - 60 GM</t>
+  </si>
+  <si>
+    <t>0:0</t>
+  </si>
+  <si>
+    <t>195.00</t>
+  </si>
+  <si>
+    <t>195.0000</t>
+  </si>
+  <si>
+    <t>CARBAMIDE 10% CREAM 30 GM</t>
+  </si>
+  <si>
+    <t>40.00</t>
+  </si>
+  <si>
+    <t>40.0000</t>
+  </si>
+  <si>
+    <t>DECLOPHEN 75MG/3ML 3 AMPOULES</t>
+  </si>
+  <si>
+    <t>7:2</t>
+  </si>
+  <si>
+    <t>36.00</t>
+  </si>
+  <si>
+    <t>-11.8800</t>
+  </si>
+  <si>
+    <t>0:-1</t>
+  </si>
+  <si>
+    <t>DEPOVIT B12-1000MCG/ML 5 I.M. AMP</t>
+  </si>
+  <si>
+    <t>85.00</t>
+  </si>
+  <si>
+    <t>85.0000</t>
+  </si>
+  <si>
+    <t>DEXAFLOX EYE DROPS 5 ML</t>
+  </si>
+  <si>
+    <t>53.00</t>
+  </si>
+  <si>
+    <t>53.0000</t>
+  </si>
+  <si>
+    <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>5:2</t>
+  </si>
+  <si>
+    <t>DICLAC 150 ID 20 PROLONGED R TABS</t>
+  </si>
+  <si>
+    <t>132.00</t>
+  </si>
+  <si>
+    <t>66.0000</t>
+  </si>
+  <si>
+    <t>EPICOPRED 5 MG 30 ORODISPERSIBLE TABS.</t>
+  </si>
+  <si>
+    <t>8:1</t>
+  </si>
+  <si>
+    <t>69.00</t>
+  </si>
+  <si>
+    <t>45.5400</t>
+  </si>
+  <si>
+    <t>0:2</t>
+  </si>
+  <si>
+    <t>FAWAR FRUIT 6 SACHETS</t>
+  </si>
+  <si>
+    <t>5:3</t>
+  </si>
+  <si>
+    <t>24.00</t>
+  </si>
+  <si>
+    <t>24.0000</t>
+  </si>
+  <si>
+    <t>FORBUDES 400/12MCG 60 INHALATION CAPS.+INHALER</t>
+  </si>
+  <si>
     <t>1:4</t>
   </si>
   <si>
-    <t>78.00</t>
-  </si>
-  <si>
-    <t>12.4800</t>
-  </si>
-  <si>
-    <t>ATENO 50MG 20 F.C.TAB.</t>
-  </si>
-  <si>
-    <t>2:1</t>
-  </si>
-  <si>
-    <t>12.00</t>
-  </si>
-  <si>
-    <t>6.0000</t>
-  </si>
-  <si>
-    <t>BIVATRACIN 150MG POWDER SPRAY</t>
-  </si>
-  <si>
-    <t>1:0</t>
-  </si>
-  <si>
-    <t>83.00</t>
-  </si>
-  <si>
-    <t>83.0000</t>
-  </si>
-  <si>
-    <t>BOBAI SUNSCREEN TINTED CREAM SPF 80 - 60 GM</t>
-  </si>
-  <si>
-    <t>0:0</t>
-  </si>
-  <si>
-    <t>195.00</t>
-  </si>
-  <si>
-    <t>195.0000</t>
-  </si>
-  <si>
-    <t>CARBAMIDE 10% CREAM 30 GM</t>
-  </si>
-  <si>
-    <t>40.00</t>
-  </si>
-  <si>
-    <t>40.0000</t>
-  </si>
-  <si>
-    <t>DEPOVIT B12-1000MCG/ML 5 I.M. AMP</t>
-  </si>
-  <si>
-    <t>2:0</t>
-  </si>
-  <si>
-    <t>85.00</t>
-  </si>
-  <si>
-    <t>85.0000</t>
-  </si>
-  <si>
-    <t>DEXAFLOX EYE DROPS 5 ML</t>
-  </si>
-  <si>
-    <t>53.00</t>
-  </si>
-  <si>
-    <t>53.0000</t>
-  </si>
-  <si>
-    <t>DICLAC 150 ID 20 PROLONGED R TABS</t>
-  </si>
-  <si>
-    <t>132.00</t>
-  </si>
-  <si>
-    <t>66.0000</t>
-  </si>
-  <si>
-    <t>EPICOPRED 5 MG 30 ORODISPERSIBLE TABS.</t>
-  </si>
-  <si>
-    <t>8:1</t>
-  </si>
-  <si>
-    <t>69.00</t>
-  </si>
-  <si>
-    <t>45.5400</t>
-  </si>
-  <si>
-    <t>0:2</t>
-  </si>
-  <si>
-    <t>FAWAR FRUIT 6 SACHETS</t>
-  </si>
-  <si>
-    <t>5:3</t>
-  </si>
-  <si>
-    <t>24.00</t>
-  </si>
-  <si>
-    <t>24.0000</t>
-  </si>
-  <si>
-    <t>FORBUDES 400/12MCG 60 INHALATION CAPS.+INHALER</t>
-  </si>
-  <si>
     <t>334.00</t>
   </si>
   <si>
@@ -266,6 +290,18 @@
     <t>39.0000</t>
   </si>
   <si>
+    <t>VOLTAREN 75MG/3ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>2:2</t>
+  </si>
+  <si>
+    <t>51.00</t>
+  </si>
+  <si>
+    <t>16.8300</t>
+  </si>
+  <si>
     <t>VOLTAREN 75MG/3ML 6 AMP.</t>
   </si>
   <si>
@@ -356,42 +392,42 @@
     <t>2.00</t>
   </si>
   <si>
-    <t>16.0000</t>
+    <t>9:0</t>
+  </si>
+  <si>
+    <t>سيتي بيبي رقم 3</t>
+  </si>
+  <si>
+    <t>190.00</t>
+  </si>
+  <si>
+    <t>190.0000</t>
+  </si>
+  <si>
+    <t>شاور جل ايفا 1لتر</t>
+  </si>
+  <si>
+    <t>110.00</t>
+  </si>
+  <si>
+    <t>110.0000</t>
+  </si>
+  <si>
+    <t>صابون ديتول الصغير</t>
+  </si>
+  <si>
+    <t>22.00</t>
+  </si>
+  <si>
+    <t>22.0000</t>
+  </si>
+  <si>
+    <t>صابونه دوف SOAP</t>
   </si>
   <si>
     <t>8:0</t>
   </si>
   <si>
-    <t>سيتي بيبي رقم 3</t>
-  </si>
-  <si>
-    <t>190.00</t>
-  </si>
-  <si>
-    <t>190.0000</t>
-  </si>
-  <si>
-    <t>شاور جل ايفا 1لتر</t>
-  </si>
-  <si>
-    <t>110.00</t>
-  </si>
-  <si>
-    <t>110.0000</t>
-  </si>
-  <si>
-    <t>صابون ديتول الصغير</t>
-  </si>
-  <si>
-    <t>22.00</t>
-  </si>
-  <si>
-    <t>22.0000</t>
-  </si>
-  <si>
-    <t>صابونه دوف SOAP</t>
-  </si>
-  <si>
     <t>45.00</t>
   </si>
   <si>
@@ -407,6 +443,18 @@
     <t>65.0000</t>
   </si>
   <si>
+    <t>قطن 100 جم</t>
+  </si>
+  <si>
+    <t>26:0</t>
+  </si>
+  <si>
+    <t>20.00</t>
+  </si>
+  <si>
+    <t>20.0000</t>
+  </si>
+  <si>
     <t>مبرد اظافر حديد</t>
   </si>
   <si>
@@ -425,7 +473,7 @@
     <t>6:0</t>
   </si>
   <si>
-    <t>Tuesday, 30 September, 2025 4:32 PM</t>
+    <t>Tuesday, 30 September, 2025 5:33 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1182,7 +1230,7 @@
         <v>28</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1191,14 +1239,14 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1208,14 +1256,14 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1224,14 +1272,14 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1241,14 +1289,14 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1257,14 +1305,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1274,14 +1322,14 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>26</v>
+        <v>41</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1290,7 +1338,7 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
@@ -1307,14 +1355,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1323,14 +1371,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1340,14 +1388,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1356,14 +1404,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1373,14 +1421,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>50</v>
+        <v>41</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1389,14 +1437,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>52</v>
+        <v>29</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1406,14 +1454,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1422,14 +1470,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>18</v>
+        <v>54</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1439,14 +1487,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
+        <v>56</v>
+      </c>
+      <c t="s" r="Q18" s="12">
         <v>57</v>
-      </c>
-      <c t="s" r="Q18" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1462,7 +1510,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>30</v>
+        <v>59</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1472,14 +1520,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1488,14 +1536,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>30</v>
+        <v>63</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1505,14 +1553,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1521,14 +1569,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1538,14 +1586,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1554,31 +1602,31 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
       <c r="K22" s="9"/>
       <c t="s" r="L22" s="10">
-        <v>68</v>
+        <v>13</v>
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1587,14 +1635,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1604,14 +1652,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1620,31 +1668,31 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
       <c t="s" r="L24" s="10">
-        <v>13</v>
+        <v>76</v>
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1653,14 +1701,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1670,14 +1718,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>20</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1686,14 +1734,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>80</v>
+        <v>29</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1703,14 +1751,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1719,14 +1767,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>26</v>
+        <v>57</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1736,14 +1784,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>84</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1752,14 +1800,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1769,11 +1817,11 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>14</v>
+        <v>89</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>16</v>
@@ -1785,14 +1833,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1806,10 +1854,10 @@
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1818,14 +1866,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>37</v>
+        <v>94</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1835,14 +1883,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1851,31 +1899,31 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
       <c t="s" r="L31" s="10">
-        <v>68</v>
+        <v>13</v>
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>96</v>
+        <v>14</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1884,31 +1932,31 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
       <c t="s" r="L32" s="10">
-        <v>68</v>
+        <v>13</v>
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>75</v>
+        <v>101</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>76</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -1917,31 +1965,31 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>100</v>
+        <v>26</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
       <c t="s" r="L33" s="10">
-        <v>68</v>
+        <v>13</v>
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -1950,31 +1998,31 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
       <c t="s" r="L34" s="10">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>38</v>
+        <v>108</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>39</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -1983,31 +2031,31 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>106</v>
+        <v>29</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
       <c t="s" r="L35" s="10">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>107</v>
+        <v>83</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>108</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>109</v>
+        <v>29</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2016,31 +2064,31 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c t="s" r="L36" s="10">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2049,31 +2097,31 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>30</v>
+        <v>116</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>114</v>
+        <v>43</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>115</v>
+        <v>44</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>116</v>
+        <v>29</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2089,24 +2137,24 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>37</v>
+        <v>118</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>26</v>
+        <v>121</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2115,31 +2163,31 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>30</v>
+        <v>116</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c t="s" r="L39" s="10">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2148,31 +2196,31 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>95</v>
+        <v>31</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>125</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>26</v>
+        <v>127</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2181,31 +2229,31 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>116</v>
+        <v>26</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c t="s" r="L41" s="10">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2214,31 +2262,31 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>95</v>
+        <v>31</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2247,31 +2295,31 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2280,31 +2328,31 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>100</v>
+        <v>138</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>111</v>
+        <v>139</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>37</v>
+        <v>29</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2313,66 +2361,198 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>137</v>
+        <v>107</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>34</v>
+        <v>142</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
+        <v>143</v>
+      </c>
+      <c t="s" r="Q45" s="12">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="46" ht="25.5" customHeight="1">
+      <c r="A46" s="7">
+        <v>40</v>
+      </c>
+      <c r="B46" s="7"/>
+      <c t="s" r="C46" s="8">
+        <v>144</v>
+      </c>
+      <c r="D46" s="8"/>
+      <c r="E46" s="8"/>
+      <c r="F46" s="8"/>
+      <c r="G46" s="8"/>
+      <c t="s" r="H46" s="9">
+        <v>145</v>
+      </c>
+      <c r="I46" s="9"/>
+      <c r="J46" s="9"/>
+      <c r="K46" s="9"/>
+      <c t="s" r="L46" s="10">
+        <v>76</v>
+      </c>
+      <c r="M46" s="10"/>
+      <c t="s" r="N46" s="8">
+        <v>146</v>
+      </c>
+      <c r="O46" s="8"/>
+      <c t="s" r="P46" s="11">
+        <v>147</v>
+      </c>
+      <c t="s" r="Q46" s="12">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="47" ht="25.5" customHeight="1">
+      <c r="A47" s="7">
+        <v>41</v>
+      </c>
+      <c r="B47" s="7"/>
+      <c t="s" r="C47" s="8">
+        <v>148</v>
+      </c>
+      <c r="D47" s="8"/>
+      <c r="E47" s="8"/>
+      <c r="F47" s="8"/>
+      <c r="G47" s="8"/>
+      <c t="s" r="H47" s="9">
+        <v>112</v>
+      </c>
+      <c r="I47" s="9"/>
+      <c r="J47" s="9"/>
+      <c r="K47" s="9"/>
+      <c t="s" r="L47" s="10">
+        <v>76</v>
+      </c>
+      <c r="M47" s="10"/>
+      <c t="s" r="N47" s="8">
+        <v>149</v>
+      </c>
+      <c r="O47" s="8"/>
+      <c t="s" r="P47" s="11">
+        <v>150</v>
+      </c>
+      <c t="s" r="Q47" s="12">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="48" ht="24.75" customHeight="1">
+      <c r="A48" s="7">
+        <v>42</v>
+      </c>
+      <c r="B48" s="7"/>
+      <c t="s" r="C48" s="8">
+        <v>151</v>
+      </c>
+      <c r="D48" s="8"/>
+      <c r="E48" s="8"/>
+      <c r="F48" s="8"/>
+      <c r="G48" s="8"/>
+      <c t="s" r="H48" s="9">
+        <v>112</v>
+      </c>
+      <c r="I48" s="9"/>
+      <c r="J48" s="9"/>
+      <c r="K48" s="9"/>
+      <c t="s" r="L48" s="10">
+        <v>76</v>
+      </c>
+      <c r="M48" s="10"/>
+      <c t="s" r="N48" s="8">
+        <v>123</v>
+      </c>
+      <c r="O48" s="8"/>
+      <c t="s" r="P48" s="11">
+        <v>150</v>
+      </c>
+      <c t="s" r="Q48" s="12">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="49" ht="25.5" customHeight="1">
+      <c r="A49" s="7">
+        <v>43</v>
+      </c>
+      <c r="B49" s="7"/>
+      <c t="s" r="C49" s="8">
+        <v>152</v>
+      </c>
+      <c r="D49" s="8"/>
+      <c r="E49" s="8"/>
+      <c r="F49" s="8"/>
+      <c r="G49" s="8"/>
+      <c t="s" r="H49" s="9">
+        <v>153</v>
+      </c>
+      <c r="I49" s="9"/>
+      <c r="J49" s="9"/>
+      <c r="K49" s="9"/>
+      <c t="s" r="L49" s="10">
+        <v>76</v>
+      </c>
+      <c r="M49" s="10"/>
+      <c t="s" r="N49" s="8">
         <v>35</v>
       </c>
-      <c t="s" r="Q45" s="12">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="46" ht="25.5" customHeight="1">
-      <c r="P46" s="13">
-        <v>2455.29</v>
-      </c>
-      <c r="Q46" s="13"/>
-    </row>
-    <row r="47" ht="16.5" customHeight="1">
-      <c t="s" r="A47" s="14">
-        <v>138</v>
-      </c>
-      <c r="B47" s="14"/>
-      <c r="C47" s="14"/>
-      <c r="D47" s="14"/>
-      <c r="E47" s="14"/>
-      <c r="F47" s="14"/>
-      <c t="s" r="G47" s="15">
-        <v>139</v>
-      </c>
-      <c r="H47" s="15"/>
-      <c r="I47" s="15"/>
-      <c r="J47" s="16"/>
-      <c t="s" r="K47" s="17">
-        <v>140</v>
-      </c>
-      <c r="L47" s="17"/>
-      <c r="M47" s="17"/>
-      <c r="N47" s="17"/>
-      <c r="O47" s="17"/>
-      <c r="P47" s="17"/>
-      <c r="Q47" s="17"/>
+      <c r="O49" s="8"/>
+      <c t="s" r="P49" s="11">
+        <v>36</v>
+      </c>
+      <c t="s" r="Q49" s="12">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="50" ht="24.75" customHeight="1">
+      <c r="P50" s="13">
+        <v>2470.3600000000001</v>
+      </c>
+      <c r="Q50" s="13"/>
+    </row>
+    <row r="51" ht="16.5" customHeight="1">
+      <c t="s" r="A51" s="14">
+        <v>154</v>
+      </c>
+      <c r="B51" s="14"/>
+      <c r="C51" s="14"/>
+      <c r="D51" s="14"/>
+      <c r="E51" s="14"/>
+      <c r="F51" s="14"/>
+      <c t="s" r="G51" s="15">
+        <v>155</v>
+      </c>
+      <c r="H51" s="15"/>
+      <c r="I51" s="15"/>
+      <c r="J51" s="16"/>
+      <c t="s" r="K51" s="17">
+        <v>156</v>
+      </c>
+      <c r="L51" s="17"/>
+      <c r="M51" s="17"/>
+      <c r="N51" s="17"/>
+      <c r="O51" s="17"/>
+      <c r="P51" s="17"/>
+      <c r="Q51" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="207">
+  <mergeCells count="227">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2576,10 +2756,30 @@
     <mergeCell ref="H45:K45"/>
     <mergeCell ref="L45:M45"/>
     <mergeCell ref="N45:O45"/>
-    <mergeCell ref="P46:Q46"/>
-    <mergeCell ref="A47:F47"/>
-    <mergeCell ref="G47:I47"/>
-    <mergeCell ref="K47:Q47"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="C46:G46"/>
+    <mergeCell ref="H46:K46"/>
+    <mergeCell ref="L46:M46"/>
+    <mergeCell ref="N46:O46"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="C47:G47"/>
+    <mergeCell ref="H47:K47"/>
+    <mergeCell ref="L47:M47"/>
+    <mergeCell ref="N47:O47"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="C48:G48"/>
+    <mergeCell ref="H48:K48"/>
+    <mergeCell ref="L48:M48"/>
+    <mergeCell ref="N48:O48"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="C49:G49"/>
+    <mergeCell ref="H49:K49"/>
+    <mergeCell ref="L49:M49"/>
+    <mergeCell ref="N49:O49"/>
+    <mergeCell ref="P50:Q50"/>
+    <mergeCell ref="A51:F51"/>
+    <mergeCell ref="G51:I51"/>
+    <mergeCell ref="K51:Q51"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-30_00-00.xlsx
+++ b/DaySale_2025-09-30_00-00.xlsx
@@ -44,6 +44,24 @@
     <t>عدد التعااملات</t>
   </si>
   <si>
+    <t>ALEJON WHITENING CLEANSER 200ML</t>
+  </si>
+  <si>
+    <t>0:0</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>245.00</t>
+  </si>
+  <si>
+    <t>245.0000</t>
+  </si>
+  <si>
+    <t>1:0</t>
+  </si>
+  <si>
     <t>AMBEZIM-G 30 F.C. TABS.</t>
   </si>
   <si>
@@ -98,15 +116,9 @@
     <t>83.0000</t>
   </si>
   <si>
-    <t>1:0</t>
-  </si>
-  <si>
     <t>BOBAI SUNSCREEN TINTED CREAM SPF 80 - 60 GM</t>
   </si>
   <si>
-    <t>0:0</t>
-  </si>
-  <si>
     <t>195.00</t>
   </si>
   <si>
@@ -122,6 +134,15 @@
     <t>40.0000</t>
   </si>
   <si>
+    <t>CURAM 457MG/5ML PD. FOR ORAL SUSP. 70ML</t>
+  </si>
+  <si>
+    <t>97.00</t>
+  </si>
+  <si>
+    <t>97.0000</t>
+  </si>
+  <si>
     <t>DECLOPHEN 75MG/3ML 3 AMPOULES</t>
   </si>
   <si>
@@ -239,9 +260,6 @@
     <t>KADEE 4000 CAPS</t>
   </si>
   <si>
-    <t>0</t>
-  </si>
-  <si>
     <t>180.00</t>
   </si>
   <si>
@@ -284,6 +302,18 @@
     <t>12.8700</t>
   </si>
   <si>
+    <t>VIDROP 2800 I.U./ML ORAL DROPS 15 ML</t>
+  </si>
+  <si>
+    <t>8:0</t>
+  </si>
+  <si>
+    <t>26.00</t>
+  </si>
+  <si>
+    <t>26.0000</t>
+  </si>
+  <si>
     <t>VOLTAREN 1% EMULGEL 25 GM</t>
   </si>
   <si>
@@ -362,19 +392,37 @@
     <t>3:0</t>
   </si>
   <si>
+    <t xml:space="preserve">برفان القصاص </t>
+  </si>
+  <si>
+    <t>21:0</t>
+  </si>
+  <si>
+    <t>30.00</t>
+  </si>
+  <si>
+    <t>30.0000</t>
+  </si>
+  <si>
     <t>حفاضات كبار سن جير ميني 36ق</t>
   </si>
   <si>
-    <t>0:20</t>
+    <t>0:18</t>
   </si>
   <si>
     <t>450.00</t>
   </si>
   <si>
-    <t>99.0000</t>
-  </si>
-  <si>
-    <t>0:8</t>
+    <t>121.5000</t>
+  </si>
+  <si>
+    <t>0:10</t>
+  </si>
+  <si>
+    <t>زبدة كاكاو كير اند مور</t>
+  </si>
+  <si>
+    <t>50.0000</t>
   </si>
   <si>
     <t>زيت فاتيكا 45 مل صغير</t>
@@ -425,9 +473,6 @@
     <t>صابونه دوف SOAP</t>
   </si>
   <si>
-    <t>8:0</t>
-  </si>
-  <si>
     <t>45.00</t>
   </si>
   <si>
@@ -443,6 +488,9 @@
     <t>65.0000</t>
   </si>
   <si>
+    <t>فرشة شعر وسط</t>
+  </si>
+  <si>
     <t>قطن 100 جم</t>
   </si>
   <si>
@@ -458,22 +506,19 @@
     <t>مبرد اظافر حديد</t>
   </si>
   <si>
-    <t>30.00</t>
-  </si>
-  <si>
-    <t>30.0000</t>
-  </si>
-  <si>
     <t>مبرد قدم</t>
   </si>
   <si>
+    <t>مخمريه العود الملكي</t>
+  </si>
+  <si>
     <t>معجون سنسوداين صغير</t>
   </si>
   <si>
     <t>6:0</t>
   </si>
   <si>
-    <t>Tuesday, 30 September, 2025 5:33 PM</t>
+    <t>Tuesday, 30 September, 2025 6:13 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1153,18 +1198,18 @@
       <c r="J8" s="9"/>
       <c r="K8" s="9"/>
       <c t="s" r="L8" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M8" s="10"/>
       <c t="s" r="N8" s="8">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="O8" s="8"/>
       <c t="s" r="P8" s="11">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c t="s" r="Q8" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9" ht="25.5" customHeight="1">
@@ -1173,31 +1218,31 @@
       </c>
       <c r="B9" s="7"/>
       <c t="s" r="C9" s="8">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
       <c r="K9" s="9"/>
       <c t="s" r="L9" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="O9" s="8"/>
       <c t="s" r="P9" s="11">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -1206,31 +1251,31 @@
       </c>
       <c r="B10" s="7"/>
       <c t="s" r="C10" s="8">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
       <c r="K10" s="9"/>
       <c t="s" r="L10" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>29</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1239,31 +1284,31 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
       <c r="K11" s="9"/>
       <c t="s" r="L11" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1272,31 +1317,31 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
       <c r="K12" s="9"/>
       <c t="s" r="L12" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1305,20 +1350,20 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
       <c r="K13" s="9"/>
       <c t="s" r="L13" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
@@ -1329,7 +1374,7 @@
         <v>40</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>41</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1338,31 +1383,31 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
       <c r="K14" s="9"/>
       <c t="s" r="L14" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1371,20 +1416,20 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
       <c r="K15" s="9"/>
       <c t="s" r="L15" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
@@ -1395,7 +1440,7 @@
         <v>47</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>29</v>
+        <v>48</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1404,31 +1449,31 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
       <c r="K16" s="9"/>
       <c t="s" r="L16" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>41</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1437,28 +1482,28 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
       <c r="K17" s="9"/>
       <c t="s" r="L17" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q17" s="12">
         <v>16</v>
@@ -1470,31 +1515,31 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
       <c r="K18" s="9"/>
       <c t="s" r="L18" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>57</v>
+        <v>48</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1503,31 +1548,31 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>59</v>
+        <v>16</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
       <c r="K19" s="9"/>
       <c t="s" r="L19" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>29</v>
+        <v>22</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1536,31 +1581,31 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
       <c r="K20" s="9"/>
       <c t="s" r="L20" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>16</v>
+        <v>64</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1569,20 +1614,20 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>31</v>
+        <v>66</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
       <c r="K21" s="9"/>
       <c t="s" r="L21" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
@@ -1593,7 +1638,7 @@
         <v>68</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1609,24 +1654,24 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>31</v>
+        <v>70</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
       <c r="K22" s="9"/>
       <c t="s" r="L22" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>29</v>
+        <v>22</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1635,31 +1680,31 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
       <c t="s" r="L23" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1668,20 +1713,20 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
       <c t="s" r="L24" s="10">
-        <v>76</v>
+        <v>19</v>
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
@@ -1692,7 +1737,7 @@
         <v>78</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1708,13 +1753,13 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
       <c t="s" r="L25" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
@@ -1725,7 +1770,7 @@
         <v>81</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1741,7 +1786,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1758,7 +1803,7 @@
         <v>84</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1774,13 +1819,13 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>57</v>
+        <v>12</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
       <c t="s" r="L27" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
@@ -1788,7 +1833,7 @@
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>20</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>16</v>
@@ -1800,20 +1845,20 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>88</v>
+        <v>16</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
       <c t="s" r="L28" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
@@ -1840,24 +1885,24 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>29</v>
+        <v>64</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
       <c t="s" r="L29" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>92</v>
+        <v>26</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>29</v>
+        <v>22</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1879,7 +1924,7 @@
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
       <c t="s" r="L30" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
@@ -1890,7 +1935,7 @@
         <v>96</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1912,15 +1957,15 @@
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
       <c t="s" r="L31" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>14</v>
+        <v>99</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>16</v>
@@ -1932,7 +1977,7 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
@@ -1945,18 +1990,18 @@
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
       <c t="s" r="L32" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
         <v>102</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -1972,24 +2017,24 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>26</v>
+        <v>104</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
       <c t="s" r="L33" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>29</v>
+        <v>22</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -1998,31 +2043,31 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
       <c t="s" r="L34" s="10">
-        <v>76</v>
+        <v>19</v>
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>108</v>
+        <v>20</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
         <v>109</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>29</v>
+        <v>22</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2038,24 +2083,24 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
       <c t="s" r="L35" s="10">
-        <v>76</v>
+        <v>19</v>
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>83</v>
+        <v>111</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>84</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2064,31 +2109,31 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>112</v>
+        <v>32</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c t="s" r="L36" s="10">
-        <v>76</v>
+        <v>19</v>
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2097,31 +2142,31 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>76</v>
+        <v>13</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>43</v>
+        <v>118</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>44</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2130,31 +2175,31 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>118</v>
+        <v>16</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>76</v>
+        <v>13</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>119</v>
+        <v>89</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>121</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2163,20 +2208,20 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c t="s" r="L39" s="10">
-        <v>76</v>
+        <v>13</v>
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
@@ -2187,7 +2232,7 @@
         <v>124</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2203,24 +2248,24 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>31</v>
+        <v>126</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>76</v>
+        <v>13</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>126</v>
+        <v>50</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>105</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>127</v>
+        <v>16</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2229,20 +2274,20 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>26</v>
+        <v>128</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c t="s" r="L41" s="10">
-        <v>76</v>
+        <v>13</v>
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
@@ -2253,7 +2298,7 @@
         <v>130</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2269,24 +2314,24 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>31</v>
+        <v>132</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>76</v>
+        <v>13</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>29</v>
+        <v>135</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2295,31 +2340,31 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>107</v>
+        <v>122</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>76</v>
+        <v>13</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>135</v>
+        <v>118</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2328,20 +2373,20 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>138</v>
+        <v>126</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>76</v>
+        <v>13</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
@@ -2352,7 +2397,7 @@
         <v>140</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2368,13 +2413,13 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>107</v>
+        <v>12</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>76</v>
+        <v>13</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
@@ -2382,10 +2427,10 @@
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
+        <v>115</v>
+      </c>
+      <c t="s" r="Q45" s="12">
         <v>143</v>
-      </c>
-      <c t="s" r="Q45" s="12">
-        <v>29</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2401,24 +2446,24 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>145</v>
+        <v>32</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>76</v>
+        <v>13</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2427,31 +2472,31 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>112</v>
+        <v>12</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>76</v>
+        <v>13</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2460,31 +2505,31 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>76</v>
+        <v>13</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>123</v>
+        <v>151</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2493,66 +2538,297 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>153</v>
+        <v>98</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>76</v>
+        <v>13</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>35</v>
+        <v>154</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>36</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
-      <c r="P50" s="13">
-        <v>2470.3600000000001</v>
-      </c>
-      <c r="Q50" s="13"/>
-    </row>
-    <row r="51" ht="16.5" customHeight="1">
-      <c t="s" r="A51" s="14">
-        <v>154</v>
-      </c>
-      <c r="B51" s="14"/>
-      <c r="C51" s="14"/>
-      <c r="D51" s="14"/>
-      <c r="E51" s="14"/>
-      <c r="F51" s="14"/>
-      <c t="s" r="G51" s="15">
-        <v>155</v>
-      </c>
-      <c r="H51" s="15"/>
-      <c r="I51" s="15"/>
-      <c r="J51" s="16"/>
-      <c t="s" r="K51" s="17">
+      <c r="A50" s="7">
+        <v>44</v>
+      </c>
+      <c r="B50" s="7"/>
+      <c t="s" r="C50" s="8">
         <v>156</v>
       </c>
-      <c r="L51" s="17"/>
-      <c r="M51" s="17"/>
-      <c r="N51" s="17"/>
-      <c r="O51" s="17"/>
-      <c r="P51" s="17"/>
-      <c r="Q51" s="17"/>
+      <c r="D50" s="8"/>
+      <c r="E50" s="8"/>
+      <c r="F50" s="8"/>
+      <c r="G50" s="8"/>
+      <c t="s" r="H50" s="9">
+        <v>117</v>
+      </c>
+      <c r="I50" s="9"/>
+      <c r="J50" s="9"/>
+      <c r="K50" s="9"/>
+      <c t="s" r="L50" s="10">
+        <v>13</v>
+      </c>
+      <c r="M50" s="10"/>
+      <c t="s" r="N50" s="8">
+        <v>157</v>
+      </c>
+      <c r="O50" s="8"/>
+      <c t="s" r="P50" s="11">
+        <v>158</v>
+      </c>
+      <c t="s" r="Q50" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="51" ht="25.5" customHeight="1">
+      <c r="A51" s="7">
+        <v>45</v>
+      </c>
+      <c r="B51" s="7"/>
+      <c t="s" r="C51" s="8">
+        <v>159</v>
+      </c>
+      <c r="D51" s="8"/>
+      <c r="E51" s="8"/>
+      <c r="F51" s="8"/>
+      <c r="G51" s="8"/>
+      <c t="s" r="H51" s="9">
+        <v>117</v>
+      </c>
+      <c r="I51" s="9"/>
+      <c r="J51" s="9"/>
+      <c r="K51" s="9"/>
+      <c t="s" r="L51" s="10">
+        <v>13</v>
+      </c>
+      <c r="M51" s="10"/>
+      <c t="s" r="N51" s="8">
+        <v>118</v>
+      </c>
+      <c r="O51" s="8"/>
+      <c t="s" r="P51" s="11">
+        <v>119</v>
+      </c>
+      <c t="s" r="Q51" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="52" ht="25.5" customHeight="1">
+      <c r="A52" s="7">
+        <v>46</v>
+      </c>
+      <c r="B52" s="7"/>
+      <c t="s" r="C52" s="8">
+        <v>160</v>
+      </c>
+      <c r="D52" s="8"/>
+      <c r="E52" s="8"/>
+      <c r="F52" s="8"/>
+      <c r="G52" s="8"/>
+      <c t="s" r="H52" s="9">
+        <v>161</v>
+      </c>
+      <c r="I52" s="9"/>
+      <c r="J52" s="9"/>
+      <c r="K52" s="9"/>
+      <c t="s" r="L52" s="10">
+        <v>13</v>
+      </c>
+      <c r="M52" s="10"/>
+      <c t="s" r="N52" s="8">
+        <v>162</v>
+      </c>
+      <c r="O52" s="8"/>
+      <c t="s" r="P52" s="11">
+        <v>163</v>
+      </c>
+      <c t="s" r="Q52" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="53" ht="24.75" customHeight="1">
+      <c r="A53" s="7">
+        <v>47</v>
+      </c>
+      <c r="B53" s="7"/>
+      <c t="s" r="C53" s="8">
+        <v>164</v>
+      </c>
+      <c r="D53" s="8"/>
+      <c r="E53" s="8"/>
+      <c r="F53" s="8"/>
+      <c r="G53" s="8"/>
+      <c t="s" r="H53" s="9">
+        <v>122</v>
+      </c>
+      <c r="I53" s="9"/>
+      <c r="J53" s="9"/>
+      <c r="K53" s="9"/>
+      <c t="s" r="L53" s="10">
+        <v>13</v>
+      </c>
+      <c r="M53" s="10"/>
+      <c t="s" r="N53" s="8">
+        <v>129</v>
+      </c>
+      <c r="O53" s="8"/>
+      <c t="s" r="P53" s="11">
+        <v>130</v>
+      </c>
+      <c t="s" r="Q53" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="54" ht="25.5" customHeight="1">
+      <c r="A54" s="7">
+        <v>48</v>
+      </c>
+      <c r="B54" s="7"/>
+      <c t="s" r="C54" s="8">
+        <v>165</v>
+      </c>
+      <c r="D54" s="8"/>
+      <c r="E54" s="8"/>
+      <c r="F54" s="8"/>
+      <c r="G54" s="8"/>
+      <c t="s" r="H54" s="9">
+        <v>122</v>
+      </c>
+      <c r="I54" s="9"/>
+      <c r="J54" s="9"/>
+      <c r="K54" s="9"/>
+      <c t="s" r="L54" s="10">
+        <v>13</v>
+      </c>
+      <c r="M54" s="10"/>
+      <c t="s" r="N54" s="8">
+        <v>139</v>
+      </c>
+      <c r="O54" s="8"/>
+      <c t="s" r="P54" s="11">
+        <v>130</v>
+      </c>
+      <c t="s" r="Q54" s="12">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="55" ht="24.75" customHeight="1">
+      <c r="A55" s="7">
+        <v>49</v>
+      </c>
+      <c r="B55" s="7"/>
+      <c t="s" r="C55" s="8">
+        <v>166</v>
+      </c>
+      <c r="D55" s="8"/>
+      <c r="E55" s="8"/>
+      <c r="F55" s="8"/>
+      <c r="G55" s="8"/>
+      <c t="s" r="H55" s="9">
+        <v>126</v>
+      </c>
+      <c r="I55" s="9"/>
+      <c r="J55" s="9"/>
+      <c r="K55" s="9"/>
+      <c t="s" r="L55" s="10">
+        <v>13</v>
+      </c>
+      <c r="M55" s="10"/>
+      <c t="s" r="N55" s="8">
+        <v>129</v>
+      </c>
+      <c r="O55" s="8"/>
+      <c t="s" r="P55" s="11">
+        <v>90</v>
+      </c>
+      <c t="s" r="Q55" s="12">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="56" ht="25.5" customHeight="1">
+      <c r="A56" s="7">
+        <v>50</v>
+      </c>
+      <c r="B56" s="7"/>
+      <c t="s" r="C56" s="8">
+        <v>167</v>
+      </c>
+      <c r="D56" s="8"/>
+      <c r="E56" s="8"/>
+      <c r="F56" s="8"/>
+      <c r="G56" s="8"/>
+      <c t="s" r="H56" s="9">
+        <v>168</v>
+      </c>
+      <c r="I56" s="9"/>
+      <c r="J56" s="9"/>
+      <c r="K56" s="9"/>
+      <c t="s" r="L56" s="10">
+        <v>13</v>
+      </c>
+      <c r="M56" s="10"/>
+      <c t="s" r="N56" s="8">
+        <v>39</v>
+      </c>
+      <c r="O56" s="8"/>
+      <c t="s" r="P56" s="11">
+        <v>40</v>
+      </c>
+      <c t="s" r="Q56" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="57" ht="25.5" customHeight="1">
+      <c r="P57" s="13">
+        <v>3025.8600000000001</v>
+      </c>
+      <c r="Q57" s="13"/>
+    </row>
+    <row r="58" ht="16.5" customHeight="1">
+      <c t="s" r="A58" s="14">
+        <v>169</v>
+      </c>
+      <c r="B58" s="14"/>
+      <c r="C58" s="14"/>
+      <c r="D58" s="14"/>
+      <c r="E58" s="14"/>
+      <c r="F58" s="14"/>
+      <c t="s" r="G58" s="15">
+        <v>170</v>
+      </c>
+      <c r="H58" s="15"/>
+      <c r="I58" s="15"/>
+      <c r="J58" s="16"/>
+      <c t="s" r="K58" s="17">
+        <v>171</v>
+      </c>
+      <c r="L58" s="17"/>
+      <c r="M58" s="17"/>
+      <c r="N58" s="17"/>
+      <c r="O58" s="17"/>
+      <c r="P58" s="17"/>
+      <c r="Q58" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="227">
+  <mergeCells count="262">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2776,10 +3052,45 @@
     <mergeCell ref="H49:K49"/>
     <mergeCell ref="L49:M49"/>
     <mergeCell ref="N49:O49"/>
-    <mergeCell ref="P50:Q50"/>
-    <mergeCell ref="A51:F51"/>
-    <mergeCell ref="G51:I51"/>
-    <mergeCell ref="K51:Q51"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="C50:G50"/>
+    <mergeCell ref="H50:K50"/>
+    <mergeCell ref="L50:M50"/>
+    <mergeCell ref="N50:O50"/>
+    <mergeCell ref="A51:B51"/>
+    <mergeCell ref="C51:G51"/>
+    <mergeCell ref="H51:K51"/>
+    <mergeCell ref="L51:M51"/>
+    <mergeCell ref="N51:O51"/>
+    <mergeCell ref="A52:B52"/>
+    <mergeCell ref="C52:G52"/>
+    <mergeCell ref="H52:K52"/>
+    <mergeCell ref="L52:M52"/>
+    <mergeCell ref="N52:O52"/>
+    <mergeCell ref="A53:B53"/>
+    <mergeCell ref="C53:G53"/>
+    <mergeCell ref="H53:K53"/>
+    <mergeCell ref="L53:M53"/>
+    <mergeCell ref="N53:O53"/>
+    <mergeCell ref="A54:B54"/>
+    <mergeCell ref="C54:G54"/>
+    <mergeCell ref="H54:K54"/>
+    <mergeCell ref="L54:M54"/>
+    <mergeCell ref="N54:O54"/>
+    <mergeCell ref="A55:B55"/>
+    <mergeCell ref="C55:G55"/>
+    <mergeCell ref="H55:K55"/>
+    <mergeCell ref="L55:M55"/>
+    <mergeCell ref="N55:O55"/>
+    <mergeCell ref="A56:B56"/>
+    <mergeCell ref="C56:G56"/>
+    <mergeCell ref="H56:K56"/>
+    <mergeCell ref="L56:M56"/>
+    <mergeCell ref="N56:O56"/>
+    <mergeCell ref="P57:Q57"/>
+    <mergeCell ref="A58:F58"/>
+    <mergeCell ref="G58:I58"/>
+    <mergeCell ref="K58:Q58"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-30_00-00.xlsx
+++ b/DaySale_2025-09-30_00-00.xlsx
@@ -44,6 +44,21 @@
     <t>عدد التعااملات</t>
   </si>
   <si>
+    <t>1 2 3 (ONE TWO THREE) SYRUP 120 ML</t>
+  </si>
+  <si>
+    <t>1:0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>32.00</t>
+  </si>
+  <si>
+    <t>32.0000</t>
+  </si>
+  <si>
     <t>ALEJON WHITENING CLEANSER 200ML</t>
   </si>
   <si>
@@ -59,18 +74,12 @@
     <t>245.0000</t>
   </si>
   <si>
-    <t>1:0</t>
-  </si>
-  <si>
     <t>AMBEZIM-G 30 F.C. TABS.</t>
   </si>
   <si>
     <t>3:1</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
     <t>102.00</t>
   </si>
   <si>
@@ -191,6 +200,15 @@
     <t>66.0000</t>
   </si>
   <si>
+    <t>DIVITON-D FORTE 10.000 I.U./ML ORAL DROPS 20 ML</t>
+  </si>
+  <si>
+    <t>93.00</t>
+  </si>
+  <si>
+    <t>93.0000</t>
+  </si>
+  <si>
     <t>EPICOPRED 5 MG 30 ORODISPERSIBLE TABS.</t>
   </si>
   <si>
@@ -266,6 +284,15 @@
     <t>180.0000</t>
   </si>
   <si>
+    <t xml:space="preserve">LACTOFERRIN  THREE ONE  20CAP</t>
+  </si>
+  <si>
+    <t>285.00</t>
+  </si>
+  <si>
+    <t>285.0000</t>
+  </si>
+  <si>
     <t>L-CARNITINE 300MG/ML SYRUP 30ML</t>
   </si>
   <si>
@@ -290,6 +317,24 @@
     <t>156.00</t>
   </si>
   <si>
+    <t>POM SHOWER GEL 250 ML</t>
+  </si>
+  <si>
+    <t>100.00</t>
+  </si>
+  <si>
+    <t>100.0000</t>
+  </si>
+  <si>
+    <t>SPASMO-DIGESTIN 30 TABS.</t>
+  </si>
+  <si>
+    <t>3:0</t>
+  </si>
+  <si>
+    <t>25.7400</t>
+  </si>
+  <si>
     <t>SPASMOFEN 3 AMP. FOR I.M. INJ.</t>
   </si>
   <si>
@@ -314,6 +359,15 @@
     <t>26.0000</t>
   </si>
   <si>
+    <t>VILDABETES 50/1000MG 30 TABS.</t>
+  </si>
+  <si>
+    <t>186.00</t>
+  </si>
+  <si>
+    <t>61.3800</t>
+  </si>
+  <si>
     <t>VOLTAREN 1% EMULGEL 25 GM</t>
   </si>
   <si>
@@ -389,9 +443,6 @@
     <t>بادي لوشن كير اند مور</t>
   </si>
   <si>
-    <t>3:0</t>
-  </si>
-  <si>
     <t xml:space="preserve">برفان القصاص </t>
   </si>
   <si>
@@ -518,7 +569,7 @@
     <t>6:0</t>
   </si>
   <si>
-    <t>Tuesday, 30 September, 2025 6:13 PM</t>
+    <t>Tuesday, 30 September, 2025 6:17 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1176,7 +1227,7 @@
         <v>15</v>
       </c>
       <c t="s" r="Q7" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" ht="24.75" customHeight="1">
@@ -1185,31 +1236,31 @@
       </c>
       <c r="B8" s="7"/>
       <c t="s" r="C8" s="8">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D8" s="8"/>
       <c r="E8" s="8"/>
       <c r="F8" s="8"/>
       <c r="G8" s="8"/>
       <c t="s" r="H8" s="9">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I8" s="9"/>
       <c r="J8" s="9"/>
       <c r="K8" s="9"/>
       <c t="s" r="L8" s="10">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M8" s="10"/>
       <c t="s" r="N8" s="8">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="O8" s="8"/>
       <c t="s" r="P8" s="11">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q8" s="12">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" ht="25.5" customHeight="1">
@@ -1218,31 +1269,31 @@
       </c>
       <c r="B9" s="7"/>
       <c t="s" r="C9" s="8">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
       <c r="K9" s="9"/>
       <c t="s" r="L9" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="O9" s="8"/>
       <c t="s" r="P9" s="11">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -1251,31 +1302,31 @@
       </c>
       <c r="B10" s="7"/>
       <c t="s" r="C10" s="8">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
       <c r="K10" s="9"/>
       <c t="s" r="L10" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1284,31 +1335,31 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
       <c r="K11" s="9"/>
       <c t="s" r="L11" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1317,20 +1368,20 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
       <c r="K12" s="9"/>
       <c t="s" r="L12" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
@@ -1341,7 +1392,7 @@
         <v>37</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1357,13 +1408,13 @@
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
       <c r="K13" s="9"/>
       <c t="s" r="L13" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
@@ -1374,7 +1425,7 @@
         <v>40</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1396,7 +1447,7 @@
       <c r="J14" s="9"/>
       <c r="K14" s="9"/>
       <c t="s" r="L14" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
@@ -1407,7 +1458,7 @@
         <v>43</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1423,24 +1474,24 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>45</v>
+        <v>17</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
       <c r="K15" s="9"/>
       <c t="s" r="L15" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>48</v>
+        <v>12</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1449,31 +1500,31 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
       <c r="K16" s="9"/>
       <c t="s" r="L16" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
+        <v>50</v>
+      </c>
+      <c t="s" r="Q16" s="12">
         <v>51</v>
-      </c>
-      <c t="s" r="Q16" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1489,13 +1540,13 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
       <c r="K17" s="9"/>
       <c t="s" r="L17" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
@@ -1506,7 +1557,7 @@
         <v>54</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1522,24 +1573,24 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>56</v>
+        <v>12</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
       <c r="K18" s="9"/>
       <c t="s" r="L18" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>48</v>
+        <v>12</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1548,31 +1599,31 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>16</v>
+        <v>59</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
       <c r="K19" s="9"/>
       <c t="s" r="L19" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>22</v>
+        <v>51</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1588,24 +1639,24 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>61</v>
+        <v>12</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
       <c r="K20" s="9"/>
       <c t="s" r="L20" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>64</v>
+        <v>25</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1614,31 +1665,31 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>66</v>
+        <v>17</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
       <c r="K21" s="9"/>
       <c t="s" r="L21" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1647,31 +1698,31 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
       <c r="K22" s="9"/>
       <c t="s" r="L22" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>22</v>
+        <v>70</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1680,31 +1731,31 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>12</v>
+        <v>72</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
       <c t="s" r="L23" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1713,20 +1764,20 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>12</v>
+        <v>76</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
       <c t="s" r="L24" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
@@ -1737,7 +1788,7 @@
         <v>78</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1753,13 +1804,13 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
       <c t="s" r="L25" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
@@ -1770,7 +1821,7 @@
         <v>81</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1786,7 +1837,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1803,7 +1854,7 @@
         <v>84</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1819,13 +1870,13 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
       <c t="s" r="L27" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
@@ -1836,7 +1887,7 @@
         <v>87</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1852,13 +1903,13 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
       <c t="s" r="L28" s="10">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
@@ -1869,7 +1920,7 @@
         <v>90</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1885,13 +1936,13 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>64</v>
+        <v>25</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
       <c t="s" r="L29" s="10">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
@@ -1899,10 +1950,10 @@
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>26</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1911,20 +1962,20 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>94</v>
+        <v>17</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
       <c t="s" r="L30" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
@@ -1935,7 +1986,7 @@
         <v>96</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1951,24 +2002,24 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>98</v>
+        <v>12</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
       <c t="s" r="L31" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1977,31 +2028,31 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>16</v>
+        <v>70</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
       <c t="s" r="L32" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>102</v>
+        <v>29</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2010,31 +2061,31 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>104</v>
+        <v>17</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
       <c t="s" r="L33" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2043,31 +2094,31 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
       <c t="s" r="L34" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2076,31 +2127,31 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>22</v>
+        <v>109</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
       <c t="s" r="L35" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2109,20 +2160,20 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>32</v>
+        <v>113</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c t="s" r="L36" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
@@ -2133,7 +2184,7 @@
         <v>115</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2149,7 +2200,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>117</v>
+        <v>70</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2159,14 +2210,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2175,14 +2226,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2192,14 +2243,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>89</v>
+        <v>110</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>90</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2232,7 +2283,7 @@
         <v>124</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2258,14 +2309,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>50</v>
+        <v>23</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>51</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2274,14 +2325,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>128</v>
+        <v>25</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2298,7 +2349,7 @@
         <v>130</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2314,7 +2365,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>132</v>
+        <v>35</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2324,14 +2375,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>135</v>
+        <v>12</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2340,31 +2391,31 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>122</v>
+        <v>135</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>118</v>
+        <v>136</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
         <v>137</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>32</v>
+        <v>12</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2380,24 +2431,24 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>126</v>
+        <v>12</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>139</v>
+        <v>98</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>140</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2406,31 +2457,31 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>12</v>
+        <v>140</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>115</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>143</v>
+        <v>12</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2439,31 +2490,31 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>32</v>
+        <v>106</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>145</v>
+        <v>53</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>146</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2472,31 +2523,31 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>12</v>
+        <v>145</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2505,31 +2556,31 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>117</v>
+        <v>149</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
+        <v>151</v>
+      </c>
+      <c t="s" r="Q48" s="12">
         <v>152</v>
-      </c>
-      <c t="s" r="Q48" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2545,24 +2596,24 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>98</v>
+        <v>140</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>154</v>
+        <v>136</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>16</v>
+        <v>35</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2571,31 +2622,31 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>117</v>
+        <v>106</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2604,31 +2655,31 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>117</v>
+        <v>17</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>118</v>
+        <v>159</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>119</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>16</v>
+        <v>160</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2637,20 +2688,20 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>161</v>
+        <v>35</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
@@ -2661,7 +2712,7 @@
         <v>163</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2677,24 +2728,24 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>122</v>
+        <v>17</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>129</v>
+        <v>165</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>130</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2703,31 +2754,31 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>122</v>
+        <v>135</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>139</v>
+        <v>168</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>130</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>32</v>
+        <v>12</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2736,31 +2787,31 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>126</v>
+        <v>113</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c t="s" r="L55" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>129</v>
+        <v>171</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>90</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>32</v>
+        <v>12</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2769,66 +2820,264 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>168</v>
+        <v>135</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>39</v>
+        <v>174</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>40</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
-      <c r="P57" s="13">
-        <v>3025.8600000000001</v>
-      </c>
-      <c r="Q57" s="13"/>
-    </row>
-    <row r="58" ht="16.5" customHeight="1">
-      <c t="s" r="A58" s="14">
-        <v>169</v>
-      </c>
-      <c r="B58" s="14"/>
-      <c r="C58" s="14"/>
-      <c r="D58" s="14"/>
-      <c r="E58" s="14"/>
-      <c r="F58" s="14"/>
-      <c t="s" r="G58" s="15">
-        <v>170</v>
-      </c>
-      <c r="H58" s="15"/>
-      <c r="I58" s="15"/>
-      <c r="J58" s="16"/>
-      <c t="s" r="K58" s="17">
-        <v>171</v>
-      </c>
-      <c r="L58" s="17"/>
-      <c r="M58" s="17"/>
-      <c r="N58" s="17"/>
-      <c r="O58" s="17"/>
-      <c r="P58" s="17"/>
-      <c r="Q58" s="17"/>
+      <c r="A57" s="7">
+        <v>51</v>
+      </c>
+      <c r="B57" s="7"/>
+      <c t="s" r="C57" s="8">
+        <v>176</v>
+      </c>
+      <c r="D57" s="8"/>
+      <c r="E57" s="8"/>
+      <c r="F57" s="8"/>
+      <c r="G57" s="8"/>
+      <c t="s" r="H57" s="9">
+        <v>135</v>
+      </c>
+      <c r="I57" s="9"/>
+      <c r="J57" s="9"/>
+      <c r="K57" s="9"/>
+      <c t="s" r="L57" s="10">
+        <v>18</v>
+      </c>
+      <c r="M57" s="10"/>
+      <c t="s" r="N57" s="8">
+        <v>136</v>
+      </c>
+      <c r="O57" s="8"/>
+      <c t="s" r="P57" s="11">
+        <v>137</v>
+      </c>
+      <c t="s" r="Q57" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="58" ht="24.75" customHeight="1">
+      <c r="A58" s="7">
+        <v>52</v>
+      </c>
+      <c r="B58" s="7"/>
+      <c t="s" r="C58" s="8">
+        <v>177</v>
+      </c>
+      <c r="D58" s="8"/>
+      <c r="E58" s="8"/>
+      <c r="F58" s="8"/>
+      <c r="G58" s="8"/>
+      <c t="s" r="H58" s="9">
+        <v>178</v>
+      </c>
+      <c r="I58" s="9"/>
+      <c r="J58" s="9"/>
+      <c r="K58" s="9"/>
+      <c t="s" r="L58" s="10">
+        <v>18</v>
+      </c>
+      <c r="M58" s="10"/>
+      <c t="s" r="N58" s="8">
+        <v>179</v>
+      </c>
+      <c r="O58" s="8"/>
+      <c t="s" r="P58" s="11">
+        <v>180</v>
+      </c>
+      <c t="s" r="Q58" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="59" ht="25.5" customHeight="1">
+      <c r="A59" s="7">
+        <v>53</v>
+      </c>
+      <c r="B59" s="7"/>
+      <c t="s" r="C59" s="8">
+        <v>181</v>
+      </c>
+      <c r="D59" s="8"/>
+      <c r="E59" s="8"/>
+      <c r="F59" s="8"/>
+      <c r="G59" s="8"/>
+      <c t="s" r="H59" s="9">
+        <v>140</v>
+      </c>
+      <c r="I59" s="9"/>
+      <c r="J59" s="9"/>
+      <c r="K59" s="9"/>
+      <c t="s" r="L59" s="10">
+        <v>18</v>
+      </c>
+      <c r="M59" s="10"/>
+      <c t="s" r="N59" s="8">
+        <v>146</v>
+      </c>
+      <c r="O59" s="8"/>
+      <c t="s" r="P59" s="11">
+        <v>147</v>
+      </c>
+      <c t="s" r="Q59" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="60" ht="24.75" customHeight="1">
+      <c r="A60" s="7">
+        <v>54</v>
+      </c>
+      <c r="B60" s="7"/>
+      <c t="s" r="C60" s="8">
+        <v>182</v>
+      </c>
+      <c r="D60" s="8"/>
+      <c r="E60" s="8"/>
+      <c r="F60" s="8"/>
+      <c r="G60" s="8"/>
+      <c t="s" r="H60" s="9">
+        <v>140</v>
+      </c>
+      <c r="I60" s="9"/>
+      <c r="J60" s="9"/>
+      <c r="K60" s="9"/>
+      <c t="s" r="L60" s="10">
+        <v>18</v>
+      </c>
+      <c r="M60" s="10"/>
+      <c t="s" r="N60" s="8">
+        <v>156</v>
+      </c>
+      <c r="O60" s="8"/>
+      <c t="s" r="P60" s="11">
+        <v>147</v>
+      </c>
+      <c t="s" r="Q60" s="12">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="61" ht="25.5" customHeight="1">
+      <c r="A61" s="7">
+        <v>55</v>
+      </c>
+      <c r="B61" s="7"/>
+      <c t="s" r="C61" s="8">
+        <v>183</v>
+      </c>
+      <c r="D61" s="8"/>
+      <c r="E61" s="8"/>
+      <c r="F61" s="8"/>
+      <c r="G61" s="8"/>
+      <c t="s" r="H61" s="9">
+        <v>106</v>
+      </c>
+      <c r="I61" s="9"/>
+      <c r="J61" s="9"/>
+      <c r="K61" s="9"/>
+      <c t="s" r="L61" s="10">
+        <v>18</v>
+      </c>
+      <c r="M61" s="10"/>
+      <c t="s" r="N61" s="8">
+        <v>146</v>
+      </c>
+      <c r="O61" s="8"/>
+      <c t="s" r="P61" s="11">
+        <v>99</v>
+      </c>
+      <c t="s" r="Q61" s="12">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="62" ht="25.5" customHeight="1">
+      <c r="A62" s="7">
+        <v>56</v>
+      </c>
+      <c r="B62" s="7"/>
+      <c t="s" r="C62" s="8">
+        <v>184</v>
+      </c>
+      <c r="D62" s="8"/>
+      <c r="E62" s="8"/>
+      <c r="F62" s="8"/>
+      <c r="G62" s="8"/>
+      <c t="s" r="H62" s="9">
+        <v>185</v>
+      </c>
+      <c r="I62" s="9"/>
+      <c r="J62" s="9"/>
+      <c r="K62" s="9"/>
+      <c t="s" r="L62" s="10">
+        <v>18</v>
+      </c>
+      <c r="M62" s="10"/>
+      <c t="s" r="N62" s="8">
+        <v>42</v>
+      </c>
+      <c r="O62" s="8"/>
+      <c t="s" r="P62" s="11">
+        <v>43</v>
+      </c>
+      <c t="s" r="Q62" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="63" ht="24.75" customHeight="1">
+      <c r="P63" s="13">
+        <v>3622.98</v>
+      </c>
+      <c r="Q63" s="13"/>
+    </row>
+    <row r="64" ht="16.5" customHeight="1">
+      <c t="s" r="A64" s="14">
+        <v>186</v>
+      </c>
+      <c r="B64" s="14"/>
+      <c r="C64" s="14"/>
+      <c r="D64" s="14"/>
+      <c r="E64" s="14"/>
+      <c r="F64" s="14"/>
+      <c t="s" r="G64" s="15">
+        <v>187</v>
+      </c>
+      <c r="H64" s="15"/>
+      <c r="I64" s="15"/>
+      <c r="J64" s="16"/>
+      <c t="s" r="K64" s="17">
+        <v>188</v>
+      </c>
+      <c r="L64" s="17"/>
+      <c r="M64" s="17"/>
+      <c r="N64" s="17"/>
+      <c r="O64" s="17"/>
+      <c r="P64" s="17"/>
+      <c r="Q64" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="262">
+  <mergeCells count="292">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3087,10 +3336,40 @@
     <mergeCell ref="H56:K56"/>
     <mergeCell ref="L56:M56"/>
     <mergeCell ref="N56:O56"/>
-    <mergeCell ref="P57:Q57"/>
-    <mergeCell ref="A58:F58"/>
-    <mergeCell ref="G58:I58"/>
-    <mergeCell ref="K58:Q58"/>
+    <mergeCell ref="A57:B57"/>
+    <mergeCell ref="C57:G57"/>
+    <mergeCell ref="H57:K57"/>
+    <mergeCell ref="L57:M57"/>
+    <mergeCell ref="N57:O57"/>
+    <mergeCell ref="A58:B58"/>
+    <mergeCell ref="C58:G58"/>
+    <mergeCell ref="H58:K58"/>
+    <mergeCell ref="L58:M58"/>
+    <mergeCell ref="N58:O58"/>
+    <mergeCell ref="A59:B59"/>
+    <mergeCell ref="C59:G59"/>
+    <mergeCell ref="H59:K59"/>
+    <mergeCell ref="L59:M59"/>
+    <mergeCell ref="N59:O59"/>
+    <mergeCell ref="A60:B60"/>
+    <mergeCell ref="C60:G60"/>
+    <mergeCell ref="H60:K60"/>
+    <mergeCell ref="L60:M60"/>
+    <mergeCell ref="N60:O60"/>
+    <mergeCell ref="A61:B61"/>
+    <mergeCell ref="C61:G61"/>
+    <mergeCell ref="H61:K61"/>
+    <mergeCell ref="L61:M61"/>
+    <mergeCell ref="N61:O61"/>
+    <mergeCell ref="A62:B62"/>
+    <mergeCell ref="C62:G62"/>
+    <mergeCell ref="H62:K62"/>
+    <mergeCell ref="L62:M62"/>
+    <mergeCell ref="N62:O62"/>
+    <mergeCell ref="P63:Q63"/>
+    <mergeCell ref="A64:F64"/>
+    <mergeCell ref="G64:I64"/>
+    <mergeCell ref="K64:Q64"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-30_00-00.xlsx
+++ b/DaySale_2025-09-30_00-00.xlsx
@@ -74,6 +74,15 @@
     <t>245.0000</t>
   </si>
   <si>
+    <t>ALFEDING SPRAY</t>
+  </si>
+  <si>
+    <t>249.00</t>
+  </si>
+  <si>
+    <t>249.0000</t>
+  </si>
+  <si>
     <t>AMBEZIM-G 30 F.C. TABS.</t>
   </si>
   <si>
@@ -113,6 +122,15 @@
     <t>6.0000</t>
   </si>
   <si>
+    <t>BETOLVEX 1MG/ML 2 AMP</t>
+  </si>
+  <si>
+    <t>64.00</t>
+  </si>
+  <si>
+    <t>64.0000</t>
+  </si>
+  <si>
     <t>BIVATRACIN 150MG POWDER SPRAY</t>
   </si>
   <si>
@@ -224,6 +242,15 @@
     <t>0:2</t>
   </si>
   <si>
+    <t>E-ROSH ANTI-DANDRUFF SHAMPOO 200 ML</t>
+  </si>
+  <si>
+    <t>140.00</t>
+  </si>
+  <si>
+    <t>140.0000</t>
+  </si>
+  <si>
     <t>FAWAR FRUIT 6 SACHETS</t>
   </si>
   <si>
@@ -398,12 +425,6 @@
     <t>VONSECA 20MG 14 TAB</t>
   </si>
   <si>
-    <t>140.00</t>
-  </si>
-  <si>
-    <t>140.0000</t>
-  </si>
-  <si>
     <t>ZINCOSIL CREAM 20 GM</t>
   </si>
   <si>
@@ -494,6 +515,12 @@
     <t>9:0</t>
   </si>
   <si>
+    <t>سرنجات 5 سم</t>
+  </si>
+  <si>
+    <t>3.00</t>
+  </si>
+  <si>
     <t>سيتي بيبي رقم 3</t>
   </si>
   <si>
@@ -569,7 +596,7 @@
     <t>6:0</t>
   </si>
   <si>
-    <t>Tuesday, 30 September, 2025 6:17 PM</t>
+    <t>Tuesday, 30 September, 2025 6:21 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1276,24 +1303,24 @@
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
       <c r="K9" s="9"/>
       <c t="s" r="L9" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="O9" s="8"/>
       <c t="s" r="P9" s="11">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -1302,14 +1329,14 @@
       </c>
       <c r="B10" s="7"/>
       <c t="s" r="C10" s="8">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -1319,14 +1346,14 @@
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1335,14 +1362,14 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1352,14 +1379,14 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1368,14 +1395,14 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1385,14 +1412,14 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>12</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1401,14 +1428,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1418,11 +1445,11 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c t="s" r="Q13" s="12">
         <v>12</v>
@@ -1434,14 +1461,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1507,7 +1534,7 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>48</v>
+        <v>12</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1517,14 +1544,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>51</v>
+        <v>12</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1533,14 +1560,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1550,11 +1577,11 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q17" s="12">
         <v>12</v>
@@ -1566,14 +1593,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>12</v>
+        <v>54</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1583,14 +1610,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
+        <v>56</v>
+      </c>
+      <c t="s" r="Q18" s="12">
         <v>57</v>
-      </c>
-      <c t="s" r="Q18" s="12">
-        <v>12</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1606,7 +1633,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>59</v>
+        <v>41</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1616,14 +1643,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>51</v>
+        <v>12</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1632,7 +1659,7 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
@@ -1649,14 +1676,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1665,14 +1692,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>17</v>
+        <v>65</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1682,14 +1709,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>12</v>
+        <v>57</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1705,7 +1732,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>67</v>
+        <v>12</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1715,14 +1742,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>70</v>
+        <v>28</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1731,14 +1758,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>72</v>
+        <v>17</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1748,11 +1775,11 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q23" s="12">
         <v>12</v>
@@ -1764,14 +1791,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1781,14 +1808,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>25</v>
+        <v>76</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1797,7 +1824,7 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
@@ -1814,11 +1841,11 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>12</v>
@@ -1830,14 +1857,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>17</v>
+        <v>81</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1847,11 +1874,11 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>12</v>
@@ -1863,14 +1890,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>35</v>
+        <v>85</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1887,7 +1914,7 @@
         <v>87</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>12</v>
+        <v>28</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1909,7 +1936,7 @@
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
       <c t="s" r="L28" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
@@ -1936,13 +1963,13 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
       <c t="s" r="L29" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
@@ -1969,7 +1996,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2002,13 +2029,13 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
       <c t="s" r="L31" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
@@ -2035,13 +2062,13 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>70</v>
+        <v>28</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
       <c t="s" r="L32" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
@@ -2049,10 +2076,10 @@
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>29</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2061,7 +2088,7 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
@@ -2078,11 +2105,11 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>12</v>
@@ -2094,14 +2121,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>106</v>
+        <v>12</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2111,14 +2138,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>28</v>
+        <v>107</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2127,14 +2154,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>109</v>
+        <v>76</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2148,10 +2175,10 @@
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>111</v>
+        <v>32</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2160,14 +2187,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>113</v>
+        <v>17</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2177,11 +2204,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>12</v>
@@ -2193,14 +2220,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>70</v>
+        <v>115</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2210,14 +2237,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>117</v>
+        <v>31</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2226,14 +2253,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>12</v>
+        <v>118</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2243,14 +2270,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>110</v>
+        <v>119</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
         <v>120</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>12</v>
+        <v>28</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2283,7 +2310,7 @@
         <v>124</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2299,7 +2326,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>126</v>
+        <v>76</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2309,14 +2336,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>23</v>
+        <v>126</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
         <v>127</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2332,7 +2359,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2342,11 +2369,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>12</v>
@@ -2358,14 +2385,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>35</v>
+        <v>131</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2382,7 +2409,7 @@
         <v>133</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>12</v>
+        <v>28</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2404,18 +2431,18 @@
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>136</v>
+        <v>26</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>12</v>
+        <v>28</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2424,28 +2451,28 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>98</v>
+        <v>78</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>99</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>12</v>
@@ -2457,28 +2484,28 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>140</v>
+        <v>41</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>12</v>
@@ -2490,14 +2517,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>106</v>
+        <v>142</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2507,11 +2534,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>53</v>
+        <v>143</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>54</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>12</v>
@@ -2523,14 +2550,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>145</v>
+        <v>12</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2540,11 +2567,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>146</v>
+        <v>107</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>147</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>12</v>
@@ -2556,14 +2583,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2573,14 +2600,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>152</v>
+        <v>12</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2589,14 +2616,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>140</v>
+        <v>115</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2606,14 +2633,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>136</v>
+        <v>59</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>154</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>35</v>
+        <v>12</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2622,14 +2649,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>106</v>
+        <v>152</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2639,11 +2666,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>12</v>
@@ -2655,14 +2682,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>17</v>
+        <v>156</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2672,14 +2699,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>133</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2688,14 +2715,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>35</v>
+        <v>147</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2705,14 +2732,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>162</v>
+        <v>143</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>12</v>
+        <v>41</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2721,14 +2748,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>17</v>
+        <v>115</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2738,11 +2765,11 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>12</v>
@@ -2754,14 +2781,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>135</v>
+        <v>17</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2771,14 +2798,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>169</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>12</v>
+        <v>167</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2787,14 +2814,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>113</v>
+        <v>17</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2804,14 +2831,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>172</v>
+        <v>36</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>12</v>
+        <v>41</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2820,14 +2847,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>135</v>
+        <v>41</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2837,11 +2864,11 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>12</v>
@@ -2853,14 +2880,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>135</v>
+        <v>17</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -2870,11 +2897,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>136</v>
+        <v>174</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>137</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>12</v>
@@ -2886,14 +2913,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>178</v>
+        <v>142</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -2903,11 +2930,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>12</v>
@@ -2919,14 +2946,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>140</v>
+        <v>122</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -2936,11 +2963,11 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>146</v>
+        <v>180</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>147</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>12</v>
@@ -2959,7 +2986,7 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -2969,14 +2996,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>156</v>
+        <v>183</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>147</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>35</v>
+        <v>12</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -2985,14 +3012,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>106</v>
+        <v>142</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3002,14 +3029,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>99</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>35</v>
+        <v>12</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3018,14 +3045,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3035,49 +3062,181 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>42</v>
+        <v>188</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>43</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>12</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
-      <c r="P63" s="13">
-        <v>3622.98</v>
-      </c>
-      <c r="Q63" s="13"/>
-    </row>
-    <row r="64" ht="16.5" customHeight="1">
-      <c t="s" r="A64" s="14">
-        <v>186</v>
-      </c>
-      <c r="B64" s="14"/>
-      <c r="C64" s="14"/>
-      <c r="D64" s="14"/>
-      <c r="E64" s="14"/>
-      <c r="F64" s="14"/>
-      <c t="s" r="G64" s="15">
-        <v>187</v>
-      </c>
-      <c r="H64" s="15"/>
-      <c r="I64" s="15"/>
-      <c r="J64" s="16"/>
-      <c t="s" r="K64" s="17">
-        <v>188</v>
-      </c>
-      <c r="L64" s="17"/>
-      <c r="M64" s="17"/>
-      <c r="N64" s="17"/>
-      <c r="O64" s="17"/>
-      <c r="P64" s="17"/>
-      <c r="Q64" s="17"/>
+      <c r="A63" s="7">
+        <v>57</v>
+      </c>
+      <c r="B63" s="7"/>
+      <c t="s" r="C63" s="8">
+        <v>190</v>
+      </c>
+      <c r="D63" s="8"/>
+      <c r="E63" s="8"/>
+      <c r="F63" s="8"/>
+      <c r="G63" s="8"/>
+      <c t="s" r="H63" s="9">
+        <v>147</v>
+      </c>
+      <c r="I63" s="9"/>
+      <c r="J63" s="9"/>
+      <c r="K63" s="9"/>
+      <c t="s" r="L63" s="10">
+        <v>18</v>
+      </c>
+      <c r="M63" s="10"/>
+      <c t="s" r="N63" s="8">
+        <v>153</v>
+      </c>
+      <c r="O63" s="8"/>
+      <c t="s" r="P63" s="11">
+        <v>154</v>
+      </c>
+      <c t="s" r="Q63" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="64" ht="25.5" customHeight="1">
+      <c r="A64" s="7">
+        <v>58</v>
+      </c>
+      <c r="B64" s="7"/>
+      <c t="s" r="C64" s="8">
+        <v>191</v>
+      </c>
+      <c r="D64" s="8"/>
+      <c r="E64" s="8"/>
+      <c r="F64" s="8"/>
+      <c r="G64" s="8"/>
+      <c t="s" r="H64" s="9">
+        <v>147</v>
+      </c>
+      <c r="I64" s="9"/>
+      <c r="J64" s="9"/>
+      <c r="K64" s="9"/>
+      <c t="s" r="L64" s="10">
+        <v>18</v>
+      </c>
+      <c r="M64" s="10"/>
+      <c t="s" r="N64" s="8">
+        <v>163</v>
+      </c>
+      <c r="O64" s="8"/>
+      <c t="s" r="P64" s="11">
+        <v>154</v>
+      </c>
+      <c t="s" r="Q64" s="12">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="65" ht="24.75" customHeight="1">
+      <c r="A65" s="7">
+        <v>59</v>
+      </c>
+      <c r="B65" s="7"/>
+      <c t="s" r="C65" s="8">
+        <v>192</v>
+      </c>
+      <c r="D65" s="8"/>
+      <c r="E65" s="8"/>
+      <c r="F65" s="8"/>
+      <c r="G65" s="8"/>
+      <c t="s" r="H65" s="9">
+        <v>115</v>
+      </c>
+      <c r="I65" s="9"/>
+      <c r="J65" s="9"/>
+      <c r="K65" s="9"/>
+      <c t="s" r="L65" s="10">
+        <v>18</v>
+      </c>
+      <c r="M65" s="10"/>
+      <c t="s" r="N65" s="8">
+        <v>153</v>
+      </c>
+      <c r="O65" s="8"/>
+      <c t="s" r="P65" s="11">
+        <v>108</v>
+      </c>
+      <c t="s" r="Q65" s="12">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="66" ht="25.5" customHeight="1">
+      <c r="A66" s="7">
+        <v>60</v>
+      </c>
+      <c r="B66" s="7"/>
+      <c t="s" r="C66" s="8">
+        <v>193</v>
+      </c>
+      <c r="D66" s="8"/>
+      <c r="E66" s="8"/>
+      <c r="F66" s="8"/>
+      <c r="G66" s="8"/>
+      <c t="s" r="H66" s="9">
+        <v>194</v>
+      </c>
+      <c r="I66" s="9"/>
+      <c r="J66" s="9"/>
+      <c r="K66" s="9"/>
+      <c t="s" r="L66" s="10">
+        <v>18</v>
+      </c>
+      <c r="M66" s="10"/>
+      <c t="s" r="N66" s="8">
+        <v>48</v>
+      </c>
+      <c r="O66" s="8"/>
+      <c t="s" r="P66" s="11">
+        <v>49</v>
+      </c>
+      <c t="s" r="Q66" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="67" ht="25.5" customHeight="1">
+      <c r="P67" s="13">
+        <v>4081.98</v>
+      </c>
+      <c r="Q67" s="13"/>
+    </row>
+    <row r="68" ht="16.5" customHeight="1">
+      <c t="s" r="A68" s="14">
+        <v>195</v>
+      </c>
+      <c r="B68" s="14"/>
+      <c r="C68" s="14"/>
+      <c r="D68" s="14"/>
+      <c r="E68" s="14"/>
+      <c r="F68" s="14"/>
+      <c t="s" r="G68" s="15">
+        <v>196</v>
+      </c>
+      <c r="H68" s="15"/>
+      <c r="I68" s="15"/>
+      <c r="J68" s="16"/>
+      <c t="s" r="K68" s="17">
+        <v>197</v>
+      </c>
+      <c r="L68" s="17"/>
+      <c r="M68" s="17"/>
+      <c r="N68" s="17"/>
+      <c r="O68" s="17"/>
+      <c r="P68" s="17"/>
+      <c r="Q68" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="292">
+  <mergeCells count="312">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3366,10 +3525,30 @@
     <mergeCell ref="H62:K62"/>
     <mergeCell ref="L62:M62"/>
     <mergeCell ref="N62:O62"/>
-    <mergeCell ref="P63:Q63"/>
-    <mergeCell ref="A64:F64"/>
-    <mergeCell ref="G64:I64"/>
-    <mergeCell ref="K64:Q64"/>
+    <mergeCell ref="A63:B63"/>
+    <mergeCell ref="C63:G63"/>
+    <mergeCell ref="H63:K63"/>
+    <mergeCell ref="L63:M63"/>
+    <mergeCell ref="N63:O63"/>
+    <mergeCell ref="A64:B64"/>
+    <mergeCell ref="C64:G64"/>
+    <mergeCell ref="H64:K64"/>
+    <mergeCell ref="L64:M64"/>
+    <mergeCell ref="N64:O64"/>
+    <mergeCell ref="A65:B65"/>
+    <mergeCell ref="C65:G65"/>
+    <mergeCell ref="H65:K65"/>
+    <mergeCell ref="L65:M65"/>
+    <mergeCell ref="N65:O65"/>
+    <mergeCell ref="A66:B66"/>
+    <mergeCell ref="C66:G66"/>
+    <mergeCell ref="H66:K66"/>
+    <mergeCell ref="L66:M66"/>
+    <mergeCell ref="N66:O66"/>
+    <mergeCell ref="P67:Q67"/>
+    <mergeCell ref="A68:F68"/>
+    <mergeCell ref="G68:I68"/>
+    <mergeCell ref="K68:Q68"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-30_00-00.xlsx
+++ b/DaySale_2025-09-30_00-00.xlsx
@@ -161,6 +161,9 @@
     <t>40.0000</t>
   </si>
   <si>
+    <t>CONJYCLEAR FORTE 0.2% EYE DROPS 5 ML</t>
+  </si>
+  <si>
     <t>CURAM 457MG/5ML PD. FOR ORAL SUSP. 70ML</t>
   </si>
   <si>
@@ -227,6 +230,15 @@
     <t>93.0000</t>
   </si>
   <si>
+    <t>DOLIPRANE 1 GM 15 TABS.</t>
+  </si>
+  <si>
+    <t>48.00</t>
+  </si>
+  <si>
+    <t>15.8400</t>
+  </si>
+  <si>
     <t>EPICOPRED 5 MG 30 ORODISPERSIBLE TABS.</t>
   </si>
   <si>
@@ -263,6 +275,15 @@
     <t>24.0000</t>
   </si>
   <si>
+    <t>FAYCID HAIR OIL 60 ML</t>
+  </si>
+  <si>
+    <t>30.00</t>
+  </si>
+  <si>
+    <t>30.0000</t>
+  </si>
+  <si>
     <t>FORBUDES 400/12MCG 60 INHALATION CAPS.+INHALER</t>
   </si>
   <si>
@@ -353,6 +374,15 @@
     <t>100.0000</t>
   </si>
   <si>
+    <t>ROYAL REGIME HERBAL TEA 2 GM*50 TEA BAGS</t>
+  </si>
+  <si>
+    <t>45.00</t>
+  </si>
+  <si>
+    <t>45.0000</t>
+  </si>
+  <si>
     <t>SPASMO-DIGESTIN 30 TABS.</t>
   </si>
   <si>
@@ -470,12 +500,6 @@
     <t>21:0</t>
   </si>
   <si>
-    <t>30.00</t>
-  </si>
-  <si>
-    <t>30.0000</t>
-  </si>
-  <si>
     <t>حفاضات كبار سن جير ميني 36ق</t>
   </si>
   <si>
@@ -551,12 +575,6 @@
     <t>صابونه دوف SOAP</t>
   </si>
   <si>
-    <t>45.00</t>
-  </si>
-  <si>
-    <t>45.0000</t>
-  </si>
-  <si>
     <t>طمي مغربي بوبانا 400ملل</t>
   </si>
   <si>
@@ -596,7 +614,7 @@
     <t>6:0</t>
   </si>
   <si>
-    <t>Tuesday, 30 September, 2025 6:21 PM</t>
+    <t>Tuesday, 30 September, 2025 7:07 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1577,11 +1595,11 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c t="s" r="Q17" s="12">
         <v>12</v>
@@ -1593,14 +1611,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>54</v>
+        <v>17</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1610,14 +1628,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>57</v>
+        <v>12</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1626,14 +1644,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1643,14 +1661,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>12</v>
+        <v>58</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1659,14 +1677,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1676,11 +1694,11 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q20" s="12">
         <v>12</v>
@@ -1692,14 +1710,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>65</v>
+        <v>12</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1709,14 +1727,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>57</v>
+        <v>12</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1725,14 +1743,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>12</v>
+        <v>66</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1742,14 +1760,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>28</v>
+        <v>58</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1758,14 +1776,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1775,14 +1793,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>12</v>
+        <v>28</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1791,14 +1809,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>73</v>
+        <v>17</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1808,14 +1826,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>76</v>
+        <v>12</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1824,14 +1842,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>17</v>
+        <v>55</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1841,14 +1859,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>12</v>
+        <v>28</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1857,14 +1875,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1874,14 +1892,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>12</v>
+        <v>80</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1890,14 +1908,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>85</v>
+        <v>17</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1907,14 +1925,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>28</v>
+        <v>12</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1923,14 +1941,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>17</v>
+        <v>85</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1940,11 +1958,11 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>12</v>
@@ -1956,14 +1974,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1973,11 +1991,11 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>12</v>
@@ -1989,14 +2007,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>41</v>
+        <v>92</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2006,14 +2024,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>12</v>
+        <v>28</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2022,7 +2040,7 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
@@ -2035,15 +2053,15 @@
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
       <c t="s" r="L31" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>12</v>
@@ -2055,28 +2073,28 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
       <c t="s" r="L32" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>12</v>
@@ -2088,14 +2106,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2105,11 +2123,11 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>12</v>
@@ -2121,28 +2139,28 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
       <c t="s" r="L34" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>12</v>
@@ -2154,31 +2172,31 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>76</v>
+        <v>28</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
       <c t="s" r="L35" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>32</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>28</v>
+        <v>12</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2187,7 +2205,7 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
@@ -2204,11 +2222,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>12</v>
@@ -2220,14 +2238,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>115</v>
+        <v>12</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2237,14 +2255,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>31</v>
+        <v>114</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>28</v>
+        <v>12</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2253,14 +2271,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>118</v>
+        <v>80</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2270,11 +2288,11 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>120</v>
+        <v>32</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>28</v>
@@ -2286,14 +2304,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>122</v>
+        <v>17</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2303,11 +2321,11 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>12</v>
@@ -2319,14 +2337,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>76</v>
+        <v>12</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2336,14 +2354,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>28</v>
+        <v>12</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2352,14 +2370,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>12</v>
+        <v>125</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2369,14 +2387,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>119</v>
+        <v>31</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>12</v>
+        <v>28</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2385,14 +2403,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2402,11 +2420,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>28</v>
@@ -2418,14 +2436,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2435,14 +2453,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>26</v>
+        <v>133</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>28</v>
+        <v>12</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2451,14 +2469,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>28</v>
+        <v>80</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2468,14 +2486,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>78</v>
+        <v>136</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>12</v>
+        <v>28</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2491,7 +2509,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2501,11 +2519,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>139</v>
+        <v>129</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>12</v>
@@ -2517,31 +2535,31 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>12</v>
+        <v>28</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2550,31 +2568,31 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>12</v>
+        <v>145</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>107</v>
+        <v>26</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>108</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>12</v>
+        <v>28</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2583,28 +2601,28 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>147</v>
+        <v>28</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>148</v>
+        <v>82</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>149</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>12</v>
@@ -2616,28 +2634,28 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>115</v>
+        <v>41</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>59</v>
+        <v>149</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>60</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>12</v>
@@ -2689,7 +2707,7 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>156</v>
+        <v>12</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2699,14 +2717,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>157</v>
+        <v>114</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>158</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>159</v>
+        <v>12</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2715,14 +2733,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>147</v>
+        <v>157</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2732,14 +2750,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>143</v>
+        <v>158</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>41</v>
+        <v>12</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2748,14 +2766,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>115</v>
+        <v>125</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2765,11 +2783,11 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>163</v>
+        <v>60</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>164</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>12</v>
@@ -2781,14 +2799,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>17</v>
+        <v>162</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2798,14 +2816,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>166</v>
+        <v>89</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>140</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>167</v>
+        <v>12</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2814,14 +2832,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>17</v>
+        <v>164</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2831,14 +2849,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>36</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>41</v>
+        <v>167</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2847,14 +2865,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>41</v>
+        <v>157</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2864,14 +2882,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>171</v>
+        <v>153</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>12</v>
+        <v>41</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2880,14 +2898,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>17</v>
+        <v>125</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -2897,11 +2915,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>12</v>
@@ -2913,14 +2931,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>142</v>
+        <v>17</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -2930,14 +2948,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>178</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>12</v>
+        <v>175</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -2946,14 +2964,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>122</v>
+        <v>17</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -2963,14 +2981,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>181</v>
+        <v>36</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>12</v>
+        <v>41</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -2979,14 +2997,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>142</v>
+        <v>41</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -2996,11 +3014,11 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>12</v>
@@ -3012,14 +3030,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>142</v>
+        <v>17</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3029,11 +3047,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>143</v>
+        <v>182</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>144</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>12</v>
@@ -3045,14 +3063,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>187</v>
+        <v>152</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3062,11 +3080,11 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>12</v>
@@ -3078,14 +3096,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>147</v>
+        <v>132</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3095,11 +3113,11 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>153</v>
+        <v>122</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>154</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>12</v>
@@ -3111,14 +3129,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3128,14 +3146,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>163</v>
+        <v>189</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>154</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>41</v>
+        <v>12</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3144,14 +3162,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>115</v>
+        <v>152</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3165,10 +3183,10 @@
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>108</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>41</v>
+        <v>12</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3177,14 +3195,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3194,49 +3212,181 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>48</v>
+        <v>194</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
+        <v>195</v>
+      </c>
+      <c t="s" r="Q66" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="67" ht="25.5" customHeight="1">
+      <c r="A67" s="7">
+        <v>61</v>
+      </c>
+      <c r="B67" s="7"/>
+      <c t="s" r="C67" s="8">
+        <v>196</v>
+      </c>
+      <c r="D67" s="8"/>
+      <c r="E67" s="8"/>
+      <c r="F67" s="8"/>
+      <c r="G67" s="8"/>
+      <c t="s" r="H67" s="9">
+        <v>157</v>
+      </c>
+      <c r="I67" s="9"/>
+      <c r="J67" s="9"/>
+      <c r="K67" s="9"/>
+      <c t="s" r="L67" s="10">
+        <v>18</v>
+      </c>
+      <c r="M67" s="10"/>
+      <c t="s" r="N67" s="8">
+        <v>89</v>
+      </c>
+      <c r="O67" s="8"/>
+      <c t="s" r="P67" s="11">
+        <v>90</v>
+      </c>
+      <c t="s" r="Q67" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="68" ht="24.75" customHeight="1">
+      <c r="A68" s="7">
+        <v>62</v>
+      </c>
+      <c r="B68" s="7"/>
+      <c t="s" r="C68" s="8">
+        <v>197</v>
+      </c>
+      <c r="D68" s="8"/>
+      <c r="E68" s="8"/>
+      <c r="F68" s="8"/>
+      <c r="G68" s="8"/>
+      <c t="s" r="H68" s="9">
+        <v>157</v>
+      </c>
+      <c r="I68" s="9"/>
+      <c r="J68" s="9"/>
+      <c r="K68" s="9"/>
+      <c t="s" r="L68" s="10">
+        <v>18</v>
+      </c>
+      <c r="M68" s="10"/>
+      <c t="s" r="N68" s="8">
+        <v>171</v>
+      </c>
+      <c r="O68" s="8"/>
+      <c t="s" r="P68" s="11">
+        <v>90</v>
+      </c>
+      <c t="s" r="Q68" s="12">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="69" ht="25.5" customHeight="1">
+      <c r="A69" s="7">
+        <v>63</v>
+      </c>
+      <c r="B69" s="7"/>
+      <c t="s" r="C69" s="8">
+        <v>198</v>
+      </c>
+      <c r="D69" s="8"/>
+      <c r="E69" s="8"/>
+      <c r="F69" s="8"/>
+      <c r="G69" s="8"/>
+      <c t="s" r="H69" s="9">
+        <v>125</v>
+      </c>
+      <c r="I69" s="9"/>
+      <c r="J69" s="9"/>
+      <c r="K69" s="9"/>
+      <c t="s" r="L69" s="10">
+        <v>18</v>
+      </c>
+      <c r="M69" s="10"/>
+      <c t="s" r="N69" s="8">
+        <v>89</v>
+      </c>
+      <c r="O69" s="8"/>
+      <c t="s" r="P69" s="11">
+        <v>115</v>
+      </c>
+      <c t="s" r="Q69" s="12">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="70" ht="24.75" customHeight="1">
+      <c r="A70" s="7">
+        <v>64</v>
+      </c>
+      <c r="B70" s="7"/>
+      <c t="s" r="C70" s="8">
+        <v>199</v>
+      </c>
+      <c r="D70" s="8"/>
+      <c r="E70" s="8"/>
+      <c r="F70" s="8"/>
+      <c r="G70" s="8"/>
+      <c t="s" r="H70" s="9">
+        <v>200</v>
+      </c>
+      <c r="I70" s="9"/>
+      <c r="J70" s="9"/>
+      <c r="K70" s="9"/>
+      <c t="s" r="L70" s="10">
+        <v>18</v>
+      </c>
+      <c r="M70" s="10"/>
+      <c t="s" r="N70" s="8">
+        <v>48</v>
+      </c>
+      <c r="O70" s="8"/>
+      <c t="s" r="P70" s="11">
         <v>49</v>
       </c>
-      <c t="s" r="Q66" s="12">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="67" ht="25.5" customHeight="1">
-      <c r="P67" s="13">
-        <v>4081.98</v>
-      </c>
-      <c r="Q67" s="13"/>
-    </row>
-    <row r="68" ht="16.5" customHeight="1">
-      <c t="s" r="A68" s="14">
-        <v>195</v>
-      </c>
-      <c r="B68" s="14"/>
-      <c r="C68" s="14"/>
-      <c r="D68" s="14"/>
-      <c r="E68" s="14"/>
-      <c r="F68" s="14"/>
-      <c t="s" r="G68" s="15">
-        <v>196</v>
-      </c>
-      <c r="H68" s="15"/>
-      <c r="I68" s="15"/>
-      <c r="J68" s="16"/>
-      <c t="s" r="K68" s="17">
-        <v>197</v>
-      </c>
-      <c r="L68" s="17"/>
-      <c r="M68" s="17"/>
-      <c r="N68" s="17"/>
-      <c r="O68" s="17"/>
-      <c r="P68" s="17"/>
-      <c r="Q68" s="17"/>
+      <c t="s" r="Q70" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="71" ht="25.5" customHeight="1">
+      <c r="P71" s="13">
+        <v>4212.8199999999997</v>
+      </c>
+      <c r="Q71" s="13"/>
+    </row>
+    <row r="72" ht="16.5" customHeight="1">
+      <c t="s" r="A72" s="14">
+        <v>201</v>
+      </c>
+      <c r="B72" s="14"/>
+      <c r="C72" s="14"/>
+      <c r="D72" s="14"/>
+      <c r="E72" s="14"/>
+      <c r="F72" s="14"/>
+      <c t="s" r="G72" s="15">
+        <v>202</v>
+      </c>
+      <c r="H72" s="15"/>
+      <c r="I72" s="15"/>
+      <c r="J72" s="16"/>
+      <c t="s" r="K72" s="17">
+        <v>203</v>
+      </c>
+      <c r="L72" s="17"/>
+      <c r="M72" s="17"/>
+      <c r="N72" s="17"/>
+      <c r="O72" s="17"/>
+      <c r="P72" s="17"/>
+      <c r="Q72" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="312">
+  <mergeCells count="332">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3545,10 +3695,30 @@
     <mergeCell ref="H66:K66"/>
     <mergeCell ref="L66:M66"/>
     <mergeCell ref="N66:O66"/>
-    <mergeCell ref="P67:Q67"/>
-    <mergeCell ref="A68:F68"/>
-    <mergeCell ref="G68:I68"/>
-    <mergeCell ref="K68:Q68"/>
+    <mergeCell ref="A67:B67"/>
+    <mergeCell ref="C67:G67"/>
+    <mergeCell ref="H67:K67"/>
+    <mergeCell ref="L67:M67"/>
+    <mergeCell ref="N67:O67"/>
+    <mergeCell ref="A68:B68"/>
+    <mergeCell ref="C68:G68"/>
+    <mergeCell ref="H68:K68"/>
+    <mergeCell ref="L68:M68"/>
+    <mergeCell ref="N68:O68"/>
+    <mergeCell ref="A69:B69"/>
+    <mergeCell ref="C69:G69"/>
+    <mergeCell ref="H69:K69"/>
+    <mergeCell ref="L69:M69"/>
+    <mergeCell ref="N69:O69"/>
+    <mergeCell ref="A70:B70"/>
+    <mergeCell ref="C70:G70"/>
+    <mergeCell ref="H70:K70"/>
+    <mergeCell ref="L70:M70"/>
+    <mergeCell ref="N70:O70"/>
+    <mergeCell ref="P71:Q71"/>
+    <mergeCell ref="A72:F72"/>
+    <mergeCell ref="G72:I72"/>
+    <mergeCell ref="K72:Q72"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-30_00-00.xlsx
+++ b/DaySale_2025-09-30_00-00.xlsx
@@ -128,15 +128,15 @@
     <t>64.00</t>
   </si>
   <si>
-    <t>64.0000</t>
+    <t>128.0000</t>
+  </si>
+  <si>
+    <t>2:0</t>
   </si>
   <si>
     <t>BIVATRACIN 150MG POWDER SPRAY</t>
   </si>
   <si>
-    <t>2:0</t>
-  </si>
-  <si>
     <t>83.00</t>
   </si>
   <si>
@@ -536,7 +536,10 @@
     <t>2.00</t>
   </si>
   <si>
-    <t>9:0</t>
+    <t>22.0000</t>
+  </si>
+  <si>
+    <t>11:0</t>
   </si>
   <si>
     <t>سرنجات 5 سم</t>
@@ -569,9 +572,6 @@
     <t>22.00</t>
   </si>
   <si>
-    <t>22.0000</t>
-  </si>
-  <si>
     <t>صابونه دوف SOAP</t>
   </si>
   <si>
@@ -614,7 +614,7 @@
     <t>6:0</t>
   </si>
   <si>
-    <t>Tuesday, 30 September, 2025 7:07 PM</t>
+    <t>Tuesday, 30 September, 2025 7:19 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1453,7 +1453,7 @@
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1470,7 +1470,7 @@
         <v>39</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>12</v>
+        <v>40</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1479,14 +1479,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1684,7 +1684,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1981,7 +1981,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2113,7 +2113,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2641,7 +2641,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2889,7 +2889,7 @@
         <v>169</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2952,10 +2952,10 @@
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>150</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -2964,7 +2964,7 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
@@ -2981,14 +2981,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
         <v>36</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -2997,14 +2997,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3014,11 +3014,11 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>12</v>
@@ -3030,7 +3030,7 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
@@ -3047,11 +3047,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>12</v>
@@ -3063,7 +3063,7 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
@@ -3080,11 +3080,11 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>186</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>12</v>
@@ -3285,7 +3285,7 @@
         <v>90</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3318,7 +3318,7 @@
         <v>115</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3356,7 +3356,7 @@
     </row>
     <row r="71" ht="25.5" customHeight="1">
       <c r="P71" s="13">
-        <v>4212.8199999999997</v>
+        <v>4280.8199999999997</v>
       </c>
       <c r="Q71" s="13"/>
     </row>

--- a/DaySale_2025-09-30_00-00.xlsx
+++ b/DaySale_2025-09-30_00-00.xlsx
@@ -59,6 +59,18 @@
     <t>32.0000</t>
   </si>
   <si>
+    <t>ABIMOL 300MG 5 RECTAL SUPP.</t>
+  </si>
+  <si>
+    <t>16:0</t>
+  </si>
+  <si>
+    <t>15.00</t>
+  </si>
+  <si>
+    <t>15.0000</t>
+  </si>
+  <si>
     <t>ALEJON WHITENING CLEANSER 200ML</t>
   </si>
   <si>
@@ -164,6 +176,18 @@
     <t>CONJYCLEAR FORTE 0.2% EYE DROPS 5 ML</t>
   </si>
   <si>
+    <t>CONTAFEVER N 200MG/5ML SUSP. 120ML</t>
+  </si>
+  <si>
+    <t>17:0</t>
+  </si>
+  <si>
+    <t>33.00</t>
+  </si>
+  <si>
+    <t>33.0000</t>
+  </si>
+  <si>
     <t>CURAM 457MG/5ML PD. FOR ORAL SUSP. 70ML</t>
   </si>
   <si>
@@ -212,6 +236,15 @@
     <t>5:2</t>
   </si>
   <si>
+    <t>DIACALDERM TOPICAL OINT. 20 GM</t>
+  </si>
+  <si>
+    <t>88.00</t>
+  </si>
+  <si>
+    <t>88.0000</t>
+  </si>
+  <si>
     <t>DICLAC 150 ID 20 PROLONGED R TABS</t>
   </si>
   <si>
@@ -464,6 +497,15 @@
     <t>18.0000</t>
   </si>
   <si>
+    <t>ZINCTRON 30 CAPS</t>
+  </si>
+  <si>
+    <t>126.00</t>
+  </si>
+  <si>
+    <t>41.5800</t>
+  </si>
+  <si>
     <t>املاح افونا</t>
   </si>
   <si>
@@ -500,6 +542,15 @@
     <t>21:0</t>
   </si>
   <si>
+    <t>حبايه</t>
+  </si>
+  <si>
+    <t>3.00</t>
+  </si>
+  <si>
+    <t>12.0000</t>
+  </si>
+  <si>
     <t>حفاضات كبار سن جير ميني 36ق</t>
   </si>
   <si>
@@ -521,15 +572,18 @@
     <t>50.0000</t>
   </si>
   <si>
+    <t>زيت جونسون صغير</t>
+  </si>
+  <si>
+    <t>65.00</t>
+  </si>
+  <si>
+    <t>65.0000</t>
+  </si>
+  <si>
     <t>زيت فاتيكا 45 مل صغير</t>
   </si>
   <si>
-    <t>15.00</t>
-  </si>
-  <si>
-    <t>15.0000</t>
-  </si>
-  <si>
     <t>سرنجات 3 سم</t>
   </si>
   <si>
@@ -545,9 +599,6 @@
     <t>سرنجات 5 سم</t>
   </si>
   <si>
-    <t>3.00</t>
-  </si>
-  <si>
     <t>سيتي بيبي رقم 3</t>
   </si>
   <si>
@@ -578,12 +629,6 @@
     <t>طمي مغربي بوبانا 400ملل</t>
   </si>
   <si>
-    <t>65.00</t>
-  </si>
-  <si>
-    <t>65.0000</t>
-  </si>
-  <si>
     <t>فرشة شعر وسط</t>
   </si>
   <si>
@@ -614,7 +659,7 @@
     <t>6:0</t>
   </si>
   <si>
-    <t>Tuesday, 30 September, 2025 7:19 PM</t>
+    <t>Tuesday, 30 September, 2025 7:28 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1294,15 +1339,15 @@
       <c r="J8" s="9"/>
       <c r="K8" s="9"/>
       <c t="s" r="L8" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M8" s="10"/>
       <c t="s" r="N8" s="8">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="O8" s="8"/>
       <c t="s" r="P8" s="11">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c t="s" r="Q8" s="12">
         <v>12</v>
@@ -1314,28 +1359,28 @@
       </c>
       <c r="B9" s="7"/>
       <c t="s" r="C9" s="8">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
       <c r="K9" s="9"/>
       <c t="s" r="L9" s="10">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="O9" s="8"/>
       <c t="s" r="P9" s="11">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c t="s" r="Q9" s="12">
         <v>12</v>
@@ -1347,20 +1392,20 @@
       </c>
       <c r="B10" s="7"/>
       <c t="s" r="C10" s="8">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
       <c r="K10" s="9"/>
       <c t="s" r="L10" s="10">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
@@ -1371,7 +1416,7 @@
         <v>27</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>28</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1380,14 +1425,14 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1397,14 +1442,14 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
+        <v>31</v>
+      </c>
+      <c t="s" r="Q11" s="12">
         <v>32</v>
-      </c>
-      <c t="s" r="Q11" s="12">
-        <v>28</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1437,7 +1482,7 @@
         <v>36</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>28</v>
+        <v>32</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1453,7 +1498,7 @@
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>17</v>
+        <v>38</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1463,14 +1508,14 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>40</v>
+        <v>32</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1486,7 +1531,7 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1503,7 +1548,7 @@
         <v>43</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>12</v>
+        <v>44</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1512,14 +1557,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>17</v>
+        <v>44</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1529,11 +1574,11 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c t="s" r="Q15" s="12">
         <v>12</v>
@@ -1545,14 +1590,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1562,11 +1607,11 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c t="s" r="Q16" s="12">
         <v>12</v>
@@ -1578,14 +1623,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1595,11 +1640,11 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c t="s" r="Q17" s="12">
         <v>12</v>
@@ -1611,14 +1656,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1644,14 +1689,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1661,14 +1706,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>58</v>
+        <v>12</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1684,7 +1729,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1717,7 +1762,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>12</v>
+        <v>63</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1727,14 +1772,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>12</v>
+        <v>66</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1743,14 +1788,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>66</v>
+        <v>44</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1760,14 +1805,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>56</v>
+        <v>68</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>58</v>
+        <v>12</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1776,7 +1821,7 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
@@ -1793,14 +1838,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>28</v>
+        <v>12</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1809,14 +1854,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>17</v>
+        <v>74</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1826,14 +1871,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>12</v>
+        <v>66</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1842,14 +1887,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>55</v>
+        <v>21</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1859,14 +1904,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>28</v>
+        <v>12</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1875,14 +1920,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>77</v>
+        <v>12</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1892,14 +1937,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>80</v>
+        <v>32</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1915,7 +1960,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1948,7 +1993,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>85</v>
+        <v>63</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1958,14 +2003,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>12</v>
+        <v>32</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1974,14 +2019,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>40</v>
+        <v>88</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1998,7 +2043,7 @@
         <v>90</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>12</v>
+        <v>91</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2007,14 +2052,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>92</v>
+        <v>21</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2031,7 +2076,7 @@
         <v>94</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>28</v>
+        <v>12</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2047,7 +2092,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>17</v>
+        <v>96</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2057,11 +2102,11 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>12</v>
@@ -2073,14 +2118,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>17</v>
+        <v>44</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2090,11 +2135,11 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>12</v>
@@ -2106,14 +2151,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>40</v>
+        <v>103</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2123,14 +2168,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>12</v>
+        <v>32</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2139,28 +2184,28 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
       <c t="s" r="L34" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>12</v>
@@ -2172,28 +2217,28 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
       <c t="s" r="L35" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>12</v>
@@ -2205,14 +2250,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>17</v>
+        <v>44</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2222,11 +2267,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>12</v>
@@ -2238,28 +2283,28 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>12</v>
@@ -2271,31 +2316,31 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>80</v>
+        <v>32</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>32</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>28</v>
+        <v>12</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2304,14 +2349,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2321,11 +2366,11 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>12</v>
@@ -2337,7 +2382,7 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
@@ -2354,11 +2399,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>12</v>
@@ -2370,14 +2415,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>125</v>
+        <v>91</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2387,14 +2432,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>31</v>
+        <v>128</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>126</v>
+        <v>36</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>28</v>
+        <v>32</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2403,14 +2448,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>128</v>
+        <v>21</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2420,14 +2465,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>28</v>
+        <v>12</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2436,14 +2481,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>132</v>
+        <v>12</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2476,7 +2521,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>80</v>
+        <v>136</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2486,14 +2531,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>136</v>
+        <v>35</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
         <v>137</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>28</v>
+        <v>32</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2509,7 +2554,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>12</v>
+        <v>139</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2519,14 +2564,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>129</v>
+        <v>140</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>12</v>
+        <v>32</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2535,14 +2580,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2552,14 +2597,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>28</v>
+        <v>12</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2568,14 +2613,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>145</v>
+        <v>91</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2585,14 +2630,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>26</v>
+        <v>147</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>28</v>
+        <v>32</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2601,14 +2646,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2618,11 +2663,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>82</v>
+        <v>140</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>83</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>12</v>
@@ -2634,14 +2679,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>40</v>
+        <v>152</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2651,14 +2696,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>12</v>
+        <v>32</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2667,31 +2712,31 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>153</v>
+        <v>30</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>12</v>
+        <v>32</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2700,28 +2745,28 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>114</v>
+        <v>93</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>115</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>12</v>
@@ -2733,28 +2778,28 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>157</v>
+        <v>44</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>12</v>
@@ -2766,31 +2811,31 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>125</v>
+        <v>12</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>60</v>
+        <v>163</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>61</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>12</v>
+        <v>32</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2799,28 +2844,28 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>89</v>
+        <v>167</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>90</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>12</v>
@@ -2832,31 +2877,31 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>164</v>
+        <v>12</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c t="s" r="L55" s="10">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>165</v>
+        <v>125</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>166</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>167</v>
+        <v>12</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2865,31 +2910,31 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>157</v>
+        <v>171</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>153</v>
+        <v>172</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>40</v>
+        <v>12</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2898,28 +2943,28 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>125</v>
+        <v>136</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>171</v>
+        <v>68</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>172</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>12</v>
@@ -2931,31 +2976,31 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>17</v>
+        <v>176</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c t="s" r="L58" s="10">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>174</v>
+        <v>100</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>175</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>176</v>
+        <v>12</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -2971,13 +3016,13 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
@@ -2985,10 +3030,10 @@
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>36</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>40</v>
+        <v>171</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -2997,31 +3042,31 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>40</v>
+        <v>181</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>12</v>
+        <v>184</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3030,31 +3075,31 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>17</v>
+        <v>171</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c t="s" r="L61" s="10">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>183</v>
+        <v>167</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>12</v>
+        <v>44</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3063,28 +3108,28 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>152</v>
+        <v>44</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c t="s" r="L62" s="10">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>175</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>12</v>
@@ -3096,28 +3141,28 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>122</v>
+        <v>18</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>123</v>
+        <v>19</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>12</v>
@@ -3129,31 +3174,31 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>152</v>
+        <v>21</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>12</v>
+        <v>194</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3162,31 +3207,31 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>152</v>
+        <v>21</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>153</v>
+        <v>178</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>154</v>
+        <v>40</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>12</v>
+        <v>44</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3195,28 +3240,28 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>193</v>
+        <v>44</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c t="s" r="L66" s="10">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>12</v>
@@ -3228,28 +3273,28 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>157</v>
+        <v>21</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c t="s" r="L67" s="10">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>89</v>
+        <v>200</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>90</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>12</v>
@@ -3261,31 +3306,31 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>157</v>
+        <v>166</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
       <c t="s" r="L68" s="10">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>171</v>
+        <v>203</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>90</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>40</v>
+        <v>12</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3294,31 +3339,31 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>125</v>
+        <v>143</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
       <c t="s" r="L69" s="10">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>89</v>
+        <v>133</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>115</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>40</v>
+        <v>12</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3327,66 +3372,264 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>200</v>
+        <v>166</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
       <c r="K70" s="9"/>
       <c t="s" r="L70" s="10">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>48</v>
+        <v>188</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>49</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>12</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
-      <c r="P71" s="13">
-        <v>4280.8199999999997</v>
-      </c>
-      <c r="Q71" s="13"/>
-    </row>
-    <row r="72" ht="16.5" customHeight="1">
-      <c t="s" r="A72" s="14">
-        <v>201</v>
-      </c>
-      <c r="B72" s="14"/>
-      <c r="C72" s="14"/>
-      <c r="D72" s="14"/>
-      <c r="E72" s="14"/>
-      <c r="F72" s="14"/>
-      <c t="s" r="G72" s="15">
-        <v>202</v>
-      </c>
-      <c r="H72" s="15"/>
-      <c r="I72" s="15"/>
-      <c r="J72" s="16"/>
-      <c t="s" r="K72" s="17">
-        <v>203</v>
-      </c>
-      <c r="L72" s="17"/>
-      <c r="M72" s="17"/>
-      <c r="N72" s="17"/>
-      <c r="O72" s="17"/>
-      <c r="P72" s="17"/>
-      <c r="Q72" s="17"/>
+      <c r="A71" s="7">
+        <v>65</v>
+      </c>
+      <c r="B71" s="7"/>
+      <c t="s" r="C71" s="8">
+        <v>206</v>
+      </c>
+      <c r="D71" s="8"/>
+      <c r="E71" s="8"/>
+      <c r="F71" s="8"/>
+      <c r="G71" s="8"/>
+      <c t="s" r="H71" s="9">
+        <v>166</v>
+      </c>
+      <c r="I71" s="9"/>
+      <c r="J71" s="9"/>
+      <c r="K71" s="9"/>
+      <c t="s" r="L71" s="10">
+        <v>22</v>
+      </c>
+      <c r="M71" s="10"/>
+      <c t="s" r="N71" s="8">
+        <v>167</v>
+      </c>
+      <c r="O71" s="8"/>
+      <c t="s" r="P71" s="11">
+        <v>168</v>
+      </c>
+      <c t="s" r="Q71" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="72" ht="25.5" customHeight="1">
+      <c r="A72" s="7">
+        <v>66</v>
+      </c>
+      <c r="B72" s="7"/>
+      <c t="s" r="C72" s="8">
+        <v>207</v>
+      </c>
+      <c r="D72" s="8"/>
+      <c r="E72" s="8"/>
+      <c r="F72" s="8"/>
+      <c r="G72" s="8"/>
+      <c t="s" r="H72" s="9">
+        <v>208</v>
+      </c>
+      <c r="I72" s="9"/>
+      <c r="J72" s="9"/>
+      <c r="K72" s="9"/>
+      <c t="s" r="L72" s="10">
+        <v>22</v>
+      </c>
+      <c r="M72" s="10"/>
+      <c t="s" r="N72" s="8">
+        <v>209</v>
+      </c>
+      <c r="O72" s="8"/>
+      <c t="s" r="P72" s="11">
+        <v>210</v>
+      </c>
+      <c t="s" r="Q72" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="73" ht="24.75" customHeight="1">
+      <c r="A73" s="7">
+        <v>67</v>
+      </c>
+      <c r="B73" s="7"/>
+      <c t="s" r="C73" s="8">
+        <v>211</v>
+      </c>
+      <c r="D73" s="8"/>
+      <c r="E73" s="8"/>
+      <c r="F73" s="8"/>
+      <c r="G73" s="8"/>
+      <c t="s" r="H73" s="9">
+        <v>171</v>
+      </c>
+      <c r="I73" s="9"/>
+      <c r="J73" s="9"/>
+      <c r="K73" s="9"/>
+      <c t="s" r="L73" s="10">
+        <v>22</v>
+      </c>
+      <c r="M73" s="10"/>
+      <c t="s" r="N73" s="8">
+        <v>100</v>
+      </c>
+      <c r="O73" s="8"/>
+      <c t="s" r="P73" s="11">
+        <v>101</v>
+      </c>
+      <c t="s" r="Q73" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="74" ht="25.5" customHeight="1">
+      <c r="A74" s="7">
+        <v>68</v>
+      </c>
+      <c r="B74" s="7"/>
+      <c t="s" r="C74" s="8">
+        <v>212</v>
+      </c>
+      <c r="D74" s="8"/>
+      <c r="E74" s="8"/>
+      <c r="F74" s="8"/>
+      <c r="G74" s="8"/>
+      <c t="s" r="H74" s="9">
+        <v>171</v>
+      </c>
+      <c r="I74" s="9"/>
+      <c r="J74" s="9"/>
+      <c r="K74" s="9"/>
+      <c t="s" r="L74" s="10">
+        <v>22</v>
+      </c>
+      <c r="M74" s="10"/>
+      <c t="s" r="N74" s="8">
+        <v>18</v>
+      </c>
+      <c r="O74" s="8"/>
+      <c t="s" r="P74" s="11">
+        <v>101</v>
+      </c>
+      <c t="s" r="Q74" s="12">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="75" ht="24.75" customHeight="1">
+      <c r="A75" s="7">
+        <v>69</v>
+      </c>
+      <c r="B75" s="7"/>
+      <c t="s" r="C75" s="8">
+        <v>213</v>
+      </c>
+      <c r="D75" s="8"/>
+      <c r="E75" s="8"/>
+      <c r="F75" s="8"/>
+      <c r="G75" s="8"/>
+      <c t="s" r="H75" s="9">
+        <v>136</v>
+      </c>
+      <c r="I75" s="9"/>
+      <c r="J75" s="9"/>
+      <c r="K75" s="9"/>
+      <c t="s" r="L75" s="10">
+        <v>22</v>
+      </c>
+      <c r="M75" s="10"/>
+      <c t="s" r="N75" s="8">
+        <v>100</v>
+      </c>
+      <c r="O75" s="8"/>
+      <c t="s" r="P75" s="11">
+        <v>126</v>
+      </c>
+      <c t="s" r="Q75" s="12">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="76" ht="25.5" customHeight="1">
+      <c r="A76" s="7">
+        <v>70</v>
+      </c>
+      <c r="B76" s="7"/>
+      <c t="s" r="C76" s="8">
+        <v>214</v>
+      </c>
+      <c r="D76" s="8"/>
+      <c r="E76" s="8"/>
+      <c r="F76" s="8"/>
+      <c r="G76" s="8"/>
+      <c t="s" r="H76" s="9">
+        <v>215</v>
+      </c>
+      <c r="I76" s="9"/>
+      <c r="J76" s="9"/>
+      <c r="K76" s="9"/>
+      <c t="s" r="L76" s="10">
+        <v>22</v>
+      </c>
+      <c r="M76" s="10"/>
+      <c t="s" r="N76" s="8">
+        <v>52</v>
+      </c>
+      <c r="O76" s="8"/>
+      <c t="s" r="P76" s="11">
+        <v>53</v>
+      </c>
+      <c t="s" r="Q76" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="77" ht="25.5" customHeight="1">
+      <c r="P77" s="13">
+        <v>4535.3999999999996</v>
+      </c>
+      <c r="Q77" s="13"/>
+    </row>
+    <row r="78" ht="16.5" customHeight="1">
+      <c t="s" r="A78" s="14">
+        <v>216</v>
+      </c>
+      <c r="B78" s="14"/>
+      <c r="C78" s="14"/>
+      <c r="D78" s="14"/>
+      <c r="E78" s="14"/>
+      <c r="F78" s="14"/>
+      <c t="s" r="G78" s="15">
+        <v>217</v>
+      </c>
+      <c r="H78" s="15"/>
+      <c r="I78" s="15"/>
+      <c r="J78" s="16"/>
+      <c t="s" r="K78" s="17">
+        <v>218</v>
+      </c>
+      <c r="L78" s="17"/>
+      <c r="M78" s="17"/>
+      <c r="N78" s="17"/>
+      <c r="O78" s="17"/>
+      <c r="P78" s="17"/>
+      <c r="Q78" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="332">
+  <mergeCells count="362">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3715,10 +3958,40 @@
     <mergeCell ref="H70:K70"/>
     <mergeCell ref="L70:M70"/>
     <mergeCell ref="N70:O70"/>
-    <mergeCell ref="P71:Q71"/>
-    <mergeCell ref="A72:F72"/>
-    <mergeCell ref="G72:I72"/>
-    <mergeCell ref="K72:Q72"/>
+    <mergeCell ref="A71:B71"/>
+    <mergeCell ref="C71:G71"/>
+    <mergeCell ref="H71:K71"/>
+    <mergeCell ref="L71:M71"/>
+    <mergeCell ref="N71:O71"/>
+    <mergeCell ref="A72:B72"/>
+    <mergeCell ref="C72:G72"/>
+    <mergeCell ref="H72:K72"/>
+    <mergeCell ref="L72:M72"/>
+    <mergeCell ref="N72:O72"/>
+    <mergeCell ref="A73:B73"/>
+    <mergeCell ref="C73:G73"/>
+    <mergeCell ref="H73:K73"/>
+    <mergeCell ref="L73:M73"/>
+    <mergeCell ref="N73:O73"/>
+    <mergeCell ref="A74:B74"/>
+    <mergeCell ref="C74:G74"/>
+    <mergeCell ref="H74:K74"/>
+    <mergeCell ref="L74:M74"/>
+    <mergeCell ref="N74:O74"/>
+    <mergeCell ref="A75:B75"/>
+    <mergeCell ref="C75:G75"/>
+    <mergeCell ref="H75:K75"/>
+    <mergeCell ref="L75:M75"/>
+    <mergeCell ref="N75:O75"/>
+    <mergeCell ref="A76:B76"/>
+    <mergeCell ref="C76:G76"/>
+    <mergeCell ref="H76:K76"/>
+    <mergeCell ref="L76:M76"/>
+    <mergeCell ref="N76:O76"/>
+    <mergeCell ref="P77:Q77"/>
+    <mergeCell ref="A78:F78"/>
+    <mergeCell ref="G78:I78"/>
+    <mergeCell ref="K78:Q78"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-30_00-00.xlsx
+++ b/DaySale_2025-09-30_00-00.xlsx
@@ -110,6 +110,21 @@
     <t>0:1</t>
   </si>
   <si>
+    <t>AMPOFER 20MG/ML 5 AMP. FOR I.V. INJ./INF.</t>
+  </si>
+  <si>
+    <t>1:1</t>
+  </si>
+  <si>
+    <t>275.00</t>
+  </si>
+  <si>
+    <t>110.0000</t>
+  </si>
+  <si>
+    <t>0:2</t>
+  </si>
+  <si>
     <t>ANTI-COX II 15MG/3ML 6 AMP</t>
   </si>
   <si>
@@ -134,6 +149,15 @@
     <t>6.0000</t>
   </si>
   <si>
+    <t>ATOR 20MG 10 F.C. TAB.</t>
+  </si>
+  <si>
+    <t>79.00</t>
+  </si>
+  <si>
+    <t>79.0000</t>
+  </si>
+  <si>
     <t>BETOLVEX 1MG/ML 2 AMP</t>
   </si>
   <si>
@@ -170,12 +194,15 @@
     <t>40.00</t>
   </si>
   <si>
+    <t>80.0000</t>
+  </si>
+  <si>
+    <t>CONJYCLEAR FORTE 0.2% EYE DROPS 5 ML</t>
+  </si>
+  <si>
     <t>40.0000</t>
   </si>
   <si>
-    <t>CONJYCLEAR FORTE 0.2% EYE DROPS 5 ML</t>
-  </si>
-  <si>
     <t>CONTAFEVER N 200MG/5ML SUSP. 120ML</t>
   </si>
   <si>
@@ -233,7 +260,10 @@
     <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
   </si>
   <si>
-    <t>5:2</t>
+    <t>5:1</t>
+  </si>
+  <si>
+    <t>0.0000</t>
   </si>
   <si>
     <t>DIACALDERM TOPICAL OINT. 20 GM</t>
@@ -284,9 +314,6 @@
     <t>45.5400</t>
   </si>
   <si>
-    <t>0:2</t>
-  </si>
-  <si>
     <t>E-ROSH ANTI-DANDRUFF SHAMPOO 200 ML</t>
   </si>
   <si>
@@ -542,6 +569,18 @@
     <t>21:0</t>
   </si>
   <si>
+    <t xml:space="preserve">جهاز محلول </t>
+  </si>
+  <si>
+    <t>30:0</t>
+  </si>
+  <si>
+    <t>20.00</t>
+  </si>
+  <si>
+    <t>20.0000</t>
+  </si>
+  <si>
     <t>حبايه</t>
   </si>
   <si>
@@ -599,6 +638,9 @@
     <t>سرنجات 5 سم</t>
   </si>
   <si>
+    <t>9.0000</t>
+  </si>
+  <si>
     <t>سيتي بيبي رقم 3</t>
   </si>
   <si>
@@ -614,9 +656,6 @@
     <t>110.00</t>
   </si>
   <si>
-    <t>110.0000</t>
-  </si>
-  <si>
     <t>صابون ديتول الصغير</t>
   </si>
   <si>
@@ -638,10 +677,7 @@
     <t>26:0</t>
   </si>
   <si>
-    <t>20.00</t>
-  </si>
-  <si>
-    <t>20.0000</t>
+    <t xml:space="preserve">كالونا </t>
   </si>
   <si>
     <t>مبرد اظافر حديد</t>
@@ -650,6 +686,12 @@
     <t>مبرد قدم</t>
   </si>
   <si>
+    <t>محلول ملح</t>
+  </si>
+  <si>
+    <t>32:0</t>
+  </si>
+  <si>
     <t>مخمريه العود الملكي</t>
   </si>
   <si>
@@ -659,7 +701,7 @@
     <t>6:0</t>
   </si>
   <si>
-    <t>Tuesday, 30 September, 2025 7:28 PM</t>
+    <t>Tuesday, 30 September, 2025 7:36 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1482,7 +1524,7 @@
         <v>36</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>32</v>
+        <v>37</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1491,14 +1533,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1508,11 +1550,11 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c t="s" r="Q13" s="12">
         <v>32</v>
@@ -1524,14 +1566,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>21</v>
+        <v>43</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1541,14 +1583,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>44</v>
+        <v>32</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1557,14 +1599,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>44</v>
+        <v>21</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1574,11 +1616,11 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c t="s" r="Q15" s="12">
         <v>12</v>
@@ -1590,7 +1632,7 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
@@ -1607,14 +1649,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>12</v>
+        <v>52</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1623,14 +1665,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>12</v>
+        <v>52</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1640,11 +1682,11 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q17" s="12">
         <v>12</v>
@@ -1656,7 +1698,7 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
@@ -1673,11 +1715,11 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q18" s="12">
         <v>12</v>
@@ -1689,14 +1731,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>56</v>
+        <v>21</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1706,14 +1748,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>12</v>
+        <v>52</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1722,7 +1764,7 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
@@ -1743,7 +1785,7 @@
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q20" s="12">
         <v>12</v>
@@ -1755,14 +1797,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1772,14 +1814,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>66</v>
+        <v>12</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1788,14 +1830,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>44</v>
+        <v>21</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1805,11 +1847,11 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q22" s="12">
         <v>12</v>
@@ -1821,14 +1863,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>12</v>
+        <v>72</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1838,14 +1880,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>12</v>
+        <v>75</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1854,14 +1896,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>74</v>
+        <v>52</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1871,14 +1913,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>64</v>
+        <v>77</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>65</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>66</v>
+        <v>12</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1887,14 +1929,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1904,11 +1946,11 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>12</v>
@@ -1920,14 +1962,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>12</v>
+        <v>83</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1937,14 +1979,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>32</v>
+        <v>21</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1953,7 +1995,7 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
@@ -1970,11 +2012,11 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>12</v>
@@ -1986,14 +2028,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>63</v>
+        <v>12</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2003,11 +2045,11 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>32</v>
@@ -2019,14 +2061,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>88</v>
+        <v>21</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2036,14 +2078,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>91</v>
+        <v>12</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2052,14 +2094,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>21</v>
+        <v>72</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2069,14 +2111,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>12</v>
+        <v>32</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2085,14 +2127,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2102,14 +2144,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>12</v>
+        <v>37</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2118,14 +2160,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>44</v>
+        <v>21</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2135,11 +2177,11 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>12</v>
@@ -2151,14 +2193,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2168,14 +2210,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>32</v>
+        <v>12</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2184,14 +2226,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>21</v>
+        <v>52</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2201,11 +2243,11 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>12</v>
@@ -2217,14 +2259,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>21</v>
+        <v>112</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2234,14 +2276,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>12</v>
+        <v>32</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2250,14 +2292,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>44</v>
+        <v>21</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2267,11 +2309,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>12</v>
@@ -2283,7 +2325,7 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
@@ -2296,15 +2338,15 @@
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>12</v>
@@ -2316,28 +2358,28 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>32</v>
+        <v>52</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>12</v>
@@ -2349,7 +2391,7 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
@@ -2362,15 +2404,15 @@
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c t="s" r="L39" s="10">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>12</v>
@@ -2382,28 +2424,28 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>12</v>
@@ -2415,14 +2457,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>91</v>
+        <v>21</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2432,14 +2474,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>36</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>32</v>
+        <v>12</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2448,14 +2490,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2465,11 +2507,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>12</v>
@@ -2481,14 +2523,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2498,14 +2540,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>134</v>
+        <v>41</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>12</v>
+        <v>32</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2514,14 +2556,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>136</v>
+        <v>21</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2531,14 +2573,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>35</v>
+        <v>139</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>32</v>
+        <v>12</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2547,14 +2589,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>139</v>
+        <v>12</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2564,14 +2606,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>32</v>
+        <v>12</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2580,14 +2622,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2597,14 +2639,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>144</v>
+        <v>40</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>12</v>
+        <v>32</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2613,14 +2655,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>91</v>
+        <v>148</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2630,11 +2672,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>32</v>
@@ -2646,14 +2688,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>12</v>
+        <v>152</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2663,11 +2705,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>140</v>
+        <v>153</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>12</v>
@@ -2679,14 +2721,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>152</v>
+        <v>37</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2696,11 +2738,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>32</v>
@@ -2712,14 +2754,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>156</v>
+        <v>12</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2729,14 +2771,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>30</v>
+        <v>149</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>32</v>
+        <v>12</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2745,14 +2787,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>32</v>
+        <v>161</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2762,14 +2804,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>93</v>
+        <v>162</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>94</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>12</v>
+        <v>32</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2778,14 +2820,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>44</v>
+        <v>165</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2795,14 +2837,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>160</v>
+        <v>30</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>12</v>
+        <v>32</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2811,14 +2853,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2828,14 +2870,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>163</v>
+        <v>102</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>164</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>32</v>
+        <v>12</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2844,28 +2886,28 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>166</v>
+        <v>52</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>12</v>
@@ -2877,7 +2919,7 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
@@ -2890,18 +2932,18 @@
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c t="s" r="L55" s="10">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>125</v>
+        <v>172</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>126</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>12</v>
+        <v>32</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2910,14 +2952,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2927,11 +2969,11 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>12</v>
@@ -2943,14 +2985,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>136</v>
+        <v>12</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -2960,11 +3002,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>68</v>
+        <v>134</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>69</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>12</v>
@@ -2976,14 +3018,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -2993,11 +3035,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>100</v>
+        <v>181</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>101</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>12</v>
@@ -3009,14 +3051,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>21</v>
+        <v>145</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3026,14 +3068,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>178</v>
+        <v>77</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>179</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>171</v>
+        <v>12</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3042,14 +3084,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3059,14 +3101,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>182</v>
+        <v>109</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>183</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>184</v>
+        <v>12</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3075,14 +3117,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>171</v>
+        <v>187</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3092,14 +3134,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>167</v>
+        <v>188</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>44</v>
+        <v>12</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3108,14 +3150,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>44</v>
+        <v>21</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3125,14 +3167,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>12</v>
+        <v>180</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3141,14 +3183,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>136</v>
+        <v>194</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3158,14 +3200,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>18</v>
+        <v>195</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>19</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>12</v>
+        <v>197</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3174,14 +3216,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>191</v>
+        <v>198</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>21</v>
+        <v>180</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3191,14 +3233,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>192</v>
+        <v>176</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>194</v>
+        <v>52</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3207,14 +3249,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>21</v>
+        <v>52</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3224,14 +3266,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>178</v>
+        <v>201</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>40</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>44</v>
+        <v>12</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3240,14 +3282,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>196</v>
+        <v>203</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>44</v>
+        <v>145</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3257,11 +3299,11 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>197</v>
+        <v>18</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>198</v>
+        <v>19</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>12</v>
@@ -3273,7 +3315,7 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
@@ -3290,14 +3332,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>12</v>
+        <v>207</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3306,14 +3348,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>166</v>
+        <v>21</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3323,14 +3365,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>203</v>
+        <v>191</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>193</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>12</v>
+        <v>145</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3339,14 +3381,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>143</v>
+        <v>52</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3356,11 +3398,11 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>133</v>
+        <v>211</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>134</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>12</v>
@@ -3372,14 +3414,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>205</v>
+        <v>213</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>166</v>
+        <v>21</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3389,11 +3431,11 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>188</v>
+        <v>214</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>189</v>
+        <v>36</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>12</v>
@@ -3405,14 +3447,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>206</v>
+        <v>215</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>166</v>
+        <v>175</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3422,11 +3464,11 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>167</v>
+        <v>216</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>168</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>12</v>
@@ -3438,14 +3480,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>207</v>
+        <v>217</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>208</v>
+        <v>152</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3455,11 +3497,11 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>209</v>
+        <v>142</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>210</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>12</v>
@@ -3471,14 +3513,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>211</v>
+        <v>218</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3488,11 +3530,11 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>100</v>
+        <v>201</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>101</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>12</v>
@@ -3504,14 +3546,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>212</v>
+        <v>219</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3521,14 +3563,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>18</v>
+        <v>176</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>101</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>44</v>
+        <v>12</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3537,14 +3579,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>213</v>
+        <v>220</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>136</v>
+        <v>221</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3554,14 +3596,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>100</v>
+        <v>188</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>126</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>44</v>
+        <v>12</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3570,14 +3612,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>214</v>
+        <v>222</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>215</v>
+        <v>21</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3587,49 +3629,214 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>52</v>
+        <v>18</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>53</v>
+        <v>19</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>12</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
-      <c r="P77" s="13">
-        <v>4535.3999999999996</v>
-      </c>
-      <c r="Q77" s="13"/>
-    </row>
-    <row r="78" ht="16.5" customHeight="1">
-      <c t="s" r="A78" s="14">
-        <v>216</v>
-      </c>
-      <c r="B78" s="14"/>
-      <c r="C78" s="14"/>
-      <c r="D78" s="14"/>
-      <c r="E78" s="14"/>
-      <c r="F78" s="14"/>
-      <c t="s" r="G78" s="15">
-        <v>217</v>
-      </c>
-      <c r="H78" s="15"/>
-      <c r="I78" s="15"/>
-      <c r="J78" s="16"/>
-      <c t="s" r="K78" s="17">
-        <v>218</v>
-      </c>
-      <c r="L78" s="17"/>
-      <c r="M78" s="17"/>
-      <c r="N78" s="17"/>
-      <c r="O78" s="17"/>
-      <c r="P78" s="17"/>
-      <c r="Q78" s="17"/>
+      <c r="A77" s="7">
+        <v>71</v>
+      </c>
+      <c r="B77" s="7"/>
+      <c t="s" r="C77" s="8">
+        <v>223</v>
+      </c>
+      <c r="D77" s="8"/>
+      <c r="E77" s="8"/>
+      <c r="F77" s="8"/>
+      <c r="G77" s="8"/>
+      <c t="s" r="H77" s="9">
+        <v>180</v>
+      </c>
+      <c r="I77" s="9"/>
+      <c r="J77" s="9"/>
+      <c r="K77" s="9"/>
+      <c t="s" r="L77" s="10">
+        <v>22</v>
+      </c>
+      <c r="M77" s="10"/>
+      <c t="s" r="N77" s="8">
+        <v>109</v>
+      </c>
+      <c r="O77" s="8"/>
+      <c t="s" r="P77" s="11">
+        <v>110</v>
+      </c>
+      <c t="s" r="Q77" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="78" ht="24.75" customHeight="1">
+      <c r="A78" s="7">
+        <v>72</v>
+      </c>
+      <c r="B78" s="7"/>
+      <c t="s" r="C78" s="8">
+        <v>224</v>
+      </c>
+      <c r="D78" s="8"/>
+      <c r="E78" s="8"/>
+      <c r="F78" s="8"/>
+      <c r="G78" s="8"/>
+      <c t="s" r="H78" s="9">
+        <v>52</v>
+      </c>
+      <c r="I78" s="9"/>
+      <c r="J78" s="9"/>
+      <c r="K78" s="9"/>
+      <c t="s" r="L78" s="10">
+        <v>22</v>
+      </c>
+      <c r="M78" s="10"/>
+      <c t="s" r="N78" s="8">
+        <v>18</v>
+      </c>
+      <c r="O78" s="8"/>
+      <c t="s" r="P78" s="11">
+        <v>135</v>
+      </c>
+      <c t="s" r="Q78" s="12">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="79" ht="25.5" customHeight="1">
+      <c r="A79" s="7">
+        <v>73</v>
+      </c>
+      <c r="B79" s="7"/>
+      <c t="s" r="C79" s="8">
+        <v>225</v>
+      </c>
+      <c r="D79" s="8"/>
+      <c r="E79" s="8"/>
+      <c r="F79" s="8"/>
+      <c r="G79" s="8"/>
+      <c t="s" r="H79" s="9">
+        <v>226</v>
+      </c>
+      <c r="I79" s="9"/>
+      <c r="J79" s="9"/>
+      <c r="K79" s="9"/>
+      <c t="s" r="L79" s="10">
+        <v>22</v>
+      </c>
+      <c r="M79" s="10"/>
+      <c t="s" r="N79" s="8">
+        <v>106</v>
+      </c>
+      <c r="O79" s="8"/>
+      <c t="s" r="P79" s="11">
+        <v>107</v>
+      </c>
+      <c t="s" r="Q79" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="80" ht="24.75" customHeight="1">
+      <c r="A80" s="7">
+        <v>74</v>
+      </c>
+      <c r="B80" s="7"/>
+      <c t="s" r="C80" s="8">
+        <v>227</v>
+      </c>
+      <c r="D80" s="8"/>
+      <c r="E80" s="8"/>
+      <c r="F80" s="8"/>
+      <c r="G80" s="8"/>
+      <c t="s" r="H80" s="9">
+        <v>145</v>
+      </c>
+      <c r="I80" s="9"/>
+      <c r="J80" s="9"/>
+      <c r="K80" s="9"/>
+      <c t="s" r="L80" s="10">
+        <v>22</v>
+      </c>
+      <c r="M80" s="10"/>
+      <c t="s" r="N80" s="8">
+        <v>109</v>
+      </c>
+      <c r="O80" s="8"/>
+      <c t="s" r="P80" s="11">
+        <v>135</v>
+      </c>
+      <c t="s" r="Q80" s="12">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="81" ht="25.5" customHeight="1">
+      <c r="A81" s="7">
+        <v>75</v>
+      </c>
+      <c r="B81" s="7"/>
+      <c t="s" r="C81" s="8">
+        <v>228</v>
+      </c>
+      <c r="D81" s="8"/>
+      <c r="E81" s="8"/>
+      <c r="F81" s="8"/>
+      <c r="G81" s="8"/>
+      <c t="s" r="H81" s="9">
+        <v>229</v>
+      </c>
+      <c r="I81" s="9"/>
+      <c r="J81" s="9"/>
+      <c r="K81" s="9"/>
+      <c t="s" r="L81" s="10">
+        <v>22</v>
+      </c>
+      <c r="M81" s="10"/>
+      <c t="s" r="N81" s="8">
+        <v>60</v>
+      </c>
+      <c r="O81" s="8"/>
+      <c t="s" r="P81" s="11">
+        <v>63</v>
+      </c>
+      <c t="s" r="Q81" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="82" ht="25.5" customHeight="1">
+      <c r="P82" s="13">
+        <v>4868.2799999999997</v>
+      </c>
+      <c r="Q82" s="13"/>
+    </row>
+    <row r="83" ht="16.5" customHeight="1">
+      <c t="s" r="A83" s="14">
+        <v>230</v>
+      </c>
+      <c r="B83" s="14"/>
+      <c r="C83" s="14"/>
+      <c r="D83" s="14"/>
+      <c r="E83" s="14"/>
+      <c r="F83" s="14"/>
+      <c t="s" r="G83" s="15">
+        <v>231</v>
+      </c>
+      <c r="H83" s="15"/>
+      <c r="I83" s="15"/>
+      <c r="J83" s="16"/>
+      <c t="s" r="K83" s="17">
+        <v>232</v>
+      </c>
+      <c r="L83" s="17"/>
+      <c r="M83" s="17"/>
+      <c r="N83" s="17"/>
+      <c r="O83" s="17"/>
+      <c r="P83" s="17"/>
+      <c r="Q83" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="362">
+  <mergeCells count="387">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3988,10 +4195,35 @@
     <mergeCell ref="H76:K76"/>
     <mergeCell ref="L76:M76"/>
     <mergeCell ref="N76:O76"/>
-    <mergeCell ref="P77:Q77"/>
-    <mergeCell ref="A78:F78"/>
-    <mergeCell ref="G78:I78"/>
-    <mergeCell ref="K78:Q78"/>
+    <mergeCell ref="A77:B77"/>
+    <mergeCell ref="C77:G77"/>
+    <mergeCell ref="H77:K77"/>
+    <mergeCell ref="L77:M77"/>
+    <mergeCell ref="N77:O77"/>
+    <mergeCell ref="A78:B78"/>
+    <mergeCell ref="C78:G78"/>
+    <mergeCell ref="H78:K78"/>
+    <mergeCell ref="L78:M78"/>
+    <mergeCell ref="N78:O78"/>
+    <mergeCell ref="A79:B79"/>
+    <mergeCell ref="C79:G79"/>
+    <mergeCell ref="H79:K79"/>
+    <mergeCell ref="L79:M79"/>
+    <mergeCell ref="N79:O79"/>
+    <mergeCell ref="A80:B80"/>
+    <mergeCell ref="C80:G80"/>
+    <mergeCell ref="H80:K80"/>
+    <mergeCell ref="L80:M80"/>
+    <mergeCell ref="N80:O80"/>
+    <mergeCell ref="A81:B81"/>
+    <mergeCell ref="C81:G81"/>
+    <mergeCell ref="H81:K81"/>
+    <mergeCell ref="L81:M81"/>
+    <mergeCell ref="N81:O81"/>
+    <mergeCell ref="P82:Q82"/>
+    <mergeCell ref="A83:F83"/>
+    <mergeCell ref="G83:I83"/>
+    <mergeCell ref="K83:Q83"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-30_00-00.xlsx
+++ b/DaySale_2025-09-30_00-00.xlsx
@@ -95,6 +95,18 @@
     <t>249.0000</t>
   </si>
   <si>
+    <t>ALVERINSPASM 24 S.G.CAPS.</t>
+  </si>
+  <si>
+    <t>74.00</t>
+  </si>
+  <si>
+    <t>37.0000</t>
+  </si>
+  <si>
+    <t>0:1</t>
+  </si>
+  <si>
     <t>AMBEZIM-G 30 F.C. TABS.</t>
   </si>
   <si>
@@ -107,9 +119,6 @@
     <t>33.6600</t>
   </si>
   <si>
-    <t>0:1</t>
-  </si>
-  <si>
     <t>AMPOFER 20MG/ML 5 AMP. FOR I.V. INJ./INF.</t>
   </si>
   <si>
@@ -296,10 +305,13 @@
     <t>DOLIPRANE 1 GM 15 TABS.</t>
   </si>
   <si>
+    <t>7:1</t>
+  </si>
+  <si>
     <t>48.00</t>
   </si>
   <si>
-    <t>15.8400</t>
+    <t>31.6800</t>
   </si>
   <si>
     <t>EPICOPRED 5 MG 30 ORODISPERSIBLE TABS.</t>
@@ -356,6 +368,15 @@
     <t>53.4400</t>
   </si>
   <si>
+    <t>FUNGICAN 150MG 2 CAPS.</t>
+  </si>
+  <si>
+    <t>47.00</t>
+  </si>
+  <si>
+    <t>23.5000</t>
+  </si>
+  <si>
     <t>HAEMOJET 50MG/5ML SYRUP 100ML</t>
   </si>
   <si>
@@ -425,6 +446,15 @@
     <t>156.00</t>
   </si>
   <si>
+    <t>NEXICURE 40 MG 20 F.C. TABLETS</t>
+  </si>
+  <si>
+    <t>152.00</t>
+  </si>
+  <si>
+    <t>76.0000</t>
+  </si>
+  <si>
     <t>POM SHOWER GEL 250 ML</t>
   </si>
   <si>
@@ -464,6 +494,15 @@
     <t>12.8700</t>
   </si>
   <si>
+    <t>TARIVID 200MG 10 F.C. TAB.</t>
+  </si>
+  <si>
+    <t>82.00</t>
+  </si>
+  <si>
+    <t>82.0000</t>
+  </si>
+  <si>
     <t>VIDROP 2800 I.U./ML ORAL DROPS 15 ML</t>
   </si>
   <si>
@@ -701,7 +740,7 @@
     <t>6:0</t>
   </si>
   <si>
-    <t>Tuesday, 30 September, 2025 7:36 PM</t>
+    <t>Tuesday, 30 September, 2025 8:06 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1474,7 +1513,7 @@
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1484,14 +1523,14 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
+        <v>30</v>
+      </c>
+      <c t="s" r="Q11" s="12">
         <v>31</v>
-      </c>
-      <c t="s" r="Q11" s="12">
-        <v>32</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1500,14 +1539,14 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1517,14 +1556,14 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>37</v>
+        <v>31</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1533,14 +1572,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1550,14 +1589,14 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>32</v>
+        <v>40</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1566,14 +1605,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1583,14 +1622,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1599,14 +1638,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>21</v>
+        <v>46</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1623,7 +1662,7 @@
         <v>48</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>12</v>
+        <v>31</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1656,7 +1695,7 @@
         <v>51</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>52</v>
+        <v>12</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1665,14 +1704,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>52</v>
+        <v>21</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1682,14 +1721,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
+        <v>54</v>
+      </c>
+      <c t="s" r="Q17" s="12">
         <v>55</v>
-      </c>
-      <c t="s" r="Q17" s="12">
-        <v>12</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1705,7 +1744,7 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>21</v>
+        <v>55</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1755,7 +1794,7 @@
         <v>61</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>52</v>
+        <v>12</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1781,14 +1820,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>12</v>
+        <v>55</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1797,14 +1836,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>65</v>
+        <v>21</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1814,11 +1853,11 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q21" s="12">
         <v>12</v>
@@ -1830,14 +1869,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>21</v>
+        <v>68</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1870,7 +1909,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>72</v>
+        <v>21</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1880,14 +1919,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>75</v>
+        <v>12</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1896,14 +1935,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>52</v>
+        <v>75</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1913,14 +1952,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
+        <v>77</v>
+      </c>
+      <c t="s" r="Q24" s="12">
         <v>78</v>
-      </c>
-      <c t="s" r="Q24" s="12">
-        <v>12</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1936,7 +1975,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>12</v>
+        <v>55</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1969,7 +2008,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>83</v>
+        <v>12</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1979,14 +2018,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
         <v>84</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2002,7 +2041,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>21</v>
+        <v>86</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2012,14 +2051,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
         <v>87</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2035,7 +2074,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2052,7 +2091,7 @@
         <v>90</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>32</v>
+        <v>12</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2068,7 +2107,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2085,7 +2124,7 @@
         <v>93</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>12</v>
+        <v>31</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2101,7 +2140,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>72</v>
+        <v>21</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2118,7 +2157,7 @@
         <v>96</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>32</v>
+        <v>12</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2151,7 +2190,7 @@
         <v>100</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>37</v>
+        <v>40</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2167,7 +2206,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>21</v>
+        <v>102</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2177,14 +2216,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>12</v>
+        <v>40</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2193,14 +2232,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>105</v>
+        <v>21</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2233,7 +2272,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>52</v>
+        <v>109</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2243,11 +2282,11 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>12</v>
@@ -2259,14 +2298,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>112</v>
+        <v>55</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2283,7 +2322,7 @@
         <v>114</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>32</v>
+        <v>12</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2299,7 +2338,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>21</v>
+        <v>116</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2309,14 +2348,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>12</v>
+        <v>31</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2325,14 +2364,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>21</v>
+        <v>55</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2342,14 +2381,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>12</v>
+        <v>31</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2358,14 +2397,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>52</v>
+        <v>21</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2375,11 +2414,11 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>12</v>
@@ -2391,7 +2430,7 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
@@ -2404,15 +2443,15 @@
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c t="s" r="L39" s="10">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>12</v>
@@ -2424,28 +2463,28 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>32</v>
+        <v>55</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>12</v>
@@ -2457,7 +2496,7 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
@@ -2470,15 +2509,15 @@
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c t="s" r="L41" s="10">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>12</v>
@@ -2490,28 +2529,28 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>12</v>
@@ -2523,14 +2562,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2540,14 +2579,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>41</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>32</v>
+        <v>12</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2556,14 +2595,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2573,11 +2612,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>12</v>
@@ -2589,14 +2628,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2606,14 +2645,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>143</v>
+        <v>44</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>12</v>
+        <v>31</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2622,14 +2661,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>145</v>
+        <v>55</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2639,14 +2678,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>40</v>
+        <v>146</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2655,14 +2694,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>148</v>
+        <v>21</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2679,7 +2718,7 @@
         <v>150</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>32</v>
+        <v>12</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2695,7 +2734,7 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>152</v>
+        <v>12</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2705,11 +2744,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>12</v>
@@ -2721,14 +2760,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>37</v>
+        <v>155</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2738,14 +2777,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>156</v>
+        <v>43</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2754,14 +2793,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>12</v>
+        <v>158</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2771,14 +2810,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>149</v>
+        <v>159</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>12</v>
+        <v>31</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2787,14 +2826,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>161</v>
+        <v>21</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2811,7 +2850,7 @@
         <v>163</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>32</v>
+        <v>12</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2837,14 +2876,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>30</v>
+        <v>166</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>32</v>
+        <v>12</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2853,14 +2892,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2870,14 +2909,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>102</v>
+        <v>169</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>103</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>12</v>
+        <v>31</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2886,14 +2925,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>52</v>
+        <v>12</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2903,11 +2942,11 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>169</v>
+        <v>159</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>12</v>
@@ -2919,14 +2958,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>12</v>
+        <v>174</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2936,14 +2975,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2952,31 +2991,31 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>176</v>
+        <v>34</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>12</v>
+        <v>31</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2985,28 +3024,28 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>134</v>
+        <v>106</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>135</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>12</v>
@@ -3018,28 +3057,28 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>180</v>
+        <v>55</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c t="s" r="L58" s="10">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>12</v>
@@ -3051,31 +3090,31 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>145</v>
+        <v>12</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>77</v>
+        <v>185</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>78</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>12</v>
+        <v>31</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3084,14 +3123,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3101,11 +3140,11 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>109</v>
+        <v>189</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>110</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>12</v>
@@ -3117,14 +3156,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>187</v>
+        <v>12</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3134,11 +3173,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>188</v>
+        <v>141</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>189</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>12</v>
@@ -3150,14 +3189,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>21</v>
+        <v>193</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3167,14 +3206,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>180</v>
+        <v>12</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3183,14 +3222,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>194</v>
+        <v>155</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3200,14 +3239,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>195</v>
+        <v>80</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>196</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>197</v>
+        <v>12</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3216,14 +3255,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>180</v>
+        <v>198</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3233,14 +3272,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>176</v>
+        <v>113</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>199</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>52</v>
+        <v>12</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3249,14 +3288,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>52</v>
+        <v>200</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3289,7 +3328,7 @@
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>145</v>
+        <v>21</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3299,14 +3338,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>18</v>
+        <v>204</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>19</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>12</v>
+        <v>193</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3315,14 +3354,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>21</v>
+        <v>207</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3332,14 +3371,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>207</v>
+        <v>210</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3348,14 +3387,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>21</v>
+        <v>193</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3365,14 +3404,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>145</v>
+        <v>55</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3381,14 +3420,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3398,11 +3437,11 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>12</v>
@@ -3414,14 +3453,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>21</v>
+        <v>155</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3431,11 +3470,11 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>214</v>
+        <v>18</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>12</v>
@@ -3447,14 +3486,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>175</v>
+        <v>21</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3464,14 +3503,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>206</v>
+        <v>219</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>12</v>
+        <v>220</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3480,14 +3519,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>152</v>
+        <v>21</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3497,14 +3536,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>142</v>
+        <v>204</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>143</v>
+        <v>222</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>12</v>
+        <v>155</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3513,14 +3552,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>175</v>
+        <v>55</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3530,11 +3569,11 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>201</v>
+        <v>224</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>202</v>
+        <v>225</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>12</v>
@@ -3546,14 +3585,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>219</v>
+        <v>226</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>175</v>
+        <v>21</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3563,11 +3602,11 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>176</v>
+        <v>227</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>177</v>
+        <v>39</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>12</v>
@@ -3579,14 +3618,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>220</v>
+        <v>228</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>221</v>
+        <v>188</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3596,11 +3635,11 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>188</v>
+        <v>229</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>189</v>
+        <v>219</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>12</v>
@@ -3612,14 +3651,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>222</v>
+        <v>230</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>21</v>
+        <v>165</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3629,11 +3668,11 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>18</v>
+        <v>152</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>19</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>12</v>
@@ -3645,14 +3684,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>223</v>
+        <v>231</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>180</v>
+        <v>188</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3662,11 +3701,11 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>109</v>
+        <v>214</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>110</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>12</v>
@@ -3678,14 +3717,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>224</v>
+        <v>232</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>52</v>
+        <v>188</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3695,14 +3734,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>18</v>
+        <v>189</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>135</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>180</v>
+        <v>12</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3711,14 +3750,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>225</v>
+        <v>233</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>226</v>
+        <v>234</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3728,11 +3767,11 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>106</v>
+        <v>201</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>107</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>12</v>
@@ -3744,14 +3783,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>227</v>
+        <v>235</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>145</v>
+        <v>21</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3761,14 +3800,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>109</v>
+        <v>18</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>135</v>
+        <v>19</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>52</v>
+        <v>12</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3777,14 +3816,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>228</v>
+        <v>236</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>229</v>
+        <v>193</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -3794,49 +3833,181 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>60</v>
+        <v>113</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
+        <v>114</v>
+      </c>
+      <c t="s" r="Q81" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="82" ht="25.5" customHeight="1">
+      <c r="A82" s="7">
+        <v>76</v>
+      </c>
+      <c r="B82" s="7"/>
+      <c t="s" r="C82" s="8">
+        <v>237</v>
+      </c>
+      <c r="D82" s="8"/>
+      <c r="E82" s="8"/>
+      <c r="F82" s="8"/>
+      <c r="G82" s="8"/>
+      <c t="s" r="H82" s="9">
+        <v>55</v>
+      </c>
+      <c r="I82" s="9"/>
+      <c r="J82" s="9"/>
+      <c r="K82" s="9"/>
+      <c t="s" r="L82" s="10">
+        <v>22</v>
+      </c>
+      <c r="M82" s="10"/>
+      <c t="s" r="N82" s="8">
+        <v>18</v>
+      </c>
+      <c r="O82" s="8"/>
+      <c t="s" r="P82" s="11">
+        <v>142</v>
+      </c>
+      <c t="s" r="Q82" s="12">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="83" ht="24.75" customHeight="1">
+      <c r="A83" s="7">
+        <v>77</v>
+      </c>
+      <c r="B83" s="7"/>
+      <c t="s" r="C83" s="8">
+        <v>238</v>
+      </c>
+      <c r="D83" s="8"/>
+      <c r="E83" s="8"/>
+      <c r="F83" s="8"/>
+      <c r="G83" s="8"/>
+      <c t="s" r="H83" s="9">
+        <v>239</v>
+      </c>
+      <c r="I83" s="9"/>
+      <c r="J83" s="9"/>
+      <c r="K83" s="9"/>
+      <c t="s" r="L83" s="10">
+        <v>22</v>
+      </c>
+      <c r="M83" s="10"/>
+      <c t="s" r="N83" s="8">
+        <v>110</v>
+      </c>
+      <c r="O83" s="8"/>
+      <c t="s" r="P83" s="11">
+        <v>111</v>
+      </c>
+      <c t="s" r="Q83" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="84" ht="25.5" customHeight="1">
+      <c r="A84" s="7">
+        <v>78</v>
+      </c>
+      <c r="B84" s="7"/>
+      <c t="s" r="C84" s="8">
+        <v>240</v>
+      </c>
+      <c r="D84" s="8"/>
+      <c r="E84" s="8"/>
+      <c r="F84" s="8"/>
+      <c r="G84" s="8"/>
+      <c t="s" r="H84" s="9">
+        <v>155</v>
+      </c>
+      <c r="I84" s="9"/>
+      <c r="J84" s="9"/>
+      <c r="K84" s="9"/>
+      <c t="s" r="L84" s="10">
+        <v>22</v>
+      </c>
+      <c r="M84" s="10"/>
+      <c t="s" r="N84" s="8">
+        <v>113</v>
+      </c>
+      <c r="O84" s="8"/>
+      <c t="s" r="P84" s="11">
+        <v>142</v>
+      </c>
+      <c t="s" r="Q84" s="12">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="85" ht="24.75" customHeight="1">
+      <c r="A85" s="7">
+        <v>79</v>
+      </c>
+      <c r="B85" s="7"/>
+      <c t="s" r="C85" s="8">
+        <v>241</v>
+      </c>
+      <c r="D85" s="8"/>
+      <c r="E85" s="8"/>
+      <c r="F85" s="8"/>
+      <c r="G85" s="8"/>
+      <c t="s" r="H85" s="9">
+        <v>242</v>
+      </c>
+      <c r="I85" s="9"/>
+      <c r="J85" s="9"/>
+      <c r="K85" s="9"/>
+      <c t="s" r="L85" s="10">
+        <v>22</v>
+      </c>
+      <c r="M85" s="10"/>
+      <c t="s" r="N85" s="8">
         <v>63</v>
       </c>
-      <c t="s" r="Q81" s="12">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="82" ht="25.5" customHeight="1">
-      <c r="P82" s="13">
-        <v>4868.2799999999997</v>
-      </c>
-      <c r="Q82" s="13"/>
-    </row>
-    <row r="83" ht="16.5" customHeight="1">
-      <c t="s" r="A83" s="14">
-        <v>230</v>
-      </c>
-      <c r="B83" s="14"/>
-      <c r="C83" s="14"/>
-      <c r="D83" s="14"/>
-      <c r="E83" s="14"/>
-      <c r="F83" s="14"/>
-      <c t="s" r="G83" s="15">
-        <v>231</v>
-      </c>
-      <c r="H83" s="15"/>
-      <c r="I83" s="15"/>
-      <c r="J83" s="16"/>
-      <c t="s" r="K83" s="17">
-        <v>232</v>
-      </c>
-      <c r="L83" s="17"/>
-      <c r="M83" s="17"/>
-      <c r="N83" s="17"/>
-      <c r="O83" s="17"/>
-      <c r="P83" s="17"/>
-      <c r="Q83" s="17"/>
+      <c r="O85" s="8"/>
+      <c t="s" r="P85" s="11">
+        <v>66</v>
+      </c>
+      <c t="s" r="Q85" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="86" ht="25.5" customHeight="1">
+      <c r="P86" s="13">
+        <v>5102.6199999999999</v>
+      </c>
+      <c r="Q86" s="13"/>
+    </row>
+    <row r="87" ht="16.5" customHeight="1">
+      <c t="s" r="A87" s="14">
+        <v>243</v>
+      </c>
+      <c r="B87" s="14"/>
+      <c r="C87" s="14"/>
+      <c r="D87" s="14"/>
+      <c r="E87" s="14"/>
+      <c r="F87" s="14"/>
+      <c t="s" r="G87" s="15">
+        <v>244</v>
+      </c>
+      <c r="H87" s="15"/>
+      <c r="I87" s="15"/>
+      <c r="J87" s="16"/>
+      <c t="s" r="K87" s="17">
+        <v>245</v>
+      </c>
+      <c r="L87" s="17"/>
+      <c r="M87" s="17"/>
+      <c r="N87" s="17"/>
+      <c r="O87" s="17"/>
+      <c r="P87" s="17"/>
+      <c r="Q87" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="387">
+  <mergeCells count="407">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4220,10 +4391,30 @@
     <mergeCell ref="H81:K81"/>
     <mergeCell ref="L81:M81"/>
     <mergeCell ref="N81:O81"/>
-    <mergeCell ref="P82:Q82"/>
-    <mergeCell ref="A83:F83"/>
-    <mergeCell ref="G83:I83"/>
-    <mergeCell ref="K83:Q83"/>
+    <mergeCell ref="A82:B82"/>
+    <mergeCell ref="C82:G82"/>
+    <mergeCell ref="H82:K82"/>
+    <mergeCell ref="L82:M82"/>
+    <mergeCell ref="N82:O82"/>
+    <mergeCell ref="A83:B83"/>
+    <mergeCell ref="C83:G83"/>
+    <mergeCell ref="H83:K83"/>
+    <mergeCell ref="L83:M83"/>
+    <mergeCell ref="N83:O83"/>
+    <mergeCell ref="A84:B84"/>
+    <mergeCell ref="C84:G84"/>
+    <mergeCell ref="H84:K84"/>
+    <mergeCell ref="L84:M84"/>
+    <mergeCell ref="N84:O84"/>
+    <mergeCell ref="A85:B85"/>
+    <mergeCell ref="C85:G85"/>
+    <mergeCell ref="H85:K85"/>
+    <mergeCell ref="L85:M85"/>
+    <mergeCell ref="N85:O85"/>
+    <mergeCell ref="P86:Q86"/>
+    <mergeCell ref="A87:F87"/>
+    <mergeCell ref="G87:I87"/>
+    <mergeCell ref="K87:Q87"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-30_00-00.xlsx
+++ b/DaySale_2025-09-30_00-00.xlsx
@@ -206,6 +206,15 @@
     <t>80.0000</t>
   </si>
   <si>
+    <t>CATAFLAM 50 MG 20 SUGAR C.TABS</t>
+  </si>
+  <si>
+    <t>86.00</t>
+  </si>
+  <si>
+    <t>43.0000</t>
+  </si>
+  <si>
     <t>CONJYCLEAR FORTE 0.2% EYE DROPS 5 ML</t>
   </si>
   <si>
@@ -740,7 +749,7 @@
     <t>6:0</t>
   </si>
   <si>
-    <t>Tuesday, 30 September, 2025 8:06 PM</t>
+    <t>Tuesday, 30 September, 2025 8:19 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1843,7 +1852,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1853,14 +1862,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>12</v>
+        <v>31</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1869,14 +1878,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>68</v>
+        <v>21</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1886,11 +1895,11 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q22" s="12">
         <v>12</v>
@@ -1902,14 +1911,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>21</v>
+        <v>71</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1942,7 +1951,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>75</v>
+        <v>21</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1952,14 +1961,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>78</v>
+        <v>12</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1968,14 +1977,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>55</v>
+        <v>78</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1985,14 +1994,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
+        <v>80</v>
+      </c>
+      <c t="s" r="Q25" s="12">
         <v>81</v>
-      </c>
-      <c t="s" r="Q25" s="12">
-        <v>12</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -2008,7 +2017,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>12</v>
+        <v>55</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2041,7 +2050,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>86</v>
+        <v>12</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2051,14 +2060,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
         <v>87</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2074,7 +2083,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>21</v>
+        <v>89</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2084,14 +2093,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
         <v>90</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2107,7 +2116,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2124,7 +2133,7 @@
         <v>93</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>31</v>
+        <v>12</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2140,7 +2149,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2157,7 +2166,7 @@
         <v>96</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>12</v>
+        <v>31</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2173,7 +2182,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>98</v>
+        <v>21</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2183,14 +2192,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>40</v>
+        <v>12</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2199,14 +2208,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2216,11 +2225,11 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>40</v>
@@ -2232,14 +2241,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>21</v>
+        <v>105</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2256,7 +2265,7 @@
         <v>107</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>12</v>
+        <v>40</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2272,7 +2281,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>109</v>
+        <v>21</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2282,11 +2291,11 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>12</v>
@@ -2298,14 +2307,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>55</v>
+        <v>112</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2338,7 +2347,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>116</v>
+        <v>55</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2348,14 +2357,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>31</v>
+        <v>12</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2364,14 +2373,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>55</v>
+        <v>119</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2404,7 +2413,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>21</v>
+        <v>55</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2421,7 +2430,7 @@
         <v>124</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>12</v>
+        <v>31</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2470,7 +2479,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>55</v>
+        <v>21</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2503,13 +2512,13 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>21</v>
+        <v>55</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c t="s" r="L41" s="10">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
@@ -2536,7 +2545,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2569,13 +2578,13 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
@@ -2602,7 +2611,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2635,7 +2644,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2649,10 +2658,10 @@
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>44</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>31</v>
+        <v>12</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2661,14 +2670,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2678,11 +2687,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>147</v>
+        <v>44</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>31</v>
@@ -2701,7 +2710,7 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>21</v>
+        <v>55</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2718,7 +2727,7 @@
         <v>150</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>12</v>
+        <v>31</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2734,7 +2743,7 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2767,7 +2776,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>155</v>
+        <v>12</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2777,14 +2786,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>43</v>
+        <v>155</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
         <v>156</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>31</v>
+        <v>12</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2810,11 +2819,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>159</v>
+        <v>43</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>31</v>
@@ -2826,14 +2835,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>21</v>
+        <v>161</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2850,7 +2859,7 @@
         <v>163</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>12</v>
+        <v>31</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2866,7 +2875,7 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>165</v>
+        <v>21</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2876,11 +2885,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>12</v>
@@ -2892,14 +2901,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>40</v>
+        <v>168</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2916,7 +2925,7 @@
         <v>170</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>31</v>
+        <v>12</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2932,7 +2941,7 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2942,14 +2951,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>159</v>
+        <v>172</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>12</v>
+        <v>31</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2958,14 +2967,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>174</v>
+        <v>12</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2975,14 +2984,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>175</v>
+        <v>162</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>31</v>
+        <v>12</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2991,14 +3000,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3008,7 +3017,7 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>34</v>
+        <v>178</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
@@ -3031,7 +3040,7 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>31</v>
+        <v>181</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3041,14 +3050,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>106</v>
+        <v>34</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>107</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>12</v>
+        <v>31</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3057,14 +3066,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>55</v>
+        <v>31</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3074,11 +3083,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>182</v>
+        <v>109</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>183</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>12</v>
@@ -3097,7 +3106,7 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>12</v>
+        <v>55</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3114,7 +3123,7 @@
         <v>186</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>31</v>
+        <v>12</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3130,24 +3139,24 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>188</v>
+        <v>12</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>12</v>
+        <v>31</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3156,14 +3165,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>12</v>
+        <v>191</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3173,11 +3182,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>141</v>
+        <v>192</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>142</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>12</v>
@@ -3189,14 +3198,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>193</v>
+        <v>12</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3206,11 +3215,11 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>194</v>
+        <v>144</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>195</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>12</v>
@@ -3222,14 +3231,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>155</v>
+        <v>196</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3239,11 +3248,11 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>80</v>
+        <v>197</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>81</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>12</v>
@@ -3255,14 +3264,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>198</v>
+        <v>158</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3272,11 +3281,11 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>113</v>
+        <v>83</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>114</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>12</v>
@@ -3288,14 +3297,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3305,11 +3314,11 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>201</v>
+        <v>116</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>202</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>12</v>
@@ -3321,14 +3330,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>21</v>
+        <v>203</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3345,7 +3354,7 @@
         <v>205</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>193</v>
+        <v>12</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3361,7 +3370,7 @@
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>207</v>
+        <v>21</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3371,14 +3380,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>210</v>
+        <v>196</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3387,14 +3396,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>193</v>
+        <v>210</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3404,14 +3413,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>189</v>
+        <v>211</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
         <v>212</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>55</v>
+        <v>213</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3420,14 +3429,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>55</v>
+        <v>196</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3437,14 +3446,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>214</v>
+        <v>192</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
         <v>215</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>12</v>
+        <v>55</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3460,7 +3469,7 @@
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>155</v>
+        <v>55</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3470,11 +3479,11 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>18</v>
+        <v>217</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>19</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>12</v>
@@ -3486,14 +3495,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>21</v>
+        <v>158</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3503,14 +3512,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>218</v>
+        <v>18</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>219</v>
+        <v>19</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>220</v>
+        <v>12</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3519,7 +3528,7 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
@@ -3536,14 +3545,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>204</v>
+        <v>221</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
         <v>222</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>155</v>
+        <v>223</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3552,14 +3561,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>55</v>
+        <v>21</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3569,14 +3578,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>224</v>
+        <v>207</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
         <v>225</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>12</v>
+        <v>158</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3592,7 +3601,7 @@
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>21</v>
+        <v>55</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3606,7 +3615,7 @@
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>39</v>
+        <v>228</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>12</v>
@@ -3618,14 +3627,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>188</v>
+        <v>21</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3635,11 +3644,11 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>219</v>
+        <v>39</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>12</v>
@@ -3651,14 +3660,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>165</v>
+        <v>191</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3668,11 +3677,11 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>152</v>
+        <v>232</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>153</v>
+        <v>222</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>12</v>
@@ -3684,14 +3693,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>188</v>
+        <v>168</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3701,11 +3710,11 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>214</v>
+        <v>155</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>215</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>12</v>
@@ -3717,14 +3726,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3734,11 +3743,11 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>189</v>
+        <v>217</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>190</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>12</v>
@@ -3750,14 +3759,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>234</v>
+        <v>191</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3767,11 +3776,11 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>201</v>
+        <v>192</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>202</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>12</v>
@@ -3783,14 +3792,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>21</v>
+        <v>237</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3800,11 +3809,11 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>18</v>
+        <v>204</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>19</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>12</v>
@@ -3816,14 +3825,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>193</v>
+        <v>21</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -3833,11 +3842,11 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>113</v>
+        <v>18</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>114</v>
+        <v>19</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>12</v>
@@ -3849,14 +3858,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>55</v>
+        <v>196</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -3866,14 +3875,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>18</v>
+        <v>116</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>142</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>193</v>
+        <v>12</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -3882,14 +3891,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>239</v>
+        <v>55</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -3899,14 +3908,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>110</v>
+        <v>18</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>111</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>12</v>
+        <v>196</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -3915,14 +3924,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>155</v>
+        <v>242</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -3936,10 +3945,10 @@
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>142</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>55</v>
+        <v>12</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -3948,14 +3957,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>242</v>
+        <v>158</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -3965,49 +3974,82 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>63</v>
+        <v>116</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>66</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>12</v>
+        <v>55</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
-      <c r="P86" s="13">
-        <v>5102.6199999999999</v>
-      </c>
-      <c r="Q86" s="13"/>
-    </row>
-    <row r="87" ht="16.5" customHeight="1">
-      <c t="s" r="A87" s="14">
-        <v>243</v>
-      </c>
-      <c r="B87" s="14"/>
-      <c r="C87" s="14"/>
-      <c r="D87" s="14"/>
-      <c r="E87" s="14"/>
-      <c r="F87" s="14"/>
-      <c t="s" r="G87" s="15">
+      <c r="A86" s="7">
+        <v>80</v>
+      </c>
+      <c r="B86" s="7"/>
+      <c t="s" r="C86" s="8">
         <v>244</v>
       </c>
-      <c r="H87" s="15"/>
-      <c r="I87" s="15"/>
-      <c r="J87" s="16"/>
-      <c t="s" r="K87" s="17">
+      <c r="D86" s="8"/>
+      <c r="E86" s="8"/>
+      <c r="F86" s="8"/>
+      <c r="G86" s="8"/>
+      <c t="s" r="H86" s="9">
         <v>245</v>
       </c>
-      <c r="L87" s="17"/>
-      <c r="M87" s="17"/>
-      <c r="N87" s="17"/>
-      <c r="O87" s="17"/>
-      <c r="P87" s="17"/>
-      <c r="Q87" s="17"/>
+      <c r="I86" s="9"/>
+      <c r="J86" s="9"/>
+      <c r="K86" s="9"/>
+      <c t="s" r="L86" s="10">
+        <v>22</v>
+      </c>
+      <c r="M86" s="10"/>
+      <c t="s" r="N86" s="8">
+        <v>63</v>
+      </c>
+      <c r="O86" s="8"/>
+      <c t="s" r="P86" s="11">
+        <v>69</v>
+      </c>
+      <c t="s" r="Q86" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="87" ht="25.5" customHeight="1">
+      <c r="P87" s="13">
+        <v>5145.6199999999999</v>
+      </c>
+      <c r="Q87" s="13"/>
+    </row>
+    <row r="88" ht="16.5" customHeight="1">
+      <c t="s" r="A88" s="14">
+        <v>246</v>
+      </c>
+      <c r="B88" s="14"/>
+      <c r="C88" s="14"/>
+      <c r="D88" s="14"/>
+      <c r="E88" s="14"/>
+      <c r="F88" s="14"/>
+      <c t="s" r="G88" s="15">
+        <v>247</v>
+      </c>
+      <c r="H88" s="15"/>
+      <c r="I88" s="15"/>
+      <c r="J88" s="16"/>
+      <c t="s" r="K88" s="17">
+        <v>248</v>
+      </c>
+      <c r="L88" s="17"/>
+      <c r="M88" s="17"/>
+      <c r="N88" s="17"/>
+      <c r="O88" s="17"/>
+      <c r="P88" s="17"/>
+      <c r="Q88" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="407">
+  <mergeCells count="412">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4411,10 +4453,15 @@
     <mergeCell ref="H85:K85"/>
     <mergeCell ref="L85:M85"/>
     <mergeCell ref="N85:O85"/>
-    <mergeCell ref="P86:Q86"/>
-    <mergeCell ref="A87:F87"/>
-    <mergeCell ref="G87:I87"/>
-    <mergeCell ref="K87:Q87"/>
+    <mergeCell ref="A86:B86"/>
+    <mergeCell ref="C86:G86"/>
+    <mergeCell ref="H86:K86"/>
+    <mergeCell ref="L86:M86"/>
+    <mergeCell ref="N86:O86"/>
+    <mergeCell ref="P87:Q87"/>
+    <mergeCell ref="A88:F88"/>
+    <mergeCell ref="G88:I88"/>
+    <mergeCell ref="K88:Q88"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-30_00-00.xlsx
+++ b/DaySale_2025-09-30_00-00.xlsx
@@ -311,6 +311,9 @@
     <t>93.0000</t>
   </si>
   <si>
+    <t>DOGMATIL FORT 200MG 10 TAB</t>
+  </si>
+  <si>
     <t>DOLIPRANE 1 GM 15 TABS.</t>
   </si>
   <si>
@@ -512,6 +515,15 @@
     <t>82.0000</t>
   </si>
   <si>
+    <t>TREFLUCAN 150MG 1 CAPS.</t>
+  </si>
+  <si>
+    <t>28.00</t>
+  </si>
+  <si>
+    <t>28.0000</t>
+  </si>
+  <si>
     <t>VIDROP 2800 I.U./ML ORAL DROPS 15 ML</t>
   </si>
   <si>
@@ -749,7 +761,7 @@
     <t>6:0</t>
   </si>
   <si>
-    <t>Tuesday, 30 September, 2025 8:19 PM</t>
+    <t>Tuesday, 30 September, 2025 8:27 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2215,7 +2227,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>101</v>
+        <v>12</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2225,14 +2237,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>102</v>
+        <v>63</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>103</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>40</v>
+        <v>12</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2241,14 +2253,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2258,11 +2270,11 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>40</v>
@@ -2274,14 +2286,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>21</v>
+        <v>106</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2291,14 +2303,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>12</v>
+        <v>40</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2307,14 +2319,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>112</v>
+        <v>21</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2324,11 +2336,11 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>12</v>
@@ -2340,14 +2352,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>55</v>
+        <v>113</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2357,11 +2369,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>12</v>
@@ -2373,14 +2385,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>119</v>
+        <v>55</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2390,14 +2402,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>31</v>
+        <v>12</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2406,14 +2418,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>55</v>
+        <v>120</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2423,11 +2435,11 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>31</v>
@@ -2439,14 +2451,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>21</v>
+        <v>55</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2456,14 +2468,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>12</v>
+        <v>31</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2472,7 +2484,7 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
@@ -2489,11 +2501,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>12</v>
@@ -2505,14 +2517,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>55</v>
+        <v>21</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2522,11 +2534,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>12</v>
@@ -2538,28 +2550,28 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>21</v>
+        <v>55</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>12</v>
@@ -2571,14 +2583,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2588,11 +2600,11 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>12</v>
@@ -2604,28 +2616,28 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>12</v>
@@ -2637,14 +2649,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2654,11 +2666,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>12</v>
@@ -2670,14 +2682,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2687,14 +2699,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>44</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>31</v>
+        <v>12</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2703,14 +2715,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2720,11 +2732,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>150</v>
+        <v>44</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>31</v>
@@ -2736,14 +2748,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>21</v>
+        <v>55</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2753,14 +2765,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>12</v>
+        <v>31</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2769,14 +2781,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2786,11 +2798,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>12</v>
@@ -2802,14 +2814,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>158</v>
+        <v>12</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2819,14 +2831,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>43</v>
+        <v>156</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>31</v>
+        <v>12</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2835,14 +2847,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2852,11 +2864,11 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>162</v>
+        <v>43</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>31</v>
@@ -2868,14 +2880,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>21</v>
+        <v>162</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2885,14 +2897,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>12</v>
+        <v>31</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2901,14 +2913,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>168</v>
+        <v>21</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2918,11 +2930,11 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>12</v>
@@ -2934,14 +2946,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2951,14 +2963,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>31</v>
+        <v>12</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2967,14 +2979,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>12</v>
+        <v>172</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2984,11 +2996,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>162</v>
+        <v>173</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>12</v>
@@ -3000,14 +3012,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>177</v>
+        <v>40</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3017,11 +3029,11 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>31</v>
@@ -3033,14 +3045,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>181</v>
+        <v>12</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3050,14 +3062,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>34</v>
+        <v>163</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>31</v>
+        <v>12</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3066,14 +3078,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>31</v>
+        <v>181</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3083,14 +3095,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>109</v>
+        <v>182</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>110</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>12</v>
+        <v>31</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3106,7 +3118,7 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>55</v>
+        <v>185</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3116,14 +3128,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>185</v>
+        <v>34</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
         <v>186</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>12</v>
+        <v>31</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3139,7 +3151,7 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3149,14 +3161,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>188</v>
+        <v>110</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>189</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>31</v>
+        <v>12</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3165,28 +3177,28 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>191</v>
+        <v>55</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c t="s" r="L61" s="10">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>12</v>
@@ -3198,7 +3210,7 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
@@ -3211,18 +3223,18 @@
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c t="s" r="L62" s="10">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>144</v>
+        <v>192</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>145</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>12</v>
+        <v>31</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3231,14 +3243,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3248,11 +3260,11 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>12</v>
@@ -3264,14 +3276,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>158</v>
+        <v>12</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3281,11 +3293,11 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>83</v>
+        <v>145</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>84</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>12</v>
@@ -3297,14 +3309,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3314,11 +3326,11 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>116</v>
+        <v>201</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>117</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>12</v>
@@ -3330,14 +3342,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>203</v>
+        <v>159</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3347,11 +3359,11 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>204</v>
+        <v>83</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>205</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>12</v>
@@ -3363,14 +3375,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>21</v>
+        <v>205</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3380,14 +3392,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>207</v>
+        <v>117</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>208</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>196</v>
+        <v>12</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3396,14 +3408,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3413,14 +3425,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>213</v>
+        <v>12</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3429,14 +3441,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>196</v>
+        <v>21</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3446,14 +3458,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>192</v>
+        <v>211</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>55</v>
+        <v>200</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3462,14 +3474,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>55</v>
+        <v>214</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3479,14 +3491,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>12</v>
+        <v>217</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3495,14 +3507,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>158</v>
+        <v>200</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3512,14 +3524,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>18</v>
+        <v>196</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>19</v>
+        <v>219</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>12</v>
+        <v>55</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3535,7 +3547,7 @@
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>21</v>
+        <v>55</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3552,7 +3564,7 @@
         <v>222</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>223</v>
+        <v>12</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3561,14 +3573,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>21</v>
+        <v>159</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3578,14 +3590,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>207</v>
+        <v>18</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>225</v>
+        <v>19</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>158</v>
+        <v>12</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3594,14 +3606,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>55</v>
+        <v>21</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3611,14 +3623,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>12</v>
+        <v>227</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3627,7 +3639,7 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
@@ -3644,14 +3656,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>230</v>
+        <v>211</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>39</v>
+        <v>229</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>12</v>
+        <v>159</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3660,14 +3672,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>191</v>
+        <v>55</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3677,11 +3689,11 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>222</v>
+        <v>232</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>12</v>
@@ -3700,7 +3712,7 @@
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>168</v>
+        <v>21</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3710,11 +3722,11 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>155</v>
+        <v>234</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>156</v>
+        <v>39</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>12</v>
@@ -3726,14 +3738,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3743,11 +3755,11 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>217</v>
+        <v>236</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>218</v>
+        <v>226</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>12</v>
@@ -3759,14 +3771,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>191</v>
+        <v>172</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3776,11 +3788,11 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>192</v>
+        <v>156</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>193</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>12</v>
@@ -3792,14 +3804,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>237</v>
+        <v>195</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3809,11 +3821,11 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>204</v>
+        <v>221</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>205</v>
+        <v>222</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>12</v>
@@ -3825,14 +3837,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>21</v>
+        <v>195</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -3842,11 +3854,11 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>18</v>
+        <v>196</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>19</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>12</v>
@@ -3858,14 +3870,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>196</v>
+        <v>241</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -3875,11 +3887,11 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>116</v>
+        <v>208</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>117</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>12</v>
@@ -3891,14 +3903,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>55</v>
+        <v>21</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -3912,10 +3924,10 @@
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>145</v>
+        <v>19</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>196</v>
+        <v>12</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -3924,14 +3936,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>242</v>
+        <v>200</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -3941,11 +3953,11 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>12</v>
@@ -3957,14 +3969,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>158</v>
+        <v>55</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -3974,14 +3986,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>116</v>
+        <v>18</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>55</v>
+        <v>200</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -3990,14 +4002,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4007,49 +4019,115 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>63</v>
+        <v>114</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
+        <v>115</v>
+      </c>
+      <c t="s" r="Q86" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="87" ht="25.5" customHeight="1">
+      <c r="A87" s="7">
+        <v>81</v>
+      </c>
+      <c r="B87" s="7"/>
+      <c t="s" r="C87" s="8">
+        <v>247</v>
+      </c>
+      <c r="D87" s="8"/>
+      <c r="E87" s="8"/>
+      <c r="F87" s="8"/>
+      <c r="G87" s="8"/>
+      <c t="s" r="H87" s="9">
+        <v>159</v>
+      </c>
+      <c r="I87" s="9"/>
+      <c r="J87" s="9"/>
+      <c r="K87" s="9"/>
+      <c t="s" r="L87" s="10">
+        <v>22</v>
+      </c>
+      <c r="M87" s="10"/>
+      <c t="s" r="N87" s="8">
+        <v>117</v>
+      </c>
+      <c r="O87" s="8"/>
+      <c t="s" r="P87" s="11">
+        <v>146</v>
+      </c>
+      <c t="s" r="Q87" s="12">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="88" ht="24.75" customHeight="1">
+      <c r="A88" s="7">
+        <v>82</v>
+      </c>
+      <c r="B88" s="7"/>
+      <c t="s" r="C88" s="8">
+        <v>248</v>
+      </c>
+      <c r="D88" s="8"/>
+      <c r="E88" s="8"/>
+      <c r="F88" s="8"/>
+      <c r="G88" s="8"/>
+      <c t="s" r="H88" s="9">
+        <v>249</v>
+      </c>
+      <c r="I88" s="9"/>
+      <c r="J88" s="9"/>
+      <c r="K88" s="9"/>
+      <c t="s" r="L88" s="10">
+        <v>22</v>
+      </c>
+      <c r="M88" s="10"/>
+      <c t="s" r="N88" s="8">
+        <v>63</v>
+      </c>
+      <c r="O88" s="8"/>
+      <c t="s" r="P88" s="11">
         <v>69</v>
       </c>
-      <c t="s" r="Q86" s="12">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="87" ht="25.5" customHeight="1">
-      <c r="P87" s="13">
-        <v>5145.6199999999999</v>
-      </c>
-      <c r="Q87" s="13"/>
-    </row>
-    <row r="88" ht="16.5" customHeight="1">
-      <c t="s" r="A88" s="14">
-        <v>246</v>
-      </c>
-      <c r="B88" s="14"/>
-      <c r="C88" s="14"/>
-      <c r="D88" s="14"/>
-      <c r="E88" s="14"/>
-      <c r="F88" s="14"/>
-      <c t="s" r="G88" s="15">
-        <v>247</v>
-      </c>
-      <c r="H88" s="15"/>
-      <c r="I88" s="15"/>
-      <c r="J88" s="16"/>
-      <c t="s" r="K88" s="17">
-        <v>248</v>
-      </c>
-      <c r="L88" s="17"/>
-      <c r="M88" s="17"/>
-      <c r="N88" s="17"/>
-      <c r="O88" s="17"/>
-      <c r="P88" s="17"/>
-      <c r="Q88" s="17"/>
+      <c t="s" r="Q88" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="89" ht="25.5" customHeight="1">
+      <c r="P89" s="13">
+        <v>5213.6199999999999</v>
+      </c>
+      <c r="Q89" s="13"/>
+    </row>
+    <row r="90" ht="16.5" customHeight="1">
+      <c t="s" r="A90" s="14">
+        <v>250</v>
+      </c>
+      <c r="B90" s="14"/>
+      <c r="C90" s="14"/>
+      <c r="D90" s="14"/>
+      <c r="E90" s="14"/>
+      <c r="F90" s="14"/>
+      <c t="s" r="G90" s="15">
+        <v>251</v>
+      </c>
+      <c r="H90" s="15"/>
+      <c r="I90" s="15"/>
+      <c r="J90" s="16"/>
+      <c t="s" r="K90" s="17">
+        <v>252</v>
+      </c>
+      <c r="L90" s="17"/>
+      <c r="M90" s="17"/>
+      <c r="N90" s="17"/>
+      <c r="O90" s="17"/>
+      <c r="P90" s="17"/>
+      <c r="Q90" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="412">
+  <mergeCells count="422">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4458,10 +4536,20 @@
     <mergeCell ref="H86:K86"/>
     <mergeCell ref="L86:M86"/>
     <mergeCell ref="N86:O86"/>
-    <mergeCell ref="P87:Q87"/>
-    <mergeCell ref="A88:F88"/>
-    <mergeCell ref="G88:I88"/>
-    <mergeCell ref="K88:Q88"/>
+    <mergeCell ref="A87:B87"/>
+    <mergeCell ref="C87:G87"/>
+    <mergeCell ref="H87:K87"/>
+    <mergeCell ref="L87:M87"/>
+    <mergeCell ref="N87:O87"/>
+    <mergeCell ref="A88:B88"/>
+    <mergeCell ref="C88:G88"/>
+    <mergeCell ref="H88:K88"/>
+    <mergeCell ref="L88:M88"/>
+    <mergeCell ref="N88:O88"/>
+    <mergeCell ref="P89:Q89"/>
+    <mergeCell ref="A90:F90"/>
+    <mergeCell ref="G90:I90"/>
+    <mergeCell ref="K90:Q90"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-30_00-00.xlsx
+++ b/DaySale_2025-09-30_00-00.xlsx
@@ -761,7 +761,7 @@
     <t>6:0</t>
   </si>
   <si>
-    <t>Tuesday, 30 September, 2025 8:27 PM</t>
+    <t>Tuesday, 30 September, 2025 8:31 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-09-30_00-00.xlsx
+++ b/DaySale_2025-09-30_00-00.xlsx
@@ -98,13 +98,13 @@
     <t>ALVERINSPASM 24 S.G.CAPS.</t>
   </si>
   <si>
+    <t>0:1</t>
+  </si>
+  <si>
     <t>74.00</t>
   </si>
   <si>
-    <t>37.0000</t>
-  </si>
-  <si>
-    <t>0:1</t>
+    <t>74.0000</t>
   </si>
   <si>
     <t>AMBEZIM-G 30 F.C. TABS.</t>
@@ -215,6 +215,15 @@
     <t>43.0000</t>
   </si>
   <si>
+    <t>CETAFEN PLUS 30 TAB.</t>
+  </si>
+  <si>
+    <t>81.00</t>
+  </si>
+  <si>
+    <t>26.7300</t>
+  </si>
+  <si>
     <t>CONJYCLEAR FORTE 0.2% EYE DROPS 5 ML</t>
   </si>
   <si>
@@ -416,6 +425,18 @@
     <t>259.0000</t>
   </si>
   <si>
+    <t xml:space="preserve">IVY PRONT  SYRUP</t>
+  </si>
+  <si>
+    <t>4:0</t>
+  </si>
+  <si>
+    <t>57.00</t>
+  </si>
+  <si>
+    <t>57.0000</t>
+  </si>
+  <si>
     <t>KADEE 4000 CAPS</t>
   </si>
   <si>
@@ -443,6 +464,15 @@
     <t>70.0000</t>
   </si>
   <si>
+    <t>LEVOHISTAM 5MG/10 ML SYRUP 120ML</t>
+  </si>
+  <si>
+    <t>39.00</t>
+  </si>
+  <si>
+    <t>39.0000</t>
+  </si>
+  <si>
     <t>MELOQUIN 4% CREAM 20 GM</t>
   </si>
   <si>
@@ -485,6 +515,15 @@
     <t>45.0000</t>
   </si>
   <si>
+    <t>SPASCOLON 100MG 30 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>108.00</t>
+  </si>
+  <si>
+    <t>35.6400</t>
+  </si>
+  <si>
     <t>SPASMO-DIGESTIN 30 TABS.</t>
   </si>
   <si>
@@ -500,12 +539,15 @@
     <t>3:2</t>
   </si>
   <si>
-    <t>39.00</t>
-  </si>
-  <si>
     <t>12.8700</t>
   </si>
   <si>
+    <t>STOPRRHEA 2 MG 30 ORODISPERSIBLE TABS.</t>
+  </si>
+  <si>
+    <t>96.00</t>
+  </si>
+  <si>
     <t>TARIVID 200MG 10 F.C. TAB.</t>
   </si>
   <si>
@@ -548,9 +590,6 @@
     <t>VOLTAREN 1% EMULGEL 25 GM</t>
   </si>
   <si>
-    <t>39.0000</t>
-  </si>
-  <si>
     <t>VOLTAREN 75MG/3ML 3 AMP.</t>
   </si>
   <si>
@@ -575,6 +614,18 @@
     <t>VONSECA 20MG 14 TAB</t>
   </si>
   <si>
+    <t>XORAXON 1GM I.M. VIAL</t>
+  </si>
+  <si>
+    <t>7:0</t>
+  </si>
+  <si>
+    <t>56.00</t>
+  </si>
+  <si>
+    <t>168.0000</t>
+  </si>
+  <si>
     <t>ZINCOSIL CREAM 20 GM</t>
   </si>
   <si>
@@ -611,9 +662,6 @@
     <t>بادي سبلاش افوفا الصغير</t>
   </si>
   <si>
-    <t>4:0</t>
-  </si>
-  <si>
     <t>35.00</t>
   </si>
   <si>
@@ -689,39 +737,39 @@
     <t>2.00</t>
   </si>
   <si>
+    <t>12:0</t>
+  </si>
+  <si>
+    <t>سرنجات 5 سم</t>
+  </si>
+  <si>
+    <t>21.0000</t>
+  </si>
+  <si>
+    <t>سيتي بيبي رقم 3</t>
+  </si>
+  <si>
+    <t>190.00</t>
+  </si>
+  <si>
+    <t>190.0000</t>
+  </si>
+  <si>
+    <t>شاور جل ايفا 1لتر</t>
+  </si>
+  <si>
+    <t>110.00</t>
+  </si>
+  <si>
+    <t>صابون ديتول الصغير</t>
+  </si>
+  <si>
+    <t>22.00</t>
+  </si>
+  <si>
     <t>22.0000</t>
   </si>
   <si>
-    <t>11:0</t>
-  </si>
-  <si>
-    <t>سرنجات 5 سم</t>
-  </si>
-  <si>
-    <t>9.0000</t>
-  </si>
-  <si>
-    <t>سيتي بيبي رقم 3</t>
-  </si>
-  <si>
-    <t>190.00</t>
-  </si>
-  <si>
-    <t>190.0000</t>
-  </si>
-  <si>
-    <t>شاور جل ايفا 1لتر</t>
-  </si>
-  <si>
-    <t>110.00</t>
-  </si>
-  <si>
-    <t>صابون ديتول الصغير</t>
-  </si>
-  <si>
-    <t>22.00</t>
-  </si>
-  <si>
     <t>صابونه دوف SOAP</t>
   </si>
   <si>
@@ -761,7 +809,7 @@
     <t>6:0</t>
   </si>
   <si>
-    <t>Tuesday, 30 September, 2025 8:31 PM</t>
+    <t>Tuesday, 30 September, 2025 8:36 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1534,7 +1582,7 @@
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1544,14 +1592,14 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>31</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1584,7 +1632,7 @@
         <v>35</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1650,7 +1698,7 @@
         <v>44</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1683,7 +1731,7 @@
         <v>48</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1881,7 +1929,7 @@
         <v>67</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1907,14 +1955,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>12</v>
+        <v>29</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1923,14 +1971,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>71</v>
+        <v>21</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1940,11 +1988,11 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q23" s="12">
         <v>12</v>
@@ -1956,14 +2004,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>21</v>
+        <v>74</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1996,7 +2044,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>78</v>
+        <v>21</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -2006,14 +2054,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>81</v>
+        <v>12</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -2022,14 +2070,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>55</v>
+        <v>81</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2039,14 +2087,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
+        <v>83</v>
+      </c>
+      <c t="s" r="Q26" s="12">
         <v>84</v>
-      </c>
-      <c t="s" r="Q26" s="12">
-        <v>12</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2062,7 +2110,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>12</v>
+        <v>55</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2095,7 +2143,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>89</v>
+        <v>12</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2105,14 +2153,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
         <v>90</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2128,7 +2176,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>21</v>
+        <v>92</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2138,14 +2186,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
         <v>93</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2161,7 +2209,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2178,7 +2226,7 @@
         <v>96</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>31</v>
+        <v>12</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2194,7 +2242,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2211,7 +2259,7 @@
         <v>99</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>12</v>
+        <v>29</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2227,7 +2275,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2237,11 +2285,11 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>63</v>
+        <v>101</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>69</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>12</v>
@@ -2253,14 +2301,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>102</v>
+        <v>12</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2270,14 +2318,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>103</v>
+        <v>63</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>104</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>40</v>
+        <v>12</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2286,14 +2334,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2303,11 +2351,11 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>40</v>
@@ -2319,14 +2367,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>21</v>
+        <v>109</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2343,7 +2391,7 @@
         <v>111</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>12</v>
+        <v>40</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2359,7 +2407,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>113</v>
+        <v>21</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2369,11 +2417,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>12</v>
@@ -2385,14 +2433,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>55</v>
+        <v>116</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2425,7 +2473,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>120</v>
+        <v>55</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2435,14 +2483,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>31</v>
+        <v>12</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2451,14 +2499,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>55</v>
+        <v>123</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2475,7 +2523,7 @@
         <v>125</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2491,7 +2539,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>21</v>
+        <v>55</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2508,7 +2556,7 @@
         <v>128</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>12</v>
+        <v>29</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2557,7 +2605,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>55</v>
+        <v>21</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2590,13 +2638,13 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>21</v>
+        <v>55</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
@@ -2623,7 +2671,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>31</v>
+        <v>139</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2633,11 +2681,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>12</v>
@@ -2649,7 +2697,7 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
@@ -2662,15 +2710,15 @@
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>12</v>
@@ -2682,28 +2730,28 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>12</v>
@@ -2715,14 +2763,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2732,14 +2780,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>44</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>31</v>
+        <v>12</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2748,14 +2796,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>55</v>
+        <v>12</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2765,14 +2813,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>31</v>
+        <v>12</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2781,14 +2829,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2798,11 +2846,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>12</v>
@@ -2814,14 +2862,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2831,14 +2879,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>157</v>
+        <v>44</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>12</v>
+        <v>29</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2847,14 +2895,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>159</v>
+        <v>55</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2864,14 +2912,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>43</v>
+        <v>160</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2880,14 +2928,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>162</v>
+        <v>21</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2904,7 +2952,7 @@
         <v>164</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>31</v>
+        <v>12</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2920,7 +2968,7 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2953,7 +3001,7 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2970,7 +3018,7 @@
         <v>170</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>12</v>
+        <v>29</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2996,14 +3044,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>173</v>
+        <v>43</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>12</v>
+        <v>29</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3012,14 +3060,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>40</v>
+        <v>175</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3029,14 +3077,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>176</v>
+        <v>152</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3045,14 +3093,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3062,14 +3110,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>163</v>
+        <v>178</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>179</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>12</v>
+        <v>29</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3078,14 +3126,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>181</v>
+        <v>21</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3095,14 +3143,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>31</v>
+        <v>12</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3111,14 +3159,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>185</v>
+        <v>12</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3128,14 +3176,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>34</v>
+        <v>183</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>31</v>
+        <v>12</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3144,14 +3192,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>31</v>
+        <v>186</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3161,11 +3209,11 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>110</v>
+        <v>187</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>111</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>12</v>
@@ -3177,14 +3225,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3194,14 +3242,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>12</v>
+        <v>29</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3210,7 +3258,7 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
@@ -3227,14 +3275,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>192</v>
+        <v>152</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>193</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>31</v>
+        <v>12</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3243,31 +3291,31 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>12</v>
+        <v>29</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3276,31 +3324,31 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>12</v>
+        <v>198</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>145</v>
+        <v>34</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>146</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>12</v>
+        <v>29</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3309,28 +3357,28 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>200</v>
+        <v>29</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>201</v>
+        <v>113</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>202</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>12</v>
@@ -3342,31 +3390,31 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>159</v>
+        <v>202</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c t="s" r="L66" s="10">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>83</v>
+        <v>203</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>84</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>12</v>
+        <v>172</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3375,28 +3423,28 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>205</v>
+        <v>55</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c t="s" r="L67" s="10">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>117</v>
+        <v>206</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>118</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>12</v>
@@ -3408,31 +3456,31 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>207</v>
+        <v>12</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
       <c t="s" r="L68" s="10">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>12</v>
+        <v>29</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3441,14 +3489,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>21</v>
+        <v>212</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3458,14 +3506,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>200</v>
+        <v>12</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3474,14 +3522,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>214</v>
+        <v>12</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3491,14 +3539,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>215</v>
+        <v>155</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>216</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>217</v>
+        <v>12</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3507,14 +3555,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>200</v>
+        <v>139</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3524,14 +3572,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>196</v>
+        <v>217</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>55</v>
+        <v>12</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3540,14 +3588,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>55</v>
+        <v>172</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3557,11 +3605,11 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>221</v>
+        <v>86</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>222</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>12</v>
@@ -3573,14 +3621,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>159</v>
+        <v>221</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3590,11 +3638,11 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>18</v>
+        <v>120</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>19</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>12</v>
@@ -3606,14 +3654,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>21</v>
+        <v>223</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3623,14 +3671,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>227</v>
+        <v>12</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3639,7 +3687,7 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
@@ -3656,14 +3704,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>211</v>
+        <v>227</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>159</v>
+        <v>139</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3672,14 +3720,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>55</v>
+        <v>230</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3696,7 +3744,7 @@
         <v>232</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>12</v>
+        <v>233</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3705,14 +3753,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>21</v>
+        <v>139</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3722,14 +3770,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>234</v>
+        <v>213</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>39</v>
+        <v>235</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>12</v>
+        <v>55</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3738,14 +3786,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>195</v>
+        <v>55</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3755,11 +3803,11 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>226</v>
+        <v>238</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>12</v>
@@ -3771,7 +3819,7 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
@@ -3788,11 +3836,11 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>156</v>
+        <v>18</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>157</v>
+        <v>19</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>12</v>
@@ -3804,14 +3852,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>195</v>
+        <v>21</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3821,14 +3869,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>221</v>
+        <v>241</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>222</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>12</v>
+        <v>242</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3837,14 +3885,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>195</v>
+        <v>21</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -3854,14 +3902,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>196</v>
+        <v>227</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>197</v>
+        <v>244</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>12</v>
+        <v>202</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3870,14 +3918,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>241</v>
+        <v>55</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -3887,11 +3935,11 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>208</v>
+        <v>246</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>209</v>
+        <v>247</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>12</v>
@@ -3903,7 +3951,7 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>242</v>
+        <v>248</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
@@ -3920,11 +3968,11 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>18</v>
+        <v>249</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>19</v>
+        <v>39</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>12</v>
@@ -3936,14 +3984,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>243</v>
+        <v>250</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>200</v>
+        <v>212</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -3953,11 +4001,11 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>117</v>
+        <v>251</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>118</v>
+        <v>252</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>12</v>
@@ -3969,14 +4017,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>244</v>
+        <v>253</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>55</v>
+        <v>186</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -3986,14 +4034,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>18</v>
+        <v>166</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>146</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>200</v>
+        <v>12</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4002,14 +4050,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>245</v>
+        <v>254</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>246</v>
+        <v>212</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4019,11 +4067,11 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>114</v>
+        <v>237</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>115</v>
+        <v>238</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>12</v>
@@ -4035,14 +4083,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>247</v>
+        <v>255</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>159</v>
+        <v>212</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4052,14 +4100,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>117</v>
+        <v>213</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>146</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>55</v>
+        <v>12</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4068,14 +4116,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>248</v>
+        <v>256</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>249</v>
+        <v>257</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4085,49 +4133,247 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>63</v>
+        <v>224</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>69</v>
+        <v>225</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>12</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
-      <c r="P89" s="13">
-        <v>5213.6199999999999</v>
-      </c>
-      <c r="Q89" s="13"/>
-    </row>
-    <row r="90" ht="16.5" customHeight="1">
-      <c t="s" r="A90" s="14">
-        <v>250</v>
-      </c>
-      <c r="B90" s="14"/>
-      <c r="C90" s="14"/>
-      <c r="D90" s="14"/>
-      <c r="E90" s="14"/>
-      <c r="F90" s="14"/>
-      <c t="s" r="G90" s="15">
-        <v>251</v>
-      </c>
-      <c r="H90" s="15"/>
-      <c r="I90" s="15"/>
-      <c r="J90" s="16"/>
-      <c t="s" r="K90" s="17">
-        <v>252</v>
-      </c>
-      <c r="L90" s="17"/>
-      <c r="M90" s="17"/>
-      <c r="N90" s="17"/>
-      <c r="O90" s="17"/>
-      <c r="P90" s="17"/>
-      <c r="Q90" s="17"/>
+      <c r="A89" s="7">
+        <v>83</v>
+      </c>
+      <c r="B89" s="7"/>
+      <c t="s" r="C89" s="8">
+        <v>258</v>
+      </c>
+      <c r="D89" s="8"/>
+      <c r="E89" s="8"/>
+      <c r="F89" s="8"/>
+      <c r="G89" s="8"/>
+      <c t="s" r="H89" s="9">
+        <v>21</v>
+      </c>
+      <c r="I89" s="9"/>
+      <c r="J89" s="9"/>
+      <c r="K89" s="9"/>
+      <c t="s" r="L89" s="10">
+        <v>22</v>
+      </c>
+      <c r="M89" s="10"/>
+      <c t="s" r="N89" s="8">
+        <v>18</v>
+      </c>
+      <c r="O89" s="8"/>
+      <c t="s" r="P89" s="11">
+        <v>19</v>
+      </c>
+      <c t="s" r="Q89" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="90" ht="24.75" customHeight="1">
+      <c r="A90" s="7">
+        <v>84</v>
+      </c>
+      <c r="B90" s="7"/>
+      <c t="s" r="C90" s="8">
+        <v>259</v>
+      </c>
+      <c r="D90" s="8"/>
+      <c r="E90" s="8"/>
+      <c r="F90" s="8"/>
+      <c r="G90" s="8"/>
+      <c t="s" r="H90" s="9">
+        <v>139</v>
+      </c>
+      <c r="I90" s="9"/>
+      <c r="J90" s="9"/>
+      <c r="K90" s="9"/>
+      <c t="s" r="L90" s="10">
+        <v>22</v>
+      </c>
+      <c r="M90" s="10"/>
+      <c t="s" r="N90" s="8">
+        <v>120</v>
+      </c>
+      <c r="O90" s="8"/>
+      <c t="s" r="P90" s="11">
+        <v>121</v>
+      </c>
+      <c t="s" r="Q90" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="91" ht="25.5" customHeight="1">
+      <c r="A91" s="7">
+        <v>85</v>
+      </c>
+      <c r="B91" s="7"/>
+      <c t="s" r="C91" s="8">
+        <v>260</v>
+      </c>
+      <c r="D91" s="8"/>
+      <c r="E91" s="8"/>
+      <c r="F91" s="8"/>
+      <c r="G91" s="8"/>
+      <c t="s" r="H91" s="9">
+        <v>55</v>
+      </c>
+      <c r="I91" s="9"/>
+      <c r="J91" s="9"/>
+      <c r="K91" s="9"/>
+      <c t="s" r="L91" s="10">
+        <v>22</v>
+      </c>
+      <c r="M91" s="10"/>
+      <c t="s" r="N91" s="8">
+        <v>18</v>
+      </c>
+      <c r="O91" s="8"/>
+      <c t="s" r="P91" s="11">
+        <v>156</v>
+      </c>
+      <c t="s" r="Q91" s="12">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="92" ht="25.5" customHeight="1">
+      <c r="A92" s="7">
+        <v>86</v>
+      </c>
+      <c r="B92" s="7"/>
+      <c t="s" r="C92" s="8">
+        <v>261</v>
+      </c>
+      <c r="D92" s="8"/>
+      <c r="E92" s="8"/>
+      <c r="F92" s="8"/>
+      <c r="G92" s="8"/>
+      <c t="s" r="H92" s="9">
+        <v>262</v>
+      </c>
+      <c r="I92" s="9"/>
+      <c r="J92" s="9"/>
+      <c r="K92" s="9"/>
+      <c t="s" r="L92" s="10">
+        <v>22</v>
+      </c>
+      <c r="M92" s="10"/>
+      <c t="s" r="N92" s="8">
+        <v>117</v>
+      </c>
+      <c r="O92" s="8"/>
+      <c t="s" r="P92" s="11">
+        <v>118</v>
+      </c>
+      <c t="s" r="Q92" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="93" ht="24.75" customHeight="1">
+      <c r="A93" s="7">
+        <v>87</v>
+      </c>
+      <c r="B93" s="7"/>
+      <c t="s" r="C93" s="8">
+        <v>263</v>
+      </c>
+      <c r="D93" s="8"/>
+      <c r="E93" s="8"/>
+      <c r="F93" s="8"/>
+      <c r="G93" s="8"/>
+      <c t="s" r="H93" s="9">
+        <v>172</v>
+      </c>
+      <c r="I93" s="9"/>
+      <c r="J93" s="9"/>
+      <c r="K93" s="9"/>
+      <c t="s" r="L93" s="10">
+        <v>22</v>
+      </c>
+      <c r="M93" s="10"/>
+      <c t="s" r="N93" s="8">
+        <v>120</v>
+      </c>
+      <c r="O93" s="8"/>
+      <c t="s" r="P93" s="11">
+        <v>156</v>
+      </c>
+      <c t="s" r="Q93" s="12">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="94" ht="25.5" customHeight="1">
+      <c r="A94" s="7">
+        <v>88</v>
+      </c>
+      <c r="B94" s="7"/>
+      <c t="s" r="C94" s="8">
+        <v>264</v>
+      </c>
+      <c r="D94" s="8"/>
+      <c r="E94" s="8"/>
+      <c r="F94" s="8"/>
+      <c r="G94" s="8"/>
+      <c t="s" r="H94" s="9">
+        <v>265</v>
+      </c>
+      <c r="I94" s="9"/>
+      <c r="J94" s="9"/>
+      <c r="K94" s="9"/>
+      <c t="s" r="L94" s="10">
+        <v>22</v>
+      </c>
+      <c r="M94" s="10"/>
+      <c t="s" r="N94" s="8">
+        <v>63</v>
+      </c>
+      <c r="O94" s="8"/>
+      <c t="s" r="P94" s="11">
+        <v>72</v>
+      </c>
+      <c t="s" r="Q94" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="95" ht="24.75" customHeight="1">
+      <c r="P95" s="13">
+        <v>5622.6700000000001</v>
+      </c>
+      <c r="Q95" s="13"/>
+    </row>
+    <row r="96" ht="16.5" customHeight="1">
+      <c t="s" r="A96" s="14">
+        <v>266</v>
+      </c>
+      <c r="B96" s="14"/>
+      <c r="C96" s="14"/>
+      <c r="D96" s="14"/>
+      <c r="E96" s="14"/>
+      <c r="F96" s="14"/>
+      <c t="s" r="G96" s="15">
+        <v>267</v>
+      </c>
+      <c r="H96" s="15"/>
+      <c r="I96" s="15"/>
+      <c r="J96" s="16"/>
+      <c t="s" r="K96" s="17">
+        <v>268</v>
+      </c>
+      <c r="L96" s="17"/>
+      <c r="M96" s="17"/>
+      <c r="N96" s="17"/>
+      <c r="O96" s="17"/>
+      <c r="P96" s="17"/>
+      <c r="Q96" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="422">
+  <mergeCells count="452">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4546,10 +4792,40 @@
     <mergeCell ref="H88:K88"/>
     <mergeCell ref="L88:M88"/>
     <mergeCell ref="N88:O88"/>
-    <mergeCell ref="P89:Q89"/>
-    <mergeCell ref="A90:F90"/>
-    <mergeCell ref="G90:I90"/>
-    <mergeCell ref="K90:Q90"/>
+    <mergeCell ref="A89:B89"/>
+    <mergeCell ref="C89:G89"/>
+    <mergeCell ref="H89:K89"/>
+    <mergeCell ref="L89:M89"/>
+    <mergeCell ref="N89:O89"/>
+    <mergeCell ref="A90:B90"/>
+    <mergeCell ref="C90:G90"/>
+    <mergeCell ref="H90:K90"/>
+    <mergeCell ref="L90:M90"/>
+    <mergeCell ref="N90:O90"/>
+    <mergeCell ref="A91:B91"/>
+    <mergeCell ref="C91:G91"/>
+    <mergeCell ref="H91:K91"/>
+    <mergeCell ref="L91:M91"/>
+    <mergeCell ref="N91:O91"/>
+    <mergeCell ref="A92:B92"/>
+    <mergeCell ref="C92:G92"/>
+    <mergeCell ref="H92:K92"/>
+    <mergeCell ref="L92:M92"/>
+    <mergeCell ref="N92:O92"/>
+    <mergeCell ref="A93:B93"/>
+    <mergeCell ref="C93:G93"/>
+    <mergeCell ref="H93:K93"/>
+    <mergeCell ref="L93:M93"/>
+    <mergeCell ref="N93:O93"/>
+    <mergeCell ref="A94:B94"/>
+    <mergeCell ref="C94:G94"/>
+    <mergeCell ref="H94:K94"/>
+    <mergeCell ref="L94:M94"/>
+    <mergeCell ref="N94:O94"/>
+    <mergeCell ref="P95:Q95"/>
+    <mergeCell ref="A96:F96"/>
+    <mergeCell ref="G96:I96"/>
+    <mergeCell ref="K96:Q96"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-30_00-00.xlsx
+++ b/DaySale_2025-09-30_00-00.xlsx
@@ -95,12 +95,24 @@
     <t>249.0000</t>
   </si>
   <si>
+    <t>ALPHINTERN 30 F.C.TABS</t>
+  </si>
+  <si>
+    <t>3:0</t>
+  </si>
+  <si>
+    <t>87.00</t>
+  </si>
+  <si>
+    <t>28.7100</t>
+  </si>
+  <si>
+    <t>0:1</t>
+  </si>
+  <si>
     <t>ALVERINSPASM 24 S.G.CAPS.</t>
   </si>
   <si>
-    <t>0:1</t>
-  </si>
-  <si>
     <t>74.00</t>
   </si>
   <si>
@@ -446,6 +458,18 @@
     <t>180.0000</t>
   </si>
   <si>
+    <t>KETOLAC 30MG/2ML 5 AMP. FOR I.M./I.V. INF.</t>
+  </si>
+  <si>
+    <t>60.00</t>
+  </si>
+  <si>
+    <t>36.0000</t>
+  </si>
+  <si>
+    <t>0:3</t>
+  </si>
+  <si>
     <t xml:space="preserve">LACTOFERRIN  THREE ONE  20CAP</t>
   </si>
   <si>
@@ -476,9 +500,6 @@
     <t>MELOQUIN 4% CREAM 20 GM</t>
   </si>
   <si>
-    <t>60.00</t>
-  </si>
-  <si>
     <t>60.0000</t>
   </si>
   <si>
@@ -527,9 +548,6 @@
     <t>SPASMO-DIGESTIN 30 TABS.</t>
   </si>
   <si>
-    <t>3:0</t>
-  </si>
-  <si>
     <t>25.7400</t>
   </si>
   <si>
@@ -737,7 +755,7 @@
     <t>2.00</t>
   </si>
   <si>
-    <t>12:0</t>
+    <t>15:0</t>
   </si>
   <si>
     <t>سرنجات 5 سم</t>
@@ -809,7 +827,7 @@
     <t>6:0</t>
   </si>
   <si>
-    <t>Tuesday, 30 September, 2025 8:36 PM</t>
+    <t>Tuesday, 30 September, 2025 8:45 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1599,7 +1617,7 @@
         <v>31</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>12</v>
+        <v>32</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1608,14 +1626,14 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1632,7 +1650,7 @@
         <v>35</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>29</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1665,7 +1683,7 @@
         <v>39</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>40</v>
+        <v>32</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1674,14 +1692,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1691,14 +1709,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
+        <v>43</v>
+      </c>
+      <c t="s" r="Q14" s="12">
         <v>44</v>
-      </c>
-      <c t="s" r="Q14" s="12">
-        <v>29</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1731,7 +1749,7 @@
         <v>48</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1747,7 +1765,7 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>21</v>
+        <v>50</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1757,14 +1775,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>12</v>
+        <v>32</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1773,7 +1791,7 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
@@ -1790,14 +1808,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>55</v>
+        <v>12</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1813,7 +1831,7 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>55</v>
+        <v>21</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1830,7 +1848,7 @@
         <v>58</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>12</v>
+        <v>59</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1839,14 +1857,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>21</v>
+        <v>59</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1856,11 +1874,11 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q19" s="12">
         <v>12</v>
@@ -1872,7 +1890,7 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
@@ -1889,14 +1907,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>55</v>
+        <v>12</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1905,14 +1923,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1922,14 +1940,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>29</v>
+        <v>59</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1938,14 +1956,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1955,14 +1973,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1971,7 +1989,7 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
@@ -1988,14 +2006,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>12</v>
+        <v>32</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -2004,14 +2022,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>74</v>
+        <v>21</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -2021,7 +2039,7 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
@@ -2044,7 +2062,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>21</v>
+        <v>78</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -2054,11 +2072,11 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>12</v>
@@ -2070,14 +2088,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>81</v>
+        <v>21</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2094,7 +2112,7 @@
         <v>83</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>84</v>
+        <v>12</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2103,14 +2121,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>55</v>
+        <v>85</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2127,7 +2145,7 @@
         <v>87</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>12</v>
+        <v>88</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2136,14 +2154,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>12</v>
+        <v>59</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2153,11 +2171,11 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>12</v>
@@ -2169,14 +2187,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>92</v>
+        <v>12</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2186,14 +2204,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2202,14 +2220,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>21</v>
+        <v>96</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2219,14 +2237,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2235,14 +2253,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2252,14 +2270,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>29</v>
+        <v>12</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2268,14 +2286,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2285,14 +2303,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>12</v>
+        <v>32</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2301,14 +2319,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2318,11 +2336,11 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>63</v>
+        <v>105</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>72</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>12</v>
@@ -2334,14 +2352,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>105</v>
+        <v>12</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2351,14 +2369,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>106</v>
+        <v>67</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>107</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>40</v>
+        <v>12</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2391,7 +2409,7 @@
         <v>111</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>40</v>
+        <v>44</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2407,7 +2425,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>21</v>
+        <v>113</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2417,14 +2435,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>12</v>
+        <v>44</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2433,14 +2451,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>116</v>
+        <v>21</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2473,7 +2491,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>55</v>
+        <v>120</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2483,11 +2501,11 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>12</v>
@@ -2499,14 +2517,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>123</v>
+        <v>59</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2523,7 +2541,7 @@
         <v>125</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>29</v>
+        <v>12</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2539,7 +2557,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>55</v>
+        <v>127</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2549,14 +2567,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2565,14 +2583,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>21</v>
+        <v>59</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2582,14 +2600,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>12</v>
+        <v>32</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2598,7 +2616,7 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
@@ -2615,11 +2633,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>12</v>
@@ -2631,14 +2649,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>55</v>
+        <v>21</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2648,11 +2666,11 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>12</v>
@@ -2664,20 +2682,20 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>139</v>
+        <v>59</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
@@ -2704,7 +2722,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>21</v>
+        <v>143</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2714,11 +2732,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>12</v>
@@ -2730,14 +2748,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2747,11 +2765,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>12</v>
@@ -2763,14 +2781,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>21</v>
+        <v>50</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2780,14 +2798,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>12</v>
+        <v>152</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2796,28 +2814,28 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>12</v>
@@ -2829,14 +2847,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2846,11 +2864,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>12</v>
@@ -2862,14 +2880,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2879,14 +2897,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>44</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>29</v>
+        <v>12</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2895,14 +2913,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>55</v>
+        <v>12</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2912,14 +2930,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>29</v>
+        <v>12</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2928,14 +2946,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>21</v>
+        <v>44</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2945,14 +2963,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>164</v>
+        <v>48</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>12</v>
+        <v>32</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2961,14 +2979,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>12</v>
+        <v>59</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2978,14 +2996,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>12</v>
+        <v>32</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2994,14 +3012,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3011,14 +3029,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>29</v>
+        <v>12</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3027,14 +3045,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>172</v>
+        <v>12</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3044,14 +3062,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>43</v>
+        <v>173</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>29</v>
+        <v>12</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3060,14 +3078,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>175</v>
+        <v>41</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3077,14 +3095,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>152</v>
+        <v>176</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3093,14 +3111,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3110,14 +3128,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>178</v>
+        <v>47</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>107</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3126,14 +3144,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>21</v>
+        <v>181</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3143,14 +3161,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>180</v>
+        <v>160</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>12</v>
+        <v>32</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3159,14 +3177,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3176,14 +3194,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>184</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>12</v>
+        <v>32</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3199,7 +3217,7 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>186</v>
+        <v>21</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3209,11 +3227,11 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>12</v>
@@ -3225,14 +3243,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3242,14 +3260,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>29</v>
+        <v>12</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3258,14 +3276,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>12</v>
+        <v>192</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3275,11 +3293,11 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>152</v>
+        <v>193</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>153</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>12</v>
@@ -3291,14 +3309,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>194</v>
+        <v>44</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3308,14 +3326,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3324,14 +3342,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>198</v>
+        <v>12</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3341,14 +3359,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>34</v>
+        <v>160</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>199</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>29</v>
+        <v>12</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3357,14 +3375,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>29</v>
+        <v>200</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3374,14 +3392,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>113</v>
+        <v>201</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>114</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>12</v>
+        <v>32</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3390,14 +3408,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3407,14 +3425,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>203</v>
+        <v>38</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>172</v>
+        <v>32</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3423,14 +3441,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>55</v>
+        <v>32</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3440,11 +3458,11 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>206</v>
+        <v>117</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>207</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>12</v>
@@ -3456,14 +3474,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>12</v>
+        <v>208</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3496,21 +3514,21 @@
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>212</v>
+        <v>59</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
       <c t="s" r="L69" s="10">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>12</v>
@@ -3522,7 +3540,7 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
@@ -3535,18 +3553,18 @@
       <c r="J70" s="9"/>
       <c r="K70" s="9"/>
       <c t="s" r="L70" s="10">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>155</v>
+        <v>215</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>156</v>
+        <v>216</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>12</v>
+        <v>32</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3555,14 +3573,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>139</v>
+        <v>218</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3572,11 +3590,11 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>12</v>
@@ -3588,14 +3606,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>172</v>
+        <v>12</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3605,11 +3623,11 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>86</v>
+        <v>150</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>87</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>12</v>
@@ -3621,14 +3639,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>221</v>
+        <v>143</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3638,11 +3656,11 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>120</v>
+        <v>223</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>121</v>
+        <v>224</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>12</v>
@@ -3654,14 +3672,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>223</v>
+        <v>29</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3671,11 +3689,11 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>224</v>
+        <v>90</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>225</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>12</v>
@@ -3694,7 +3712,7 @@
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>21</v>
+        <v>227</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3704,14 +3722,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>227</v>
+        <v>124</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>228</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>139</v>
+        <v>12</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3720,14 +3738,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3737,14 +3755,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>233</v>
+        <v>12</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3753,14 +3771,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>139</v>
+        <v>21</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3770,14 +3788,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>213</v>
+        <v>233</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>55</v>
+        <v>143</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3786,14 +3804,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>55</v>
+        <v>236</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3810,7 +3828,7 @@
         <v>238</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>12</v>
+        <v>239</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3819,14 +3837,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>172</v>
+        <v>143</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3836,14 +3854,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>18</v>
+        <v>219</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>19</v>
+        <v>241</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>12</v>
+        <v>59</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3852,14 +3870,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>21</v>
+        <v>59</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3869,14 +3887,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>118</v>
+        <v>244</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>242</v>
+        <v>12</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3885,14 +3903,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -3902,14 +3920,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>227</v>
+        <v>18</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>244</v>
+        <v>19</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>202</v>
+        <v>12</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3918,14 +3936,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>55</v>
+        <v>21</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -3935,14 +3953,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>247</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>12</v>
+        <v>248</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -3951,7 +3969,7 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
@@ -3968,14 +3986,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>249</v>
+        <v>233</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>39</v>
+        <v>250</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>12</v>
+        <v>208</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -3984,14 +4002,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>212</v>
+        <v>59</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4001,11 +4019,11 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>12</v>
@@ -4017,14 +4035,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>186</v>
+        <v>21</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4034,11 +4052,11 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>166</v>
+        <v>255</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>167</v>
+        <v>43</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>12</v>
@@ -4050,14 +4068,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4067,11 +4085,11 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>237</v>
+        <v>257</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>238</v>
+        <v>258</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>12</v>
@@ -4083,14 +4101,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>212</v>
+        <v>192</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4100,11 +4118,11 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>213</v>
+        <v>173</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>214</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>12</v>
@@ -4116,14 +4134,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>257</v>
+        <v>218</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4133,11 +4151,11 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>224</v>
+        <v>243</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>225</v>
+        <v>244</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>12</v>
@@ -4149,14 +4167,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>21</v>
+        <v>218</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4166,11 +4184,11 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>18</v>
+        <v>219</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>19</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q89" s="12">
         <v>12</v>
@@ -4182,14 +4200,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>139</v>
+        <v>263</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4199,11 +4217,11 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>120</v>
+        <v>230</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>121</v>
+        <v>231</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>12</v>
@@ -4215,14 +4233,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>55</v>
+        <v>21</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4236,10 +4254,10 @@
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>156</v>
+        <v>19</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>139</v>
+        <v>12</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4248,14 +4266,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>262</v>
+        <v>143</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4265,11 +4283,11 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q92" s="12">
         <v>12</v>
@@ -4281,14 +4299,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>172</v>
+        <v>59</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4298,14 +4316,14 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>120</v>
+        <v>18</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>55</v>
+        <v>143</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4314,14 +4332,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4331,49 +4349,115 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>63</v>
+        <v>121</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>72</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q94" s="12">
         <v>12</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
-      <c r="P95" s="13">
-        <v>5622.6700000000001</v>
-      </c>
-      <c r="Q95" s="13"/>
-    </row>
-    <row r="96" ht="16.5" customHeight="1">
-      <c t="s" r="A96" s="14">
-        <v>266</v>
-      </c>
-      <c r="B96" s="14"/>
-      <c r="C96" s="14"/>
-      <c r="D96" s="14"/>
-      <c r="E96" s="14"/>
-      <c r="F96" s="14"/>
-      <c t="s" r="G96" s="15">
-        <v>267</v>
-      </c>
-      <c r="H96" s="15"/>
-      <c r="I96" s="15"/>
-      <c r="J96" s="16"/>
-      <c t="s" r="K96" s="17">
-        <v>268</v>
-      </c>
-      <c r="L96" s="17"/>
-      <c r="M96" s="17"/>
-      <c r="N96" s="17"/>
-      <c r="O96" s="17"/>
-      <c r="P96" s="17"/>
-      <c r="Q96" s="17"/>
+      <c r="A95" s="7">
+        <v>89</v>
+      </c>
+      <c r="B95" s="7"/>
+      <c t="s" r="C95" s="8">
+        <v>269</v>
+      </c>
+      <c r="D95" s="8"/>
+      <c r="E95" s="8"/>
+      <c r="F95" s="8"/>
+      <c r="G95" s="8"/>
+      <c t="s" r="H95" s="9">
+        <v>29</v>
+      </c>
+      <c r="I95" s="9"/>
+      <c r="J95" s="9"/>
+      <c r="K95" s="9"/>
+      <c t="s" r="L95" s="10">
+        <v>22</v>
+      </c>
+      <c r="M95" s="10"/>
+      <c t="s" r="N95" s="8">
+        <v>124</v>
+      </c>
+      <c r="O95" s="8"/>
+      <c t="s" r="P95" s="11">
+        <v>163</v>
+      </c>
+      <c t="s" r="Q95" s="12">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="96" ht="25.5" customHeight="1">
+      <c r="A96" s="7">
+        <v>90</v>
+      </c>
+      <c r="B96" s="7"/>
+      <c t="s" r="C96" s="8">
+        <v>270</v>
+      </c>
+      <c r="D96" s="8"/>
+      <c r="E96" s="8"/>
+      <c r="F96" s="8"/>
+      <c r="G96" s="8"/>
+      <c t="s" r="H96" s="9">
+        <v>271</v>
+      </c>
+      <c r="I96" s="9"/>
+      <c r="J96" s="9"/>
+      <c r="K96" s="9"/>
+      <c t="s" r="L96" s="10">
+        <v>22</v>
+      </c>
+      <c r="M96" s="10"/>
+      <c t="s" r="N96" s="8">
+        <v>67</v>
+      </c>
+      <c r="O96" s="8"/>
+      <c t="s" r="P96" s="11">
+        <v>76</v>
+      </c>
+      <c t="s" r="Q96" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="97" ht="25.5" customHeight="1">
+      <c r="P97" s="13">
+        <v>5693.3800000000001</v>
+      </c>
+      <c r="Q97" s="13"/>
+    </row>
+    <row r="98" ht="16.5" customHeight="1">
+      <c t="s" r="A98" s="14">
+        <v>272</v>
+      </c>
+      <c r="B98" s="14"/>
+      <c r="C98" s="14"/>
+      <c r="D98" s="14"/>
+      <c r="E98" s="14"/>
+      <c r="F98" s="14"/>
+      <c t="s" r="G98" s="15">
+        <v>273</v>
+      </c>
+      <c r="H98" s="15"/>
+      <c r="I98" s="15"/>
+      <c r="J98" s="16"/>
+      <c t="s" r="K98" s="17">
+        <v>274</v>
+      </c>
+      <c r="L98" s="17"/>
+      <c r="M98" s="17"/>
+      <c r="N98" s="17"/>
+      <c r="O98" s="17"/>
+      <c r="P98" s="17"/>
+      <c r="Q98" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="452">
+  <mergeCells count="462">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4822,10 +4906,20 @@
     <mergeCell ref="H94:K94"/>
     <mergeCell ref="L94:M94"/>
     <mergeCell ref="N94:O94"/>
-    <mergeCell ref="P95:Q95"/>
-    <mergeCell ref="A96:F96"/>
-    <mergeCell ref="G96:I96"/>
-    <mergeCell ref="K96:Q96"/>
+    <mergeCell ref="A95:B95"/>
+    <mergeCell ref="C95:G95"/>
+    <mergeCell ref="H95:K95"/>
+    <mergeCell ref="L95:M95"/>
+    <mergeCell ref="N95:O95"/>
+    <mergeCell ref="A96:B96"/>
+    <mergeCell ref="C96:G96"/>
+    <mergeCell ref="H96:K96"/>
+    <mergeCell ref="L96:M96"/>
+    <mergeCell ref="N96:O96"/>
+    <mergeCell ref="P97:Q97"/>
+    <mergeCell ref="A98:F98"/>
+    <mergeCell ref="G98:I98"/>
+    <mergeCell ref="K98:Q98"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-30_00-00.xlsx
+++ b/DaySale_2025-09-30_00-00.xlsx
@@ -575,6 +575,15 @@
     <t>82.0000</t>
   </si>
   <si>
+    <t>TECHNOSPIRON 0.03/3MG 21 F.C.TAB</t>
+  </si>
+  <si>
+    <t>84.00</t>
+  </si>
+  <si>
+    <t>84.0000</t>
+  </si>
+  <si>
     <t>TREFLUCAN 150MG 1 CAPS.</t>
   </si>
   <si>
@@ -605,6 +614,15 @@
     <t>61.3800</t>
   </si>
   <si>
+    <t>VIOTIC EAR DROPS 10 ML</t>
+  </si>
+  <si>
+    <t>23.00</t>
+  </si>
+  <si>
+    <t>23.0000</t>
+  </si>
+  <si>
     <t>VOLTAREN 1% EMULGEL 25 GM</t>
   </si>
   <si>
@@ -827,7 +845,7 @@
     <t>6:0</t>
   </si>
   <si>
-    <t>Tuesday, 30 September, 2025 8:45 PM</t>
+    <t>Tuesday, 30 September, 2025 8:47 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -3283,7 +3301,7 @@
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>192</v>
+        <v>12</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3293,11 +3311,11 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>12</v>
@@ -3309,14 +3327,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>44</v>
+        <v>195</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3333,7 +3351,7 @@
         <v>197</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>32</v>
+        <v>12</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3349,7 +3367,7 @@
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>12</v>
+        <v>44</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3359,14 +3377,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>160</v>
+        <v>199</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>161</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>12</v>
+        <v>32</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3375,14 +3393,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>200</v>
+        <v>59</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3392,14 +3410,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>32</v>
+        <v>12</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3408,14 +3426,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>204</v>
+        <v>12</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3425,14 +3443,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>38</v>
+        <v>160</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>205</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>32</v>
+        <v>12</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3441,14 +3459,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>32</v>
+        <v>206</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3458,14 +3476,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>117</v>
+        <v>207</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>118</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>12</v>
+        <v>32</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3474,14 +3492,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3491,14 +3509,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>209</v>
+        <v>38</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3507,14 +3525,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>59</v>
+        <v>32</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3524,11 +3542,11 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>212</v>
+        <v>117</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>213</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>12</v>
@@ -3540,14 +3558,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>12</v>
+        <v>214</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3564,7 +3582,7 @@
         <v>216</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3580,21 +3598,21 @@
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>218</v>
+        <v>59</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
       <c t="s" r="L71" s="10">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>12</v>
@@ -3606,7 +3624,7 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
@@ -3619,18 +3637,18 @@
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
       <c t="s" r="L72" s="10">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>150</v>
+        <v>221</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>163</v>
+        <v>222</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>12</v>
+        <v>32</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3639,14 +3657,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>143</v>
+        <v>224</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3656,11 +3674,11 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>12</v>
@@ -3672,14 +3690,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3689,11 +3707,11 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>90</v>
+        <v>150</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>91</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>12</v>
@@ -3705,14 +3723,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>227</v>
+        <v>143</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3722,11 +3740,11 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>124</v>
+        <v>229</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>125</v>
+        <v>230</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>12</v>
@@ -3738,14 +3756,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>229</v>
+        <v>29</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3755,11 +3773,11 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>230</v>
+        <v>90</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>231</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>12</v>
@@ -3778,7 +3796,7 @@
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>21</v>
+        <v>233</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3788,14 +3806,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>233</v>
+        <v>124</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>234</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>143</v>
+        <v>12</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3804,14 +3822,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3821,14 +3839,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>239</v>
+        <v>12</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3837,14 +3855,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>143</v>
+        <v>21</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3854,14 +3872,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>219</v>
+        <v>239</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>59</v>
+        <v>143</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3870,14 +3888,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>59</v>
+        <v>242</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3894,7 +3912,7 @@
         <v>244</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>12</v>
+        <v>245</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3903,14 +3921,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>29</v>
+        <v>143</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -3920,14 +3938,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>18</v>
+        <v>225</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>19</v>
+        <v>247</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>12</v>
+        <v>59</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3936,14 +3954,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>21</v>
+        <v>59</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -3953,14 +3971,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>125</v>
+        <v>250</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>248</v>
+        <v>12</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -3969,14 +3987,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -3986,14 +4004,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>233</v>
+        <v>18</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>250</v>
+        <v>19</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>208</v>
+        <v>12</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4002,14 +4020,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>59</v>
+        <v>21</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4019,14 +4037,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>253</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>12</v>
+        <v>254</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4035,7 +4053,7 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
@@ -4052,14 +4070,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>255</v>
+        <v>239</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>43</v>
+        <v>256</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>12</v>
+        <v>214</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4068,14 +4086,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>218</v>
+        <v>59</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4085,11 +4103,11 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>12</v>
@@ -4101,14 +4119,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>192</v>
+        <v>21</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4118,11 +4136,11 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>173</v>
+        <v>261</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>174</v>
+        <v>43</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>12</v>
@@ -4134,14 +4152,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4151,11 +4169,11 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>243</v>
+        <v>263</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>244</v>
+        <v>264</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>12</v>
@@ -4167,14 +4185,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>218</v>
+        <v>195</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4184,11 +4202,11 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>219</v>
+        <v>173</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>220</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q89" s="12">
         <v>12</v>
@@ -4200,14 +4218,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>263</v>
+        <v>224</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4217,11 +4235,11 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>230</v>
+        <v>249</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>231</v>
+        <v>250</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>12</v>
@@ -4233,14 +4251,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>21</v>
+        <v>224</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4250,11 +4268,11 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>18</v>
+        <v>225</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>19</v>
+        <v>226</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>12</v>
@@ -4266,14 +4284,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>143</v>
+        <v>269</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4283,11 +4301,11 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>124</v>
+        <v>236</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>125</v>
+        <v>237</v>
       </c>
       <c t="s" r="Q92" s="12">
         <v>12</v>
@@ -4299,14 +4317,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>59</v>
+        <v>21</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4320,10 +4338,10 @@
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>163</v>
+        <v>19</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>143</v>
+        <v>12</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4332,14 +4350,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>268</v>
+        <v>143</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4349,11 +4367,11 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q94" s="12">
         <v>12</v>
@@ -4365,14 +4383,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>29</v>
+        <v>59</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4382,14 +4400,14 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>124</v>
+        <v>18</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
         <v>163</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>59</v>
+        <v>143</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4398,14 +4416,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4415,49 +4433,115 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>67</v>
+        <v>121</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
+        <v>122</v>
+      </c>
+      <c t="s" r="Q96" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="97" ht="25.5" customHeight="1">
+      <c r="A97" s="7">
+        <v>91</v>
+      </c>
+      <c r="B97" s="7"/>
+      <c t="s" r="C97" s="8">
+        <v>275</v>
+      </c>
+      <c r="D97" s="8"/>
+      <c r="E97" s="8"/>
+      <c r="F97" s="8"/>
+      <c r="G97" s="8"/>
+      <c t="s" r="H97" s="9">
+        <v>29</v>
+      </c>
+      <c r="I97" s="9"/>
+      <c r="J97" s="9"/>
+      <c r="K97" s="9"/>
+      <c t="s" r="L97" s="10">
+        <v>22</v>
+      </c>
+      <c r="M97" s="10"/>
+      <c t="s" r="N97" s="8">
+        <v>124</v>
+      </c>
+      <c r="O97" s="8"/>
+      <c t="s" r="P97" s="11">
+        <v>163</v>
+      </c>
+      <c t="s" r="Q97" s="12">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="98" ht="24.75" customHeight="1">
+      <c r="A98" s="7">
+        <v>92</v>
+      </c>
+      <c r="B98" s="7"/>
+      <c t="s" r="C98" s="8">
+        <v>276</v>
+      </c>
+      <c r="D98" s="8"/>
+      <c r="E98" s="8"/>
+      <c r="F98" s="8"/>
+      <c r="G98" s="8"/>
+      <c t="s" r="H98" s="9">
+        <v>277</v>
+      </c>
+      <c r="I98" s="9"/>
+      <c r="J98" s="9"/>
+      <c r="K98" s="9"/>
+      <c t="s" r="L98" s="10">
+        <v>22</v>
+      </c>
+      <c r="M98" s="10"/>
+      <c t="s" r="N98" s="8">
+        <v>67</v>
+      </c>
+      <c r="O98" s="8"/>
+      <c t="s" r="P98" s="11">
         <v>76</v>
       </c>
-      <c t="s" r="Q96" s="12">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="97" ht="25.5" customHeight="1">
-      <c r="P97" s="13">
-        <v>5693.3800000000001</v>
-      </c>
-      <c r="Q97" s="13"/>
-    </row>
-    <row r="98" ht="16.5" customHeight="1">
-      <c t="s" r="A98" s="14">
-        <v>272</v>
-      </c>
-      <c r="B98" s="14"/>
-      <c r="C98" s="14"/>
-      <c r="D98" s="14"/>
-      <c r="E98" s="14"/>
-      <c r="F98" s="14"/>
-      <c t="s" r="G98" s="15">
-        <v>273</v>
-      </c>
-      <c r="H98" s="15"/>
-      <c r="I98" s="15"/>
-      <c r="J98" s="16"/>
-      <c t="s" r="K98" s="17">
-        <v>274</v>
-      </c>
-      <c r="L98" s="17"/>
-      <c r="M98" s="17"/>
-      <c r="N98" s="17"/>
-      <c r="O98" s="17"/>
-      <c r="P98" s="17"/>
-      <c r="Q98" s="17"/>
+      <c t="s" r="Q98" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="99" ht="25.5" customHeight="1">
+      <c r="P99" s="13">
+        <v>5800.3800000000001</v>
+      </c>
+      <c r="Q99" s="13"/>
+    </row>
+    <row r="100" ht="16.5" customHeight="1">
+      <c t="s" r="A100" s="14">
+        <v>278</v>
+      </c>
+      <c r="B100" s="14"/>
+      <c r="C100" s="14"/>
+      <c r="D100" s="14"/>
+      <c r="E100" s="14"/>
+      <c r="F100" s="14"/>
+      <c t="s" r="G100" s="15">
+        <v>279</v>
+      </c>
+      <c r="H100" s="15"/>
+      <c r="I100" s="15"/>
+      <c r="J100" s="16"/>
+      <c t="s" r="K100" s="17">
+        <v>280</v>
+      </c>
+      <c r="L100" s="17"/>
+      <c r="M100" s="17"/>
+      <c r="N100" s="17"/>
+      <c r="O100" s="17"/>
+      <c r="P100" s="17"/>
+      <c r="Q100" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="462">
+  <mergeCells count="472">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4916,10 +5000,20 @@
     <mergeCell ref="H96:K96"/>
     <mergeCell ref="L96:M96"/>
     <mergeCell ref="N96:O96"/>
-    <mergeCell ref="P97:Q97"/>
-    <mergeCell ref="A98:F98"/>
-    <mergeCell ref="G98:I98"/>
-    <mergeCell ref="K98:Q98"/>
+    <mergeCell ref="A97:B97"/>
+    <mergeCell ref="C97:G97"/>
+    <mergeCell ref="H97:K97"/>
+    <mergeCell ref="L97:M97"/>
+    <mergeCell ref="N97:O97"/>
+    <mergeCell ref="A98:B98"/>
+    <mergeCell ref="C98:G98"/>
+    <mergeCell ref="H98:K98"/>
+    <mergeCell ref="L98:M98"/>
+    <mergeCell ref="N98:O98"/>
+    <mergeCell ref="P99:Q99"/>
+    <mergeCell ref="A100:F100"/>
+    <mergeCell ref="G100:I100"/>
+    <mergeCell ref="K100:Q100"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-30_00-00.xlsx
+++ b/DaySale_2025-09-30_00-00.xlsx
@@ -227,6 +227,15 @@
     <t>43.0000</t>
   </si>
   <si>
+    <t>CEREBROFORTE 20% SYRUP 120ML</t>
+  </si>
+  <si>
+    <t>62.00</t>
+  </si>
+  <si>
+    <t>62.0000</t>
+  </si>
+  <si>
     <t>CETAFEN PLUS 30 TAB.</t>
   </si>
   <si>
@@ -845,7 +854,7 @@
     <t>6:0</t>
   </si>
   <si>
-    <t>Tuesday, 30 September, 2025 8:47 PM</t>
+    <t>Tuesday, 30 September, 2025 8:49 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2014,7 +2023,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -2031,7 +2040,7 @@
         <v>74</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>32</v>
+        <v>12</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -2057,14 +2066,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>12</v>
+        <v>32</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -2073,14 +2082,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>78</v>
+        <v>21</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -2090,11 +2099,11 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>79</v>
+        <v>67</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>12</v>
@@ -2106,14 +2115,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>21</v>
+        <v>81</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2146,7 +2155,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>85</v>
+        <v>21</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2156,14 +2165,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>88</v>
+        <v>12</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2172,14 +2181,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>59</v>
+        <v>88</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2189,14 +2198,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
+        <v>90</v>
+      </c>
+      <c t="s" r="Q28" s="12">
         <v>91</v>
-      </c>
-      <c t="s" r="Q28" s="12">
-        <v>12</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2212,7 +2221,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>12</v>
+        <v>59</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2245,7 +2254,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>96</v>
+        <v>12</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2255,14 +2264,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>86</v>
+        <v>96</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
         <v>97</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2278,7 +2287,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>21</v>
+        <v>99</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2288,14 +2297,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
         <v>100</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2311,7 +2320,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2328,7 +2337,7 @@
         <v>103</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>32</v>
+        <v>12</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2344,7 +2353,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2361,7 +2370,7 @@
         <v>106</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>12</v>
+        <v>32</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2377,7 +2386,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2387,11 +2396,11 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>67</v>
+        <v>108</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>76</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>12</v>
@@ -2403,14 +2412,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>109</v>
+        <v>12</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2420,14 +2429,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>110</v>
+        <v>67</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>111</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>44</v>
+        <v>12</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2436,14 +2445,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2453,11 +2462,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>44</v>
@@ -2469,14 +2478,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>21</v>
+        <v>116</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2493,7 +2502,7 @@
         <v>118</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>12</v>
+        <v>44</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2509,7 +2518,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>120</v>
+        <v>21</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2519,11 +2528,11 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>12</v>
@@ -2535,14 +2544,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>59</v>
+        <v>123</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2575,7 +2584,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>127</v>
+        <v>59</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2585,14 +2594,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>32</v>
+        <v>12</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2601,14 +2610,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>59</v>
+        <v>130</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2641,7 +2650,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>21</v>
+        <v>59</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2658,7 +2667,7 @@
         <v>135</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>12</v>
+        <v>32</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2707,7 +2716,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>59</v>
+        <v>21</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2740,21 +2749,21 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>143</v>
+        <v>59</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>12</v>
@@ -2766,14 +2775,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>21</v>
+        <v>146</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2806,13 +2815,13 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>50</v>
+        <v>21</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
@@ -2823,7 +2832,7 @@
         <v>151</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>152</v>
+        <v>12</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2832,31 +2841,31 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
+        <v>154</v>
+      </c>
+      <c t="s" r="Q48" s="12">
         <v>155</v>
-      </c>
-      <c t="s" r="Q48" s="12">
-        <v>12</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2872,13 +2881,13 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
@@ -2905,7 +2914,7 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2948,11 +2957,11 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>150</v>
+        <v>163</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>12</v>
@@ -2964,14 +2973,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>44</v>
+        <v>12</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2981,14 +2990,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>165</v>
+        <v>153</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>48</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>32</v>
+        <v>12</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2997,14 +3006,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>59</v>
+        <v>44</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3014,11 +3023,11 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>168</v>
+        <v>48</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>32</v>
@@ -3037,7 +3046,7 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>21</v>
+        <v>59</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3054,7 +3063,7 @@
         <v>171</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>12</v>
+        <v>32</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3070,7 +3079,7 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3103,7 +3112,7 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3120,7 +3129,7 @@
         <v>177</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>32</v>
+        <v>12</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3136,7 +3145,7 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3146,11 +3155,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>47</v>
+        <v>179</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>32</v>
@@ -3162,14 +3171,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>181</v>
+        <v>29</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3179,7 +3188,7 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>160</v>
+        <v>47</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
@@ -3202,7 +3211,7 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>41</v>
+        <v>184</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3212,11 +3221,11 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>184</v>
+        <v>163</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>111</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>32</v>
@@ -3228,14 +3237,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3245,14 +3254,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>187</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>12</v>
+        <v>32</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3268,7 +3277,7 @@
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3334,7 +3343,7 @@
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>195</v>
+        <v>12</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3344,11 +3353,11 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>12</v>
@@ -3360,14 +3369,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>44</v>
+        <v>198</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3384,7 +3393,7 @@
         <v>200</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>32</v>
+        <v>12</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3400,7 +3409,7 @@
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>59</v>
+        <v>44</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3417,7 +3426,7 @@
         <v>203</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>12</v>
+        <v>32</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3433,7 +3442,7 @@
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>12</v>
+        <v>59</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3443,11 +3452,11 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>160</v>
+        <v>205</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>161</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>12</v>
@@ -3459,14 +3468,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>206</v>
+        <v>12</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3476,14 +3485,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>207</v>
+        <v>163</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>208</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>32</v>
+        <v>12</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3492,14 +3501,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3509,7 +3518,7 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>38</v>
+        <v>210</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
@@ -3532,7 +3541,7 @@
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>32</v>
+        <v>213</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3542,14 +3551,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>117</v>
+        <v>38</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>118</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>12</v>
+        <v>32</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3558,14 +3567,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>214</v>
+        <v>32</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3575,14 +3584,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>215</v>
+        <v>120</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>216</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>29</v>
+        <v>12</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3591,14 +3600,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>59</v>
+        <v>217</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3615,7 +3624,7 @@
         <v>219</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>12</v>
+        <v>29</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3631,7 +3640,7 @@
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>12</v>
+        <v>59</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3648,7 +3657,7 @@
         <v>222</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>32</v>
+        <v>12</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3664,24 +3673,24 @@
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>224</v>
+        <v>12</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
       <c r="K73" s="9"/>
       <c t="s" r="L73" s="10">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>12</v>
+        <v>32</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3690,14 +3699,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>12</v>
+        <v>227</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3707,11 +3716,11 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>150</v>
+        <v>228</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>163</v>
+        <v>229</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>12</v>
@@ -3723,14 +3732,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>143</v>
+        <v>12</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3740,11 +3749,11 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>229</v>
+        <v>153</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>230</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>12</v>
@@ -3763,7 +3772,7 @@
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>29</v>
+        <v>146</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3773,11 +3782,11 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>90</v>
+        <v>232</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>91</v>
+        <v>233</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>12</v>
@@ -3789,14 +3798,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>233</v>
+        <v>29</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3806,11 +3815,11 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>124</v>
+        <v>93</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>125</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>12</v>
@@ -3822,14 +3831,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3839,11 +3848,11 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>236</v>
+        <v>127</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>237</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>12</v>
@@ -3855,14 +3864,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>21</v>
+        <v>238</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3879,7 +3888,7 @@
         <v>240</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>143</v>
+        <v>12</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3895,7 +3904,7 @@
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>242</v>
+        <v>21</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3905,14 +3914,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>245</v>
+        <v>146</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3921,14 +3930,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>143</v>
+        <v>245</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -3938,14 +3947,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>225</v>
+        <v>246</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
         <v>247</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>59</v>
+        <v>248</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3954,14 +3963,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>59</v>
+        <v>146</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -3971,14 +3980,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>249</v>
+        <v>228</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
         <v>250</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>12</v>
+        <v>59</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -3994,7 +4003,7 @@
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>29</v>
+        <v>59</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4004,11 +4013,11 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>18</v>
+        <v>252</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>19</v>
+        <v>253</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>12</v>
@@ -4020,14 +4029,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4037,14 +4046,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>253</v>
+        <v>18</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>125</v>
+        <v>19</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>254</v>
+        <v>12</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4070,14 +4079,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>239</v>
+        <v>256</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>256</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>214</v>
+        <v>257</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4086,14 +4095,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>59</v>
+        <v>21</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4103,14 +4112,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>258</v>
+        <v>242</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
         <v>259</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>12</v>
+        <v>217</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4126,7 +4135,7 @@
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>21</v>
+        <v>59</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4140,7 +4149,7 @@
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>43</v>
+        <v>262</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>12</v>
@@ -4152,14 +4161,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>224</v>
+        <v>21</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4169,11 +4178,11 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>264</v>
+        <v>43</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>12</v>
@@ -4192,7 +4201,7 @@
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>195</v>
+        <v>227</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4202,11 +4211,11 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>173</v>
+        <v>266</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>174</v>
+        <v>267</v>
       </c>
       <c t="s" r="Q89" s="12">
         <v>12</v>
@@ -4218,14 +4227,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>224</v>
+        <v>198</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4235,11 +4244,11 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>249</v>
+        <v>176</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>250</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>12</v>
@@ -4251,14 +4260,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4268,11 +4277,11 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>225</v>
+        <v>252</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>226</v>
+        <v>253</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>12</v>
@@ -4284,14 +4293,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>269</v>
+        <v>227</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4301,11 +4310,11 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c t="s" r="Q92" s="12">
         <v>12</v>
@@ -4317,14 +4326,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>21</v>
+        <v>272</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4334,11 +4343,11 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>18</v>
+        <v>239</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>19</v>
+        <v>240</v>
       </c>
       <c t="s" r="Q93" s="12">
         <v>12</v>
@@ -4350,14 +4359,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>143</v>
+        <v>21</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4367,11 +4376,11 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>124</v>
+        <v>18</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>125</v>
+        <v>19</v>
       </c>
       <c t="s" r="Q94" s="12">
         <v>12</v>
@@ -4383,14 +4392,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>59</v>
+        <v>146</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4400,14 +4409,14 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>18</v>
+        <v>127</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>163</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>143</v>
+        <v>12</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4416,14 +4425,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>274</v>
+        <v>59</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4433,14 +4442,14 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>121</v>
+        <v>18</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>122</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>12</v>
+        <v>146</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4449,14 +4458,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>29</v>
+        <v>277</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4470,10 +4479,10 @@
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>163</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>59</v>
+        <v>12</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4482,14 +4491,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>277</v>
+        <v>29</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4499,49 +4508,82 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>67</v>
+        <v>127</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>76</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>12</v>
+        <v>59</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
-      <c r="P99" s="13">
-        <v>5800.3800000000001</v>
-      </c>
-      <c r="Q99" s="13"/>
-    </row>
-    <row r="100" ht="16.5" customHeight="1">
-      <c t="s" r="A100" s="14">
-        <v>278</v>
-      </c>
-      <c r="B100" s="14"/>
-      <c r="C100" s="14"/>
-      <c r="D100" s="14"/>
-      <c r="E100" s="14"/>
-      <c r="F100" s="14"/>
-      <c t="s" r="G100" s="15">
+      <c r="A99" s="7">
+        <v>93</v>
+      </c>
+      <c r="B99" s="7"/>
+      <c t="s" r="C99" s="8">
         <v>279</v>
       </c>
-      <c r="H100" s="15"/>
-      <c r="I100" s="15"/>
-      <c r="J100" s="16"/>
-      <c t="s" r="K100" s="17">
+      <c r="D99" s="8"/>
+      <c r="E99" s="8"/>
+      <c r="F99" s="8"/>
+      <c r="G99" s="8"/>
+      <c t="s" r="H99" s="9">
         <v>280</v>
       </c>
-      <c r="L100" s="17"/>
-      <c r="M100" s="17"/>
-      <c r="N100" s="17"/>
-      <c r="O100" s="17"/>
-      <c r="P100" s="17"/>
-      <c r="Q100" s="17"/>
+      <c r="I99" s="9"/>
+      <c r="J99" s="9"/>
+      <c r="K99" s="9"/>
+      <c t="s" r="L99" s="10">
+        <v>22</v>
+      </c>
+      <c r="M99" s="10"/>
+      <c t="s" r="N99" s="8">
+        <v>67</v>
+      </c>
+      <c r="O99" s="8"/>
+      <c t="s" r="P99" s="11">
+        <v>79</v>
+      </c>
+      <c t="s" r="Q99" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="100" ht="24.75" customHeight="1">
+      <c r="P100" s="13">
+        <v>5862.3800000000001</v>
+      </c>
+      <c r="Q100" s="13"/>
+    </row>
+    <row r="101" ht="16.5" customHeight="1">
+      <c t="s" r="A101" s="14">
+        <v>281</v>
+      </c>
+      <c r="B101" s="14"/>
+      <c r="C101" s="14"/>
+      <c r="D101" s="14"/>
+      <c r="E101" s="14"/>
+      <c r="F101" s="14"/>
+      <c t="s" r="G101" s="15">
+        <v>282</v>
+      </c>
+      <c r="H101" s="15"/>
+      <c r="I101" s="15"/>
+      <c r="J101" s="16"/>
+      <c t="s" r="K101" s="17">
+        <v>283</v>
+      </c>
+      <c r="L101" s="17"/>
+      <c r="M101" s="17"/>
+      <c r="N101" s="17"/>
+      <c r="O101" s="17"/>
+      <c r="P101" s="17"/>
+      <c r="Q101" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="472">
+  <mergeCells count="477">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5010,10 +5052,15 @@
     <mergeCell ref="H98:K98"/>
     <mergeCell ref="L98:M98"/>
     <mergeCell ref="N98:O98"/>
-    <mergeCell ref="P99:Q99"/>
-    <mergeCell ref="A100:F100"/>
-    <mergeCell ref="G100:I100"/>
-    <mergeCell ref="K100:Q100"/>
+    <mergeCell ref="A99:B99"/>
+    <mergeCell ref="C99:G99"/>
+    <mergeCell ref="H99:K99"/>
+    <mergeCell ref="L99:M99"/>
+    <mergeCell ref="N99:O99"/>
+    <mergeCell ref="P100:Q100"/>
+    <mergeCell ref="A101:F101"/>
+    <mergeCell ref="G101:I101"/>
+    <mergeCell ref="K101:Q101"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-30_00-00.xlsx
+++ b/DaySale_2025-09-30_00-00.xlsx
@@ -323,6 +323,15 @@
     <t>88.0000</t>
   </si>
   <si>
+    <t>DIAMEDIZEN 30MG MR 30 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>30.00</t>
+  </si>
+  <si>
+    <t>9.9000</t>
+  </si>
+  <si>
     <t>DICLAC 150 ID 20 PROLONGED R TABS</t>
   </si>
   <si>
@@ -356,6 +365,15 @@
     <t>31.6800</t>
   </si>
   <si>
+    <t xml:space="preserve">EMPACOZA TRIO XR 25/5/1000  30TAB</t>
+  </si>
+  <si>
+    <t>396.00</t>
+  </si>
+  <si>
+    <t>130.6800</t>
+  </si>
+  <si>
     <t>EPICOPRED 5 MG 30 ORODISPERSIBLE TABS.</t>
   </si>
   <si>
@@ -392,9 +410,6 @@
     <t>FAYCID HAIR OIL 60 ML</t>
   </si>
   <si>
-    <t>30.00</t>
-  </si>
-  <si>
     <t>30.0000</t>
   </si>
   <si>
@@ -854,7 +869,7 @@
     <t>6:0</t>
   </si>
   <si>
-    <t>Tuesday, 30 September, 2025 8:49 PM</t>
+    <t>Tuesday, 30 September, 2025 8:50 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2353,7 +2368,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>12</v>
+        <v>44</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2386,7 +2401,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2403,7 +2418,7 @@
         <v>109</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>12</v>
+        <v>32</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2419,7 +2434,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2429,11 +2444,11 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>67</v>
+        <v>111</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>79</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>12</v>
@@ -2445,14 +2460,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>112</v>
+        <v>12</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2462,14 +2477,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>113</v>
+        <v>67</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>114</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>44</v>
+        <v>12</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2478,14 +2493,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2495,11 +2510,11 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>44</v>
@@ -2511,31 +2526,31 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>12</v>
+        <v>32</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2544,14 +2559,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2561,14 +2576,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>12</v>
+        <v>44</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2577,14 +2592,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>59</v>
+        <v>21</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2594,11 +2609,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>12</v>
@@ -2610,14 +2625,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2627,14 +2642,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>32</v>
+        <v>12</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2643,7 +2658,7 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
@@ -2660,14 +2675,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>134</v>
+        <v>105</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>32</v>
+        <v>12</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2676,14 +2691,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>21</v>
+        <v>135</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2693,14 +2708,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>12</v>
+        <v>32</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2709,14 +2724,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>21</v>
+        <v>59</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2726,14 +2741,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>12</v>
+        <v>32</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2742,14 +2757,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>59</v>
+        <v>21</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2759,11 +2774,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>12</v>
@@ -2775,28 +2790,28 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>146</v>
+        <v>21</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>12</v>
@@ -2808,28 +2823,28 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>21</v>
+        <v>59</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>12</v>
@@ -2841,31 +2856,31 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>50</v>
+        <v>151</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>155</v>
+        <v>12</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2874,14 +2889,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2891,11 +2906,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>12</v>
@@ -2907,14 +2922,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>21</v>
+        <v>50</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2924,14 +2939,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>12</v>
+        <v>160</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2940,28 +2955,28 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>12</v>
@@ -2973,14 +2988,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2990,7 +3005,7 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>153</v>
+        <v>165</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
@@ -3013,7 +3028,7 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>44</v>
+        <v>12</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3027,10 +3042,10 @@
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>48</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>32</v>
+        <v>12</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3039,14 +3054,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>59</v>
+        <v>12</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3056,14 +3071,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>170</v>
+        <v>158</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
         <v>171</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>32</v>
+        <v>12</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3079,7 +3094,7 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>21</v>
+        <v>44</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3093,10 +3108,10 @@
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>174</v>
+        <v>48</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>12</v>
+        <v>32</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3105,14 +3120,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>12</v>
+        <v>59</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3122,14 +3137,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>12</v>
+        <v>32</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3138,14 +3153,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3155,14 +3170,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>32</v>
+        <v>12</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3171,14 +3186,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3188,14 +3203,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>47</v>
+        <v>181</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
         <v>182</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>32</v>
+        <v>12</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3211,7 +3226,7 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>184</v>
+        <v>41</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3221,7 +3236,7 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>163</v>
+        <v>184</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
@@ -3244,7 +3259,7 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3254,11 +3269,11 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>187</v>
+        <v>47</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>114</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>32</v>
@@ -3277,7 +3292,7 @@
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>21</v>
+        <v>189</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3287,14 +3302,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>189</v>
+        <v>168</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
         <v>190</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>12</v>
+        <v>32</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3310,7 +3325,7 @@
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3324,10 +3339,10 @@
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>193</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>12</v>
+        <v>32</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3336,14 +3351,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3353,11 +3368,11 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>12</v>
@@ -3369,14 +3384,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>198</v>
+        <v>12</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3386,11 +3401,11 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>12</v>
@@ -3402,14 +3417,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>44</v>
+        <v>12</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3419,14 +3434,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>32</v>
+        <v>12</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3435,14 +3450,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>59</v>
+        <v>203</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3452,11 +3467,11 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>12</v>
@@ -3468,14 +3483,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>12</v>
+        <v>44</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3485,14 +3500,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>163</v>
+        <v>207</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>164</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>12</v>
+        <v>32</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3501,14 +3516,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>209</v>
+        <v>59</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3525,7 +3540,7 @@
         <v>211</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>32</v>
+        <v>12</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3541,7 +3556,7 @@
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>213</v>
+        <v>12</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3551,14 +3566,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>38</v>
+        <v>168</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>214</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>32</v>
+        <v>12</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3567,14 +3582,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>32</v>
+        <v>214</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3584,14 +3599,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>120</v>
+        <v>215</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>121</v>
+        <v>216</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>12</v>
+        <v>32</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3600,14 +3615,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3617,14 +3632,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>218</v>
+        <v>38</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
         <v>219</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3640,7 +3655,7 @@
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>59</v>
+        <v>32</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3650,11 +3665,11 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>221</v>
+        <v>126</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>222</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>12</v>
@@ -3666,14 +3681,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>12</v>
+        <v>222</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3683,14 +3698,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3699,28 +3714,28 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>227</v>
+        <v>59</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
       <c r="K74" s="9"/>
       <c t="s" r="L74" s="10">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>12</v>
@@ -3732,7 +3747,7 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
@@ -3745,18 +3760,18 @@
       <c r="J75" s="9"/>
       <c r="K75" s="9"/>
       <c t="s" r="L75" s="10">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>153</v>
+        <v>229</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>166</v>
+        <v>230</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>12</v>
+        <v>32</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3772,7 +3787,7 @@
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>146</v>
+        <v>232</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3782,11 +3797,11 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>12</v>
@@ -3798,14 +3813,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3815,11 +3830,11 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>93</v>
+        <v>158</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>94</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>12</v>
@@ -3831,14 +3846,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>236</v>
+        <v>151</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3848,11 +3863,11 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>127</v>
+        <v>237</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>128</v>
+        <v>238</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>12</v>
@@ -3864,14 +3879,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>238</v>
+        <v>29</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3881,11 +3896,11 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>239</v>
+        <v>93</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>240</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>12</v>
@@ -3897,14 +3912,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>21</v>
+        <v>241</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3914,14 +3929,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>242</v>
+        <v>105</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>243</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>146</v>
+        <v>12</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3930,14 +3945,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -3947,14 +3962,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>248</v>
+        <v>12</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3963,14 +3978,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>146</v>
+        <v>21</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -3980,14 +3995,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>228</v>
+        <v>247</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>59</v>
+        <v>151</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -3996,14 +4011,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>59</v>
+        <v>250</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4013,14 +4028,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
+        <v>252</v>
+      </c>
+      <c t="s" r="Q83" s="12">
         <v>253</v>
-      </c>
-      <c t="s" r="Q83" s="12">
-        <v>12</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4036,7 +4051,7 @@
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>29</v>
+        <v>151</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4046,14 +4061,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>18</v>
+        <v>233</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>19</v>
+        <v>255</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>12</v>
+        <v>59</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4062,14 +4077,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>21</v>
+        <v>59</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4079,14 +4094,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>128</v>
+        <v>258</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>257</v>
+        <v>12</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4095,14 +4110,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4112,14 +4127,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>242</v>
+        <v>18</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>259</v>
+        <v>19</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>217</v>
+        <v>12</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4135,7 +4150,7 @@
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>59</v>
+        <v>21</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4149,10 +4164,10 @@
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
+        <v>133</v>
+      </c>
+      <c t="s" r="Q87" s="12">
         <v>262</v>
-      </c>
-      <c t="s" r="Q87" s="12">
-        <v>12</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4178,14 +4193,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>264</v>
+        <v>247</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>43</v>
+        <v>264</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>12</v>
+        <v>222</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4201,7 +4216,7 @@
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>227</v>
+        <v>59</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4234,7 +4249,7 @@
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>198</v>
+        <v>21</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4244,11 +4259,11 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>176</v>
+        <v>269</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>177</v>
+        <v>43</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>12</v>
@@ -4260,14 +4275,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4277,11 +4292,11 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>252</v>
+        <v>271</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>253</v>
+        <v>272</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>12</v>
@@ -4293,14 +4308,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>227</v>
+        <v>203</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4310,11 +4325,11 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>228</v>
+        <v>181</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>229</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q92" s="12">
         <v>12</v>
@@ -4326,14 +4341,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>272</v>
+        <v>232</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4343,11 +4358,11 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>239</v>
+        <v>257</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>240</v>
+        <v>258</v>
       </c>
       <c t="s" r="Q93" s="12">
         <v>12</v>
@@ -4359,14 +4374,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>21</v>
+        <v>232</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4376,11 +4391,11 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>18</v>
+        <v>233</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>19</v>
+        <v>234</v>
       </c>
       <c t="s" r="Q94" s="12">
         <v>12</v>
@@ -4392,14 +4407,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>146</v>
+        <v>277</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4409,11 +4424,11 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>127</v>
+        <v>244</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>128</v>
+        <v>245</v>
       </c>
       <c t="s" r="Q95" s="12">
         <v>12</v>
@@ -4425,14 +4440,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>59</v>
+        <v>21</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4446,10 +4461,10 @@
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>166</v>
+        <v>19</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>146</v>
+        <v>12</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4458,14 +4473,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>277</v>
+        <v>151</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4475,11 +4490,11 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>124</v>
+        <v>105</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q97" s="12">
         <v>12</v>
@@ -4491,14 +4506,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>29</v>
+        <v>59</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4508,14 +4523,14 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>127</v>
+        <v>18</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>59</v>
+        <v>151</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4524,14 +4539,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4541,49 +4556,115 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>67</v>
+        <v>130</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
+        <v>131</v>
+      </c>
+      <c t="s" r="Q99" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="100" ht="24.75" customHeight="1">
+      <c r="A100" s="7">
+        <v>94</v>
+      </c>
+      <c r="B100" s="7"/>
+      <c t="s" r="C100" s="8">
+        <v>283</v>
+      </c>
+      <c r="D100" s="8"/>
+      <c r="E100" s="8"/>
+      <c r="F100" s="8"/>
+      <c r="G100" s="8"/>
+      <c t="s" r="H100" s="9">
+        <v>29</v>
+      </c>
+      <c r="I100" s="9"/>
+      <c r="J100" s="9"/>
+      <c r="K100" s="9"/>
+      <c t="s" r="L100" s="10">
+        <v>22</v>
+      </c>
+      <c r="M100" s="10"/>
+      <c t="s" r="N100" s="8">
+        <v>105</v>
+      </c>
+      <c r="O100" s="8"/>
+      <c t="s" r="P100" s="11">
+        <v>171</v>
+      </c>
+      <c t="s" r="Q100" s="12">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="101" ht="25.5" customHeight="1">
+      <c r="A101" s="7">
+        <v>95</v>
+      </c>
+      <c r="B101" s="7"/>
+      <c t="s" r="C101" s="8">
+        <v>284</v>
+      </c>
+      <c r="D101" s="8"/>
+      <c r="E101" s="8"/>
+      <c r="F101" s="8"/>
+      <c r="G101" s="8"/>
+      <c t="s" r="H101" s="9">
+        <v>285</v>
+      </c>
+      <c r="I101" s="9"/>
+      <c r="J101" s="9"/>
+      <c r="K101" s="9"/>
+      <c t="s" r="L101" s="10">
+        <v>22</v>
+      </c>
+      <c r="M101" s="10"/>
+      <c t="s" r="N101" s="8">
+        <v>67</v>
+      </c>
+      <c r="O101" s="8"/>
+      <c t="s" r="P101" s="11">
         <v>79</v>
       </c>
-      <c t="s" r="Q99" s="12">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="100" ht="24.75" customHeight="1">
-      <c r="P100" s="13">
-        <v>5862.3800000000001</v>
-      </c>
-      <c r="Q100" s="13"/>
-    </row>
-    <row r="101" ht="16.5" customHeight="1">
-      <c t="s" r="A101" s="14">
-        <v>281</v>
-      </c>
-      <c r="B101" s="14"/>
-      <c r="C101" s="14"/>
-      <c r="D101" s="14"/>
-      <c r="E101" s="14"/>
-      <c r="F101" s="14"/>
-      <c t="s" r="G101" s="15">
-        <v>282</v>
-      </c>
-      <c r="H101" s="15"/>
-      <c r="I101" s="15"/>
-      <c r="J101" s="16"/>
-      <c t="s" r="K101" s="17">
-        <v>283</v>
-      </c>
-      <c r="L101" s="17"/>
-      <c r="M101" s="17"/>
-      <c r="N101" s="17"/>
-      <c r="O101" s="17"/>
-      <c r="P101" s="17"/>
-      <c r="Q101" s="17"/>
+      <c t="s" r="Q101" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="102" ht="25.5" customHeight="1">
+      <c r="P102" s="13">
+        <v>6002.96</v>
+      </c>
+      <c r="Q102" s="13"/>
+    </row>
+    <row r="103" ht="16.5" customHeight="1">
+      <c t="s" r="A103" s="14">
+        <v>286</v>
+      </c>
+      <c r="B103" s="14"/>
+      <c r="C103" s="14"/>
+      <c r="D103" s="14"/>
+      <c r="E103" s="14"/>
+      <c r="F103" s="14"/>
+      <c t="s" r="G103" s="15">
+        <v>287</v>
+      </c>
+      <c r="H103" s="15"/>
+      <c r="I103" s="15"/>
+      <c r="J103" s="16"/>
+      <c t="s" r="K103" s="17">
+        <v>288</v>
+      </c>
+      <c r="L103" s="17"/>
+      <c r="M103" s="17"/>
+      <c r="N103" s="17"/>
+      <c r="O103" s="17"/>
+      <c r="P103" s="17"/>
+      <c r="Q103" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="477">
+  <mergeCells count="487">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5057,10 +5138,20 @@
     <mergeCell ref="H99:K99"/>
     <mergeCell ref="L99:M99"/>
     <mergeCell ref="N99:O99"/>
-    <mergeCell ref="P100:Q100"/>
-    <mergeCell ref="A101:F101"/>
-    <mergeCell ref="G101:I101"/>
-    <mergeCell ref="K101:Q101"/>
+    <mergeCell ref="A100:B100"/>
+    <mergeCell ref="C100:G100"/>
+    <mergeCell ref="H100:K100"/>
+    <mergeCell ref="L100:M100"/>
+    <mergeCell ref="N100:O100"/>
+    <mergeCell ref="A101:B101"/>
+    <mergeCell ref="C101:G101"/>
+    <mergeCell ref="H101:K101"/>
+    <mergeCell ref="L101:M101"/>
+    <mergeCell ref="N101:O101"/>
+    <mergeCell ref="P102:Q102"/>
+    <mergeCell ref="A103:F103"/>
+    <mergeCell ref="G103:I103"/>
+    <mergeCell ref="K103:Q103"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-30_00-00.xlsx
+++ b/DaySale_2025-09-30_00-00.xlsx
@@ -869,7 +869,7 @@
     <t>6:0</t>
   </si>
   <si>
-    <t>Tuesday, 30 September, 2025 8:50 PM</t>
+    <t>Tuesday, 30 September, 2025 9:01 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-09-30_00-00.xlsx
+++ b/DaySale_2025-09-30_00-00.xlsx
@@ -395,6 +395,15 @@
     <t>140.0000</t>
   </si>
   <si>
+    <t>EZAPRIL 10MG 30TABS</t>
+  </si>
+  <si>
+    <t>54.00</t>
+  </si>
+  <si>
+    <t>54.0000</t>
+  </si>
+  <si>
     <t>FAWAR FRUIT 6 SACHETS</t>
   </si>
   <si>
@@ -869,7 +878,7 @@
     <t>6:0</t>
   </si>
   <si>
-    <t>Tuesday, 30 September, 2025 9:01 PM</t>
+    <t>Tuesday, 30 September, 2025 9:02 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2632,21 +2641,21 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>129</v>
+        <v>44</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c t="s" r="L41" s="10">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>12</v>
@@ -2658,14 +2667,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>59</v>
+        <v>132</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2675,11 +2684,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>105</v>
+        <v>133</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>12</v>
@@ -2691,14 +2700,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>135</v>
+        <v>59</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2708,14 +2717,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>136</v>
+        <v>105</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>32</v>
+        <v>12</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2724,14 +2733,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>59</v>
+        <v>138</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2764,7 +2773,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>21</v>
+        <v>59</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2781,7 +2790,7 @@
         <v>143</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>12</v>
+        <v>32</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2830,7 +2839,7 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>59</v>
+        <v>21</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2863,21 +2872,21 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>151</v>
+        <v>59</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>12</v>
@@ -2889,14 +2898,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>21</v>
+        <v>154</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2929,13 +2938,13 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>50</v>
+        <v>21</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
@@ -2946,7 +2955,7 @@
         <v>159</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>160</v>
+        <v>12</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2955,31 +2964,31 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
+        <v>162</v>
+      </c>
+      <c t="s" r="Q51" s="12">
         <v>163</v>
-      </c>
-      <c t="s" r="Q51" s="12">
-        <v>12</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2995,13 +3004,13 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
@@ -3028,7 +3037,7 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3071,11 +3080,11 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>158</v>
+        <v>171</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>12</v>
@@ -3087,14 +3096,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>44</v>
+        <v>12</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3104,14 +3113,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>48</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>32</v>
+        <v>12</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3120,14 +3129,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>59</v>
+        <v>44</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3137,11 +3146,11 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>176</v>
+        <v>48</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>32</v>
@@ -3160,7 +3169,7 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>21</v>
+        <v>59</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3177,7 +3186,7 @@
         <v>179</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>12</v>
+        <v>32</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3193,7 +3202,7 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3226,7 +3235,7 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3243,7 +3252,7 @@
         <v>185</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>32</v>
+        <v>12</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3259,7 +3268,7 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3269,11 +3278,11 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>47</v>
+        <v>187</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>32</v>
@@ -3285,14 +3294,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>189</v>
+        <v>29</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3302,7 +3311,7 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>168</v>
+        <v>47</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
@@ -3325,7 +3334,7 @@
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>41</v>
+        <v>192</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3335,11 +3344,11 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>192</v>
+        <v>171</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>117</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>32</v>
@@ -3351,14 +3360,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3368,14 +3377,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>195</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>12</v>
+        <v>32</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3391,7 +3400,7 @@
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3457,7 +3466,7 @@
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>203</v>
+        <v>12</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3467,11 +3476,11 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>12</v>
@@ -3483,14 +3492,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>44</v>
+        <v>206</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3507,7 +3516,7 @@
         <v>208</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>32</v>
+        <v>12</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3523,7 +3532,7 @@
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>59</v>
+        <v>44</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3540,7 +3549,7 @@
         <v>211</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>12</v>
+        <v>32</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3556,7 +3565,7 @@
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>12</v>
+        <v>59</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3566,11 +3575,11 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>168</v>
+        <v>213</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>169</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>12</v>
@@ -3582,14 +3591,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>214</v>
+        <v>12</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3599,14 +3608,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>215</v>
+        <v>171</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>216</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>32</v>
+        <v>12</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3615,14 +3624,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3632,7 +3641,7 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>38</v>
+        <v>218</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
@@ -3655,7 +3664,7 @@
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>32</v>
+        <v>221</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3665,14 +3674,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>126</v>
+        <v>38</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>127</v>
+        <v>222</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>12</v>
+        <v>32</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3681,14 +3690,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>222</v>
+        <v>32</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3698,14 +3707,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>223</v>
+        <v>126</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>224</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>29</v>
+        <v>12</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3714,14 +3723,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>59</v>
+        <v>225</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3738,7 +3747,7 @@
         <v>227</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>12</v>
+        <v>29</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3754,7 +3763,7 @@
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>12</v>
+        <v>59</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3771,7 +3780,7 @@
         <v>230</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>32</v>
+        <v>12</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3787,24 +3796,24 @@
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>232</v>
+        <v>12</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
       <c r="K76" s="9"/>
       <c t="s" r="L76" s="10">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>12</v>
+        <v>32</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3813,14 +3822,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>12</v>
+        <v>235</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3830,11 +3839,11 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>158</v>
+        <v>236</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>171</v>
+        <v>237</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>12</v>
@@ -3846,14 +3855,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>151</v>
+        <v>12</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3863,11 +3872,11 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>237</v>
+        <v>161</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>238</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>12</v>
@@ -3886,7 +3895,7 @@
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>29</v>
+        <v>154</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3896,11 +3905,11 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>93</v>
+        <v>240</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>94</v>
+        <v>241</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>12</v>
@@ -3912,14 +3921,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>241</v>
+        <v>29</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3929,11 +3938,11 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>133</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>12</v>
@@ -3945,14 +3954,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -3962,11 +3971,11 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>244</v>
+        <v>105</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>245</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>12</v>
@@ -3978,14 +3987,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>21</v>
+        <v>246</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4002,7 +4011,7 @@
         <v>248</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>151</v>
+        <v>12</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4018,7 +4027,7 @@
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>250</v>
+        <v>21</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4028,14 +4037,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>253</v>
+        <v>154</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4044,14 +4053,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>151</v>
+        <v>253</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4061,14 +4070,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>233</v>
+        <v>254</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
         <v>255</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>59</v>
+        <v>256</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4077,14 +4086,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>59</v>
+        <v>154</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4094,14 +4103,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>257</v>
+        <v>236</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
         <v>258</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>12</v>
+        <v>59</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4117,7 +4126,7 @@
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>29</v>
+        <v>59</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4127,11 +4136,11 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>18</v>
+        <v>260</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>19</v>
+        <v>261</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>12</v>
@@ -4143,14 +4152,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4160,14 +4169,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>261</v>
+        <v>18</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>133</v>
+        <v>19</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>262</v>
+        <v>12</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4193,14 +4202,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>247</v>
+        <v>264</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>264</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>222</v>
+        <v>265</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4209,14 +4218,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>59</v>
+        <v>21</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4226,14 +4235,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>266</v>
+        <v>250</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
         <v>267</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>12</v>
+        <v>225</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4249,7 +4258,7 @@
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>21</v>
+        <v>59</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4263,7 +4272,7 @@
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>43</v>
+        <v>270</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>12</v>
@@ -4275,14 +4284,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>232</v>
+        <v>21</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4292,11 +4301,11 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>272</v>
+        <v>43</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>12</v>
@@ -4315,7 +4324,7 @@
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>203</v>
+        <v>235</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4325,11 +4334,11 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>181</v>
+        <v>274</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>182</v>
+        <v>275</v>
       </c>
       <c t="s" r="Q92" s="12">
         <v>12</v>
@@ -4341,14 +4350,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>232</v>
+        <v>206</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4358,11 +4367,11 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>257</v>
+        <v>184</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>258</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q93" s="12">
         <v>12</v>
@@ -4374,14 +4383,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4391,11 +4400,11 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>233</v>
+        <v>260</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>234</v>
+        <v>261</v>
       </c>
       <c t="s" r="Q94" s="12">
         <v>12</v>
@@ -4407,14 +4416,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>277</v>
+        <v>235</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4424,11 +4433,11 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>244</v>
+        <v>236</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>245</v>
+        <v>237</v>
       </c>
       <c t="s" r="Q95" s="12">
         <v>12</v>
@@ -4440,14 +4449,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>21</v>
+        <v>280</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4457,11 +4466,11 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>18</v>
+        <v>247</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>19</v>
+        <v>248</v>
       </c>
       <c t="s" r="Q96" s="12">
         <v>12</v>
@@ -4473,14 +4482,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>151</v>
+        <v>21</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4490,11 +4499,11 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>105</v>
+        <v>18</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>133</v>
+        <v>19</v>
       </c>
       <c t="s" r="Q97" s="12">
         <v>12</v>
@@ -4506,14 +4515,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>59</v>
+        <v>154</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4523,14 +4532,14 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>18</v>
+        <v>105</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>171</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>151</v>
+        <v>12</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4539,14 +4548,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>282</v>
+        <v>59</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4556,14 +4565,14 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>130</v>
+        <v>18</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>131</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>12</v>
+        <v>154</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4572,14 +4581,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>29</v>
+        <v>285</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4589,14 +4598,14 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>105</v>
+        <v>133</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>171</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>59</v>
+        <v>12</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4605,14 +4614,14 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>285</v>
+        <v>29</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4622,49 +4631,82 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>67</v>
+        <v>105</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
+        <v>174</v>
+      </c>
+      <c t="s" r="Q101" s="12">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="102" ht="25.5" customHeight="1">
+      <c r="A102" s="7">
+        <v>96</v>
+      </c>
+      <c r="B102" s="7"/>
+      <c t="s" r="C102" s="8">
+        <v>287</v>
+      </c>
+      <c r="D102" s="8"/>
+      <c r="E102" s="8"/>
+      <c r="F102" s="8"/>
+      <c r="G102" s="8"/>
+      <c t="s" r="H102" s="9">
+        <v>288</v>
+      </c>
+      <c r="I102" s="9"/>
+      <c r="J102" s="9"/>
+      <c r="K102" s="9"/>
+      <c t="s" r="L102" s="10">
+        <v>22</v>
+      </c>
+      <c r="M102" s="10"/>
+      <c t="s" r="N102" s="8">
+        <v>67</v>
+      </c>
+      <c r="O102" s="8"/>
+      <c t="s" r="P102" s="11">
         <v>79</v>
       </c>
-      <c t="s" r="Q101" s="12">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="102" ht="25.5" customHeight="1">
-      <c r="P102" s="13">
-        <v>6002.96</v>
-      </c>
-      <c r="Q102" s="13"/>
-    </row>
-    <row r="103" ht="16.5" customHeight="1">
-      <c t="s" r="A103" s="14">
-        <v>286</v>
-      </c>
-      <c r="B103" s="14"/>
-      <c r="C103" s="14"/>
-      <c r="D103" s="14"/>
-      <c r="E103" s="14"/>
-      <c r="F103" s="14"/>
-      <c t="s" r="G103" s="15">
-        <v>287</v>
-      </c>
-      <c r="H103" s="15"/>
-      <c r="I103" s="15"/>
-      <c r="J103" s="16"/>
-      <c t="s" r="K103" s="17">
-        <v>288</v>
-      </c>
-      <c r="L103" s="17"/>
-      <c r="M103" s="17"/>
-      <c r="N103" s="17"/>
-      <c r="O103" s="17"/>
-      <c r="P103" s="17"/>
-      <c r="Q103" s="17"/>
+      <c t="s" r="Q102" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="103" ht="24.75" customHeight="1">
+      <c r="P103" s="13">
+        <v>6056.96</v>
+      </c>
+      <c r="Q103" s="13"/>
+    </row>
+    <row r="104" ht="16.5" customHeight="1">
+      <c t="s" r="A104" s="14">
+        <v>289</v>
+      </c>
+      <c r="B104" s="14"/>
+      <c r="C104" s="14"/>
+      <c r="D104" s="14"/>
+      <c r="E104" s="14"/>
+      <c r="F104" s="14"/>
+      <c t="s" r="G104" s="15">
+        <v>290</v>
+      </c>
+      <c r="H104" s="15"/>
+      <c r="I104" s="15"/>
+      <c r="J104" s="16"/>
+      <c t="s" r="K104" s="17">
+        <v>291</v>
+      </c>
+      <c r="L104" s="17"/>
+      <c r="M104" s="17"/>
+      <c r="N104" s="17"/>
+      <c r="O104" s="17"/>
+      <c r="P104" s="17"/>
+      <c r="Q104" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="487">
+  <mergeCells count="492">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5148,10 +5190,15 @@
     <mergeCell ref="H101:K101"/>
     <mergeCell ref="L101:M101"/>
     <mergeCell ref="N101:O101"/>
-    <mergeCell ref="P102:Q102"/>
-    <mergeCell ref="A103:F103"/>
-    <mergeCell ref="G103:I103"/>
-    <mergeCell ref="K103:Q103"/>
+    <mergeCell ref="A102:B102"/>
+    <mergeCell ref="C102:G102"/>
+    <mergeCell ref="H102:K102"/>
+    <mergeCell ref="L102:M102"/>
+    <mergeCell ref="N102:O102"/>
+    <mergeCell ref="P103:Q103"/>
+    <mergeCell ref="A104:F104"/>
+    <mergeCell ref="G104:I104"/>
+    <mergeCell ref="K104:Q104"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-30_00-00.xlsx
+++ b/DaySale_2025-09-30_00-00.xlsx
@@ -407,468 +407,471 @@
     <t>FAWAR FRUIT 6 SACHETS</t>
   </si>
   <si>
-    <t>5:3</t>
+    <t>5:2</t>
   </si>
   <si>
     <t>24.00</t>
   </si>
   <si>
+    <t>27.8400</t>
+  </si>
+  <si>
+    <t>FAYCID HAIR OIL 60 ML</t>
+  </si>
+  <si>
+    <t>30.0000</t>
+  </si>
+  <si>
+    <t>FORBUDES 400/12MCG 60 INHALATION CAPS.+INHALER</t>
+  </si>
+  <si>
+    <t>1:4</t>
+  </si>
+  <si>
+    <t>334.00</t>
+  </si>
+  <si>
+    <t>53.4400</t>
+  </si>
+  <si>
+    <t>FUNGICAN 150MG 2 CAPS.</t>
+  </si>
+  <si>
+    <t>47.00</t>
+  </si>
+  <si>
+    <t>23.5000</t>
+  </si>
+  <si>
+    <t>HAEMOJET 50MG/5ML SYRUP 100ML</t>
+  </si>
+  <si>
+    <t>37.50</t>
+  </si>
+  <si>
+    <t>37.5000</t>
+  </si>
+  <si>
+    <t>HEMOCLAR 0.5% CREAM 40 GM</t>
+  </si>
+  <si>
+    <t>46.00</t>
+  </si>
+  <si>
+    <t>46.0000</t>
+  </si>
+  <si>
+    <t>HERO BABY 1 MILK 400 GM</t>
+  </si>
+  <si>
+    <t>259.00</t>
+  </si>
+  <si>
+    <t>259.0000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IVY PRONT  SYRUP</t>
+  </si>
+  <si>
+    <t>4:0</t>
+  </si>
+  <si>
+    <t>57.00</t>
+  </si>
+  <si>
+    <t>57.0000</t>
+  </si>
+  <si>
+    <t>KADEE 4000 CAPS</t>
+  </si>
+  <si>
+    <t>180.00</t>
+  </si>
+  <si>
+    <t>180.0000</t>
+  </si>
+  <si>
+    <t>KETOLAC 30MG/2ML 5 AMP. FOR I.M./I.V. INF.</t>
+  </si>
+  <si>
+    <t>60.00</t>
+  </si>
+  <si>
+    <t>36.0000</t>
+  </si>
+  <si>
+    <t>0:3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LACTOFERRIN  THREE ONE  20CAP</t>
+  </si>
+  <si>
+    <t>285.00</t>
+  </si>
+  <si>
+    <t>285.0000</t>
+  </si>
+  <si>
+    <t>L-CARNITINE 300MG/ML SYRUP 30ML</t>
+  </si>
+  <si>
+    <t>70.00</t>
+  </si>
+  <si>
+    <t>70.0000</t>
+  </si>
+  <si>
+    <t>LEVOHISTAM 5MG/10 ML SYRUP 120ML</t>
+  </si>
+  <si>
+    <t>39.00</t>
+  </si>
+  <si>
+    <t>39.0000</t>
+  </si>
+  <si>
+    <t>MELOQUIN 4% CREAM 20 GM</t>
+  </si>
+  <si>
+    <t>60.0000</t>
+  </si>
+  <si>
+    <t>NASSAR 12*8 F.C. TAB.</t>
+  </si>
+  <si>
+    <t>156.00</t>
+  </si>
+  <si>
+    <t>NEXICURE 40 MG 20 F.C. TABLETS</t>
+  </si>
+  <si>
+    <t>152.00</t>
+  </si>
+  <si>
+    <t>76.0000</t>
+  </si>
+  <si>
+    <t>POM SHOWER GEL 250 ML</t>
+  </si>
+  <si>
+    <t>100.00</t>
+  </si>
+  <si>
+    <t>100.0000</t>
+  </si>
+  <si>
+    <t>ROYAL REGIME HERBAL TEA 2 GM*50 TEA BAGS</t>
+  </si>
+  <si>
+    <t>45.00</t>
+  </si>
+  <si>
+    <t>45.0000</t>
+  </si>
+  <si>
+    <t>SPASCOLON 100MG 30 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>108.00</t>
+  </si>
+  <si>
+    <t>35.6400</t>
+  </si>
+  <si>
+    <t>SPASMO-DIGESTIN 30 TABS.</t>
+  </si>
+  <si>
+    <t>25.7400</t>
+  </si>
+  <si>
+    <t>SPASMOFEN 3 AMP. FOR I.M. INJ.</t>
+  </si>
+  <si>
+    <t>3:2</t>
+  </si>
+  <si>
+    <t>12.8700</t>
+  </si>
+  <si>
+    <t>STOPRRHEA 2 MG 30 ORODISPERSIBLE TABS.</t>
+  </si>
+  <si>
+    <t>96.00</t>
+  </si>
+  <si>
+    <t>TARIVID 200MG 10 F.C. TAB.</t>
+  </si>
+  <si>
+    <t>82.00</t>
+  </si>
+  <si>
+    <t>82.0000</t>
+  </si>
+  <si>
+    <t>TECHNOSPIRON 0.03/3MG 21 F.C.TAB</t>
+  </si>
+  <si>
+    <t>84.00</t>
+  </si>
+  <si>
+    <t>84.0000</t>
+  </si>
+  <si>
+    <t>TREFLUCAN 150MG 1 CAPS.</t>
+  </si>
+  <si>
+    <t>28.00</t>
+  </si>
+  <si>
+    <t>28.0000</t>
+  </si>
+  <si>
+    <t>VIDROP 2800 I.U./ML ORAL DROPS 15 ML</t>
+  </si>
+  <si>
+    <t>8:0</t>
+  </si>
+  <si>
+    <t>26.00</t>
+  </si>
+  <si>
+    <t>26.0000</t>
+  </si>
+  <si>
+    <t>VILDABETES 50/1000MG 30 TABS.</t>
+  </si>
+  <si>
+    <t>186.00</t>
+  </si>
+  <si>
+    <t>61.3800</t>
+  </si>
+  <si>
+    <t>VIOTIC EAR DROPS 10 ML</t>
+  </si>
+  <si>
+    <t>23.00</t>
+  </si>
+  <si>
+    <t>23.0000</t>
+  </si>
+  <si>
+    <t>VOLTAREN 1% EMULGEL 25 GM</t>
+  </si>
+  <si>
+    <t>VOLTAREN 75MG/3ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>2:2</t>
+  </si>
+  <si>
+    <t>51.00</t>
+  </si>
+  <si>
+    <t>16.8300</t>
+  </si>
+  <si>
+    <t>VOLTAREN 75MG/3ML 6 AMP.</t>
+  </si>
+  <si>
+    <t>1:6</t>
+  </si>
+  <si>
+    <t>16.3200</t>
+  </si>
+  <si>
+    <t>VONSECA 20MG 14 TAB</t>
+  </si>
+  <si>
+    <t>XORAXON 1GM I.M. VIAL</t>
+  </si>
+  <si>
+    <t>7:0</t>
+  </si>
+  <si>
+    <t>56.00</t>
+  </si>
+  <si>
+    <t>168.0000</t>
+  </si>
+  <si>
+    <t>ZINCOSIL CREAM 20 GM</t>
+  </si>
+  <si>
+    <t>18.00</t>
+  </si>
+  <si>
+    <t>18.0000</t>
+  </si>
+  <si>
+    <t>ZINCTRON 30 CAPS</t>
+  </si>
+  <si>
+    <t>126.00</t>
+  </si>
+  <si>
+    <t>41.5800</t>
+  </si>
+  <si>
+    <t>املاح افونا</t>
+  </si>
+  <si>
+    <t>5:0</t>
+  </si>
+  <si>
+    <t>25.00</t>
+  </si>
+  <si>
+    <t>25.0000</t>
+  </si>
+  <si>
+    <t>ايفا كريم 170 جم</t>
+  </si>
+  <si>
+    <t>بادي سبلاش افوفا الصغير</t>
+  </si>
+  <si>
+    <t>35.00</t>
+  </si>
+  <si>
+    <t>35.0000</t>
+  </si>
+  <si>
+    <t>بادي لوشن كير اند مور</t>
+  </si>
+  <si>
+    <t xml:space="preserve">برفان القصاص </t>
+  </si>
+  <si>
+    <t>21:0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">جهاز محلول </t>
+  </si>
+  <si>
+    <t>30:0</t>
+  </si>
+  <si>
+    <t>20.00</t>
+  </si>
+  <si>
+    <t>20.0000</t>
+  </si>
+  <si>
+    <t>حبايه</t>
+  </si>
+  <si>
+    <t>3.00</t>
+  </si>
+  <si>
+    <t>12.0000</t>
+  </si>
+  <si>
+    <t>حفاضات كبار سن جير ميني 36ق</t>
+  </si>
+  <si>
+    <t>0:18</t>
+  </si>
+  <si>
+    <t>450.00</t>
+  </si>
+  <si>
+    <t>121.5000</t>
+  </si>
+  <si>
+    <t>0:10</t>
+  </si>
+  <si>
+    <t>زبدة كاكاو كير اند مور</t>
+  </si>
+  <si>
+    <t>50.0000</t>
+  </si>
+  <si>
+    <t>زيت جونسون صغير</t>
+  </si>
+  <si>
+    <t>65.00</t>
+  </si>
+  <si>
+    <t>65.0000</t>
+  </si>
+  <si>
+    <t>زيت فاتيكا 45 مل صغير</t>
+  </si>
+  <si>
+    <t>سرنجات 3 سم</t>
+  </si>
+  <si>
+    <t>2.00</t>
+  </si>
+  <si>
+    <t>15:0</t>
+  </si>
+  <si>
+    <t>سرنجات 5 سم</t>
+  </si>
+  <si>
+    <t>21.0000</t>
+  </si>
+  <si>
+    <t>سيتي بيبي رقم 3</t>
+  </si>
+  <si>
+    <t>190.00</t>
+  </si>
+  <si>
+    <t>190.0000</t>
+  </si>
+  <si>
+    <t>شاور جل ايفا 1لتر</t>
+  </si>
+  <si>
+    <t>110.00</t>
+  </si>
+  <si>
+    <t>صابون ديتول الصغير</t>
+  </si>
+  <si>
+    <t>22.00</t>
+  </si>
+  <si>
+    <t>22.0000</t>
+  </si>
+  <si>
+    <t>صابونه دوف SOAP</t>
+  </si>
+  <si>
+    <t>طمي مغربي بوبانا 400ملل</t>
+  </si>
+  <si>
+    <t>فرشة شعر وسط</t>
+  </si>
+  <si>
+    <t>قطن 100 جم</t>
+  </si>
+  <si>
+    <t>26:0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">كالونا </t>
+  </si>
+  <si>
+    <t>مبرد اظافر حديد</t>
+  </si>
+  <si>
+    <t>مبرد قدم</t>
+  </si>
+  <si>
+    <t>محلول ملح</t>
+  </si>
+  <si>
+    <t>32:0</t>
+  </si>
+  <si>
     <t>24.0000</t>
   </si>
   <si>
-    <t>FAYCID HAIR OIL 60 ML</t>
-  </si>
-  <si>
-    <t>30.0000</t>
-  </si>
-  <si>
-    <t>FORBUDES 400/12MCG 60 INHALATION CAPS.+INHALER</t>
-  </si>
-  <si>
-    <t>1:4</t>
-  </si>
-  <si>
-    <t>334.00</t>
-  </si>
-  <si>
-    <t>53.4400</t>
-  </si>
-  <si>
-    <t>FUNGICAN 150MG 2 CAPS.</t>
-  </si>
-  <si>
-    <t>47.00</t>
-  </si>
-  <si>
-    <t>23.5000</t>
-  </si>
-  <si>
-    <t>HAEMOJET 50MG/5ML SYRUP 100ML</t>
-  </si>
-  <si>
-    <t>37.50</t>
-  </si>
-  <si>
-    <t>37.5000</t>
-  </si>
-  <si>
-    <t>HEMOCLAR 0.5% CREAM 40 GM</t>
-  </si>
-  <si>
-    <t>46.00</t>
-  </si>
-  <si>
-    <t>46.0000</t>
-  </si>
-  <si>
-    <t>HERO BABY 1 MILK 400 GM</t>
-  </si>
-  <si>
-    <t>259.00</t>
-  </si>
-  <si>
-    <t>259.0000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IVY PRONT  SYRUP</t>
-  </si>
-  <si>
-    <t>4:0</t>
-  </si>
-  <si>
-    <t>57.00</t>
-  </si>
-  <si>
-    <t>57.0000</t>
-  </si>
-  <si>
-    <t>KADEE 4000 CAPS</t>
-  </si>
-  <si>
-    <t>180.00</t>
-  </si>
-  <si>
-    <t>180.0000</t>
-  </si>
-  <si>
-    <t>KETOLAC 30MG/2ML 5 AMP. FOR I.M./I.V. INF.</t>
-  </si>
-  <si>
-    <t>60.00</t>
-  </si>
-  <si>
-    <t>36.0000</t>
-  </si>
-  <si>
-    <t>0:3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LACTOFERRIN  THREE ONE  20CAP</t>
-  </si>
-  <si>
-    <t>285.00</t>
-  </si>
-  <si>
-    <t>285.0000</t>
-  </si>
-  <si>
-    <t>L-CARNITINE 300MG/ML SYRUP 30ML</t>
-  </si>
-  <si>
-    <t>70.00</t>
-  </si>
-  <si>
-    <t>70.0000</t>
-  </si>
-  <si>
-    <t>LEVOHISTAM 5MG/10 ML SYRUP 120ML</t>
-  </si>
-  <si>
-    <t>39.00</t>
-  </si>
-  <si>
-    <t>39.0000</t>
-  </si>
-  <si>
-    <t>MELOQUIN 4% CREAM 20 GM</t>
-  </si>
-  <si>
-    <t>60.0000</t>
-  </si>
-  <si>
-    <t>NASSAR 12*8 F.C. TAB.</t>
-  </si>
-  <si>
-    <t>156.00</t>
-  </si>
-  <si>
-    <t>NEXICURE 40 MG 20 F.C. TABLETS</t>
-  </si>
-  <si>
-    <t>152.00</t>
-  </si>
-  <si>
-    <t>76.0000</t>
-  </si>
-  <si>
-    <t>POM SHOWER GEL 250 ML</t>
-  </si>
-  <si>
-    <t>100.00</t>
-  </si>
-  <si>
-    <t>100.0000</t>
-  </si>
-  <si>
-    <t>ROYAL REGIME HERBAL TEA 2 GM*50 TEA BAGS</t>
-  </si>
-  <si>
-    <t>45.00</t>
-  </si>
-  <si>
-    <t>45.0000</t>
-  </si>
-  <si>
-    <t>SPASCOLON 100MG 30 F.C.TAB.</t>
-  </si>
-  <si>
-    <t>108.00</t>
-  </si>
-  <si>
-    <t>35.6400</t>
-  </si>
-  <si>
-    <t>SPASMO-DIGESTIN 30 TABS.</t>
-  </si>
-  <si>
-    <t>25.7400</t>
-  </si>
-  <si>
-    <t>SPASMOFEN 3 AMP. FOR I.M. INJ.</t>
-  </si>
-  <si>
-    <t>3:2</t>
-  </si>
-  <si>
-    <t>12.8700</t>
-  </si>
-  <si>
-    <t>STOPRRHEA 2 MG 30 ORODISPERSIBLE TABS.</t>
-  </si>
-  <si>
-    <t>96.00</t>
-  </si>
-  <si>
-    <t>TARIVID 200MG 10 F.C. TAB.</t>
-  </si>
-  <si>
-    <t>82.00</t>
-  </si>
-  <si>
-    <t>82.0000</t>
-  </si>
-  <si>
-    <t>TECHNOSPIRON 0.03/3MG 21 F.C.TAB</t>
-  </si>
-  <si>
-    <t>84.00</t>
-  </si>
-  <si>
-    <t>84.0000</t>
-  </si>
-  <si>
-    <t>TREFLUCAN 150MG 1 CAPS.</t>
-  </si>
-  <si>
-    <t>28.00</t>
-  </si>
-  <si>
-    <t>28.0000</t>
-  </si>
-  <si>
-    <t>VIDROP 2800 I.U./ML ORAL DROPS 15 ML</t>
-  </si>
-  <si>
-    <t>8:0</t>
-  </si>
-  <si>
-    <t>26.00</t>
-  </si>
-  <si>
-    <t>26.0000</t>
-  </si>
-  <si>
-    <t>VILDABETES 50/1000MG 30 TABS.</t>
-  </si>
-  <si>
-    <t>186.00</t>
-  </si>
-  <si>
-    <t>61.3800</t>
-  </si>
-  <si>
-    <t>VIOTIC EAR DROPS 10 ML</t>
-  </si>
-  <si>
-    <t>23.00</t>
-  </si>
-  <si>
-    <t>23.0000</t>
-  </si>
-  <si>
-    <t>VOLTAREN 1% EMULGEL 25 GM</t>
-  </si>
-  <si>
-    <t>VOLTAREN 75MG/3ML 3 AMP.</t>
-  </si>
-  <si>
-    <t>2:2</t>
-  </si>
-  <si>
-    <t>51.00</t>
-  </si>
-  <si>
-    <t>16.8300</t>
-  </si>
-  <si>
-    <t>VOLTAREN 75MG/3ML 6 AMP.</t>
-  </si>
-  <si>
-    <t>1:6</t>
-  </si>
-  <si>
-    <t>16.3200</t>
-  </si>
-  <si>
-    <t>VONSECA 20MG 14 TAB</t>
-  </si>
-  <si>
-    <t>XORAXON 1GM I.M. VIAL</t>
-  </si>
-  <si>
-    <t>7:0</t>
-  </si>
-  <si>
-    <t>56.00</t>
-  </si>
-  <si>
-    <t>168.0000</t>
-  </si>
-  <si>
-    <t>ZINCOSIL CREAM 20 GM</t>
-  </si>
-  <si>
-    <t>18.00</t>
-  </si>
-  <si>
-    <t>18.0000</t>
-  </si>
-  <si>
-    <t>ZINCTRON 30 CAPS</t>
-  </si>
-  <si>
-    <t>126.00</t>
-  </si>
-  <si>
-    <t>41.5800</t>
-  </si>
-  <si>
-    <t>املاح افونا</t>
-  </si>
-  <si>
-    <t>5:0</t>
-  </si>
-  <si>
-    <t>25.00</t>
-  </si>
-  <si>
-    <t>25.0000</t>
-  </si>
-  <si>
-    <t>ايفا كريم 170 جم</t>
-  </si>
-  <si>
-    <t>بادي سبلاش افوفا الصغير</t>
-  </si>
-  <si>
-    <t>35.00</t>
-  </si>
-  <si>
-    <t>35.0000</t>
-  </si>
-  <si>
-    <t>بادي لوشن كير اند مور</t>
-  </si>
-  <si>
-    <t xml:space="preserve">برفان القصاص </t>
-  </si>
-  <si>
-    <t>21:0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">جهاز محلول </t>
-  </si>
-  <si>
-    <t>30:0</t>
-  </si>
-  <si>
-    <t>20.00</t>
-  </si>
-  <si>
-    <t>20.0000</t>
-  </si>
-  <si>
-    <t>حبايه</t>
-  </si>
-  <si>
-    <t>3.00</t>
-  </si>
-  <si>
-    <t>12.0000</t>
-  </si>
-  <si>
-    <t>حفاضات كبار سن جير ميني 36ق</t>
-  </si>
-  <si>
-    <t>0:18</t>
-  </si>
-  <si>
-    <t>450.00</t>
-  </si>
-  <si>
-    <t>121.5000</t>
-  </si>
-  <si>
-    <t>0:10</t>
-  </si>
-  <si>
-    <t>زبدة كاكاو كير اند مور</t>
-  </si>
-  <si>
-    <t>50.0000</t>
-  </si>
-  <si>
-    <t>زيت جونسون صغير</t>
-  </si>
-  <si>
-    <t>65.00</t>
-  </si>
-  <si>
-    <t>65.0000</t>
-  </si>
-  <si>
-    <t>زيت فاتيكا 45 مل صغير</t>
-  </si>
-  <si>
-    <t>سرنجات 3 سم</t>
-  </si>
-  <si>
-    <t>2.00</t>
-  </si>
-  <si>
-    <t>15:0</t>
-  </si>
-  <si>
-    <t>سرنجات 5 سم</t>
-  </si>
-  <si>
-    <t>21.0000</t>
-  </si>
-  <si>
-    <t>سيتي بيبي رقم 3</t>
-  </si>
-  <si>
-    <t>190.00</t>
-  </si>
-  <si>
-    <t>190.0000</t>
-  </si>
-  <si>
-    <t>شاور جل ايفا 1لتر</t>
-  </si>
-  <si>
-    <t>110.00</t>
-  </si>
-  <si>
-    <t>صابون ديتول الصغير</t>
-  </si>
-  <si>
-    <t>22.00</t>
-  </si>
-  <si>
-    <t>22.0000</t>
-  </si>
-  <si>
-    <t>صابونه دوف SOAP</t>
-  </si>
-  <si>
-    <t>طمي مغربي بوبانا 400ملل</t>
-  </si>
-  <si>
-    <t>فرشة شعر وسط</t>
-  </si>
-  <si>
-    <t>قطن 100 جم</t>
-  </si>
-  <si>
-    <t>26:0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">كالونا </t>
-  </si>
-  <si>
-    <t>مبرد اظافر حديد</t>
-  </si>
-  <si>
-    <t>مبرد قدم</t>
-  </si>
-  <si>
-    <t>محلول ملح</t>
-  </si>
-  <si>
-    <t>32:0</t>
-  </si>
-  <si>
     <t>مخمريه العود الملكي</t>
   </si>
   <si>
@@ -878,7 +881,7 @@
     <t>6:0</t>
   </si>
   <si>
-    <t>Tuesday, 30 September, 2025 9:02 PM</t>
+    <t>Tuesday, 30 September, 2025 9:03 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2691,7 +2694,7 @@
         <v>134</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>12</v>
+        <v>41</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -4602,7 +4605,7 @@
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>134</v>
+        <v>286</v>
       </c>
       <c t="s" r="Q100" s="12">
         <v>12</v>
@@ -4614,7 +4617,7 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
@@ -4647,14 +4650,14 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4676,13 +4679,13 @@
     </row>
     <row r="103" ht="24.75" customHeight="1">
       <c r="P103" s="13">
-        <v>6056.96</v>
+        <v>6060.8000000000002</v>
       </c>
       <c r="Q103" s="13"/>
     </row>
     <row r="104" ht="16.5" customHeight="1">
       <c t="s" r="A104" s="14">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="B104" s="14"/>
       <c r="C104" s="14"/>
@@ -4690,13 +4693,13 @@
       <c r="E104" s="14"/>
       <c r="F104" s="14"/>
       <c t="s" r="G104" s="15">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="H104" s="15"/>
       <c r="I104" s="15"/>
       <c r="J104" s="16"/>
       <c t="s" r="K104" s="17">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="L104" s="17"/>
       <c r="M104" s="17"/>

--- a/DaySale_2025-09-30_00-00.xlsx
+++ b/DaySale_2025-09-30_00-00.xlsx
@@ -227,6 +227,21 @@
     <t>43.0000</t>
   </si>
   <si>
+    <t>CEFOTAX 1GM I.M./I.V. VIAL - EIPICO</t>
+  </si>
+  <si>
+    <t>8:0</t>
+  </si>
+  <si>
+    <t>43.00</t>
+  </si>
+  <si>
+    <t>172.0000</t>
+  </si>
+  <si>
+    <t>4:0</t>
+  </si>
+  <si>
     <t>CEREBROFORTE 20% SYRUP 120ML</t>
   </si>
   <si>
@@ -473,9 +488,6 @@
     <t xml:space="preserve">IVY PRONT  SYRUP</t>
   </si>
   <si>
-    <t>4:0</t>
-  </si>
-  <si>
     <t>57.00</t>
   </si>
   <si>
@@ -497,322 +509,319 @@
     <t>60.00</t>
   </si>
   <si>
+    <t>48.0000</t>
+  </si>
+  <si>
+    <t>0:4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LACTOFERRIN  THREE ONE  20CAP</t>
+  </si>
+  <si>
+    <t>285.00</t>
+  </si>
+  <si>
+    <t>285.0000</t>
+  </si>
+  <si>
+    <t>L-CARNITINE 300MG/ML SYRUP 30ML</t>
+  </si>
+  <si>
+    <t>70.00</t>
+  </si>
+  <si>
+    <t>70.0000</t>
+  </si>
+  <si>
+    <t>LEVOHISTAM 5MG/10 ML SYRUP 120ML</t>
+  </si>
+  <si>
+    <t>39.00</t>
+  </si>
+  <si>
+    <t>39.0000</t>
+  </si>
+  <si>
+    <t>MELOQUIN 4% CREAM 20 GM</t>
+  </si>
+  <si>
+    <t>60.0000</t>
+  </si>
+  <si>
+    <t>NASSAR 12*8 F.C. TAB.</t>
+  </si>
+  <si>
+    <t>156.00</t>
+  </si>
+  <si>
+    <t>NEXICURE 40 MG 20 F.C. TABLETS</t>
+  </si>
+  <si>
+    <t>152.00</t>
+  </si>
+  <si>
+    <t>76.0000</t>
+  </si>
+  <si>
+    <t>POM SHOWER GEL 250 ML</t>
+  </si>
+  <si>
+    <t>100.00</t>
+  </si>
+  <si>
+    <t>100.0000</t>
+  </si>
+  <si>
+    <t>ROYAL REGIME HERBAL TEA 2 GM*50 TEA BAGS</t>
+  </si>
+  <si>
+    <t>45.00</t>
+  </si>
+  <si>
+    <t>45.0000</t>
+  </si>
+  <si>
+    <t>SPASCOLON 100MG 30 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>108.00</t>
+  </si>
+  <si>
+    <t>35.6400</t>
+  </si>
+  <si>
+    <t>SPASMO-DIGESTIN 30 TABS.</t>
+  </si>
+  <si>
+    <t>25.7400</t>
+  </si>
+  <si>
+    <t>SPASMOFEN 3 AMP. FOR I.M. INJ.</t>
+  </si>
+  <si>
+    <t>3:2</t>
+  </si>
+  <si>
+    <t>12.8700</t>
+  </si>
+  <si>
+    <t>STOPRRHEA 2 MG 30 ORODISPERSIBLE TABS.</t>
+  </si>
+  <si>
+    <t>96.00</t>
+  </si>
+  <si>
+    <t>TARIVID 200MG 10 F.C. TAB.</t>
+  </si>
+  <si>
+    <t>82.00</t>
+  </si>
+  <si>
+    <t>82.0000</t>
+  </si>
+  <si>
+    <t>TECHNOSPIRON 0.03/3MG 21 F.C.TAB</t>
+  </si>
+  <si>
+    <t>84.00</t>
+  </si>
+  <si>
+    <t>84.0000</t>
+  </si>
+  <si>
+    <t>TREFLUCAN 150MG 1 CAPS.</t>
+  </si>
+  <si>
+    <t>28.00</t>
+  </si>
+  <si>
+    <t>28.0000</t>
+  </si>
+  <si>
+    <t>VIDROP 2800 I.U./ML ORAL DROPS 15 ML</t>
+  </si>
+  <si>
+    <t>26.00</t>
+  </si>
+  <si>
+    <t>26.0000</t>
+  </si>
+  <si>
+    <t>VILDABETES 50/1000MG 30 TABS.</t>
+  </si>
+  <si>
+    <t>186.00</t>
+  </si>
+  <si>
+    <t>61.3800</t>
+  </si>
+  <si>
+    <t>VIOTIC EAR DROPS 10 ML</t>
+  </si>
+  <si>
+    <t>23.00</t>
+  </si>
+  <si>
+    <t>23.0000</t>
+  </si>
+  <si>
+    <t>VOLTAREN 1% EMULGEL 25 GM</t>
+  </si>
+  <si>
+    <t>VOLTAREN 75MG/3ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>2:2</t>
+  </si>
+  <si>
+    <t>51.00</t>
+  </si>
+  <si>
+    <t>16.8300</t>
+  </si>
+  <si>
+    <t>VOLTAREN 75MG/3ML 6 AMP.</t>
+  </si>
+  <si>
+    <t>1:6</t>
+  </si>
+  <si>
+    <t>16.3200</t>
+  </si>
+  <si>
+    <t>VONSECA 20MG 14 TAB</t>
+  </si>
+  <si>
+    <t>XORAXON 1GM I.M. VIAL</t>
+  </si>
+  <si>
+    <t>7:0</t>
+  </si>
+  <si>
+    <t>56.00</t>
+  </si>
+  <si>
+    <t>168.0000</t>
+  </si>
+  <si>
+    <t>ZINCOSIL CREAM 20 GM</t>
+  </si>
+  <si>
+    <t>18.00</t>
+  </si>
+  <si>
+    <t>18.0000</t>
+  </si>
+  <si>
+    <t>ZINCTRON 30 CAPS</t>
+  </si>
+  <si>
+    <t>126.00</t>
+  </si>
+  <si>
+    <t>41.5800</t>
+  </si>
+  <si>
+    <t>املاح افونا</t>
+  </si>
+  <si>
+    <t>5:0</t>
+  </si>
+  <si>
+    <t>25.00</t>
+  </si>
+  <si>
+    <t>25.0000</t>
+  </si>
+  <si>
+    <t>ايفا كريم 170 جم</t>
+  </si>
+  <si>
+    <t>بادي سبلاش افوفا الصغير</t>
+  </si>
+  <si>
+    <t>35.00</t>
+  </si>
+  <si>
+    <t>35.0000</t>
+  </si>
+  <si>
+    <t>بادي لوشن كير اند مور</t>
+  </si>
+  <si>
+    <t xml:space="preserve">برفان القصاص </t>
+  </si>
+  <si>
+    <t>21:0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">جهاز محلول </t>
+  </si>
+  <si>
+    <t>30:0</t>
+  </si>
+  <si>
+    <t>20.00</t>
+  </si>
+  <si>
+    <t>20.0000</t>
+  </si>
+  <si>
+    <t>حبايه</t>
+  </si>
+  <si>
+    <t>3.00</t>
+  </si>
+  <si>
+    <t>12.0000</t>
+  </si>
+  <si>
+    <t>حفاضات كبار سن جير ميني 36ق</t>
+  </si>
+  <si>
+    <t>0:18</t>
+  </si>
+  <si>
+    <t>450.00</t>
+  </si>
+  <si>
+    <t>121.5000</t>
+  </si>
+  <si>
+    <t>0:10</t>
+  </si>
+  <si>
+    <t>زبدة كاكاو كير اند مور</t>
+  </si>
+  <si>
+    <t>50.0000</t>
+  </si>
+  <si>
+    <t>زيت جونسون صغير</t>
+  </si>
+  <si>
+    <t>65.00</t>
+  </si>
+  <si>
+    <t>65.0000</t>
+  </si>
+  <si>
+    <t>زيت فاتيكا 45 مل صغير</t>
+  </si>
+  <si>
+    <t>سرنجات 3 سم</t>
+  </si>
+  <si>
+    <t>2.00</t>
+  </si>
+  <si>
+    <t>سرنجات 5 سم</t>
+  </si>
+  <si>
     <t>36.0000</t>
   </si>
   <si>
-    <t>0:3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LACTOFERRIN  THREE ONE  20CAP</t>
-  </si>
-  <si>
-    <t>285.00</t>
-  </si>
-  <si>
-    <t>285.0000</t>
-  </si>
-  <si>
-    <t>L-CARNITINE 300MG/ML SYRUP 30ML</t>
-  </si>
-  <si>
-    <t>70.00</t>
-  </si>
-  <si>
-    <t>70.0000</t>
-  </si>
-  <si>
-    <t>LEVOHISTAM 5MG/10 ML SYRUP 120ML</t>
-  </si>
-  <si>
-    <t>39.00</t>
-  </si>
-  <si>
-    <t>39.0000</t>
-  </si>
-  <si>
-    <t>MELOQUIN 4% CREAM 20 GM</t>
-  </si>
-  <si>
-    <t>60.0000</t>
-  </si>
-  <si>
-    <t>NASSAR 12*8 F.C. TAB.</t>
-  </si>
-  <si>
-    <t>156.00</t>
-  </si>
-  <si>
-    <t>NEXICURE 40 MG 20 F.C. TABLETS</t>
-  </si>
-  <si>
-    <t>152.00</t>
-  </si>
-  <si>
-    <t>76.0000</t>
-  </si>
-  <si>
-    <t>POM SHOWER GEL 250 ML</t>
-  </si>
-  <si>
-    <t>100.00</t>
-  </si>
-  <si>
-    <t>100.0000</t>
-  </si>
-  <si>
-    <t>ROYAL REGIME HERBAL TEA 2 GM*50 TEA BAGS</t>
-  </si>
-  <si>
-    <t>45.00</t>
-  </si>
-  <si>
-    <t>45.0000</t>
-  </si>
-  <si>
-    <t>SPASCOLON 100MG 30 F.C.TAB.</t>
-  </si>
-  <si>
-    <t>108.00</t>
-  </si>
-  <si>
-    <t>35.6400</t>
-  </si>
-  <si>
-    <t>SPASMO-DIGESTIN 30 TABS.</t>
-  </si>
-  <si>
-    <t>25.7400</t>
-  </si>
-  <si>
-    <t>SPASMOFEN 3 AMP. FOR I.M. INJ.</t>
-  </si>
-  <si>
-    <t>3:2</t>
-  </si>
-  <si>
-    <t>12.8700</t>
-  </si>
-  <si>
-    <t>STOPRRHEA 2 MG 30 ORODISPERSIBLE TABS.</t>
-  </si>
-  <si>
-    <t>96.00</t>
-  </si>
-  <si>
-    <t>TARIVID 200MG 10 F.C. TAB.</t>
-  </si>
-  <si>
-    <t>82.00</t>
-  </si>
-  <si>
-    <t>82.0000</t>
-  </si>
-  <si>
-    <t>TECHNOSPIRON 0.03/3MG 21 F.C.TAB</t>
-  </si>
-  <si>
-    <t>84.00</t>
-  </si>
-  <si>
-    <t>84.0000</t>
-  </si>
-  <si>
-    <t>TREFLUCAN 150MG 1 CAPS.</t>
-  </si>
-  <si>
-    <t>28.00</t>
-  </si>
-  <si>
-    <t>28.0000</t>
-  </si>
-  <si>
-    <t>VIDROP 2800 I.U./ML ORAL DROPS 15 ML</t>
-  </si>
-  <si>
-    <t>8:0</t>
-  </si>
-  <si>
-    <t>26.00</t>
-  </si>
-  <si>
-    <t>26.0000</t>
-  </si>
-  <si>
-    <t>VILDABETES 50/1000MG 30 TABS.</t>
-  </si>
-  <si>
-    <t>186.00</t>
-  </si>
-  <si>
-    <t>61.3800</t>
-  </si>
-  <si>
-    <t>VIOTIC EAR DROPS 10 ML</t>
-  </si>
-  <si>
-    <t>23.00</t>
-  </si>
-  <si>
-    <t>23.0000</t>
-  </si>
-  <si>
-    <t>VOLTAREN 1% EMULGEL 25 GM</t>
-  </si>
-  <si>
-    <t>VOLTAREN 75MG/3ML 3 AMP.</t>
-  </si>
-  <si>
-    <t>2:2</t>
-  </si>
-  <si>
-    <t>51.00</t>
-  </si>
-  <si>
-    <t>16.8300</t>
-  </si>
-  <si>
-    <t>VOLTAREN 75MG/3ML 6 AMP.</t>
-  </si>
-  <si>
-    <t>1:6</t>
-  </si>
-  <si>
-    <t>16.3200</t>
-  </si>
-  <si>
-    <t>VONSECA 20MG 14 TAB</t>
-  </si>
-  <si>
-    <t>XORAXON 1GM I.M. VIAL</t>
-  </si>
-  <si>
-    <t>7:0</t>
-  </si>
-  <si>
-    <t>56.00</t>
-  </si>
-  <si>
-    <t>168.0000</t>
-  </si>
-  <si>
-    <t>ZINCOSIL CREAM 20 GM</t>
-  </si>
-  <si>
-    <t>18.00</t>
-  </si>
-  <si>
-    <t>18.0000</t>
-  </si>
-  <si>
-    <t>ZINCTRON 30 CAPS</t>
-  </si>
-  <si>
-    <t>126.00</t>
-  </si>
-  <si>
-    <t>41.5800</t>
-  </si>
-  <si>
-    <t>املاح افونا</t>
-  </si>
-  <si>
-    <t>5:0</t>
-  </si>
-  <si>
-    <t>25.00</t>
-  </si>
-  <si>
-    <t>25.0000</t>
-  </si>
-  <si>
-    <t>ايفا كريم 170 جم</t>
-  </si>
-  <si>
-    <t>بادي سبلاش افوفا الصغير</t>
-  </si>
-  <si>
-    <t>35.00</t>
-  </si>
-  <si>
-    <t>35.0000</t>
-  </si>
-  <si>
-    <t>بادي لوشن كير اند مور</t>
-  </si>
-  <si>
-    <t xml:space="preserve">برفان القصاص </t>
-  </si>
-  <si>
-    <t>21:0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">جهاز محلول </t>
-  </si>
-  <si>
-    <t>30:0</t>
-  </si>
-  <si>
-    <t>20.00</t>
-  </si>
-  <si>
-    <t>20.0000</t>
-  </si>
-  <si>
-    <t>حبايه</t>
-  </si>
-  <si>
-    <t>3.00</t>
-  </si>
-  <si>
-    <t>12.0000</t>
-  </si>
-  <si>
-    <t>حفاضات كبار سن جير ميني 36ق</t>
-  </si>
-  <si>
-    <t>0:18</t>
-  </si>
-  <si>
-    <t>450.00</t>
-  </si>
-  <si>
-    <t>121.5000</t>
-  </si>
-  <si>
-    <t>0:10</t>
-  </si>
-  <si>
-    <t>زبدة كاكاو كير اند مور</t>
-  </si>
-  <si>
-    <t>50.0000</t>
-  </si>
-  <si>
-    <t>زيت جونسون صغير</t>
-  </si>
-  <si>
-    <t>65.00</t>
-  </si>
-  <si>
-    <t>65.0000</t>
-  </si>
-  <si>
-    <t>زيت فاتيكا 45 مل صغير</t>
-  </si>
-  <si>
-    <t>سرنجات 3 سم</t>
-  </si>
-  <si>
-    <t>2.00</t>
-  </si>
-  <si>
-    <t>15:0</t>
-  </si>
-  <si>
-    <t>سرنجات 5 سم</t>
-  </si>
-  <si>
-    <t>21.0000</t>
+    <t>12:0</t>
   </si>
   <si>
     <t>سيتي بيبي رقم 3</t>
@@ -881,7 +890,7 @@
     <t>6:0</t>
   </si>
   <si>
-    <t>Tuesday, 30 September, 2025 9:03 PM</t>
+    <t>Tuesday, 30 September, 2025 9:10 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2050,7 +2059,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>12</v>
+        <v>73</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -2060,14 +2069,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>12</v>
+        <v>76</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -2076,14 +2085,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -2093,14 +2102,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>32</v>
+        <v>12</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -2109,7 +2118,7 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
@@ -2126,14 +2135,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>12</v>
+        <v>32</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -2142,14 +2151,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>81</v>
+        <v>21</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2159,11 +2168,11 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>82</v>
+        <v>67</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>12</v>
@@ -2175,14 +2184,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>21</v>
+        <v>86</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2192,11 +2201,11 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>12</v>
@@ -2208,14 +2217,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>88</v>
+        <v>21</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2225,14 +2234,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>91</v>
+        <v>12</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2248,7 +2257,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>59</v>
+        <v>93</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2258,14 +2267,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>12</v>
+        <v>96</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2274,14 +2283,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>12</v>
+        <v>59</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2291,11 +2300,11 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>12</v>
@@ -2307,14 +2316,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>99</v>
+        <v>12</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2324,14 +2333,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>89</v>
+        <v>101</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2340,14 +2349,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>21</v>
+        <v>104</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2357,14 +2366,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2373,14 +2382,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>44</v>
+        <v>21</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2390,14 +2399,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>32</v>
+        <v>12</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2406,14 +2415,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>12</v>
+        <v>44</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2423,11 +2432,11 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>32</v>
@@ -2439,14 +2448,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2456,14 +2465,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>12</v>
+        <v>32</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2472,14 +2481,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2489,11 +2498,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>67</v>
+        <v>116</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>79</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>12</v>
@@ -2505,14 +2514,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>115</v>
+        <v>12</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2522,14 +2531,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>116</v>
+        <v>67</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>117</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>44</v>
+        <v>12</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2538,31 +2547,31 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>12</v>
+        <v>120</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>32</v>
+        <v>44</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2571,31 +2580,31 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>122</v>
+        <v>12</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c t="s" r="L39" s="10">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>44</v>
+        <v>32</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2604,14 +2613,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>21</v>
+        <v>127</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2621,14 +2630,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>12</v>
+        <v>44</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2637,28 +2646,28 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>44</v>
+        <v>21</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c t="s" r="L41" s="10">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>12</v>
@@ -2670,31 +2679,31 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>132</v>
+        <v>44</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>41</v>
+        <v>12</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2703,14 +2712,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>59</v>
+        <v>137</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2720,14 +2729,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>105</v>
+        <v>138</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>12</v>
+        <v>41</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2736,14 +2745,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>138</v>
+        <v>59</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2753,14 +2762,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>139</v>
+        <v>110</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>32</v>
+        <v>12</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2769,14 +2778,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>59</v>
+        <v>143</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2786,11 +2795,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>32</v>
@@ -2802,14 +2811,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>21</v>
+        <v>59</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2819,14 +2828,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>12</v>
+        <v>32</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2835,7 +2844,7 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
@@ -2852,11 +2861,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>12</v>
@@ -2868,14 +2877,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>59</v>
+        <v>21</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2885,11 +2894,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>12</v>
@@ -2901,28 +2910,28 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>154</v>
+        <v>59</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>12</v>
@@ -2934,14 +2943,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>21</v>
+        <v>76</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2951,11 +2960,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>12</v>
@@ -2967,31 +2976,31 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>50</v>
+        <v>21</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>163</v>
+        <v>12</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -3007,13 +3016,13 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>32</v>
+        <v>59</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
@@ -3024,7 +3033,7 @@
         <v>166</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>12</v>
+        <v>167</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -3033,28 +3042,28 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>12</v>
@@ -3066,14 +3075,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3083,11 +3092,11 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>12</v>
@@ -3099,7 +3108,7 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
@@ -3116,11 +3125,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>161</v>
+        <v>175</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>12</v>
@@ -3132,14 +3141,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>44</v>
+        <v>12</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3149,14 +3158,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>48</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>32</v>
+        <v>12</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3165,14 +3174,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>59</v>
+        <v>44</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3182,11 +3191,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>179</v>
+        <v>48</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>32</v>
@@ -3198,14 +3207,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>21</v>
+        <v>59</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3215,14 +3224,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>12</v>
+        <v>32</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3231,14 +3240,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3248,11 +3257,11 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>12</v>
@@ -3264,14 +3273,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3281,14 +3290,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>32</v>
+        <v>12</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3297,14 +3306,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3314,11 +3323,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>47</v>
+        <v>191</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>32</v>
@@ -3330,14 +3339,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>192</v>
+        <v>29</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3347,11 +3356,11 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>171</v>
+        <v>47</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>32</v>
@@ -3363,14 +3372,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>41</v>
+        <v>196</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3380,11 +3389,11 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>195</v>
+        <v>175</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>117</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>32</v>
@@ -3396,14 +3405,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3413,14 +3422,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>198</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>12</v>
+        <v>32</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3429,14 +3438,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3446,11 +3455,11 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>12</v>
@@ -3462,7 +3471,7 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
@@ -3479,11 +3488,11 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>12</v>
@@ -3495,14 +3504,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>206</v>
+        <v>12</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3535,7 +3544,7 @@
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>44</v>
+        <v>73</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3552,7 +3561,7 @@
         <v>211</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>32</v>
+        <v>12</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3568,7 +3577,7 @@
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>59</v>
+        <v>44</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3585,7 +3594,7 @@
         <v>214</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>12</v>
+        <v>32</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3601,7 +3610,7 @@
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>12</v>
+        <v>59</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3611,11 +3620,11 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>171</v>
+        <v>216</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>172</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>12</v>
@@ -3627,14 +3636,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>217</v>
+        <v>12</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3644,14 +3653,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>218</v>
+        <v>175</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>219</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>32</v>
+        <v>12</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3660,14 +3669,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3677,7 +3686,7 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>38</v>
+        <v>221</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
@@ -3700,7 +3709,7 @@
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>32</v>
+        <v>224</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3710,14 +3719,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>126</v>
+        <v>38</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>127</v>
+        <v>225</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>12</v>
+        <v>32</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3726,14 +3735,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>225</v>
+        <v>32</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3743,14 +3752,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>226</v>
+        <v>131</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>227</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>29</v>
+        <v>12</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3759,14 +3768,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>59</v>
+        <v>228</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3783,7 +3792,7 @@
         <v>230</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>12</v>
+        <v>29</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3799,7 +3808,7 @@
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>12</v>
+        <v>59</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3816,7 +3825,7 @@
         <v>233</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>32</v>
+        <v>12</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3832,24 +3841,24 @@
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>235</v>
+        <v>12</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
       <c r="K77" s="9"/>
       <c t="s" r="L77" s="10">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>12</v>
+        <v>32</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3858,14 +3867,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>12</v>
+        <v>238</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3875,11 +3884,11 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>161</v>
+        <v>239</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>174</v>
+        <v>240</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>12</v>
@@ -3891,14 +3900,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>154</v>
+        <v>12</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3908,11 +3917,11 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>240</v>
+        <v>165</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>241</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>12</v>
@@ -3931,7 +3940,7 @@
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>29</v>
+        <v>76</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3941,11 +3950,11 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>93</v>
+        <v>243</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>94</v>
+        <v>244</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>12</v>
@@ -3957,14 +3966,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>244</v>
+        <v>29</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -3974,11 +3983,11 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>136</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>12</v>
@@ -3990,14 +3999,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4007,11 +4016,11 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>247</v>
+        <v>110</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>248</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>12</v>
@@ -4023,14 +4032,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>21</v>
+        <v>249</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4047,7 +4056,7 @@
         <v>251</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>154</v>
+        <v>12</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4063,7 +4072,7 @@
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>253</v>
+        <v>21</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4073,14 +4082,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>256</v>
+        <v>76</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4089,14 +4098,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>154</v>
+        <v>256</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4106,14 +4115,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>236</v>
+        <v>257</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
         <v>258</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>59</v>
+        <v>259</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4122,14 +4131,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>59</v>
+        <v>76</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4139,14 +4148,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>260</v>
+        <v>239</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
         <v>261</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>12</v>
+        <v>59</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4162,7 +4171,7 @@
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>29</v>
+        <v>59</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4172,11 +4181,11 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>18</v>
+        <v>263</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>19</v>
+        <v>264</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>12</v>
@@ -4188,14 +4197,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4205,14 +4214,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>264</v>
+        <v>18</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>136</v>
+        <v>19</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>265</v>
+        <v>12</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4238,14 +4247,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>250</v>
+        <v>267</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>267</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>225</v>
+        <v>17</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4261,7 +4270,7 @@
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>59</v>
+        <v>21</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4271,14 +4280,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>269</v>
+        <v>253</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
+        <v>269</v>
+      </c>
+      <c t="s" r="Q90" s="12">
         <v>270</v>
-      </c>
-      <c t="s" r="Q90" s="12">
-        <v>12</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4294,7 +4303,7 @@
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>21</v>
+        <v>59</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4308,7 +4317,7 @@
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>43</v>
+        <v>273</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>12</v>
@@ -4320,14 +4329,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>235</v>
+        <v>21</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4337,11 +4346,11 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>275</v>
+        <v>43</v>
       </c>
       <c t="s" r="Q92" s="12">
         <v>12</v>
@@ -4360,7 +4369,7 @@
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>206</v>
+        <v>238</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4370,11 +4379,11 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>184</v>
+        <v>277</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>185</v>
+        <v>278</v>
       </c>
       <c t="s" r="Q93" s="12">
         <v>12</v>
@@ -4386,14 +4395,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>235</v>
+        <v>73</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4403,11 +4412,11 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>260</v>
+        <v>188</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>261</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q94" s="12">
         <v>12</v>
@@ -4419,14 +4428,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4436,11 +4445,11 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>236</v>
+        <v>263</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>237</v>
+        <v>264</v>
       </c>
       <c t="s" r="Q95" s="12">
         <v>12</v>
@@ -4452,14 +4461,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>280</v>
+        <v>238</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4469,11 +4478,11 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>247</v>
+        <v>239</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>248</v>
+        <v>240</v>
       </c>
       <c t="s" r="Q96" s="12">
         <v>12</v>
@@ -4485,14 +4494,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>21</v>
+        <v>283</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4502,11 +4511,11 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>18</v>
+        <v>250</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>19</v>
+        <v>251</v>
       </c>
       <c t="s" r="Q97" s="12">
         <v>12</v>
@@ -4518,14 +4527,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>154</v>
+        <v>21</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4535,11 +4544,11 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>105</v>
+        <v>18</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>136</v>
+        <v>19</v>
       </c>
       <c t="s" r="Q98" s="12">
         <v>12</v>
@@ -4551,14 +4560,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>59</v>
+        <v>76</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4568,14 +4577,14 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>18</v>
+        <v>110</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>174</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>154</v>
+        <v>12</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4584,14 +4593,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>285</v>
+        <v>59</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4601,14 +4610,14 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>133</v>
+        <v>18</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>286</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>12</v>
+        <v>76</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4624,7 +4633,7 @@
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>29</v>
+        <v>288</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4634,14 +4643,14 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>105</v>
+        <v>138</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>174</v>
+        <v>289</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>59</v>
+        <v>12</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4650,14 +4659,14 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>289</v>
+        <v>29</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4667,49 +4676,82 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>67</v>
+        <v>110</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>79</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>12</v>
+        <v>59</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
-      <c r="P103" s="13">
-        <v>6060.8000000000002</v>
-      </c>
-      <c r="Q103" s="13"/>
-    </row>
-    <row r="104" ht="16.5" customHeight="1">
-      <c t="s" r="A104" s="14">
-        <v>290</v>
-      </c>
-      <c r="B104" s="14"/>
-      <c r="C104" s="14"/>
-      <c r="D104" s="14"/>
-      <c r="E104" s="14"/>
-      <c r="F104" s="14"/>
-      <c t="s" r="G104" s="15">
+      <c r="A103" s="7">
+        <v>97</v>
+      </c>
+      <c r="B103" s="7"/>
+      <c t="s" r="C103" s="8">
         <v>291</v>
       </c>
-      <c r="H104" s="15"/>
-      <c r="I104" s="15"/>
-      <c r="J104" s="16"/>
-      <c t="s" r="K104" s="17">
+      <c r="D103" s="8"/>
+      <c r="E103" s="8"/>
+      <c r="F103" s="8"/>
+      <c r="G103" s="8"/>
+      <c t="s" r="H103" s="9">
         <v>292</v>
       </c>
-      <c r="L104" s="17"/>
-      <c r="M104" s="17"/>
-      <c r="N104" s="17"/>
-      <c r="O104" s="17"/>
-      <c r="P104" s="17"/>
-      <c r="Q104" s="17"/>
+      <c r="I103" s="9"/>
+      <c r="J103" s="9"/>
+      <c r="K103" s="9"/>
+      <c t="s" r="L103" s="10">
+        <v>22</v>
+      </c>
+      <c r="M103" s="10"/>
+      <c t="s" r="N103" s="8">
+        <v>67</v>
+      </c>
+      <c r="O103" s="8"/>
+      <c t="s" r="P103" s="11">
+        <v>84</v>
+      </c>
+      <c t="s" r="Q103" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="104" ht="25.5" customHeight="1">
+      <c r="P104" s="13">
+        <v>6261.8000000000002</v>
+      </c>
+      <c r="Q104" s="13"/>
+    </row>
+    <row r="105" ht="16.5" customHeight="1">
+      <c t="s" r="A105" s="14">
+        <v>293</v>
+      </c>
+      <c r="B105" s="14"/>
+      <c r="C105" s="14"/>
+      <c r="D105" s="14"/>
+      <c r="E105" s="14"/>
+      <c r="F105" s="14"/>
+      <c t="s" r="G105" s="15">
+        <v>294</v>
+      </c>
+      <c r="H105" s="15"/>
+      <c r="I105" s="15"/>
+      <c r="J105" s="16"/>
+      <c t="s" r="K105" s="17">
+        <v>295</v>
+      </c>
+      <c r="L105" s="17"/>
+      <c r="M105" s="17"/>
+      <c r="N105" s="17"/>
+      <c r="O105" s="17"/>
+      <c r="P105" s="17"/>
+      <c r="Q105" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="492">
+  <mergeCells count="497">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5198,10 +5240,15 @@
     <mergeCell ref="H102:K102"/>
     <mergeCell ref="L102:M102"/>
     <mergeCell ref="N102:O102"/>
-    <mergeCell ref="P103:Q103"/>
-    <mergeCell ref="A104:F104"/>
-    <mergeCell ref="G104:I104"/>
-    <mergeCell ref="K104:Q104"/>
+    <mergeCell ref="A103:B103"/>
+    <mergeCell ref="C103:G103"/>
+    <mergeCell ref="H103:K103"/>
+    <mergeCell ref="L103:M103"/>
+    <mergeCell ref="N103:O103"/>
+    <mergeCell ref="P104:Q104"/>
+    <mergeCell ref="A105:F105"/>
+    <mergeCell ref="G105:I105"/>
+    <mergeCell ref="K105:Q105"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-30_00-00.xlsx
+++ b/DaySale_2025-09-30_00-00.xlsx
@@ -437,6 +437,15 @@
     <t>30.0000</t>
   </si>
   <si>
+    <t>FEMOGESAL 0.03/0.075MG 21 F.C.TABS.</t>
+  </si>
+  <si>
+    <t>76.00</t>
+  </si>
+  <si>
+    <t>76.0000</t>
+  </si>
+  <si>
     <t>FORBUDES 400/12MCG 60 INHALATION CAPS.+INHALER</t>
   </si>
   <si>
@@ -560,9 +569,6 @@
     <t>152.00</t>
   </si>
   <si>
-    <t>76.0000</t>
-  </si>
-  <si>
     <t>POM SHOWER GEL 250 ML</t>
   </si>
   <si>
@@ -572,6 +578,9 @@
     <t>100.0000</t>
   </si>
   <si>
+    <t>RICHI PANTHENOL CREAM 20GM</t>
+  </si>
+  <si>
     <t>ROYAL REGIME HERBAL TEA 2 GM*50 TEA BAGS</t>
   </si>
   <si>
@@ -752,7 +761,10 @@
     <t xml:space="preserve">برفان القصاص </t>
   </si>
   <si>
-    <t>21:0</t>
+    <t>19:0</t>
+  </si>
+  <si>
+    <t>90.0000</t>
   </si>
   <si>
     <t xml:space="preserve">جهاز محلول </t>
@@ -839,6 +851,9 @@
     <t>110.00</t>
   </si>
   <si>
+    <t xml:space="preserve">شفرات فينوس حريمي </t>
+  </si>
+  <si>
     <t>صابون ديتول الصغير</t>
   </si>
   <si>
@@ -884,13 +899,22 @@
     <t>مخمريه العود الملكي</t>
   </si>
   <si>
+    <t>مزيل عرق SHALIS رجالي</t>
+  </si>
+  <si>
+    <t>75.00</t>
+  </si>
+  <si>
+    <t>75.0000</t>
+  </si>
+  <si>
     <t>معجون سنسوداين صغير</t>
   </si>
   <si>
     <t>6:0</t>
   </si>
   <si>
-    <t>Tuesday, 30 September, 2025 9:10 PM</t>
+    <t>Tuesday, 30 September, 2025 9:19 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2785,7 +2809,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>143</v>
+        <v>21</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2795,14 +2819,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>32</v>
+        <v>12</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2811,14 +2835,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>59</v>
+        <v>146</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2851,7 +2875,7 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>21</v>
+        <v>59</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2868,7 +2892,7 @@
         <v>151</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>12</v>
+        <v>32</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2917,7 +2941,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>59</v>
+        <v>21</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2950,13 +2974,13 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>76</v>
+        <v>59</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
@@ -2983,7 +3007,7 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>21</v>
+        <v>76</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -3016,13 +3040,13 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>59</v>
+        <v>21</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
@@ -3033,7 +3057,7 @@
         <v>166</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>167</v>
+        <v>12</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -3042,31 +3066,31 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>32</v>
+        <v>59</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
+        <v>169</v>
+      </c>
+      <c t="s" r="Q53" s="12">
         <v>170</v>
-      </c>
-      <c t="s" r="Q53" s="12">
-        <v>12</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3082,13 +3106,13 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
@@ -3115,7 +3139,7 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3158,11 +3182,11 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>165</v>
+        <v>178</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>12</v>
@@ -3174,14 +3198,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>44</v>
+        <v>12</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3191,14 +3215,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>180</v>
+        <v>168</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>48</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>32</v>
+        <v>12</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3207,14 +3231,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>59</v>
+        <v>44</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3224,11 +3248,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>183</v>
+        <v>48</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>32</v>
@@ -3247,7 +3271,7 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>21</v>
+        <v>59</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3261,10 +3285,10 @@
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>186</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>12</v>
+        <v>32</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3273,14 +3297,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3290,11 +3314,11 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>12</v>
@@ -3306,14 +3330,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3323,14 +3347,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>191</v>
+        <v>110</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>192</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>32</v>
+        <v>12</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3339,14 +3363,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3356,14 +3380,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>47</v>
+        <v>191</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>32</v>
+        <v>12</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3372,14 +3396,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>196</v>
+        <v>41</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3389,11 +3413,11 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>175</v>
+        <v>194</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>32</v>
@@ -3405,14 +3429,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3422,11 +3446,11 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>199</v>
+        <v>47</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>122</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>32</v>
@@ -3438,14 +3462,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>21</v>
+        <v>199</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3455,14 +3479,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>201</v>
+        <v>178</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>12</v>
+        <v>32</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3471,14 +3495,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3488,14 +3512,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>205</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>12</v>
+        <v>32</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3504,14 +3528,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3521,11 +3545,11 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>12</v>
@@ -3537,14 +3561,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>73</v>
+        <v>12</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3554,11 +3578,11 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>12</v>
@@ -3570,14 +3594,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>44</v>
+        <v>12</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3587,14 +3611,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>32</v>
+        <v>12</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3603,14 +3627,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>59</v>
+        <v>73</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3620,11 +3644,11 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>12</v>
@@ -3636,14 +3660,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>12</v>
+        <v>44</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3653,14 +3677,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>175</v>
+        <v>216</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>176</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>12</v>
+        <v>32</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3669,14 +3693,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>220</v>
+        <v>59</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3686,14 +3710,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>32</v>
+        <v>12</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3702,14 +3726,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>224</v>
+        <v>12</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3719,14 +3743,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>38</v>
+        <v>178</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>225</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>32</v>
+        <v>12</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3735,14 +3759,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>32</v>
+        <v>223</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3752,14 +3776,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>131</v>
+        <v>224</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>132</v>
+        <v>225</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>12</v>
+        <v>32</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3768,14 +3792,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3785,14 +3809,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>229</v>
+        <v>38</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3801,14 +3825,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>59</v>
+        <v>32</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3818,11 +3842,11 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>232</v>
+        <v>131</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>233</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>12</v>
@@ -3834,14 +3858,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>12</v>
+        <v>231</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3851,14 +3875,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3867,28 +3891,28 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>238</v>
+        <v>59</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
       <c r="K78" s="9"/>
       <c t="s" r="L78" s="10">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>12</v>
@@ -3900,7 +3924,7 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
@@ -3913,18 +3937,18 @@
       <c r="J79" s="9"/>
       <c r="K79" s="9"/>
       <c t="s" r="L79" s="10">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>165</v>
+        <v>238</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>178</v>
+        <v>239</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>12</v>
+        <v>32</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3933,14 +3957,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>76</v>
+        <v>241</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3950,11 +3974,11 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>12</v>
@@ -3966,14 +3990,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -3983,11 +4007,11 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>98</v>
+        <v>168</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>99</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>12</v>
@@ -3999,14 +4023,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>247</v>
+        <v>76</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4016,11 +4040,11 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>110</v>
+        <v>246</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>141</v>
+        <v>247</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>12</v>
@@ -4039,7 +4063,7 @@
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>249</v>
+        <v>29</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4049,11 +4073,11 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>250</v>
+        <v>98</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>251</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>12</v>
@@ -4065,14 +4089,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>21</v>
+        <v>250</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4082,14 +4106,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>253</v>
+        <v>110</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>76</v>
+        <v>29</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4098,14 +4122,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4115,14 +4139,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>259</v>
+        <v>12</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4131,14 +4155,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>76</v>
+        <v>21</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4148,14 +4172,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>239</v>
+        <v>257</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>59</v>
+        <v>76</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4164,14 +4188,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>59</v>
+        <v>260</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4181,14 +4205,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>12</v>
+        <v>263</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4197,14 +4221,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>29</v>
+        <v>76</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4214,14 +4238,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>18</v>
+        <v>242</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>19</v>
+        <v>265</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>12</v>
+        <v>59</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4237,7 +4261,7 @@
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>21</v>
+        <v>59</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4251,10 +4275,10 @@
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>15</v>
+        <v>268</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4263,14 +4287,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4280,14 +4304,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>253</v>
+        <v>18</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>269</v>
+        <v>19</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>270</v>
+        <v>12</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4296,14 +4320,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>59</v>
+        <v>21</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4313,14 +4337,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>273</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4329,7 +4353,7 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
@@ -4346,14 +4370,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>275</v>
+        <v>257</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>43</v>
+        <v>273</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>12</v>
+        <v>274</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4362,14 +4386,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>238</v>
+        <v>59</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4379,11 +4403,11 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c t="s" r="Q93" s="12">
         <v>12</v>
@@ -4395,14 +4419,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>73</v>
+        <v>21</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4412,11 +4436,11 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>188</v>
+        <v>279</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>189</v>
+        <v>43</v>
       </c>
       <c t="s" r="Q94" s="12">
         <v>12</v>
@@ -4435,7 +4459,7 @@
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>238</v>
+        <v>250</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4445,11 +4469,11 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>263</v>
+        <v>254</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>264</v>
+        <v>255</v>
       </c>
       <c t="s" r="Q95" s="12">
         <v>12</v>
@@ -4468,7 +4492,7 @@
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4478,11 +4502,11 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>239</v>
+        <v>282</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>240</v>
+        <v>283</v>
       </c>
       <c t="s" r="Q96" s="12">
         <v>12</v>
@@ -4494,14 +4518,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>283</v>
+        <v>73</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4511,11 +4535,11 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>250</v>
+        <v>191</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>251</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q97" s="12">
         <v>12</v>
@@ -4527,14 +4551,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>21</v>
+        <v>241</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4544,11 +4568,11 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>18</v>
+        <v>267</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>19</v>
+        <v>268</v>
       </c>
       <c t="s" r="Q98" s="12">
         <v>12</v>
@@ -4560,14 +4584,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>76</v>
+        <v>241</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4577,11 +4601,11 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>110</v>
+        <v>242</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>141</v>
+        <v>243</v>
       </c>
       <c t="s" r="Q99" s="12">
         <v>12</v>
@@ -4593,14 +4617,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>59</v>
+        <v>288</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4610,14 +4634,14 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>18</v>
+        <v>254</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>178</v>
+        <v>255</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>76</v>
+        <v>12</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4626,14 +4650,14 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>288</v>
+        <v>21</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4643,11 +4667,11 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>138</v>
+        <v>18</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>289</v>
+        <v>19</v>
       </c>
       <c t="s" r="Q101" s="12">
         <v>12</v>
@@ -4666,7 +4690,7 @@
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>29</v>
+        <v>76</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4680,10 +4704,10 @@
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>178</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>59</v>
+        <v>12</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4699,7 +4723,7 @@
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>292</v>
+        <v>59</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4709,49 +4733,181 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>67</v>
+        <v>18</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
+        <v>181</v>
+      </c>
+      <c t="s" r="Q103" s="12">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="104" ht="25.5" customHeight="1">
+      <c r="A104" s="7">
+        <v>98</v>
+      </c>
+      <c r="B104" s="7"/>
+      <c t="s" r="C104" s="8">
+        <v>292</v>
+      </c>
+      <c r="D104" s="8"/>
+      <c r="E104" s="8"/>
+      <c r="F104" s="8"/>
+      <c r="G104" s="8"/>
+      <c t="s" r="H104" s="9">
+        <v>293</v>
+      </c>
+      <c r="I104" s="9"/>
+      <c r="J104" s="9"/>
+      <c r="K104" s="9"/>
+      <c t="s" r="L104" s="10">
+        <v>22</v>
+      </c>
+      <c r="M104" s="10"/>
+      <c t="s" r="N104" s="8">
+        <v>138</v>
+      </c>
+      <c r="O104" s="8"/>
+      <c t="s" r="P104" s="11">
+        <v>294</v>
+      </c>
+      <c t="s" r="Q104" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="105" ht="24.75" customHeight="1">
+      <c r="A105" s="7">
+        <v>99</v>
+      </c>
+      <c r="B105" s="7"/>
+      <c t="s" r="C105" s="8">
+        <v>295</v>
+      </c>
+      <c r="D105" s="8"/>
+      <c r="E105" s="8"/>
+      <c r="F105" s="8"/>
+      <c r="G105" s="8"/>
+      <c t="s" r="H105" s="9">
+        <v>29</v>
+      </c>
+      <c r="I105" s="9"/>
+      <c r="J105" s="9"/>
+      <c r="K105" s="9"/>
+      <c t="s" r="L105" s="10">
+        <v>22</v>
+      </c>
+      <c r="M105" s="10"/>
+      <c t="s" r="N105" s="8">
+        <v>110</v>
+      </c>
+      <c r="O105" s="8"/>
+      <c t="s" r="P105" s="11">
+        <v>181</v>
+      </c>
+      <c t="s" r="Q105" s="12">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="106" ht="25.5" customHeight="1">
+      <c r="A106" s="7">
+        <v>100</v>
+      </c>
+      <c r="B106" s="7"/>
+      <c t="s" r="C106" s="8">
+        <v>296</v>
+      </c>
+      <c r="D106" s="8"/>
+      <c r="E106" s="8"/>
+      <c r="F106" s="8"/>
+      <c r="G106" s="8"/>
+      <c t="s" r="H106" s="9">
+        <v>29</v>
+      </c>
+      <c r="I106" s="9"/>
+      <c r="J106" s="9"/>
+      <c r="K106" s="9"/>
+      <c t="s" r="L106" s="10">
+        <v>22</v>
+      </c>
+      <c r="M106" s="10"/>
+      <c t="s" r="N106" s="8">
+        <v>297</v>
+      </c>
+      <c r="O106" s="8"/>
+      <c t="s" r="P106" s="11">
+        <v>298</v>
+      </c>
+      <c t="s" r="Q106" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="107" ht="25.5" customHeight="1">
+      <c r="A107" s="7">
+        <v>101</v>
+      </c>
+      <c r="B107" s="7"/>
+      <c t="s" r="C107" s="8">
+        <v>299</v>
+      </c>
+      <c r="D107" s="8"/>
+      <c r="E107" s="8"/>
+      <c r="F107" s="8"/>
+      <c r="G107" s="8"/>
+      <c t="s" r="H107" s="9">
+        <v>300</v>
+      </c>
+      <c r="I107" s="9"/>
+      <c r="J107" s="9"/>
+      <c r="K107" s="9"/>
+      <c t="s" r="L107" s="10">
+        <v>22</v>
+      </c>
+      <c r="M107" s="10"/>
+      <c t="s" r="N107" s="8">
+        <v>67</v>
+      </c>
+      <c r="O107" s="8"/>
+      <c t="s" r="P107" s="11">
         <v>84</v>
       </c>
-      <c t="s" r="Q103" s="12">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="104" ht="25.5" customHeight="1">
-      <c r="P104" s="13">
-        <v>6261.8000000000002</v>
-      </c>
-      <c r="Q104" s="13"/>
-    </row>
-    <row r="105" ht="16.5" customHeight="1">
-      <c t="s" r="A105" s="14">
-        <v>293</v>
-      </c>
-      <c r="B105" s="14"/>
-      <c r="C105" s="14"/>
-      <c r="D105" s="14"/>
-      <c r="E105" s="14"/>
-      <c r="F105" s="14"/>
-      <c t="s" r="G105" s="15">
-        <v>294</v>
-      </c>
-      <c r="H105" s="15"/>
-      <c r="I105" s="15"/>
-      <c r="J105" s="16"/>
-      <c t="s" r="K105" s="17">
-        <v>295</v>
-      </c>
-      <c r="L105" s="17"/>
-      <c r="M105" s="17"/>
-      <c r="N105" s="17"/>
-      <c r="O105" s="17"/>
-      <c r="P105" s="17"/>
-      <c r="Q105" s="17"/>
+      <c t="s" r="Q107" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="108" ht="24.75" customHeight="1">
+      <c r="P108" s="13">
+        <v>6522.8000000000002</v>
+      </c>
+      <c r="Q108" s="13"/>
+    </row>
+    <row r="109" ht="16.5" customHeight="1">
+      <c t="s" r="A109" s="14">
+        <v>301</v>
+      </c>
+      <c r="B109" s="14"/>
+      <c r="C109" s="14"/>
+      <c r="D109" s="14"/>
+      <c r="E109" s="14"/>
+      <c r="F109" s="14"/>
+      <c t="s" r="G109" s="15">
+        <v>302</v>
+      </c>
+      <c r="H109" s="15"/>
+      <c r="I109" s="15"/>
+      <c r="J109" s="16"/>
+      <c t="s" r="K109" s="17">
+        <v>303</v>
+      </c>
+      <c r="L109" s="17"/>
+      <c r="M109" s="17"/>
+      <c r="N109" s="17"/>
+      <c r="O109" s="17"/>
+      <c r="P109" s="17"/>
+      <c r="Q109" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="497">
+  <mergeCells count="517">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5245,10 +5401,30 @@
     <mergeCell ref="H103:K103"/>
     <mergeCell ref="L103:M103"/>
     <mergeCell ref="N103:O103"/>
-    <mergeCell ref="P104:Q104"/>
-    <mergeCell ref="A105:F105"/>
-    <mergeCell ref="G105:I105"/>
-    <mergeCell ref="K105:Q105"/>
+    <mergeCell ref="A104:B104"/>
+    <mergeCell ref="C104:G104"/>
+    <mergeCell ref="H104:K104"/>
+    <mergeCell ref="L104:M104"/>
+    <mergeCell ref="N104:O104"/>
+    <mergeCell ref="A105:B105"/>
+    <mergeCell ref="C105:G105"/>
+    <mergeCell ref="H105:K105"/>
+    <mergeCell ref="L105:M105"/>
+    <mergeCell ref="N105:O105"/>
+    <mergeCell ref="A106:B106"/>
+    <mergeCell ref="C106:G106"/>
+    <mergeCell ref="H106:K106"/>
+    <mergeCell ref="L106:M106"/>
+    <mergeCell ref="N106:O106"/>
+    <mergeCell ref="A107:B107"/>
+    <mergeCell ref="C107:G107"/>
+    <mergeCell ref="H107:K107"/>
+    <mergeCell ref="L107:M107"/>
+    <mergeCell ref="N107:O107"/>
+    <mergeCell ref="P108:Q108"/>
+    <mergeCell ref="A109:F109"/>
+    <mergeCell ref="G109:I109"/>
+    <mergeCell ref="K109:Q109"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-30_00-00.xlsx
+++ b/DaySale_2025-09-30_00-00.xlsx
@@ -914,7 +914,7 @@
     <t>6:0</t>
   </si>
   <si>
-    <t>Tuesday, 30 September, 2025 9:19 PM</t>
+    <t>Tuesday, 30 September, 2025 9:22 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-09-30_00-00.xlsx
+++ b/DaySale_2025-09-30_00-00.xlsx
@@ -44,15 +44,27 @@
     <t>عدد التعااملات</t>
   </si>
   <si>
+    <t>1 2 3 (ONE TWO THREE) 20 F.C.TABS.</t>
+  </si>
+  <si>
+    <t>0:1</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>40.00</t>
+  </si>
+  <si>
+    <t>20.0000</t>
+  </si>
+  <si>
     <t>1 2 3 (ONE TWO THREE) SYRUP 120 ML</t>
   </si>
   <si>
     <t>1:0</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
     <t>32.00</t>
   </si>
   <si>
@@ -107,9 +119,6 @@
     <t>28.7100</t>
   </si>
   <si>
-    <t>0:1</t>
-  </si>
-  <si>
     <t>ALVERINSPASM 24 S.G.CAPS.</t>
   </si>
   <si>
@@ -212,9 +221,6 @@
     <t>CARBAMIDE 10% CREAM 30 GM</t>
   </si>
   <si>
-    <t>40.00</t>
-  </si>
-  <si>
     <t>80.0000</t>
   </si>
   <si>
@@ -401,6 +407,12 @@
     <t>45.5400</t>
   </si>
   <si>
+    <t>ERASTAPEX PLUS 20MG/12.5MG 30 TAB</t>
+  </si>
+  <si>
+    <t>25.7400</t>
+  </si>
+  <si>
     <t>E-ROSH ANTI-DANDRUFF SHAMPOO 200 ML</t>
   </si>
   <si>
@@ -557,6 +569,9 @@
     <t>60.0000</t>
   </si>
   <si>
+    <t>MOBITIL 15MG/1.5ML 3 AMP.</t>
+  </si>
+  <si>
     <t>NASSAR 12*8 F.C. TAB.</t>
   </si>
   <si>
@@ -569,6 +584,12 @@
     <t>152.00</t>
   </si>
   <si>
+    <t>PANADOL ACUTE HEAD COLD</t>
+  </si>
+  <si>
+    <t>31.0000</t>
+  </si>
+  <si>
     <t>POM SHOWER GEL 250 ML</t>
   </si>
   <si>
@@ -602,9 +623,6 @@
     <t>SPASMO-DIGESTIN 30 TABS.</t>
   </si>
   <si>
-    <t>25.7400</t>
-  </si>
-  <si>
     <t>SPASMOFEN 3 AMP. FOR I.M. INJ.</t>
   </si>
   <si>
@@ -776,9 +794,6 @@
     <t>20.00</t>
   </si>
   <si>
-    <t>20.0000</t>
-  </si>
-  <si>
     <t>حبايه</t>
   </si>
   <si>
@@ -827,6 +842,9 @@
     <t>2.00</t>
   </si>
   <si>
+    <t>38.0000</t>
+  </si>
+  <si>
     <t>سرنجات 5 سم</t>
   </si>
   <si>
@@ -914,7 +932,7 @@
     <t>6:0</t>
   </si>
   <si>
-    <t>Tuesday, 30 September, 2025 9:22 PM</t>
+    <t>Tuesday, 30 September, 2025 9:55 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1605,7 +1623,7 @@
         <v>19</v>
       </c>
       <c t="s" r="Q8" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" ht="25.5" customHeight="1">
@@ -1627,18 +1645,18 @@
       <c r="J9" s="9"/>
       <c r="K9" s="9"/>
       <c t="s" r="L9" s="10">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="O9" s="8"/>
       <c t="s" r="P9" s="11">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -1647,31 +1665,31 @@
       </c>
       <c r="B10" s="7"/>
       <c t="s" r="C10" s="8">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
       <c r="K10" s="9"/>
       <c t="s" r="L10" s="10">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1680,20 +1698,20 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
       <c r="K11" s="9"/>
       <c t="s" r="L11" s="10">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
@@ -1704,7 +1722,7 @@
         <v>31</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>32</v>
+        <v>17</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1713,14 +1731,14 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1753,7 +1771,7 @@
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>37</v>
+        <v>12</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1763,14 +1781,14 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>32</v>
+        <v>17</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1779,14 +1797,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1796,14 +1814,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>44</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1812,14 +1830,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1829,14 +1847,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>32</v>
+        <v>47</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1845,14 +1863,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1862,14 +1880,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>32</v>
+        <v>12</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1878,14 +1896,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>21</v>
+        <v>53</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1918,7 +1936,7 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1935,7 +1953,7 @@
         <v>58</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>59</v>
+        <v>17</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1944,14 +1962,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>59</v>
+        <v>25</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1961,14 +1979,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
+        <v>61</v>
+      </c>
+      <c t="s" r="Q19" s="12">
         <v>62</v>
-      </c>
-      <c t="s" r="Q19" s="12">
-        <v>12</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1984,7 +2002,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>21</v>
+        <v>62</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -2001,7 +2019,7 @@
         <v>65</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -2017,7 +2035,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -2034,7 +2052,7 @@
         <v>68</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>59</v>
+        <v>17</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -2050,7 +2068,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -2060,14 +2078,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>70</v>
+        <v>14</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>32</v>
+        <v>62</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -2076,14 +2094,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>73</v>
+        <v>44</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -2093,14 +2111,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>76</v>
+        <v>12</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -2109,14 +2127,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>12</v>
+        <v>75</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -2126,14 +2144,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>12</v>
+        <v>78</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -2142,14 +2160,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -2159,14 +2177,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>32</v>
+        <v>17</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -2175,14 +2193,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2192,7 +2210,7 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>67</v>
+        <v>83</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
@@ -2215,7 +2233,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>86</v>
+        <v>25</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2225,14 +2243,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>87</v>
+        <v>14</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2241,14 +2259,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>21</v>
+        <v>88</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2258,14 +2276,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2274,14 +2292,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>93</v>
+        <v>25</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2291,14 +2309,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>96</v>
+        <v>17</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2307,14 +2325,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>59</v>
+        <v>95</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2324,14 +2342,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>12</v>
+        <v>98</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2340,14 +2358,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>12</v>
+        <v>62</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2357,14 +2375,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2373,14 +2391,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>104</v>
+        <v>17</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2390,14 +2408,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>94</v>
+        <v>103</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2406,14 +2424,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>21</v>
+        <v>106</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2423,14 +2441,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2439,14 +2457,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>44</v>
+        <v>25</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2456,14 +2474,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>32</v>
+        <v>17</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2472,14 +2490,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>12</v>
+        <v>47</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2489,14 +2507,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>32</v>
+        <v>12</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2505,14 +2523,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2522,11 +2540,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>12</v>
@@ -2538,14 +2556,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2555,14 +2573,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>67</v>
+        <v>118</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>84</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2571,14 +2589,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>120</v>
+        <v>17</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2588,14 +2606,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>121</v>
+        <v>14</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>122</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>44</v>
+        <v>17</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2604,31 +2622,31 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>12</v>
+        <v>122</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c t="s" r="L39" s="10">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>32</v>
+        <v>47</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2637,31 +2655,31 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>127</v>
+        <v>17</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>44</v>
+        <v>12</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2670,14 +2688,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>21</v>
+        <v>129</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2687,14 +2705,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>12</v>
+        <v>47</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2703,7 +2721,7 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
@@ -2716,15 +2734,15 @@
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>134</v>
+        <v>50</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>12</v>
@@ -2736,14 +2754,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>137</v>
+        <v>25</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2753,14 +2771,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>41</v>
+        <v>17</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2769,31 +2787,31 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>110</v>
+        <v>138</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2802,14 +2820,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>21</v>
+        <v>141</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2819,14 +2837,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>12</v>
+        <v>44</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2835,14 +2853,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>146</v>
+        <v>62</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2852,14 +2870,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>147</v>
+        <v>112</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>32</v>
+        <v>17</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2868,14 +2886,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>59</v>
+        <v>25</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2885,14 +2903,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>32</v>
+        <v>17</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2901,14 +2919,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>21</v>
+        <v>150</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2918,11 +2936,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>12</v>
@@ -2934,14 +2952,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>21</v>
+        <v>62</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2951,11 +2969,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>12</v>
@@ -2967,14 +2985,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>59</v>
+        <v>25</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2984,14 +3002,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -3000,31 +3018,31 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>76</v>
+        <v>25</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -3033,31 +3051,31 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>21</v>
+        <v>62</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -3066,31 +3084,31 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>59</v>
+        <v>78</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>170</v>
+        <v>17</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3099,31 +3117,31 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3132,14 +3150,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>21</v>
+        <v>62</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3149,14 +3167,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>12</v>
+        <v>174</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3165,7 +3183,7 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
@@ -3178,18 +3196,18 @@
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3198,14 +3216,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3215,14 +3233,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>168</v>
+        <v>179</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3231,14 +3249,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>44</v>
+        <v>17</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3248,14 +3266,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>48</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>32</v>
+        <v>17</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3271,7 +3289,7 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>59</v>
+        <v>17</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3281,14 +3299,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>185</v>
+        <v>172</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>144</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>32</v>
+        <v>17</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3304,7 +3322,7 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>21</v>
+        <v>78</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3314,14 +3332,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3330,14 +3348,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>12</v>
+        <v>47</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3347,11 +3365,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>110</v>
+        <v>188</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>141</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>12</v>
@@ -3363,14 +3381,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>12</v>
+        <v>62</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3380,11 +3398,11 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>192</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>12</v>
@@ -3396,31 +3414,31 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>194</v>
+        <v>80</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>32</v>
+        <v>12</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3429,14 +3447,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3446,14 +3464,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>47</v>
+        <v>194</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>32</v>
+        <v>17</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3462,14 +3480,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>199</v>
+        <v>17</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3479,14 +3497,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>178</v>
+        <v>112</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>200</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>32</v>
+        <v>17</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3495,14 +3513,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3512,14 +3530,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>122</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>32</v>
+        <v>17</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3528,14 +3546,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>21</v>
+        <v>44</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3545,11 +3563,11 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>12</v>
@@ -3561,14 +3579,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3578,11 +3596,11 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>207</v>
+        <v>50</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>208</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>12</v>
@@ -3594,14 +3612,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>12</v>
+        <v>205</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3611,11 +3629,11 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>210</v>
+        <v>182</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>12</v>
@@ -3627,14 +3645,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>73</v>
+        <v>44</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3644,11 +3662,11 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>214</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>12</v>
@@ -3660,14 +3678,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>44</v>
+        <v>25</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3677,14 +3695,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>32</v>
+        <v>17</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3693,14 +3711,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>59</v>
+        <v>17</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3710,14 +3728,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3726,14 +3744,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3743,14 +3761,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>178</v>
+        <v>216</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>179</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3759,14 +3777,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>223</v>
+        <v>75</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3776,14 +3794,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>32</v>
+        <v>17</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3792,14 +3810,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>227</v>
+        <v>47</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3809,14 +3827,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>38</v>
+        <v>222</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>32</v>
+        <v>12</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3825,14 +3843,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>32</v>
+        <v>62</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3842,14 +3860,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>131</v>
+        <v>225</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>132</v>
+        <v>226</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3858,14 +3876,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>231</v>
+        <v>17</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3875,14 +3893,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>232</v>
+        <v>182</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>233</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>29</v>
+        <v>17</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3891,14 +3909,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>59</v>
+        <v>229</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3908,11 +3926,11 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>12</v>
@@ -3924,14 +3942,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>12</v>
+        <v>233</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3941,14 +3959,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>238</v>
+        <v>41</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>32</v>
+        <v>12</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3957,31 +3975,31 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>241</v>
+        <v>12</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
       <c r="K80" s="9"/>
       <c t="s" r="L80" s="10">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>242</v>
+        <v>135</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>243</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3990,31 +4008,31 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>244</v>
+        <v>236</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>12</v>
+        <v>237</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
       <c r="K81" s="9"/>
       <c t="s" r="L81" s="10">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>168</v>
+        <v>238</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>181</v>
+        <v>239</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>12</v>
+        <v>33</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -4023,31 +4041,31 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
       <c r="K82" s="9"/>
       <c t="s" r="L82" s="10">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4056,28 +4074,28 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
       <c r="K83" s="9"/>
       <c t="s" r="L83" s="10">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>98</v>
+        <v>244</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>99</v>
+        <v>245</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>12</v>
@@ -4089,31 +4107,31 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
       <c r="K84" s="9"/>
       <c t="s" r="L84" s="10">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>110</v>
+        <v>248</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>29</v>
+        <v>17</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4122,31 +4140,31 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>253</v>
+        <v>17</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
       <c r="K85" s="9"/>
       <c t="s" r="L85" s="10">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>254</v>
+        <v>172</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>255</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4155,31 +4173,31 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>21</v>
+        <v>78</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
       <c r="K86" s="9"/>
       <c t="s" r="L86" s="10">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>76</v>
+        <v>17</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4188,31 +4206,31 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>260</v>
+        <v>33</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
       <c r="K87" s="9"/>
       <c t="s" r="L87" s="10">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>261</v>
+        <v>100</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>262</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>263</v>
+        <v>17</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4221,31 +4239,31 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>264</v>
+        <v>255</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>76</v>
+        <v>256</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
       <c r="K88" s="9"/>
       <c t="s" r="L88" s="10">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>242</v>
+        <v>112</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>265</v>
+        <v>257</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>59</v>
+        <v>33</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4254,31 +4272,31 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>266</v>
+        <v>258</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>59</v>
+        <v>259</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
       <c r="K89" s="9"/>
       <c t="s" r="L89" s="10">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>268</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4287,31 +4305,31 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
       <c r="K90" s="9"/>
       <c t="s" r="L90" s="10">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>18</v>
+        <v>262</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>19</v>
+        <v>263</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>12</v>
+        <v>78</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4320,31 +4338,31 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>21</v>
+        <v>265</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
       <c r="K91" s="9"/>
       <c t="s" r="L91" s="10">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>15</v>
+        <v>267</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>17</v>
+        <v>268</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4353,31 +4371,31 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>21</v>
+        <v>78</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
       <c r="K92" s="9"/>
       <c t="s" r="L92" s="10">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>257</v>
+        <v>248</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>274</v>
+        <v>62</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4386,31 +4404,31 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
       <c r="K93" s="9"/>
       <c t="s" r="L93" s="10">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4419,31 +4437,31 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
       <c r="K94" s="9"/>
       <c t="s" r="L94" s="10">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>279</v>
+        <v>22</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>43</v>
+        <v>23</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4452,31 +4470,31 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>250</v>
+        <v>25</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
       <c r="K95" s="9"/>
       <c t="s" r="L95" s="10">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>254</v>
+        <v>276</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>255</v>
+        <v>277</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>12</v>
+        <v>256</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4485,31 +4503,31 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>241</v>
+        <v>25</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
       <c r="K96" s="9"/>
       <c t="s" r="L96" s="10">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>282</v>
+        <v>262</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>12</v>
+        <v>280</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4518,31 +4536,31 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
       <c r="K97" s="9"/>
       <c t="s" r="L97" s="10">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>191</v>
+        <v>282</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>192</v>
+        <v>283</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4551,31 +4569,31 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>241</v>
+        <v>25</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
       <c r="K98" s="9"/>
       <c t="s" r="L98" s="10">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>267</v>
+        <v>285</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>268</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4591,24 +4609,24 @@
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>241</v>
+        <v>256</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
       <c r="K99" s="9"/>
       <c t="s" r="L99" s="10">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>242</v>
+        <v>260</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>243</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4624,24 +4642,24 @@
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>288</v>
+        <v>247</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
       <c r="K100" s="9"/>
       <c t="s" r="L100" s="10">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>254</v>
+        <v>288</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>255</v>
+        <v>289</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4650,31 +4668,31 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>21</v>
+        <v>75</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
       <c r="K101" s="9"/>
       <c t="s" r="L101" s="10">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>18</v>
+        <v>198</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>19</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4683,31 +4701,31 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>76</v>
+        <v>247</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
       <c r="K102" s="9"/>
       <c t="s" r="L102" s="10">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>110</v>
+        <v>272</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>141</v>
+        <v>273</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4716,31 +4734,31 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>59</v>
+        <v>247</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
       <c r="K103" s="9"/>
       <c t="s" r="L103" s="10">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>18</v>
+        <v>248</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>181</v>
+        <v>249</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>76</v>
+        <v>17</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4749,31 +4767,31 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
       <c r="K104" s="9"/>
       <c t="s" r="L104" s="10">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>138</v>
+        <v>260</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>294</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4789,24 +4807,24 @@
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
       <c r="K105" s="9"/>
       <c t="s" r="L105" s="10">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>110</v>
+        <v>22</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>181</v>
+        <v>23</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>59</v>
+        <v>17</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -4822,24 +4840,24 @@
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>29</v>
+        <v>78</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
       <c r="K106" s="9"/>
       <c t="s" r="L106" s="10">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>297</v>
+        <v>112</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>298</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -4848,66 +4866,198 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>300</v>
+        <v>62</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
       <c r="K107" s="9"/>
       <c t="s" r="L107" s="10">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>67</v>
+        <v>22</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>84</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q107" s="12">
-        <v>12</v>
+        <v>78</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
-      <c r="P108" s="13">
-        <v>6522.8000000000002</v>
-      </c>
-      <c r="Q108" s="13"/>
-    </row>
-    <row r="109" ht="16.5" customHeight="1">
-      <c t="s" r="A109" s="14">
+      <c r="A108" s="7">
+        <v>102</v>
+      </c>
+      <c r="B108" s="7"/>
+      <c t="s" r="C108" s="8">
+        <v>298</v>
+      </c>
+      <c r="D108" s="8"/>
+      <c r="E108" s="8"/>
+      <c r="F108" s="8"/>
+      <c r="G108" s="8"/>
+      <c t="s" r="H108" s="9">
+        <v>299</v>
+      </c>
+      <c r="I108" s="9"/>
+      <c r="J108" s="9"/>
+      <c r="K108" s="9"/>
+      <c t="s" r="L108" s="10">
+        <v>26</v>
+      </c>
+      <c r="M108" s="10"/>
+      <c t="s" r="N108" s="8">
+        <v>142</v>
+      </c>
+      <c r="O108" s="8"/>
+      <c t="s" r="P108" s="11">
+        <v>300</v>
+      </c>
+      <c t="s" r="Q108" s="12">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="109" ht="25.5" customHeight="1">
+      <c r="A109" s="7">
+        <v>103</v>
+      </c>
+      <c r="B109" s="7"/>
+      <c t="s" r="C109" s="8">
         <v>301</v>
       </c>
-      <c r="B109" s="14"/>
-      <c r="C109" s="14"/>
-      <c r="D109" s="14"/>
-      <c r="E109" s="14"/>
-      <c r="F109" s="14"/>
-      <c t="s" r="G109" s="15">
+      <c r="D109" s="8"/>
+      <c r="E109" s="8"/>
+      <c r="F109" s="8"/>
+      <c r="G109" s="8"/>
+      <c t="s" r="H109" s="9">
+        <v>33</v>
+      </c>
+      <c r="I109" s="9"/>
+      <c r="J109" s="9"/>
+      <c r="K109" s="9"/>
+      <c t="s" r="L109" s="10">
+        <v>26</v>
+      </c>
+      <c r="M109" s="10"/>
+      <c t="s" r="N109" s="8">
+        <v>112</v>
+      </c>
+      <c r="O109" s="8"/>
+      <c t="s" r="P109" s="11">
+        <v>185</v>
+      </c>
+      <c t="s" r="Q109" s="12">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="110" ht="24.75" customHeight="1">
+      <c r="A110" s="7">
+        <v>104</v>
+      </c>
+      <c r="B110" s="7"/>
+      <c t="s" r="C110" s="8">
         <v>302</v>
       </c>
-      <c r="H109" s="15"/>
-      <c r="I109" s="15"/>
-      <c r="J109" s="16"/>
-      <c t="s" r="K109" s="17">
+      <c r="D110" s="8"/>
+      <c r="E110" s="8"/>
+      <c r="F110" s="8"/>
+      <c r="G110" s="8"/>
+      <c t="s" r="H110" s="9">
+        <v>33</v>
+      </c>
+      <c r="I110" s="9"/>
+      <c r="J110" s="9"/>
+      <c r="K110" s="9"/>
+      <c t="s" r="L110" s="10">
+        <v>26</v>
+      </c>
+      <c r="M110" s="10"/>
+      <c t="s" r="N110" s="8">
         <v>303</v>
       </c>
-      <c r="L109" s="17"/>
-      <c r="M109" s="17"/>
-      <c r="N109" s="17"/>
-      <c r="O109" s="17"/>
-      <c r="P109" s="17"/>
-      <c r="Q109" s="17"/>
+      <c r="O110" s="8"/>
+      <c t="s" r="P110" s="11">
+        <v>304</v>
+      </c>
+      <c t="s" r="Q110" s="12">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="111" ht="25.5" customHeight="1">
+      <c r="A111" s="7">
+        <v>105</v>
+      </c>
+      <c r="B111" s="7"/>
+      <c t="s" r="C111" s="8">
+        <v>305</v>
+      </c>
+      <c r="D111" s="8"/>
+      <c r="E111" s="8"/>
+      <c r="F111" s="8"/>
+      <c r="G111" s="8"/>
+      <c t="s" r="H111" s="9">
+        <v>306</v>
+      </c>
+      <c r="I111" s="9"/>
+      <c r="J111" s="9"/>
+      <c r="K111" s="9"/>
+      <c t="s" r="L111" s="10">
+        <v>26</v>
+      </c>
+      <c r="M111" s="10"/>
+      <c t="s" r="N111" s="8">
+        <v>14</v>
+      </c>
+      <c r="O111" s="8"/>
+      <c t="s" r="P111" s="11">
+        <v>86</v>
+      </c>
+      <c t="s" r="Q111" s="12">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="112" ht="25.5" customHeight="1">
+      <c r="P112" s="13">
+        <v>6644.54</v>
+      </c>
+      <c r="Q112" s="13"/>
+    </row>
+    <row r="113" ht="16.5" customHeight="1">
+      <c t="s" r="A113" s="14">
+        <v>307</v>
+      </c>
+      <c r="B113" s="14"/>
+      <c r="C113" s="14"/>
+      <c r="D113" s="14"/>
+      <c r="E113" s="14"/>
+      <c r="F113" s="14"/>
+      <c t="s" r="G113" s="15">
+        <v>308</v>
+      </c>
+      <c r="H113" s="15"/>
+      <c r="I113" s="15"/>
+      <c r="J113" s="16"/>
+      <c t="s" r="K113" s="17">
+        <v>309</v>
+      </c>
+      <c r="L113" s="17"/>
+      <c r="M113" s="17"/>
+      <c r="N113" s="17"/>
+      <c r="O113" s="17"/>
+      <c r="P113" s="17"/>
+      <c r="Q113" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="517">
+  <mergeCells count="537">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5421,10 +5571,30 @@
     <mergeCell ref="H107:K107"/>
     <mergeCell ref="L107:M107"/>
     <mergeCell ref="N107:O107"/>
-    <mergeCell ref="P108:Q108"/>
-    <mergeCell ref="A109:F109"/>
-    <mergeCell ref="G109:I109"/>
-    <mergeCell ref="K109:Q109"/>
+    <mergeCell ref="A108:B108"/>
+    <mergeCell ref="C108:G108"/>
+    <mergeCell ref="H108:K108"/>
+    <mergeCell ref="L108:M108"/>
+    <mergeCell ref="N108:O108"/>
+    <mergeCell ref="A109:B109"/>
+    <mergeCell ref="C109:G109"/>
+    <mergeCell ref="H109:K109"/>
+    <mergeCell ref="L109:M109"/>
+    <mergeCell ref="N109:O109"/>
+    <mergeCell ref="A110:B110"/>
+    <mergeCell ref="C110:G110"/>
+    <mergeCell ref="H110:K110"/>
+    <mergeCell ref="L110:M110"/>
+    <mergeCell ref="N110:O110"/>
+    <mergeCell ref="A111:B111"/>
+    <mergeCell ref="C111:G111"/>
+    <mergeCell ref="H111:K111"/>
+    <mergeCell ref="L111:M111"/>
+    <mergeCell ref="N111:O111"/>
+    <mergeCell ref="P112:Q112"/>
+    <mergeCell ref="A113:F113"/>
+    <mergeCell ref="G113:I113"/>
+    <mergeCell ref="K113:Q113"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-30_00-00.xlsx
+++ b/DaySale_2025-09-30_00-00.xlsx
@@ -107,6 +107,15 @@
     <t>249.0000</t>
   </si>
   <si>
+    <t>ALPHACHYMOTRYPSIN 5MG 3 I.M. AMPS</t>
+  </si>
+  <si>
+    <t>65.00</t>
+  </si>
+  <si>
+    <t>65.0000</t>
+  </si>
+  <si>
     <t>ALPHINTERN 30 F.C.TABS</t>
   </si>
   <si>
@@ -248,6 +257,18 @@
     <t>4:0</t>
   </si>
   <si>
+    <t>CEFTRIAXONE-SANDOZ 1 GM I.M. VIAL</t>
+  </si>
+  <si>
+    <t>6:0</t>
+  </si>
+  <si>
+    <t>95.00</t>
+  </si>
+  <si>
+    <t>570.0000</t>
+  </si>
+  <si>
     <t>CEREBROFORTE 20% SYRUP 120ML</t>
   </si>
   <si>
@@ -284,6 +305,15 @@
     <t>33.0000</t>
   </si>
   <si>
+    <t>C-RETARD 500MG 10 CAPS</t>
+  </si>
+  <si>
+    <t>35.00</t>
+  </si>
+  <si>
+    <t>35.0000</t>
+  </si>
+  <si>
     <t>CURAM 457MG/5ML PD. FOR ORAL SUSP. 70ML</t>
   </si>
   <si>
@@ -362,6 +392,15 @@
     <t>66.0000</t>
   </si>
   <si>
+    <t>DICLAC 75 ID 30 TAB</t>
+  </si>
+  <si>
+    <t>135.00</t>
+  </si>
+  <si>
+    <t>135.0000</t>
+  </si>
+  <si>
     <t>DIVITON-D FORTE 10.000 I.U./ML ORAL DROPS 20 ML</t>
   </si>
   <si>
@@ -647,6 +686,15 @@
     <t>82.0000</t>
   </si>
   <si>
+    <t>TAVACIN 500MG 5 F.C. TAB</t>
+  </si>
+  <si>
+    <t>90.00</t>
+  </si>
+  <si>
+    <t>90.0000</t>
+  </si>
+  <si>
     <t>TECHNOSPIRON 0.03/3MG 21 F.C.TAB</t>
   </si>
   <si>
@@ -767,12 +815,6 @@
     <t>بادي سبلاش افوفا الصغير</t>
   </si>
   <si>
-    <t>35.00</t>
-  </si>
-  <si>
-    <t>35.0000</t>
-  </si>
-  <si>
     <t>بادي لوشن كير اند مور</t>
   </si>
   <si>
@@ -782,9 +824,6 @@
     <t>19:0</t>
   </si>
   <si>
-    <t>90.0000</t>
-  </si>
-  <si>
     <t xml:space="preserve">جهاز محلول </t>
   </si>
   <si>
@@ -827,12 +866,6 @@
     <t>زيت جونسون صغير</t>
   </si>
   <si>
-    <t>65.00</t>
-  </si>
-  <si>
-    <t>65.0000</t>
-  </si>
-  <si>
     <t>زيت فاتيكا 45 مل صغير</t>
   </si>
   <si>
@@ -842,18 +875,12 @@
     <t>2.00</t>
   </si>
   <si>
-    <t>38.0000</t>
+    <t>25:0</t>
   </si>
   <si>
     <t>سرنجات 5 سم</t>
   </si>
   <si>
-    <t>36.0000</t>
-  </si>
-  <si>
-    <t>12:0</t>
-  </si>
-  <si>
     <t>سيتي بيبي رقم 3</t>
   </si>
   <si>
@@ -929,10 +956,7 @@
     <t>معجون سنسوداين صغير</t>
   </si>
   <si>
-    <t>6:0</t>
-  </si>
-  <si>
-    <t>Tuesday, 30 September, 2025 9:55 PM</t>
+    <t>Tuesday, 30 September, 2025 9:58 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1738,7 +1762,7 @@
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1748,14 +1772,14 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1764,14 +1788,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1788,7 +1812,7 @@
         <v>38</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1804,7 +1828,7 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1814,14 +1838,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1830,14 +1854,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1847,14 +1871,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>47</v>
+        <v>12</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1863,14 +1887,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1880,14 +1904,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>12</v>
+        <v>50</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1896,14 +1920,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1913,11 +1937,11 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q17" s="12">
         <v>12</v>
@@ -1929,14 +1953,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>25</v>
+        <v>56</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1953,7 +1977,7 @@
         <v>58</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1986,7 +2010,7 @@
         <v>61</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>62</v>
+        <v>17</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1995,14 +2019,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>62</v>
+        <v>25</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -2012,14 +2036,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
+        <v>64</v>
+      </c>
+      <c t="s" r="Q20" s="12">
         <v>65</v>
-      </c>
-      <c t="s" r="Q20" s="12">
-        <v>17</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -2035,7 +2059,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>25</v>
+        <v>65</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -2078,14 +2102,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>14</v>
+        <v>70</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>62</v>
+        <v>17</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -2094,14 +2118,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>44</v>
+        <v>25</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -2111,14 +2135,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>72</v>
+        <v>14</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
         <v>73</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>12</v>
+        <v>65</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -2134,7 +2158,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>75</v>
+        <v>47</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -2144,14 +2168,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>78</v>
+        <v>12</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -2160,14 +2184,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>17</v>
+        <v>78</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -2177,14 +2201,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
+        <v>80</v>
+      </c>
+      <c t="s" r="Q25" s="12">
         <v>81</v>
-      </c>
-      <c t="s" r="Q25" s="12">
-        <v>17</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -2200,7 +2224,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>25</v>
+        <v>83</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2210,14 +2234,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>12</v>
+        <v>83</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2226,14 +2250,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2243,11 +2267,11 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>14</v>
+        <v>87</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>17</v>
@@ -2259,14 +2283,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>88</v>
+        <v>25</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2276,14 +2300,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2292,7 +2316,7 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
@@ -2309,7 +2333,7 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>92</v>
+        <v>14</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
@@ -2349,7 +2373,7 @@
         <v>97</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>98</v>
+        <v>17</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2358,14 +2382,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>62</v>
+        <v>17</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2375,11 +2399,11 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>17</v>
@@ -2391,14 +2415,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2408,11 +2432,11 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>17</v>
@@ -2424,14 +2448,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2441,14 +2465,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
         <v>107</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>25</v>
+        <v>108</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2457,14 +2481,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>25</v>
+        <v>65</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2474,11 +2498,11 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>17</v>
@@ -2490,14 +2514,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>47</v>
+        <v>17</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2507,14 +2531,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2523,14 +2547,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>17</v>
+        <v>116</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2540,14 +2564,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2556,7 +2580,7 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
@@ -2573,11 +2597,11 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>17</v>
@@ -2589,14 +2613,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>17</v>
+        <v>50</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2606,14 +2630,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>14</v>
+        <v>122</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>86</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2622,14 +2646,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>122</v>
+        <v>17</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2639,14 +2663,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>47</v>
+        <v>12</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2655,14 +2679,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2672,14 +2696,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2688,14 +2712,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>129</v>
+        <v>25</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2705,14 +2729,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>47</v>
+        <v>17</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2721,14 +2745,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>44</v>
+        <v>17</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2738,14 +2762,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>50</v>
+        <v>14</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>133</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2761,7 +2785,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>25</v>
+        <v>135</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2771,14 +2795,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>17</v>
+        <v>50</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2787,14 +2811,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>47</v>
+        <v>17</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2804,14 +2828,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2820,14 +2844,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2837,14 +2861,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>44</v>
+        <v>50</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2853,14 +2877,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>62</v>
+        <v>47</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2870,14 +2894,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>112</v>
+        <v>53</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2886,7 +2910,7 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
@@ -2903,11 +2927,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>17</v>
@@ -2919,20 +2943,20 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>150</v>
+        <v>50</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
@@ -2943,7 +2967,7 @@
         <v>152</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2959,7 +2983,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>62</v>
+        <v>154</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2969,14 +2993,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>12</v>
+        <v>47</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2985,14 +3009,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>25</v>
+        <v>65</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -3002,7 +3026,7 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>157</v>
+        <v>122</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
@@ -3058,7 +3082,7 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>62</v>
+        <v>163</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3068,14 +3092,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -3084,31 +3108,31 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>78</v>
+        <v>65</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3117,7 +3141,7 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
@@ -3130,15 +3154,15 @@
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>17</v>
@@ -3150,14 +3174,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>62</v>
+        <v>25</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3167,14 +3191,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>174</v>
+        <v>17</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3190,13 +3214,13 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>12</v>
+        <v>65</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
@@ -3223,13 +3247,13 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>25</v>
+        <v>81</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
@@ -3256,13 +3280,13 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c t="s" r="L58" s="10">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
@@ -3289,7 +3313,7 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>17</v>
+        <v>65</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3299,14 +3323,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>172</v>
+        <v>185</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>17</v>
+        <v>187</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3315,28 +3339,28 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>78</v>
+        <v>12</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>183</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>17</v>
@@ -3348,14 +3372,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>47</v>
+        <v>25</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3365,14 +3389,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>51</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3381,14 +3405,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>62</v>
+        <v>17</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3398,14 +3422,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>148</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3414,31 +3438,31 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>53</v>
+        <v>17</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>80</v>
+        <v>185</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3447,14 +3471,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>25</v>
+        <v>81</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3464,11 +3488,11 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>17</v>
@@ -3480,14 +3504,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>17</v>
+        <v>50</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3497,14 +3521,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>112</v>
+        <v>201</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>145</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3513,14 +3537,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>17</v>
+        <v>65</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3530,14 +3554,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>199</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3546,28 +3570,28 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c t="s" r="L67" s="10">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>201</v>
+        <v>87</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>12</v>
@@ -3579,14 +3603,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3596,14 +3620,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>50</v>
+        <v>207</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>133</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3612,14 +3636,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>205</v>
+        <v>17</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3629,14 +3653,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>182</v>
+        <v>122</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>206</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3645,14 +3669,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>44</v>
+        <v>17</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3662,14 +3686,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>124</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3678,14 +3702,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>25</v>
+        <v>47</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3695,14 +3719,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3711,14 +3735,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3728,14 +3752,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>213</v>
+        <v>53</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>214</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3744,14 +3768,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>17</v>
+        <v>218</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3761,14 +3785,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>216</v>
+        <v>195</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3777,14 +3801,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>75</v>
+        <v>47</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3794,14 +3818,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>220</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3810,14 +3834,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>47</v>
+        <v>25</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3827,14 +3851,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3843,14 +3867,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>62</v>
+        <v>17</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3860,11 +3884,11 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>17</v>
@@ -3876,7 +3900,7 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
@@ -3893,11 +3917,11 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>182</v>
+        <v>229</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>183</v>
+        <v>230</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>17</v>
@@ -3909,14 +3933,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>229</v>
+        <v>17</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3926,14 +3950,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3942,14 +3966,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>233</v>
+        <v>78</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3959,14 +3983,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>41</v>
+        <v>235</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3975,14 +3999,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>12</v>
+        <v>50</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3992,14 +4016,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>135</v>
+        <v>238</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>136</v>
+        <v>239</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -4008,14 +4032,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>237</v>
+        <v>65</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4025,14 +4049,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>33</v>
+        <v>17</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -4041,14 +4065,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>62</v>
+        <v>17</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4058,11 +4082,11 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>241</v>
+        <v>195</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>242</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>17</v>
@@ -4074,14 +4098,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>17</v>
+        <v>245</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4091,11 +4115,11 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>12</v>
@@ -4107,31 +4131,31 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
       <c r="K84" s="9"/>
       <c t="s" r="L84" s="10">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>248</v>
+        <v>44</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4140,28 +4164,28 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
       <c r="K85" s="9"/>
       <c t="s" r="L85" s="10">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>172</v>
+        <v>148</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>185</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>17</v>
@@ -4173,31 +4197,31 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>78</v>
+        <v>253</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
       <c r="K86" s="9"/>
       <c t="s" r="L86" s="10">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>17</v>
+        <v>36</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4206,28 +4230,28 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>33</v>
+        <v>65</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
       <c r="K87" s="9"/>
       <c t="s" r="L87" s="10">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>100</v>
+        <v>257</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>101</v>
+        <v>258</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>17</v>
@@ -4239,31 +4263,31 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>256</v>
+        <v>17</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
       <c r="K88" s="9"/>
       <c t="s" r="L88" s="10">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>112</v>
+        <v>260</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>33</v>
+        <v>12</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4272,14 +4296,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4289,11 +4313,11 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>15</v>
+        <v>265</v>
       </c>
       <c t="s" r="Q89" s="12">
         <v>17</v>
@@ -4305,14 +4329,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4322,14 +4346,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>262</v>
+        <v>185</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>263</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>78</v>
+        <v>17</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4338,14 +4362,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>265</v>
+        <v>81</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4355,14 +4379,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>266</v>
+        <v>99</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>267</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>268</v>
+        <v>17</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4371,14 +4395,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>78</v>
+        <v>36</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4388,14 +4412,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>248</v>
+        <v>110</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>270</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>62</v>
+        <v>17</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4404,14 +4428,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>62</v>
+        <v>270</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4421,14 +4445,14 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>272</v>
+        <v>122</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>273</v>
+        <v>227</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>17</v>
+        <v>36</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4437,14 +4461,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>33</v>
+        <v>272</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4454,11 +4478,11 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>22</v>
+        <v>273</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q94" s="12">
         <v>17</v>
@@ -4470,7 +4494,7 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
@@ -4487,14 +4511,14 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>256</v>
+        <v>81</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4503,14 +4527,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>25</v>
+        <v>278</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4520,14 +4544,14 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>262</v>
+        <v>279</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>280</v>
+        <v>281</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4536,14 +4560,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>62</v>
+        <v>81</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4553,14 +4577,14 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>282</v>
+        <v>264</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
         <v>283</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>17</v>
+        <v>65</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4576,7 +4600,7 @@
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>25</v>
+        <v>65</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4586,11 +4610,11 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>285</v>
+        <v>33</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c t="s" r="Q98" s="12">
         <v>17</v>
@@ -4602,14 +4626,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>256</v>
+        <v>36</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4619,11 +4643,11 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>260</v>
+        <v>22</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c t="s" r="Q99" s="12">
         <v>17</v>
@@ -4635,14 +4659,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>247</v>
+        <v>25</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4652,14 +4676,14 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>17</v>
+        <v>288</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4668,14 +4692,14 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>75</v>
+        <v>25</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4685,14 +4709,14 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>198</v>
+        <v>275</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>199</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>17</v>
+        <v>270</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4701,14 +4725,14 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>247</v>
+        <v>65</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4718,11 +4742,11 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>272</v>
+        <v>291</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>273</v>
+        <v>292</v>
       </c>
       <c t="s" r="Q102" s="12">
         <v>17</v>
@@ -4734,14 +4758,14 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>247</v>
+        <v>25</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4751,11 +4775,11 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>248</v>
+        <v>294</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>249</v>
+        <v>49</v>
       </c>
       <c t="s" r="Q103" s="12">
         <v>17</v>
@@ -4767,14 +4791,14 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>294</v>
+        <v>270</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4784,7 +4808,7 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>260</v>
+        <v>273</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
@@ -4800,14 +4824,14 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>25</v>
+        <v>263</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4817,11 +4841,11 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>22</v>
+        <v>297</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>23</v>
+        <v>298</v>
       </c>
       <c t="s" r="Q105" s="12">
         <v>17</v>
@@ -4833,7 +4857,7 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
@@ -4850,11 +4874,11 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>112</v>
+        <v>211</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>145</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q106" s="12">
         <v>17</v>
@@ -4866,14 +4890,14 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>62</v>
+        <v>263</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -4883,14 +4907,14 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>185</v>
+        <v>34</v>
       </c>
       <c t="s" r="Q107" s="12">
-        <v>78</v>
+        <v>17</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
@@ -4899,14 +4923,14 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>299</v>
+        <v>263</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -4916,11 +4940,11 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>142</v>
+        <v>264</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>300</v>
+        <v>265</v>
       </c>
       <c t="s" r="Q108" s="12">
         <v>17</v>
@@ -4932,14 +4956,14 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>33</v>
+        <v>303</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -4949,14 +4973,14 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>112</v>
+        <v>273</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>185</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q109" s="12">
-        <v>62</v>
+        <v>17</v>
       </c>
     </row>
     <row r="110" ht="24.75" customHeight="1">
@@ -4965,14 +4989,14 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
@@ -4982,14 +5006,14 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>303</v>
+        <v>22</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>304</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q110" s="12">
-        <v>17</v>
+        <v>65</v>
       </c>
     </row>
     <row r="111" ht="25.5" customHeight="1">
@@ -5005,7 +5029,7 @@
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>306</v>
+        <v>81</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
@@ -5015,49 +5039,214 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>14</v>
+        <v>122</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>86</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q111" s="12">
         <v>17</v>
       </c>
     </row>
     <row r="112" ht="25.5" customHeight="1">
-      <c r="P112" s="13">
-        <v>6644.54</v>
-      </c>
-      <c r="Q112" s="13"/>
-    </row>
-    <row r="113" ht="16.5" customHeight="1">
-      <c t="s" r="A113" s="14">
+      <c r="A112" s="7">
+        <v>106</v>
+      </c>
+      <c r="B112" s="7"/>
+      <c t="s" r="C112" s="8">
+        <v>306</v>
+      </c>
+      <c r="D112" s="8"/>
+      <c r="E112" s="8"/>
+      <c r="F112" s="8"/>
+      <c r="G112" s="8"/>
+      <c t="s" r="H112" s="9">
+        <v>65</v>
+      </c>
+      <c r="I112" s="9"/>
+      <c r="J112" s="9"/>
+      <c r="K112" s="9"/>
+      <c t="s" r="L112" s="10">
+        <v>26</v>
+      </c>
+      <c r="M112" s="10"/>
+      <c t="s" r="N112" s="8">
+        <v>22</v>
+      </c>
+      <c r="O112" s="8"/>
+      <c t="s" r="P112" s="11">
+        <v>198</v>
+      </c>
+      <c t="s" r="Q112" s="12">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="113" ht="24.75" customHeight="1">
+      <c r="A113" s="7">
+        <v>107</v>
+      </c>
+      <c r="B113" s="7"/>
+      <c t="s" r="C113" s="8">
         <v>307</v>
       </c>
-      <c r="B113" s="14"/>
-      <c r="C113" s="14"/>
-      <c r="D113" s="14"/>
-      <c r="E113" s="14"/>
-      <c r="F113" s="14"/>
-      <c t="s" r="G113" s="15">
+      <c r="D113" s="8"/>
+      <c r="E113" s="8"/>
+      <c r="F113" s="8"/>
+      <c r="G113" s="8"/>
+      <c t="s" r="H113" s="9">
         <v>308</v>
       </c>
-      <c r="H113" s="15"/>
-      <c r="I113" s="15"/>
-      <c r="J113" s="16"/>
-      <c t="s" r="K113" s="17">
+      <c r="I113" s="9"/>
+      <c r="J113" s="9"/>
+      <c r="K113" s="9"/>
+      <c t="s" r="L113" s="10">
+        <v>26</v>
+      </c>
+      <c r="M113" s="10"/>
+      <c t="s" r="N113" s="8">
+        <v>155</v>
+      </c>
+      <c r="O113" s="8"/>
+      <c t="s" r="P113" s="11">
         <v>309</v>
       </c>
-      <c r="L113" s="17"/>
-      <c r="M113" s="17"/>
-      <c r="N113" s="17"/>
-      <c r="O113" s="17"/>
-      <c r="P113" s="17"/>
-      <c r="Q113" s="17"/>
+      <c t="s" r="Q113" s="12">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="114" ht="25.5" customHeight="1">
+      <c r="A114" s="7">
+        <v>108</v>
+      </c>
+      <c r="B114" s="7"/>
+      <c t="s" r="C114" s="8">
+        <v>310</v>
+      </c>
+      <c r="D114" s="8"/>
+      <c r="E114" s="8"/>
+      <c r="F114" s="8"/>
+      <c r="G114" s="8"/>
+      <c t="s" r="H114" s="9">
+        <v>36</v>
+      </c>
+      <c r="I114" s="9"/>
+      <c r="J114" s="9"/>
+      <c r="K114" s="9"/>
+      <c t="s" r="L114" s="10">
+        <v>26</v>
+      </c>
+      <c r="M114" s="10"/>
+      <c t="s" r="N114" s="8">
+        <v>122</v>
+      </c>
+      <c r="O114" s="8"/>
+      <c t="s" r="P114" s="11">
+        <v>198</v>
+      </c>
+      <c t="s" r="Q114" s="12">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="115" ht="24.75" customHeight="1">
+      <c r="A115" s="7">
+        <v>109</v>
+      </c>
+      <c r="B115" s="7"/>
+      <c t="s" r="C115" s="8">
+        <v>311</v>
+      </c>
+      <c r="D115" s="8"/>
+      <c r="E115" s="8"/>
+      <c r="F115" s="8"/>
+      <c r="G115" s="8"/>
+      <c t="s" r="H115" s="9">
+        <v>36</v>
+      </c>
+      <c r="I115" s="9"/>
+      <c r="J115" s="9"/>
+      <c r="K115" s="9"/>
+      <c t="s" r="L115" s="10">
+        <v>26</v>
+      </c>
+      <c r="M115" s="10"/>
+      <c t="s" r="N115" s="8">
+        <v>312</v>
+      </c>
+      <c r="O115" s="8"/>
+      <c t="s" r="P115" s="11">
+        <v>313</v>
+      </c>
+      <c t="s" r="Q115" s="12">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="116" ht="25.5" customHeight="1">
+      <c r="A116" s="7">
+        <v>110</v>
+      </c>
+      <c r="B116" s="7"/>
+      <c t="s" r="C116" s="8">
+        <v>314</v>
+      </c>
+      <c r="D116" s="8"/>
+      <c r="E116" s="8"/>
+      <c r="F116" s="8"/>
+      <c r="G116" s="8"/>
+      <c t="s" r="H116" s="9">
+        <v>83</v>
+      </c>
+      <c r="I116" s="9"/>
+      <c r="J116" s="9"/>
+      <c r="K116" s="9"/>
+      <c t="s" r="L116" s="10">
+        <v>26</v>
+      </c>
+      <c r="M116" s="10"/>
+      <c t="s" r="N116" s="8">
+        <v>14</v>
+      </c>
+      <c r="O116" s="8"/>
+      <c t="s" r="P116" s="11">
+        <v>93</v>
+      </c>
+      <c t="s" r="Q116" s="12">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="117" ht="25.5" customHeight="1">
+      <c r="P117" s="13">
+        <v>7587.54</v>
+      </c>
+      <c r="Q117" s="13"/>
+    </row>
+    <row r="118" ht="16.5" customHeight="1">
+      <c t="s" r="A118" s="14">
+        <v>315</v>
+      </c>
+      <c r="B118" s="14"/>
+      <c r="C118" s="14"/>
+      <c r="D118" s="14"/>
+      <c r="E118" s="14"/>
+      <c r="F118" s="14"/>
+      <c t="s" r="G118" s="15">
+        <v>316</v>
+      </c>
+      <c r="H118" s="15"/>
+      <c r="I118" s="15"/>
+      <c r="J118" s="16"/>
+      <c t="s" r="K118" s="17">
+        <v>317</v>
+      </c>
+      <c r="L118" s="17"/>
+      <c r="M118" s="17"/>
+      <c r="N118" s="17"/>
+      <c r="O118" s="17"/>
+      <c r="P118" s="17"/>
+      <c r="Q118" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="537">
+  <mergeCells count="562">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5591,10 +5780,35 @@
     <mergeCell ref="H111:K111"/>
     <mergeCell ref="L111:M111"/>
     <mergeCell ref="N111:O111"/>
-    <mergeCell ref="P112:Q112"/>
-    <mergeCell ref="A113:F113"/>
-    <mergeCell ref="G113:I113"/>
-    <mergeCell ref="K113:Q113"/>
+    <mergeCell ref="A112:B112"/>
+    <mergeCell ref="C112:G112"/>
+    <mergeCell ref="H112:K112"/>
+    <mergeCell ref="L112:M112"/>
+    <mergeCell ref="N112:O112"/>
+    <mergeCell ref="A113:B113"/>
+    <mergeCell ref="C113:G113"/>
+    <mergeCell ref="H113:K113"/>
+    <mergeCell ref="L113:M113"/>
+    <mergeCell ref="N113:O113"/>
+    <mergeCell ref="A114:B114"/>
+    <mergeCell ref="C114:G114"/>
+    <mergeCell ref="H114:K114"/>
+    <mergeCell ref="L114:M114"/>
+    <mergeCell ref="N114:O114"/>
+    <mergeCell ref="A115:B115"/>
+    <mergeCell ref="C115:G115"/>
+    <mergeCell ref="H115:K115"/>
+    <mergeCell ref="L115:M115"/>
+    <mergeCell ref="N115:O115"/>
+    <mergeCell ref="A116:B116"/>
+    <mergeCell ref="C116:G116"/>
+    <mergeCell ref="H116:K116"/>
+    <mergeCell ref="L116:M116"/>
+    <mergeCell ref="N116:O116"/>
+    <mergeCell ref="P117:Q117"/>
+    <mergeCell ref="A118:F118"/>
+    <mergeCell ref="G118:I118"/>
+    <mergeCell ref="K118:Q118"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-30_00-00.xlsx
+++ b/DaySale_2025-09-30_00-00.xlsx
@@ -956,7 +956,7 @@
     <t>معجون سنسوداين صغير</t>
   </si>
   <si>
-    <t>Tuesday, 30 September, 2025 9:58 PM</t>
+    <t>Tuesday, 30 September, 2025 9:59 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-09-30_00-00.xlsx
+++ b/DaySale_2025-09-30_00-00.xlsx
@@ -623,6 +623,15 @@
     <t>152.00</t>
   </si>
   <si>
+    <t>OMEZ 20MG 14 CAPS.</t>
+  </si>
+  <si>
+    <t>56.00</t>
+  </si>
+  <si>
+    <t>28.0000</t>
+  </si>
+  <si>
     <t>PANADOL ACUTE HEAD COLD</t>
   </si>
   <si>
@@ -710,9 +719,6 @@
     <t>28.00</t>
   </si>
   <si>
-    <t>28.0000</t>
-  </si>
-  <si>
     <t>VIDROP 2800 I.U./ML ORAL DROPS 15 ML</t>
   </si>
   <si>
@@ -773,9 +779,6 @@
     <t>7:0</t>
   </si>
   <si>
-    <t>56.00</t>
-  </si>
-  <si>
     <t>168.0000</t>
   </si>
   <si>
@@ -956,7 +959,7 @@
     <t>معجون سنسوداين صغير</t>
   </si>
   <si>
-    <t>Tuesday, 30 September, 2025 9:59 PM</t>
+    <t>Tuesday, 30 September, 2025 10:02 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -3577,21 +3580,21 @@
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>56</v>
+        <v>17</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c t="s" r="L67" s="10">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>87</v>
+        <v>205</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>12</v>
@@ -3603,31 +3606,31 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>25</v>
+        <v>56</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
       <c t="s" r="L68" s="10">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>207</v>
+        <v>87</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
         <v>208</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3643,7 +3646,7 @@
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3653,11 +3656,11 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>122</v>
+        <v>210</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>158</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>17</v>
@@ -3669,7 +3672,7 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
@@ -3686,11 +3689,11 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>211</v>
+        <v>122</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>212</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>17</v>
@@ -3709,7 +3712,7 @@
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>47</v>
+        <v>17</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3726,7 +3729,7 @@
         <v>215</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3742,7 +3745,7 @@
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3752,11 +3755,11 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>53</v>
+        <v>217</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>146</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>12</v>
@@ -3768,14 +3771,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>218</v>
+        <v>36</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3785,11 +3788,11 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>195</v>
+        <v>53</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>219</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>12</v>
@@ -3808,7 +3811,7 @@
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>47</v>
+        <v>221</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3818,11 +3821,11 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>221</v>
+        <v>195</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>137</v>
+        <v>222</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>12</v>
@@ -3834,14 +3837,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>25</v>
+        <v>47</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3851,14 +3854,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>224</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3874,7 +3877,7 @@
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3973,7 +3976,7 @@
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3987,7 +3990,7 @@
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>236</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>17</v>
@@ -3999,14 +4002,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>50</v>
+        <v>78</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -4016,14 +4019,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -4032,14 +4035,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4049,14 +4052,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -4065,14 +4068,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>17</v>
+        <v>65</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4082,11 +4085,11 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>195</v>
+        <v>243</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>196</v>
+        <v>244</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>17</v>
@@ -4098,14 +4101,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>245</v>
+        <v>17</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4115,14 +4118,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>246</v>
+        <v>195</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>247</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4131,14 +4134,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4148,11 +4151,11 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>44</v>
+        <v>248</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>12</v>
@@ -4164,14 +4167,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>12</v>
+        <v>251</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4181,14 +4184,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>148</v>
+        <v>44</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>149</v>
+        <v>252</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4197,14 +4200,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>253</v>
+        <v>12</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4214,14 +4217,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>254</v>
+        <v>148</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>255</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>36</v>
+        <v>17</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4230,14 +4233,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>65</v>
+        <v>255</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4247,14 +4250,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>257</v>
+        <v>205</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>17</v>
+        <v>36</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4263,14 +4266,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>17</v>
+        <v>65</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4280,14 +4283,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4296,31 +4299,31 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>263</v>
+        <v>17</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
       <c r="K89" s="9"/>
       <c t="s" r="L89" s="10">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4329,14 +4332,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>17</v>
+        <v>264</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4346,11 +4349,11 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>185</v>
+        <v>265</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>198</v>
+        <v>266</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>17</v>
@@ -4369,7 +4372,7 @@
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>81</v>
+        <v>17</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4379,11 +4382,11 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>99</v>
+        <v>185</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>100</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>17</v>
@@ -4402,7 +4405,7 @@
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>36</v>
+        <v>81</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4412,11 +4415,11 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q92" s="12">
         <v>17</v>
@@ -4435,7 +4438,7 @@
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>270</v>
+        <v>36</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4445,14 +4448,14 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>227</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>36</v>
+        <v>17</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4461,14 +4464,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4478,14 +4481,14 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>273</v>
+        <v>122</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>15</v>
+        <v>230</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>17</v>
+        <v>36</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4494,14 +4497,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>25</v>
+        <v>273</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4511,14 +4514,14 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>276</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>81</v>
+        <v>17</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4527,14 +4530,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>278</v>
+        <v>25</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4544,14 +4547,14 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>281</v>
+        <v>81</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4560,14 +4563,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>81</v>
+        <v>279</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4577,14 +4580,14 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>264</v>
+        <v>280</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>65</v>
+        <v>282</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4593,14 +4596,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>65</v>
+        <v>81</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4610,14 +4613,14 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>33</v>
+        <v>265</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>34</v>
+        <v>284</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>17</v>
+        <v>65</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4633,7 +4636,7 @@
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>36</v>
+        <v>65</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4643,11 +4646,11 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c t="s" r="Q99" s="12">
         <v>17</v>
@@ -4666,7 +4669,7 @@
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4676,14 +4679,14 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>287</v>
+        <v>22</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>283</v>
+        <v>23</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>288</v>
+        <v>17</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4692,7 +4695,7 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
@@ -4709,14 +4712,14 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>275</v>
+        <v>288</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>180</v>
+        <v>284</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>270</v>
+        <v>289</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4732,7 +4735,7 @@
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>65</v>
+        <v>25</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4742,14 +4745,14 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>291</v>
+        <v>276</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>292</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>17</v>
+        <v>271</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4758,14 +4761,14 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>25</v>
+        <v>65</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4775,11 +4778,11 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>49</v>
+        <v>293</v>
       </c>
       <c t="s" r="Q103" s="12">
         <v>17</v>
@@ -4791,14 +4794,14 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>270</v>
+        <v>25</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4808,11 +4811,11 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>273</v>
+        <v>295</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>15</v>
+        <v>49</v>
       </c>
       <c t="s" r="Q104" s="12">
         <v>17</v>
@@ -4831,7 +4834,7 @@
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>263</v>
+        <v>271</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4841,11 +4844,11 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>297</v>
+        <v>274</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>298</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q105" s="12">
         <v>17</v>
@@ -4857,14 +4860,14 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>78</v>
+        <v>264</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -4874,11 +4877,11 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>211</v>
+        <v>298</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>212</v>
+        <v>299</v>
       </c>
       <c t="s" r="Q106" s="12">
         <v>17</v>
@@ -4897,7 +4900,7 @@
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>263</v>
+        <v>78</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -4907,11 +4910,11 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>33</v>
+        <v>214</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>34</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q107" s="12">
         <v>17</v>
@@ -4930,7 +4933,7 @@
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -4940,11 +4943,11 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>264</v>
+        <v>33</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>265</v>
+        <v>34</v>
       </c>
       <c t="s" r="Q108" s="12">
         <v>17</v>
@@ -4963,7 +4966,7 @@
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>303</v>
+        <v>264</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -4973,11 +4976,11 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>273</v>
+        <v>265</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>15</v>
+        <v>266</v>
       </c>
       <c t="s" r="Q109" s="12">
         <v>17</v>
@@ -4989,14 +4992,14 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>25</v>
+        <v>304</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
@@ -5006,14 +5009,14 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>22</v>
+        <v>274</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>158</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q110" s="12">
-        <v>65</v>
+        <v>17</v>
       </c>
     </row>
     <row r="111" ht="25.5" customHeight="1">
@@ -5029,7 +5032,7 @@
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>81</v>
+        <v>25</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
@@ -5039,14 +5042,14 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>122</v>
+        <v>22</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
         <v>158</v>
       </c>
       <c t="s" r="Q111" s="12">
-        <v>17</v>
+        <v>65</v>
       </c>
     </row>
     <row r="112" ht="25.5" customHeight="1">
@@ -5062,7 +5065,7 @@
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>65</v>
+        <v>81</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
@@ -5072,14 +5075,14 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>22</v>
+        <v>122</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>198</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q112" s="12">
-        <v>81</v>
+        <v>17</v>
       </c>
     </row>
     <row r="113" ht="24.75" customHeight="1">
@@ -5095,7 +5098,7 @@
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>308</v>
+        <v>65</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
@@ -5105,14 +5108,14 @@
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>155</v>
+        <v>22</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>309</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q113" s="12">
-        <v>17</v>
+        <v>81</v>
       </c>
     </row>
     <row r="114" ht="25.5" customHeight="1">
@@ -5121,14 +5124,14 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>36</v>
+        <v>309</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
@@ -5138,14 +5141,14 @@
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>122</v>
+        <v>155</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>198</v>
+        <v>310</v>
       </c>
       <c t="s" r="Q114" s="12">
-        <v>65</v>
+        <v>17</v>
       </c>
     </row>
     <row r="115" ht="24.75" customHeight="1">
@@ -5171,14 +5174,14 @@
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>312</v>
+        <v>122</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>313</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q115" s="12">
-        <v>17</v>
+        <v>65</v>
       </c>
     </row>
     <row r="116" ht="25.5" customHeight="1">
@@ -5187,14 +5190,14 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>83</v>
+        <v>36</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
@@ -5204,49 +5207,82 @@
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
+        <v>314</v>
+      </c>
+      <c t="s" r="Q116" s="12">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="117" ht="25.5" customHeight="1">
+      <c r="A117" s="7">
+        <v>111</v>
+      </c>
+      <c r="B117" s="7"/>
+      <c t="s" r="C117" s="8">
+        <v>315</v>
+      </c>
+      <c r="D117" s="8"/>
+      <c r="E117" s="8"/>
+      <c r="F117" s="8"/>
+      <c r="G117" s="8"/>
+      <c t="s" r="H117" s="9">
+        <v>83</v>
+      </c>
+      <c r="I117" s="9"/>
+      <c r="J117" s="9"/>
+      <c r="K117" s="9"/>
+      <c t="s" r="L117" s="10">
+        <v>26</v>
+      </c>
+      <c r="M117" s="10"/>
+      <c t="s" r="N117" s="8">
+        <v>14</v>
+      </c>
+      <c r="O117" s="8"/>
+      <c t="s" r="P117" s="11">
         <v>93</v>
       </c>
-      <c t="s" r="Q116" s="12">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="117" ht="25.5" customHeight="1">
-      <c r="P117" s="13">
-        <v>7587.54</v>
-      </c>
-      <c r="Q117" s="13"/>
-    </row>
-    <row r="118" ht="16.5" customHeight="1">
-      <c t="s" r="A118" s="14">
-        <v>315</v>
-      </c>
-      <c r="B118" s="14"/>
-      <c r="C118" s="14"/>
-      <c r="D118" s="14"/>
-      <c r="E118" s="14"/>
-      <c r="F118" s="14"/>
-      <c t="s" r="G118" s="15">
+      <c t="s" r="Q117" s="12">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="118" ht="24.75" customHeight="1">
+      <c r="P118" s="13">
+        <v>7615.54</v>
+      </c>
+      <c r="Q118" s="13"/>
+    </row>
+    <row r="119" ht="16.5" customHeight="1">
+      <c t="s" r="A119" s="14">
         <v>316</v>
       </c>
-      <c r="H118" s="15"/>
-      <c r="I118" s="15"/>
-      <c r="J118" s="16"/>
-      <c t="s" r="K118" s="17">
+      <c r="B119" s="14"/>
+      <c r="C119" s="14"/>
+      <c r="D119" s="14"/>
+      <c r="E119" s="14"/>
+      <c r="F119" s="14"/>
+      <c t="s" r="G119" s="15">
         <v>317</v>
       </c>
-      <c r="L118" s="17"/>
-      <c r="M118" s="17"/>
-      <c r="N118" s="17"/>
-      <c r="O118" s="17"/>
-      <c r="P118" s="17"/>
-      <c r="Q118" s="17"/>
+      <c r="H119" s="15"/>
+      <c r="I119" s="15"/>
+      <c r="J119" s="16"/>
+      <c t="s" r="K119" s="17">
+        <v>318</v>
+      </c>
+      <c r="L119" s="17"/>
+      <c r="M119" s="17"/>
+      <c r="N119" s="17"/>
+      <c r="O119" s="17"/>
+      <c r="P119" s="17"/>
+      <c r="Q119" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="562">
+  <mergeCells count="567">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5805,10 +5841,15 @@
     <mergeCell ref="H116:K116"/>
     <mergeCell ref="L116:M116"/>
     <mergeCell ref="N116:O116"/>
-    <mergeCell ref="P117:Q117"/>
-    <mergeCell ref="A118:F118"/>
-    <mergeCell ref="G118:I118"/>
-    <mergeCell ref="K118:Q118"/>
+    <mergeCell ref="A117:B117"/>
+    <mergeCell ref="C117:G117"/>
+    <mergeCell ref="H117:K117"/>
+    <mergeCell ref="L117:M117"/>
+    <mergeCell ref="N117:O117"/>
+    <mergeCell ref="P118:Q118"/>
+    <mergeCell ref="A119:F119"/>
+    <mergeCell ref="G119:I119"/>
+    <mergeCell ref="K119:Q119"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-30_00-00.xlsx
+++ b/DaySale_2025-09-30_00-00.xlsx
@@ -632,6 +632,9 @@
     <t>28.0000</t>
   </si>
   <si>
+    <t>OXYMET 0.025% PAED.NASAL DROPS 15 ML</t>
+  </si>
+  <si>
     <t>PANADOL ACUTE HEAD COLD</t>
   </si>
   <si>
@@ -659,6 +662,12 @@
     <t>45.0000</t>
   </si>
   <si>
+    <t>SELGON 10MG 6 INFANT SUPP.</t>
+  </si>
+  <si>
+    <t>7:0</t>
+  </si>
+  <si>
     <t>SPASCOLON 100MG 30 F.C.TAB.</t>
   </si>
   <si>
@@ -776,9 +785,6 @@
     <t>XORAXON 1GM I.M. VIAL</t>
   </si>
   <si>
-    <t>7:0</t>
-  </si>
-  <si>
     <t>168.0000</t>
   </si>
   <si>
@@ -959,7 +965,7 @@
     <t>معجون سنسوداين صغير</t>
   </si>
   <si>
-    <t>Tuesday, 30 September, 2025 10:02 PM</t>
+    <t>Tuesday, 30 September, 2025 10:04 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -3613,24 +3619,24 @@
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
       <c t="s" r="L68" s="10">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>87</v>
+        <v>22</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>208</v>
+        <v>23</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3639,31 +3645,31 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>25</v>
+        <v>56</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
       <c t="s" r="L69" s="10">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>210</v>
+        <v>87</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3672,14 +3678,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3689,11 +3695,11 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>122</v>
+        <v>211</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>158</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>17</v>
@@ -3722,11 +3728,11 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>214</v>
+        <v>122</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>215</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>17</v>
@@ -3738,14 +3744,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>47</v>
+        <v>17</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3755,14 +3761,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3771,14 +3777,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>36</v>
+        <v>218</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3788,14 +3794,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>53</v>
+        <v>22</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>146</v>
+        <v>23</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3804,14 +3810,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>221</v>
+        <v>47</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3821,11 +3827,11 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>195</v>
+        <v>220</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>12</v>
@@ -3837,14 +3843,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3854,11 +3860,11 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>224</v>
+        <v>53</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>137</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>12</v>
@@ -3870,14 +3876,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>25</v>
+        <v>224</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3887,14 +3893,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>226</v>
+        <v>195</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3903,14 +3909,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>17</v>
+        <v>47</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3920,14 +3926,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>230</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3936,14 +3942,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3953,11 +3959,11 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>17</v>
@@ -3969,7 +3975,7 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
@@ -3986,11 +3992,11 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>206</v>
+        <v>233</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>17</v>
@@ -4002,14 +4008,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -4019,11 +4025,11 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>17</v>
@@ -4035,14 +4041,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>50</v>
+        <v>17</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4052,14 +4058,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>241</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -4068,14 +4074,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>65</v>
+        <v>78</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4085,11 +4091,11 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>17</v>
@@ -4101,14 +4107,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>17</v>
+        <v>50</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4118,14 +4124,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>195</v>
+        <v>243</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>196</v>
+        <v>244</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4134,14 +4140,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>247</v>
+        <v>65</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4151,14 +4157,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4167,14 +4173,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>251</v>
+        <v>17</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4184,14 +4190,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>44</v>
+        <v>195</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>252</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4200,14 +4206,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>12</v>
+        <v>250</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4217,14 +4223,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>148</v>
+        <v>251</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>149</v>
+        <v>252</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4233,14 +4239,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4250,14 +4256,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>205</v>
+        <v>44</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>36</v>
+        <v>12</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4266,14 +4272,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>65</v>
+        <v>12</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4283,11 +4289,11 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>258</v>
+        <v>148</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>259</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>17</v>
@@ -4299,14 +4305,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>17</v>
+        <v>218</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4316,14 +4322,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>261</v>
+        <v>205</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>12</v>
+        <v>36</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4332,28 +4338,28 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>264</v>
+        <v>65</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
       <c r="K90" s="9"/>
       <c t="s" r="L90" s="10">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>17</v>
@@ -4365,7 +4371,7 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
@@ -4378,18 +4384,18 @@
       <c r="J91" s="9"/>
       <c r="K91" s="9"/>
       <c t="s" r="L91" s="10">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>185</v>
+        <v>263</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>198</v>
+        <v>264</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4398,14 +4404,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>81</v>
+        <v>266</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4415,11 +4421,11 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>99</v>
+        <v>267</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>100</v>
+        <v>268</v>
       </c>
       <c t="s" r="Q92" s="12">
         <v>17</v>
@@ -4438,7 +4444,7 @@
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>36</v>
+        <v>17</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4448,11 +4454,11 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>110</v>
+        <v>185</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>111</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q93" s="12">
         <v>17</v>
@@ -4471,7 +4477,7 @@
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>271</v>
+        <v>81</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4481,14 +4487,14 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>122</v>
+        <v>99</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>230</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>36</v>
+        <v>17</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4497,14 +4503,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>273</v>
+        <v>36</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4514,11 +4520,11 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>274</v>
+        <v>110</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>15</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q95" s="12">
         <v>17</v>
@@ -4530,14 +4536,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>25</v>
+        <v>273</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4547,14 +4553,14 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>276</v>
+        <v>122</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>277</v>
+        <v>233</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>81</v>
+        <v>36</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4563,14 +4569,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4580,14 +4586,14 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>281</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>282</v>
+        <v>17</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4596,14 +4602,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>81</v>
+        <v>25</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4613,14 +4619,14 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>265</v>
+        <v>278</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>65</v>
+        <v>81</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4629,14 +4635,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>65</v>
+        <v>281</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4646,14 +4652,14 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>33</v>
+        <v>282</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>34</v>
+        <v>283</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>17</v>
+        <v>284</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4662,14 +4668,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>36</v>
+        <v>81</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4679,14 +4685,14 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>22</v>
+        <v>267</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>23</v>
+        <v>286</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>17</v>
+        <v>65</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4702,7 +4708,7 @@
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>25</v>
+        <v>65</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4712,14 +4718,14 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>288</v>
+        <v>33</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>284</v>
+        <v>34</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>289</v>
+        <v>17</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4728,14 +4734,14 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4745,14 +4751,14 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>276</v>
+        <v>22</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>180</v>
+        <v>23</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>271</v>
+        <v>17</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4761,14 +4767,14 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>65</v>
+        <v>25</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4778,14 +4784,14 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>293</v>
+        <v>286</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>17</v>
+        <v>291</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4794,7 +4800,7 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
@@ -4811,14 +4817,14 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>295</v>
+        <v>278</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>49</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>17</v>
+        <v>273</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4827,14 +4833,14 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>271</v>
+        <v>65</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4844,11 +4850,11 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>274</v>
+        <v>294</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>15</v>
+        <v>295</v>
       </c>
       <c t="s" r="Q105" s="12">
         <v>17</v>
@@ -4860,14 +4866,14 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>264</v>
+        <v>25</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -4877,11 +4883,11 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>299</v>
+        <v>49</v>
       </c>
       <c t="s" r="Q106" s="12">
         <v>17</v>
@@ -4893,14 +4899,14 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>78</v>
+        <v>273</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -4910,11 +4916,11 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>214</v>
+        <v>276</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>215</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q107" s="12">
         <v>17</v>
@@ -4926,14 +4932,14 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -4943,11 +4949,11 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>33</v>
+        <v>300</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>34</v>
+        <v>301</v>
       </c>
       <c t="s" r="Q108" s="12">
         <v>17</v>
@@ -4966,7 +4972,7 @@
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>264</v>
+        <v>78</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -4976,11 +4982,11 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>265</v>
+        <v>215</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>266</v>
+        <v>216</v>
       </c>
       <c t="s" r="Q109" s="12">
         <v>17</v>
@@ -4999,7 +5005,7 @@
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>304</v>
+        <v>266</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
@@ -5009,11 +5015,11 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>274</v>
+        <v>33</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c t="s" r="Q110" s="12">
         <v>17</v>
@@ -5025,14 +5031,14 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>25</v>
+        <v>266</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
@@ -5042,14 +5048,14 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>22</v>
+        <v>267</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>158</v>
+        <v>268</v>
       </c>
       <c t="s" r="Q111" s="12">
-        <v>65</v>
+        <v>17</v>
       </c>
     </row>
     <row r="112" ht="25.5" customHeight="1">
@@ -5058,14 +5064,14 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>81</v>
+        <v>306</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
@@ -5075,11 +5081,11 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>122</v>
+        <v>276</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>158</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q112" s="12">
         <v>17</v>
@@ -5098,7 +5104,7 @@
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>65</v>
+        <v>25</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
@@ -5112,10 +5118,10 @@
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>198</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q113" s="12">
-        <v>81</v>
+        <v>65</v>
       </c>
     </row>
     <row r="114" ht="25.5" customHeight="1">
@@ -5131,7 +5137,7 @@
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>309</v>
+        <v>81</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
@@ -5141,11 +5147,11 @@
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>155</v>
+        <v>122</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>310</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q114" s="12">
         <v>17</v>
@@ -5157,14 +5163,14 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>36</v>
+        <v>65</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
@@ -5174,14 +5180,14 @@
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>122</v>
+        <v>22</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
         <v>198</v>
       </c>
       <c t="s" r="Q115" s="12">
-        <v>65</v>
+        <v>81</v>
       </c>
     </row>
     <row r="116" ht="25.5" customHeight="1">
@@ -5190,14 +5196,14 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>36</v>
+        <v>311</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
@@ -5207,11 +5213,11 @@
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>313</v>
+        <v>155</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c t="s" r="Q116" s="12">
         <v>17</v>
@@ -5223,14 +5229,14 @@
       </c>
       <c r="B117" s="7"/>
       <c t="s" r="C117" s="8">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>83</v>
+        <v>36</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
@@ -5240,49 +5246,115 @@
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>14</v>
+        <v>122</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
+        <v>198</v>
+      </c>
+      <c t="s" r="Q117" s="12">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="118" ht="24.75" customHeight="1">
+      <c r="A118" s="7">
+        <v>112</v>
+      </c>
+      <c r="B118" s="7"/>
+      <c t="s" r="C118" s="8">
+        <v>314</v>
+      </c>
+      <c r="D118" s="8"/>
+      <c r="E118" s="8"/>
+      <c r="F118" s="8"/>
+      <c r="G118" s="8"/>
+      <c t="s" r="H118" s="9">
+        <v>36</v>
+      </c>
+      <c r="I118" s="9"/>
+      <c r="J118" s="9"/>
+      <c r="K118" s="9"/>
+      <c t="s" r="L118" s="10">
+        <v>26</v>
+      </c>
+      <c r="M118" s="10"/>
+      <c t="s" r="N118" s="8">
+        <v>315</v>
+      </c>
+      <c r="O118" s="8"/>
+      <c t="s" r="P118" s="11">
+        <v>316</v>
+      </c>
+      <c t="s" r="Q118" s="12">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="119" ht="25.5" customHeight="1">
+      <c r="A119" s="7">
+        <v>113</v>
+      </c>
+      <c r="B119" s="7"/>
+      <c t="s" r="C119" s="8">
+        <v>317</v>
+      </c>
+      <c r="D119" s="8"/>
+      <c r="E119" s="8"/>
+      <c r="F119" s="8"/>
+      <c r="G119" s="8"/>
+      <c t="s" r="H119" s="9">
+        <v>83</v>
+      </c>
+      <c r="I119" s="9"/>
+      <c r="J119" s="9"/>
+      <c r="K119" s="9"/>
+      <c t="s" r="L119" s="10">
+        <v>26</v>
+      </c>
+      <c r="M119" s="10"/>
+      <c t="s" r="N119" s="8">
+        <v>14</v>
+      </c>
+      <c r="O119" s="8"/>
+      <c t="s" r="P119" s="11">
         <v>93</v>
       </c>
-      <c t="s" r="Q117" s="12">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="118" ht="24.75" customHeight="1">
-      <c r="P118" s="13">
-        <v>7615.54</v>
-      </c>
-      <c r="Q118" s="13"/>
-    </row>
-    <row r="119" ht="16.5" customHeight="1">
-      <c t="s" r="A119" s="14">
-        <v>316</v>
-      </c>
-      <c r="B119" s="14"/>
-      <c r="C119" s="14"/>
-      <c r="D119" s="14"/>
-      <c r="E119" s="14"/>
-      <c r="F119" s="14"/>
-      <c t="s" r="G119" s="15">
-        <v>317</v>
-      </c>
-      <c r="H119" s="15"/>
-      <c r="I119" s="15"/>
-      <c r="J119" s="16"/>
-      <c t="s" r="K119" s="17">
+      <c t="s" r="Q119" s="12">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="120" ht="24.75" customHeight="1">
+      <c r="P120" s="13">
+        <v>7645.54</v>
+      </c>
+      <c r="Q120" s="13"/>
+    </row>
+    <row r="121" ht="16.5" customHeight="1">
+      <c t="s" r="A121" s="14">
         <v>318</v>
       </c>
-      <c r="L119" s="17"/>
-      <c r="M119" s="17"/>
-      <c r="N119" s="17"/>
-      <c r="O119" s="17"/>
-      <c r="P119" s="17"/>
-      <c r="Q119" s="17"/>
+      <c r="B121" s="14"/>
+      <c r="C121" s="14"/>
+      <c r="D121" s="14"/>
+      <c r="E121" s="14"/>
+      <c r="F121" s="14"/>
+      <c t="s" r="G121" s="15">
+        <v>319</v>
+      </c>
+      <c r="H121" s="15"/>
+      <c r="I121" s="15"/>
+      <c r="J121" s="16"/>
+      <c t="s" r="K121" s="17">
+        <v>320</v>
+      </c>
+      <c r="L121" s="17"/>
+      <c r="M121" s="17"/>
+      <c r="N121" s="17"/>
+      <c r="O121" s="17"/>
+      <c r="P121" s="17"/>
+      <c r="Q121" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="567">
+  <mergeCells count="577">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5846,10 +5918,20 @@
     <mergeCell ref="H117:K117"/>
     <mergeCell ref="L117:M117"/>
     <mergeCell ref="N117:O117"/>
-    <mergeCell ref="P118:Q118"/>
-    <mergeCell ref="A119:F119"/>
-    <mergeCell ref="G119:I119"/>
-    <mergeCell ref="K119:Q119"/>
+    <mergeCell ref="A118:B118"/>
+    <mergeCell ref="C118:G118"/>
+    <mergeCell ref="H118:K118"/>
+    <mergeCell ref="L118:M118"/>
+    <mergeCell ref="N118:O118"/>
+    <mergeCell ref="A119:B119"/>
+    <mergeCell ref="C119:G119"/>
+    <mergeCell ref="H119:K119"/>
+    <mergeCell ref="L119:M119"/>
+    <mergeCell ref="N119:O119"/>
+    <mergeCell ref="P120:Q120"/>
+    <mergeCell ref="A121:F121"/>
+    <mergeCell ref="G121:I121"/>
+    <mergeCell ref="K121:Q121"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-30_00-00.xlsx
+++ b/DaySale_2025-09-30_00-00.xlsx
@@ -632,15 +632,18 @@
     <t>28.0000</t>
   </si>
   <si>
+    <t>OTRIVIN 0.1% ADULT NASAL DROPS 15 ML</t>
+  </si>
+  <si>
+    <t>24.0000</t>
+  </si>
+  <si>
     <t>OXYMET 0.025% PAED.NASAL DROPS 15 ML</t>
   </si>
   <si>
     <t>PANADOL ACUTE HEAD COLD</t>
   </si>
   <si>
-    <t>31.0000</t>
-  </si>
-  <si>
     <t>POM SHOWER GEL 250 ML</t>
   </si>
   <si>
@@ -668,6 +671,12 @@
     <t>7:0</t>
   </si>
   <si>
+    <t>SELGON 20MG 20 TABS.</t>
+  </si>
+  <si>
+    <t>14:1</t>
+  </si>
+  <si>
     <t>SPASCOLON 100MG 30 F.C.TAB.</t>
   </si>
   <si>
@@ -947,9 +956,6 @@
     <t>32:0</t>
   </si>
   <si>
-    <t>24.0000</t>
-  </si>
-  <si>
     <t>مخمريه العود الملكي</t>
   </si>
   <si>
@@ -965,7 +971,7 @@
     <t>معجون سنسوداين صغير</t>
   </si>
   <si>
-    <t>Tuesday, 30 September, 2025 10:04 PM</t>
+    <t>Tuesday, 30 September, 2025 10:10 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -3619,7 +3625,7 @@
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>65</v>
+        <v>36</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3629,11 +3635,11 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>22</v>
+        <v>155</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>23</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>17</v>
@@ -3645,31 +3651,31 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
       <c t="s" r="L69" s="10">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>87</v>
+        <v>22</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>209</v>
+        <v>23</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3685,21 +3691,21 @@
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>25</v>
+        <v>65</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
       <c r="K70" s="9"/>
       <c t="s" r="L70" s="10">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>211</v>
+        <v>87</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>212</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>17</v>
@@ -3711,14 +3717,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3728,11 +3734,11 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>122</v>
+        <v>212</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>158</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>17</v>
@@ -3761,11 +3767,11 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>215</v>
+        <v>122</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>216</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>17</v>
@@ -3777,14 +3783,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>218</v>
+        <v>17</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3794,11 +3800,11 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>22</v>
+        <v>216</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>23</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>17</v>
@@ -3810,14 +3816,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>47</v>
+        <v>219</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3827,14 +3833,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>220</v>
+        <v>22</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>221</v>
+        <v>23</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3843,14 +3849,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>36</v>
+        <v>221</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3860,11 +3866,11 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>53</v>
+        <v>122</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>146</v>
+        <v>23</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>12</v>
@@ -3876,14 +3882,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>224</v>
+        <v>47</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3893,11 +3899,11 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>195</v>
+        <v>223</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>12</v>
@@ -3909,14 +3915,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3926,11 +3932,11 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>227</v>
+        <v>53</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>137</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>12</v>
@@ -3942,14 +3948,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>25</v>
+        <v>227</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3959,14 +3965,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>229</v>
+        <v>195</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3975,14 +3981,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>17</v>
+        <v>47</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3992,14 +3998,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>233</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -4008,14 +4014,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -4025,11 +4031,11 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>17</v>
@@ -4041,7 +4047,7 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
@@ -4058,11 +4064,11 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>206</v>
+        <v>236</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>17</v>
@@ -4074,14 +4080,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4091,11 +4097,11 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>17</v>
@@ -4107,14 +4113,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>50</v>
+        <v>17</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4124,14 +4130,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>244</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4140,14 +4146,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>65</v>
+        <v>78</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4157,11 +4163,11 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>17</v>
@@ -4173,14 +4179,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>17</v>
+        <v>50</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4190,14 +4196,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>195</v>
+        <v>246</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>196</v>
+        <v>247</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4206,14 +4212,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>250</v>
+        <v>65</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4223,14 +4229,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4239,14 +4245,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>254</v>
+        <v>17</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4256,14 +4262,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>44</v>
+        <v>195</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>255</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4272,14 +4278,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>12</v>
+        <v>253</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4289,14 +4295,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>148</v>
+        <v>254</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>149</v>
+        <v>255</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4305,14 +4311,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>218</v>
+        <v>257</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4322,14 +4328,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>205</v>
+        <v>44</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
         <v>258</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>36</v>
+        <v>12</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4345,7 +4351,7 @@
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>65</v>
+        <v>12</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4355,11 +4361,11 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>260</v>
+        <v>148</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>261</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>17</v>
@@ -4371,14 +4377,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>17</v>
+        <v>219</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4388,14 +4394,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>263</v>
+        <v>205</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>12</v>
+        <v>36</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4404,28 +4410,28 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>266</v>
+        <v>65</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
       <c r="K92" s="9"/>
       <c t="s" r="L92" s="10">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c t="s" r="Q92" s="12">
         <v>17</v>
@@ -4437,7 +4443,7 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
@@ -4450,18 +4456,18 @@
       <c r="J93" s="9"/>
       <c r="K93" s="9"/>
       <c t="s" r="L93" s="10">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>185</v>
+        <v>266</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>198</v>
+        <v>267</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4470,14 +4476,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>81</v>
+        <v>269</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4487,11 +4493,11 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>99</v>
+        <v>270</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>100</v>
+        <v>271</v>
       </c>
       <c t="s" r="Q94" s="12">
         <v>17</v>
@@ -4503,14 +4509,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>36</v>
+        <v>17</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4520,11 +4526,11 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>110</v>
+        <v>185</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>111</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q95" s="12">
         <v>17</v>
@@ -4536,14 +4542,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>273</v>
+        <v>81</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4553,14 +4559,14 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>122</v>
+        <v>99</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>233</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>36</v>
+        <v>17</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4576,7 +4582,7 @@
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>275</v>
+        <v>36</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4586,11 +4592,11 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>276</v>
+        <v>110</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>15</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q97" s="12">
         <v>17</v>
@@ -4602,14 +4608,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>25</v>
+        <v>276</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4619,14 +4625,14 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>278</v>
+        <v>122</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>279</v>
+        <v>236</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>81</v>
+        <v>36</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4635,14 +4641,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4652,14 +4658,14 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>283</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>284</v>
+        <v>17</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4668,14 +4674,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>81</v>
+        <v>25</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4685,14 +4691,14 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>267</v>
+        <v>281</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>65</v>
+        <v>81</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4701,14 +4707,14 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>65</v>
+        <v>284</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4718,14 +4724,14 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>33</v>
+        <v>285</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>34</v>
+        <v>286</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>17</v>
+        <v>287</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4741,7 +4747,7 @@
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>36</v>
+        <v>81</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4751,14 +4757,14 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>22</v>
+        <v>270</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>23</v>
+        <v>289</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>17</v>
+        <v>65</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4767,14 +4773,14 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>25</v>
+        <v>65</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4784,14 +4790,14 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>290</v>
+        <v>33</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>286</v>
+        <v>34</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>291</v>
+        <v>17</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4800,14 +4806,14 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4817,14 +4823,14 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>278</v>
+        <v>22</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>180</v>
+        <v>23</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>273</v>
+        <v>17</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4833,14 +4839,14 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>65</v>
+        <v>25</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4850,14 +4856,14 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>17</v>
+        <v>294</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -4866,7 +4872,7 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
@@ -4883,14 +4889,14 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>297</v>
+        <v>281</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>49</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>17</v>
+        <v>276</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -4899,14 +4905,14 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>273</v>
+        <v>65</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -4916,11 +4922,11 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>276</v>
+        <v>297</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>15</v>
+        <v>298</v>
       </c>
       <c t="s" r="Q107" s="12">
         <v>17</v>
@@ -4939,7 +4945,7 @@
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>266</v>
+        <v>25</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -4953,7 +4959,7 @@
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>301</v>
+        <v>49</v>
       </c>
       <c t="s" r="Q108" s="12">
         <v>17</v>
@@ -4965,14 +4971,14 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>78</v>
+        <v>276</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -4982,11 +4988,11 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>215</v>
+        <v>279</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>216</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q109" s="12">
         <v>17</v>
@@ -4998,14 +5004,14 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
@@ -5015,11 +5021,11 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>33</v>
+        <v>303</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>34</v>
+        <v>304</v>
       </c>
       <c t="s" r="Q110" s="12">
         <v>17</v>
@@ -5031,14 +5037,14 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>266</v>
+        <v>78</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
@@ -5048,11 +5054,11 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>267</v>
+        <v>216</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>268</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q111" s="12">
         <v>17</v>
@@ -5064,14 +5070,14 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>306</v>
+        <v>269</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
@@ -5081,11 +5087,11 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>276</v>
+        <v>33</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c t="s" r="Q112" s="12">
         <v>17</v>
@@ -5104,7 +5110,7 @@
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>25</v>
+        <v>269</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
@@ -5114,14 +5120,14 @@
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>22</v>
+        <v>270</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>158</v>
+        <v>271</v>
       </c>
       <c t="s" r="Q113" s="12">
-        <v>65</v>
+        <v>17</v>
       </c>
     </row>
     <row r="114" ht="25.5" customHeight="1">
@@ -5137,7 +5143,7 @@
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>81</v>
+        <v>309</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
@@ -5147,11 +5153,11 @@
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>122</v>
+        <v>279</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>158</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q114" s="12">
         <v>17</v>
@@ -5163,14 +5169,14 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>65</v>
+        <v>25</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
@@ -5184,10 +5190,10 @@
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>198</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q115" s="12">
-        <v>81</v>
+        <v>65</v>
       </c>
     </row>
     <row r="116" ht="25.5" customHeight="1">
@@ -5196,14 +5202,14 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>311</v>
+        <v>81</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
@@ -5213,11 +5219,11 @@
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>155</v>
+        <v>122</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>312</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q116" s="12">
         <v>17</v>
@@ -5229,14 +5235,14 @@
       </c>
       <c r="B117" s="7"/>
       <c t="s" r="C117" s="8">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>36</v>
+        <v>65</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
@@ -5246,14 +5252,14 @@
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>122</v>
+        <v>22</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
         <v>198</v>
       </c>
       <c t="s" r="Q117" s="12">
-        <v>65</v>
+        <v>81</v>
       </c>
     </row>
     <row r="118" ht="24.75" customHeight="1">
@@ -5262,14 +5268,14 @@
       </c>
       <c r="B118" s="7"/>
       <c t="s" r="C118" s="8">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D118" s="8"/>
       <c r="E118" s="8"/>
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>36</v>
+        <v>314</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
@@ -5279,11 +5285,11 @@
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>315</v>
+        <v>155</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>316</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q118" s="12">
         <v>17</v>
@@ -5295,14 +5301,14 @@
       </c>
       <c r="B119" s="7"/>
       <c t="s" r="C119" s="8">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="D119" s="8"/>
       <c r="E119" s="8"/>
       <c r="F119" s="8"/>
       <c r="G119" s="8"/>
       <c t="s" r="H119" s="9">
-        <v>83</v>
+        <v>36</v>
       </c>
       <c r="I119" s="9"/>
       <c r="J119" s="9"/>
@@ -5312,49 +5318,115 @@
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>14</v>
+        <v>122</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
+        <v>198</v>
+      </c>
+      <c t="s" r="Q119" s="12">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="120" ht="24.75" customHeight="1">
+      <c r="A120" s="7">
+        <v>114</v>
+      </c>
+      <c r="B120" s="7"/>
+      <c t="s" r="C120" s="8">
+        <v>316</v>
+      </c>
+      <c r="D120" s="8"/>
+      <c r="E120" s="8"/>
+      <c r="F120" s="8"/>
+      <c r="G120" s="8"/>
+      <c t="s" r="H120" s="9">
+        <v>36</v>
+      </c>
+      <c r="I120" s="9"/>
+      <c r="J120" s="9"/>
+      <c r="K120" s="9"/>
+      <c t="s" r="L120" s="10">
+        <v>26</v>
+      </c>
+      <c r="M120" s="10"/>
+      <c t="s" r="N120" s="8">
+        <v>317</v>
+      </c>
+      <c r="O120" s="8"/>
+      <c t="s" r="P120" s="11">
+        <v>318</v>
+      </c>
+      <c t="s" r="Q120" s="12">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="121" ht="25.5" customHeight="1">
+      <c r="A121" s="7">
+        <v>115</v>
+      </c>
+      <c r="B121" s="7"/>
+      <c t="s" r="C121" s="8">
+        <v>319</v>
+      </c>
+      <c r="D121" s="8"/>
+      <c r="E121" s="8"/>
+      <c r="F121" s="8"/>
+      <c r="G121" s="8"/>
+      <c t="s" r="H121" s="9">
+        <v>83</v>
+      </c>
+      <c r="I121" s="9"/>
+      <c r="J121" s="9"/>
+      <c r="K121" s="9"/>
+      <c t="s" r="L121" s="10">
+        <v>26</v>
+      </c>
+      <c r="M121" s="10"/>
+      <c t="s" r="N121" s="8">
+        <v>14</v>
+      </c>
+      <c r="O121" s="8"/>
+      <c t="s" r="P121" s="11">
         <v>93</v>
       </c>
-      <c t="s" r="Q119" s="12">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="120" ht="24.75" customHeight="1">
-      <c r="P120" s="13">
-        <v>7645.54</v>
-      </c>
-      <c r="Q120" s="13"/>
-    </row>
-    <row r="121" ht="16.5" customHeight="1">
-      <c t="s" r="A121" s="14">
-        <v>318</v>
-      </c>
-      <c r="B121" s="14"/>
-      <c r="C121" s="14"/>
-      <c r="D121" s="14"/>
-      <c r="E121" s="14"/>
-      <c r="F121" s="14"/>
-      <c t="s" r="G121" s="15">
-        <v>319</v>
-      </c>
-      <c r="H121" s="15"/>
-      <c r="I121" s="15"/>
-      <c r="J121" s="16"/>
-      <c t="s" r="K121" s="17">
+      <c t="s" r="Q121" s="12">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="122" ht="25.5" customHeight="1">
+      <c r="P122" s="13">
+        <v>7715.54</v>
+      </c>
+      <c r="Q122" s="13"/>
+    </row>
+    <row r="123" ht="16.5" customHeight="1">
+      <c t="s" r="A123" s="14">
         <v>320</v>
       </c>
-      <c r="L121" s="17"/>
-      <c r="M121" s="17"/>
-      <c r="N121" s="17"/>
-      <c r="O121" s="17"/>
-      <c r="P121" s="17"/>
-      <c r="Q121" s="17"/>
+      <c r="B123" s="14"/>
+      <c r="C123" s="14"/>
+      <c r="D123" s="14"/>
+      <c r="E123" s="14"/>
+      <c r="F123" s="14"/>
+      <c t="s" r="G123" s="15">
+        <v>321</v>
+      </c>
+      <c r="H123" s="15"/>
+      <c r="I123" s="15"/>
+      <c r="J123" s="16"/>
+      <c t="s" r="K123" s="17">
+        <v>322</v>
+      </c>
+      <c r="L123" s="17"/>
+      <c r="M123" s="17"/>
+      <c r="N123" s="17"/>
+      <c r="O123" s="17"/>
+      <c r="P123" s="17"/>
+      <c r="Q123" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="577">
+  <mergeCells count="587">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5928,10 +6000,20 @@
     <mergeCell ref="H119:K119"/>
     <mergeCell ref="L119:M119"/>
     <mergeCell ref="N119:O119"/>
-    <mergeCell ref="P120:Q120"/>
-    <mergeCell ref="A121:F121"/>
-    <mergeCell ref="G121:I121"/>
-    <mergeCell ref="K121:Q121"/>
+    <mergeCell ref="A120:B120"/>
+    <mergeCell ref="C120:G120"/>
+    <mergeCell ref="H120:K120"/>
+    <mergeCell ref="L120:M120"/>
+    <mergeCell ref="N120:O120"/>
+    <mergeCell ref="A121:B121"/>
+    <mergeCell ref="C121:G121"/>
+    <mergeCell ref="H121:K121"/>
+    <mergeCell ref="L121:M121"/>
+    <mergeCell ref="N121:O121"/>
+    <mergeCell ref="P122:Q122"/>
+    <mergeCell ref="A123:F123"/>
+    <mergeCell ref="G123:I123"/>
+    <mergeCell ref="K123:Q123"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-30_00-00.xlsx
+++ b/DaySale_2025-09-30_00-00.xlsx
@@ -359,10 +359,10 @@
     <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
   </si>
   <si>
-    <t>5:1</t>
-  </si>
-  <si>
-    <t>0.0000</t>
+    <t>4:3</t>
+  </si>
+  <si>
+    <t>11.8800</t>
   </si>
   <si>
     <t>DIACALDERM TOPICAL OINT. 20 GM</t>
@@ -770,15 +770,9 @@
     <t>VOLTAREN 75MG/3ML 3 AMP.</t>
   </si>
   <si>
-    <t>2:2</t>
-  </si>
-  <si>
     <t>51.00</t>
   </si>
   <si>
-    <t>16.8300</t>
-  </si>
-  <si>
     <t>VOLTAREN 75MG/3ML 6 AMP.</t>
   </si>
   <si>
@@ -893,7 +887,10 @@
     <t>2.00</t>
   </si>
   <si>
-    <t>25:0</t>
+    <t>52.0000</t>
+  </si>
+  <si>
+    <t>26:0</t>
   </si>
   <si>
     <t>سرنجات 5 سم</t>
@@ -938,9 +935,6 @@
     <t>قطن 100 جم</t>
   </si>
   <si>
-    <t>26:0</t>
-  </si>
-  <si>
     <t xml:space="preserve">كالونا </t>
   </si>
   <si>
@@ -971,7 +965,7 @@
     <t>معجون سنسوداين صغير</t>
   </si>
   <si>
-    <t>Tuesday, 30 September, 2025 10:10 PM</t>
+    <t>Tuesday, 30 September, 2025 10:15 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2586,7 +2580,7 @@
         <v>117</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -4285,7 +4279,7 @@
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>253</v>
+        <v>56</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4295,14 +4289,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>255</v>
+        <v>45</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>12</v>
+        <v>50</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4311,14 +4305,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4332,7 +4326,7 @@
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c t="s" r="Q89" s="12">
         <v>12</v>
@@ -4344,7 +4338,7 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
@@ -4377,7 +4371,7 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
@@ -4398,7 +4392,7 @@
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>36</v>
@@ -4410,7 +4404,7 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
@@ -4427,11 +4421,11 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c t="s" r="Q92" s="12">
         <v>17</v>
@@ -4443,7 +4437,7 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
@@ -4460,11 +4454,11 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c t="s" r="Q93" s="12">
         <v>12</v>
@@ -4476,14 +4470,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4493,11 +4487,11 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c t="s" r="Q94" s="12">
         <v>17</v>
@@ -4509,7 +4503,7 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
@@ -4542,7 +4536,7 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
@@ -4575,7 +4569,7 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
@@ -4608,14 +4602,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4641,14 +4635,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4658,7 +4652,7 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
@@ -4674,7 +4668,7 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
@@ -4691,11 +4685,11 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c t="s" r="Q100" s="12">
         <v>81</v>
@@ -4707,14 +4701,14 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4724,14 +4718,14 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4740,7 +4734,7 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
@@ -4757,11 +4751,11 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c t="s" r="Q102" s="12">
         <v>65</v>
@@ -4773,7 +4767,7 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
@@ -4806,7 +4800,7 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
@@ -4839,7 +4833,7 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
@@ -4856,14 +4850,14 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -4872,7 +4866,7 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
@@ -4889,14 +4883,14 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
         <v>180</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -4905,7 +4899,7 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
@@ -4922,11 +4916,11 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c t="s" r="Q107" s="12">
         <v>17</v>
@@ -4938,7 +4932,7 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
@@ -4955,7 +4949,7 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
@@ -4971,14 +4965,14 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -4988,7 +4982,7 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
@@ -5004,14 +4998,14 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
@@ -5021,11 +5015,11 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c t="s" r="Q110" s="12">
         <v>17</v>
@@ -5037,7 +5031,7 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
@@ -5070,14 +5064,14 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
@@ -5103,14 +5097,14 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
@@ -5120,11 +5114,11 @@
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c t="s" r="Q113" s="12">
         <v>17</v>
@@ -5136,14 +5130,14 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>309</v>
+        <v>293</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
@@ -5153,7 +5147,7 @@
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
@@ -5169,7 +5163,7 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
@@ -5202,7 +5196,7 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
@@ -5235,7 +5229,7 @@
       </c>
       <c r="B117" s="7"/>
       <c t="s" r="C117" s="8">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
@@ -5268,14 +5262,14 @@
       </c>
       <c r="B118" s="7"/>
       <c t="s" r="C118" s="8">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="D118" s="8"/>
       <c r="E118" s="8"/>
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
@@ -5301,7 +5295,7 @@
       </c>
       <c r="B119" s="7"/>
       <c t="s" r="C119" s="8">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="D119" s="8"/>
       <c r="E119" s="8"/>
@@ -5334,7 +5328,7 @@
       </c>
       <c r="B120" s="7"/>
       <c t="s" r="C120" s="8">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="D120" s="8"/>
       <c r="E120" s="8"/>
@@ -5351,11 +5345,11 @@
       </c>
       <c r="M120" s="10"/>
       <c t="s" r="N120" s="8">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="O120" s="8"/>
       <c t="s" r="P120" s="11">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c t="s" r="Q120" s="12">
         <v>17</v>
@@ -5367,7 +5361,7 @@
       </c>
       <c r="B121" s="7"/>
       <c t="s" r="C121" s="8">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="D121" s="8"/>
       <c r="E121" s="8"/>
@@ -5396,13 +5390,13 @@
     </row>
     <row r="122" ht="25.5" customHeight="1">
       <c r="P122" s="13">
-        <v>7715.54</v>
+        <v>7746.25</v>
       </c>
       <c r="Q122" s="13"/>
     </row>
     <row r="123" ht="16.5" customHeight="1">
       <c t="s" r="A123" s="14">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="B123" s="14"/>
       <c r="C123" s="14"/>
@@ -5410,13 +5404,13 @@
       <c r="E123" s="14"/>
       <c r="F123" s="14"/>
       <c t="s" r="G123" s="15">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="H123" s="15"/>
       <c r="I123" s="15"/>
       <c r="J123" s="16"/>
       <c t="s" r="K123" s="17">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="L123" s="17"/>
       <c r="M123" s="17"/>

--- a/DaySale_2025-09-30_00-00.xlsx
+++ b/DaySale_2025-09-30_00-00.xlsx
@@ -965,7 +965,7 @@
     <t>معجون سنسوداين صغير</t>
   </si>
   <si>
-    <t>Tuesday, 30 September, 2025 10:15 PM</t>
+    <t>Tuesday, 30 September, 2025 10:33 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-09-30_00-00.xlsx
+++ b/DaySale_2025-09-30_00-00.xlsx
@@ -677,6 +677,18 @@
     <t>14:1</t>
   </si>
   <si>
+    <t>SILDAVA 100MG 12 TABLETS</t>
+  </si>
+  <si>
+    <t>2:6</t>
+  </si>
+  <si>
+    <t>144.00</t>
+  </si>
+  <si>
+    <t>47.5200</t>
+  </si>
+  <si>
     <t>SPASCOLON 100MG 30 F.C.TAB.</t>
   </si>
   <si>
@@ -737,6 +749,15 @@
     <t>28.00</t>
   </si>
   <si>
+    <t>UROSOLVINE EFF. GRAN. 12 SACHETS</t>
+  </si>
+  <si>
+    <t>38.00</t>
+  </si>
+  <si>
+    <t>38.0000</t>
+  </si>
+  <si>
     <t>VIDROP 2800 I.U./ML ORAL DROPS 15 ML</t>
   </si>
   <si>
@@ -965,7 +986,7 @@
     <t>معجون سنسوداين صغير</t>
   </si>
   <si>
-    <t>Tuesday, 30 September, 2025 10:33 PM</t>
+    <t>Tuesday, 30 September, 2025 11:26 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -3883,7 +3904,7 @@
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>47</v>
+        <v>223</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3893,14 +3914,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>12</v>
+        <v>187</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3909,14 +3930,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3926,11 +3947,11 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>53</v>
+        <v>227</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>146</v>
+        <v>228</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>12</v>
@@ -3942,14 +3963,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>227</v>
+        <v>36</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3959,11 +3980,11 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>195</v>
+        <v>53</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>228</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>12</v>
@@ -3975,14 +3996,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>47</v>
+        <v>231</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3992,11 +4013,11 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>230</v>
+        <v>195</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>137</v>
+        <v>232</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>12</v>
@@ -4008,14 +4029,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>25</v>
+        <v>47</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -4025,14 +4046,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>233</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -4041,14 +4062,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4058,11 +4079,11 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>17</v>
@@ -4074,7 +4095,7 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
@@ -4091,11 +4112,11 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>17</v>
@@ -4107,7 +4128,7 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
@@ -4124,11 +4145,11 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>206</v>
+        <v>243</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>17</v>
@@ -4140,14 +4161,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4157,11 +4178,11 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>244</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>17</v>
@@ -4173,14 +4194,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>50</v>
+        <v>219</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4190,14 +4211,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4206,14 +4227,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>65</v>
+        <v>78</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4223,11 +4244,11 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>17</v>
@@ -4239,14 +4260,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>17</v>
+        <v>50</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4256,14 +4277,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>195</v>
+        <v>253</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>196</v>
+        <v>254</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4272,14 +4293,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4289,14 +4310,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>45</v>
+        <v>257</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>50</v>
+        <v>17</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4305,14 +4326,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>255</v>
+        <v>17</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4322,14 +4343,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>44</v>
+        <v>195</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>256</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4338,14 +4359,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>12</v>
+        <v>56</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4355,14 +4376,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>148</v>
+        <v>260</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>149</v>
+        <v>45</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>17</v>
+        <v>50</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4371,14 +4392,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>219</v>
+        <v>262</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4388,14 +4409,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>205</v>
+        <v>44</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>36</v>
+        <v>12</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4404,14 +4425,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>65</v>
+        <v>12</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4421,11 +4442,11 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>261</v>
+        <v>148</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>262</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q92" s="12">
         <v>17</v>
@@ -4437,14 +4458,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>17</v>
+        <v>219</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4454,14 +4475,14 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>264</v>
+        <v>205</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>12</v>
+        <v>36</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4470,20 +4491,20 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>267</v>
+        <v>65</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
       <c r="K94" s="9"/>
       <c t="s" r="L94" s="10">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
@@ -4516,18 +4537,18 @@
       <c r="J95" s="9"/>
       <c r="K95" s="9"/>
       <c t="s" r="L95" s="10">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>185</v>
+        <v>271</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>198</v>
+        <v>272</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4536,14 +4557,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>81</v>
+        <v>274</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4553,11 +4574,11 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>99</v>
+        <v>275</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>100</v>
+        <v>276</v>
       </c>
       <c t="s" r="Q96" s="12">
         <v>17</v>
@@ -4569,14 +4590,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>36</v>
+        <v>17</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4586,11 +4607,11 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>110</v>
+        <v>185</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>111</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q97" s="12">
         <v>17</v>
@@ -4602,14 +4623,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>274</v>
+        <v>81</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4619,14 +4640,14 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>122</v>
+        <v>99</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>236</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>36</v>
+        <v>17</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4635,14 +4656,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>276</v>
+        <v>36</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4652,11 +4673,11 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>277</v>
+        <v>110</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>15</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q99" s="12">
         <v>17</v>
@@ -4668,14 +4689,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>25</v>
+        <v>281</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4685,14 +4706,14 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>279</v>
+        <v>122</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>280</v>
+        <v>240</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>81</v>
+        <v>36</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4701,14 +4722,14 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4718,14 +4739,14 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>284</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>285</v>
+        <v>17</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4734,14 +4755,14 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>81</v>
+        <v>25</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4751,14 +4772,14 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>268</v>
+        <v>286</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
         <v>287</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>65</v>
+        <v>81</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4774,7 +4795,7 @@
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>65</v>
+        <v>289</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4784,14 +4805,14 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>33</v>
+        <v>290</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>34</v>
+        <v>291</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>17</v>
+        <v>292</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4800,14 +4821,14 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>36</v>
+        <v>81</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4817,14 +4838,14 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>22</v>
+        <v>275</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>23</v>
+        <v>294</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>17</v>
+        <v>65</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4833,14 +4854,14 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>290</v>
+        <v>295</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>25</v>
+        <v>65</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4850,14 +4871,14 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>291</v>
+        <v>33</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>292</v>
+        <v>34</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>293</v>
+        <v>17</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -4866,14 +4887,14 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -4883,14 +4904,14 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>279</v>
+        <v>22</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>180</v>
+        <v>23</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>274</v>
+        <v>17</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -4899,14 +4920,14 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>65</v>
+        <v>25</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -4916,14 +4937,14 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c t="s" r="Q107" s="12">
-        <v>17</v>
+        <v>300</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
@@ -4932,7 +4953,7 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
@@ -4949,14 +4970,14 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>299</v>
+        <v>286</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>49</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q108" s="12">
-        <v>17</v>
+        <v>281</v>
       </c>
     </row>
     <row r="109" ht="25.5" customHeight="1">
@@ -4965,14 +4986,14 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>274</v>
+        <v>65</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -4982,11 +5003,11 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>277</v>
+        <v>303</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>15</v>
+        <v>304</v>
       </c>
       <c t="s" r="Q109" s="12">
         <v>17</v>
@@ -4998,14 +5019,14 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>267</v>
+        <v>25</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
@@ -5015,11 +5036,11 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>303</v>
+        <v>49</v>
       </c>
       <c t="s" r="Q110" s="12">
         <v>17</v>
@@ -5031,14 +5052,14 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>78</v>
+        <v>281</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
@@ -5048,11 +5069,11 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>216</v>
+        <v>284</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>217</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q111" s="12">
         <v>17</v>
@@ -5064,14 +5085,14 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>267</v>
+        <v>274</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
@@ -5081,11 +5102,11 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>33</v>
+        <v>309</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>34</v>
+        <v>310</v>
       </c>
       <c t="s" r="Q112" s="12">
         <v>17</v>
@@ -5097,14 +5118,14 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>306</v>
+        <v>311</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>267</v>
+        <v>78</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
@@ -5114,11 +5135,11 @@
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>268</v>
+        <v>216</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>269</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q113" s="12">
         <v>17</v>
@@ -5130,14 +5151,14 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>307</v>
+        <v>312</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>293</v>
+        <v>274</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
@@ -5147,11 +5168,11 @@
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>277</v>
+        <v>33</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c t="s" r="Q114" s="12">
         <v>17</v>
@@ -5163,14 +5184,14 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>308</v>
+        <v>313</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>25</v>
+        <v>274</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
@@ -5180,14 +5201,14 @@
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>22</v>
+        <v>275</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>158</v>
+        <v>276</v>
       </c>
       <c t="s" r="Q115" s="12">
-        <v>65</v>
+        <v>17</v>
       </c>
     </row>
     <row r="116" ht="25.5" customHeight="1">
@@ -5196,14 +5217,14 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>309</v>
+        <v>314</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>81</v>
+        <v>300</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
@@ -5213,11 +5234,11 @@
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>122</v>
+        <v>284</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>158</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q116" s="12">
         <v>17</v>
@@ -5229,14 +5250,14 @@
       </c>
       <c r="B117" s="7"/>
       <c t="s" r="C117" s="8">
-        <v>310</v>
+        <v>315</v>
       </c>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>65</v>
+        <v>25</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
@@ -5250,10 +5271,10 @@
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>198</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q117" s="12">
-        <v>81</v>
+        <v>65</v>
       </c>
     </row>
     <row r="118" ht="24.75" customHeight="1">
@@ -5262,14 +5283,14 @@
       </c>
       <c r="B118" s="7"/>
       <c t="s" r="C118" s="8">
-        <v>311</v>
+        <v>316</v>
       </c>
       <c r="D118" s="8"/>
       <c r="E118" s="8"/>
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>312</v>
+        <v>81</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
@@ -5279,11 +5300,11 @@
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>155</v>
+        <v>122</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>208</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q118" s="12">
         <v>17</v>
@@ -5295,14 +5316,14 @@
       </c>
       <c r="B119" s="7"/>
       <c t="s" r="C119" s="8">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="D119" s="8"/>
       <c r="E119" s="8"/>
       <c r="F119" s="8"/>
       <c r="G119" s="8"/>
       <c t="s" r="H119" s="9">
-        <v>36</v>
+        <v>65</v>
       </c>
       <c r="I119" s="9"/>
       <c r="J119" s="9"/>
@@ -5312,14 +5333,14 @@
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>122</v>
+        <v>22</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
         <v>198</v>
       </c>
       <c t="s" r="Q119" s="12">
-        <v>65</v>
+        <v>81</v>
       </c>
     </row>
     <row r="120" ht="24.75" customHeight="1">
@@ -5328,14 +5349,14 @@
       </c>
       <c r="B120" s="7"/>
       <c t="s" r="C120" s="8">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="D120" s="8"/>
       <c r="E120" s="8"/>
       <c r="F120" s="8"/>
       <c r="G120" s="8"/>
       <c t="s" r="H120" s="9">
-        <v>36</v>
+        <v>319</v>
       </c>
       <c r="I120" s="9"/>
       <c r="J120" s="9"/>
@@ -5345,11 +5366,11 @@
       </c>
       <c r="M120" s="10"/>
       <c t="s" r="N120" s="8">
-        <v>315</v>
+        <v>155</v>
       </c>
       <c r="O120" s="8"/>
       <c t="s" r="P120" s="11">
-        <v>316</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q120" s="12">
         <v>17</v>
@@ -5361,14 +5382,14 @@
       </c>
       <c r="B121" s="7"/>
       <c t="s" r="C121" s="8">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="D121" s="8"/>
       <c r="E121" s="8"/>
       <c r="F121" s="8"/>
       <c r="G121" s="8"/>
       <c t="s" r="H121" s="9">
-        <v>83</v>
+        <v>36</v>
       </c>
       <c r="I121" s="9"/>
       <c r="J121" s="9"/>
@@ -5378,49 +5399,115 @@
       </c>
       <c r="M121" s="10"/>
       <c t="s" r="N121" s="8">
-        <v>14</v>
+        <v>122</v>
       </c>
       <c r="O121" s="8"/>
       <c t="s" r="P121" s="11">
+        <v>198</v>
+      </c>
+      <c t="s" r="Q121" s="12">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="122" ht="25.5" customHeight="1">
+      <c r="A122" s="7">
+        <v>116</v>
+      </c>
+      <c r="B122" s="7"/>
+      <c t="s" r="C122" s="8">
+        <v>321</v>
+      </c>
+      <c r="D122" s="8"/>
+      <c r="E122" s="8"/>
+      <c r="F122" s="8"/>
+      <c r="G122" s="8"/>
+      <c t="s" r="H122" s="9">
+        <v>36</v>
+      </c>
+      <c r="I122" s="9"/>
+      <c r="J122" s="9"/>
+      <c r="K122" s="9"/>
+      <c t="s" r="L122" s="10">
+        <v>26</v>
+      </c>
+      <c r="M122" s="10"/>
+      <c t="s" r="N122" s="8">
+        <v>322</v>
+      </c>
+      <c r="O122" s="8"/>
+      <c t="s" r="P122" s="11">
+        <v>323</v>
+      </c>
+      <c t="s" r="Q122" s="12">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="123" ht="24.75" customHeight="1">
+      <c r="A123" s="7">
+        <v>117</v>
+      </c>
+      <c r="B123" s="7"/>
+      <c t="s" r="C123" s="8">
+        <v>324</v>
+      </c>
+      <c r="D123" s="8"/>
+      <c r="E123" s="8"/>
+      <c r="F123" s="8"/>
+      <c r="G123" s="8"/>
+      <c t="s" r="H123" s="9">
+        <v>83</v>
+      </c>
+      <c r="I123" s="9"/>
+      <c r="J123" s="9"/>
+      <c r="K123" s="9"/>
+      <c t="s" r="L123" s="10">
+        <v>26</v>
+      </c>
+      <c r="M123" s="10"/>
+      <c t="s" r="N123" s="8">
+        <v>14</v>
+      </c>
+      <c r="O123" s="8"/>
+      <c t="s" r="P123" s="11">
         <v>93</v>
       </c>
-      <c t="s" r="Q121" s="12">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="122" ht="25.5" customHeight="1">
-      <c r="P122" s="13">
-        <v>7746.25</v>
-      </c>
-      <c r="Q122" s="13"/>
-    </row>
-    <row r="123" ht="16.5" customHeight="1">
-      <c t="s" r="A123" s="14">
-        <v>318</v>
-      </c>
-      <c r="B123" s="14"/>
-      <c r="C123" s="14"/>
-      <c r="D123" s="14"/>
-      <c r="E123" s="14"/>
-      <c r="F123" s="14"/>
-      <c t="s" r="G123" s="15">
-        <v>319</v>
-      </c>
-      <c r="H123" s="15"/>
-      <c r="I123" s="15"/>
-      <c r="J123" s="16"/>
-      <c t="s" r="K123" s="17">
-        <v>320</v>
-      </c>
-      <c r="L123" s="17"/>
-      <c r="M123" s="17"/>
-      <c r="N123" s="17"/>
-      <c r="O123" s="17"/>
-      <c r="P123" s="17"/>
-      <c r="Q123" s="17"/>
+      <c t="s" r="Q123" s="12">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="124" ht="25.5" customHeight="1">
+      <c r="P124" s="13">
+        <v>7831.7700000000004</v>
+      </c>
+      <c r="Q124" s="13"/>
+    </row>
+    <row r="125" ht="16.5" customHeight="1">
+      <c t="s" r="A125" s="14">
+        <v>325</v>
+      </c>
+      <c r="B125" s="14"/>
+      <c r="C125" s="14"/>
+      <c r="D125" s="14"/>
+      <c r="E125" s="14"/>
+      <c r="F125" s="14"/>
+      <c t="s" r="G125" s="15">
+        <v>326</v>
+      </c>
+      <c r="H125" s="15"/>
+      <c r="I125" s="15"/>
+      <c r="J125" s="16"/>
+      <c t="s" r="K125" s="17">
+        <v>327</v>
+      </c>
+      <c r="L125" s="17"/>
+      <c r="M125" s="17"/>
+      <c r="N125" s="17"/>
+      <c r="O125" s="17"/>
+      <c r="P125" s="17"/>
+      <c r="Q125" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="587">
+  <mergeCells count="597">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -6004,10 +6091,20 @@
     <mergeCell ref="H121:K121"/>
     <mergeCell ref="L121:M121"/>
     <mergeCell ref="N121:O121"/>
-    <mergeCell ref="P122:Q122"/>
-    <mergeCell ref="A123:F123"/>
-    <mergeCell ref="G123:I123"/>
-    <mergeCell ref="K123:Q123"/>
+    <mergeCell ref="A122:B122"/>
+    <mergeCell ref="C122:G122"/>
+    <mergeCell ref="H122:K122"/>
+    <mergeCell ref="L122:M122"/>
+    <mergeCell ref="N122:O122"/>
+    <mergeCell ref="A123:B123"/>
+    <mergeCell ref="C123:G123"/>
+    <mergeCell ref="H123:K123"/>
+    <mergeCell ref="L123:M123"/>
+    <mergeCell ref="N123:O123"/>
+    <mergeCell ref="P124:Q124"/>
+    <mergeCell ref="A125:F125"/>
+    <mergeCell ref="G125:I125"/>
+    <mergeCell ref="K125:Q125"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-30_00-00.xlsx
+++ b/DaySale_2025-09-30_00-00.xlsx
@@ -44,7 +44,7 @@
     <t>عدد التعااملات</t>
   </si>
   <si>
-    <t>Wednesday, 1 October, 2025 12:07 AM</t>
+    <t>Wednesday, 1 October, 2025 12:08 AM</t>
   </si>
   <si>
     <t>1/1</t>
